--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC305"/>
+  <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6703695</v>
+        <v>6703696</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="L124">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>3.3</v>
+        <v>1.833</v>
       </c>
       <c r="N124">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="O124">
         <v>3.6</v>
       </c>
       <c r="P124">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q124">
+        <v>0.75</v>
+      </c>
+      <c r="R124">
+        <v>1.875</v>
+      </c>
+      <c r="S124">
+        <v>1.975</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
+        <v>1.975</v>
+      </c>
+      <c r="V124">
+        <v>1.875</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z124">
         <v>-0.5</v>
       </c>
-      <c r="R124">
-        <v>1.925</v>
-      </c>
-      <c r="S124">
-        <v>1.925</v>
-      </c>
-      <c r="T124">
-        <v>2.75</v>
-      </c>
-      <c r="U124">
-        <v>2</v>
-      </c>
-      <c r="V124">
-        <v>1.85</v>
-      </c>
-      <c r="W124">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>0.925</v>
-      </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6627749</v>
+        <v>6703695</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K125">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L125">
         <v>3.3</v>
       </c>
       <c r="M125">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N125">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O125">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X125">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA125">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6703696</v>
+        <v>6627749</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K126">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M126">
-        <v>1.833</v>
+        <v>4.333</v>
       </c>
       <c r="N126">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="O126">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P126">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="Q126">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S126">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y126">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
         <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB126">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7626378</v>
+        <v>7626381</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27064,49 +27064,49 @@
         <v>28</v>
       </c>
       <c r="E299" s="2">
-        <v>45339.29166666666</v>
+        <v>45339.5</v>
       </c>
       <c r="F299" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G299" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K299">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="L299">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M299">
-        <v>1.6</v>
+        <v>1.533</v>
       </c>
       <c r="N299">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="O299">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P299">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="Q299">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R299">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S299">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T299">
         <v>2.25</v>
       </c>
       <c r="U299">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V299">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W299">
         <v>0</v>
@@ -27129,7 +27129,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7626376</v>
+        <v>7626377</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27138,49 +27138,49 @@
         <v>28</v>
       </c>
       <c r="E300" s="2">
-        <v>45339.39583333334</v>
+        <v>45340.32291666666</v>
       </c>
       <c r="F300" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G300" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K300">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="L300">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M300">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="N300">
-        <v>1.833</v>
+        <v>6</v>
       </c>
       <c r="O300">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P300">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="Q300">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R300">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S300">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T300">
         <v>2.25</v>
       </c>
       <c r="U300">
+        <v>1.8</v>
+      </c>
+      <c r="V300">
         <v>2.05</v>
-      </c>
-      <c r="V300">
-        <v>1.8</v>
       </c>
       <c r="W300">
         <v>0</v>
@@ -27203,7 +27203,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7626381</v>
+        <v>7626380</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27212,49 +27212,49 @@
         <v>28</v>
       </c>
       <c r="E301" s="2">
-        <v>45339.5</v>
+        <v>45340.42708333334</v>
       </c>
       <c r="F301" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G301" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K301">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="L301">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M301">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="N301">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="O301">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P301">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="Q301">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R301">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S301">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T301">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U301">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V301">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W301">
         <v>0</v>
@@ -27277,7 +27277,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7626377</v>
+        <v>7626374</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27286,49 +27286,49 @@
         <v>28</v>
       </c>
       <c r="E302" s="2">
-        <v>45340.32291666666</v>
+        <v>45340.53125</v>
       </c>
       <c r="F302" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G302" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K302">
-        <v>5.5</v>
+        <v>1.083</v>
       </c>
       <c r="L302">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="M302">
-        <v>1.571</v>
+        <v>29</v>
       </c>
       <c r="N302">
-        <v>6</v>
+        <v>1.125</v>
       </c>
       <c r="O302">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="P302">
-        <v>1.571</v>
+        <v>21</v>
       </c>
       <c r="Q302">
-        <v>1</v>
+        <v>-2.25</v>
       </c>
       <c r="R302">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S302">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T302">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U302">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V302">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W302">
         <v>0</v>
@@ -27351,7 +27351,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7626380</v>
+        <v>7626375</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27360,49 +27360,49 @@
         <v>28</v>
       </c>
       <c r="E303" s="2">
-        <v>45340.42708333334</v>
+        <v>45341.45833333334</v>
       </c>
       <c r="F303" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G303" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K303">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="L303">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M303">
-        <v>2.8</v>
+        <v>5.75</v>
       </c>
       <c r="N303">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="O303">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P303">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q303">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R303">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S303">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T303">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U303">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V303">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W303">
         <v>0</v>
@@ -27417,154 +27417,6 @@
         <v>0</v>
       </c>
       <c r="AA303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:29">
-      <c r="A304" s="1">
-        <v>302</v>
-      </c>
-      <c r="B304">
-        <v>7626374</v>
-      </c>
-      <c r="C304" t="s">
-        <v>28</v>
-      </c>
-      <c r="D304" t="s">
-        <v>28</v>
-      </c>
-      <c r="E304" s="2">
-        <v>45340.53125</v>
-      </c>
-      <c r="F304" t="s">
-        <v>40</v>
-      </c>
-      <c r="G304" t="s">
-        <v>41</v>
-      </c>
-      <c r="K304">
-        <v>1.083</v>
-      </c>
-      <c r="L304">
-        <v>9.5</v>
-      </c>
-      <c r="M304">
-        <v>29</v>
-      </c>
-      <c r="N304">
-        <v>1.125</v>
-      </c>
-      <c r="O304">
-        <v>8.5</v>
-      </c>
-      <c r="P304">
-        <v>21</v>
-      </c>
-      <c r="Q304">
-        <v>-2.25</v>
-      </c>
-      <c r="R304">
-        <v>1.95</v>
-      </c>
-      <c r="S304">
-        <v>1.9</v>
-      </c>
-      <c r="T304">
-        <v>3</v>
-      </c>
-      <c r="U304">
-        <v>1.925</v>
-      </c>
-      <c r="V304">
-        <v>1.925</v>
-      </c>
-      <c r="W304">
-        <v>0</v>
-      </c>
-      <c r="X304">
-        <v>0</v>
-      </c>
-      <c r="Y304">
-        <v>0</v>
-      </c>
-      <c r="Z304">
-        <v>0</v>
-      </c>
-      <c r="AA304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:27">
-      <c r="A305" s="1">
-        <v>303</v>
-      </c>
-      <c r="B305">
-        <v>7626375</v>
-      </c>
-      <c r="C305" t="s">
-        <v>28</v>
-      </c>
-      <c r="D305" t="s">
-        <v>28</v>
-      </c>
-      <c r="E305" s="2">
-        <v>45341.45833333334</v>
-      </c>
-      <c r="F305" t="s">
-        <v>43</v>
-      </c>
-      <c r="G305" t="s">
-        <v>39</v>
-      </c>
-      <c r="K305">
-        <v>1.533</v>
-      </c>
-      <c r="L305">
-        <v>4.2</v>
-      </c>
-      <c r="M305">
-        <v>5.75</v>
-      </c>
-      <c r="N305">
-        <v>1.55</v>
-      </c>
-      <c r="O305">
-        <v>4.2</v>
-      </c>
-      <c r="P305">
-        <v>6</v>
-      </c>
-      <c r="Q305">
-        <v>-1</v>
-      </c>
-      <c r="R305">
-        <v>2.025</v>
-      </c>
-      <c r="S305">
-        <v>1.825</v>
-      </c>
-      <c r="T305">
-        <v>2.25</v>
-      </c>
-      <c r="U305">
-        <v>1.85</v>
-      </c>
-      <c r="V305">
-        <v>2</v>
-      </c>
-      <c r="W305">
-        <v>0</v>
-      </c>
-      <c r="X305">
-        <v>0</v>
-      </c>
-      <c r="Y305">
-        <v>0</v>
-      </c>
-      <c r="Z305">
-        <v>0</v>
-      </c>
-      <c r="AA305">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC303"/>
+  <dimension ref="A1:AC302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7626381</v>
+        <v>7626377</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27064,49 +27064,49 @@
         <v>28</v>
       </c>
       <c r="E299" s="2">
-        <v>45339.5</v>
+        <v>45340.32291666666</v>
       </c>
       <c r="F299" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G299" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K299">
+        <v>5.5</v>
+      </c>
+      <c r="L299">
+        <v>4</v>
+      </c>
+      <c r="M299">
+        <v>1.571</v>
+      </c>
+      <c r="N299">
         <v>5.75</v>
       </c>
-      <c r="L299">
-        <v>4.2</v>
-      </c>
-      <c r="M299">
-        <v>1.533</v>
-      </c>
-      <c r="N299">
-        <v>7</v>
-      </c>
       <c r="O299">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P299">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="Q299">
         <v>1</v>
       </c>
       <c r="R299">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S299">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T299">
         <v>2.25</v>
       </c>
       <c r="U299">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V299">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W299">
         <v>0</v>
@@ -27129,7 +27129,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7626377</v>
+        <v>7626380</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27138,43 +27138,43 @@
         <v>28</v>
       </c>
       <c r="E300" s="2">
-        <v>45340.32291666666</v>
+        <v>45340.42708333334</v>
       </c>
       <c r="F300" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G300" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K300">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L300">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M300">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="N300">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="O300">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P300">
-        <v>1.571</v>
+        <v>3.7</v>
       </c>
       <c r="Q300">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R300">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S300">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T300">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U300">
         <v>1.8</v>
@@ -27203,7 +27203,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7626380</v>
+        <v>7626374</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27212,49 +27212,49 @@
         <v>28</v>
       </c>
       <c r="E301" s="2">
-        <v>45340.42708333334</v>
+        <v>45340.53125</v>
       </c>
       <c r="F301" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G301" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K301">
-        <v>2.5</v>
+        <v>1.083</v>
       </c>
       <c r="L301">
-        <v>3.2</v>
+        <v>9.5</v>
       </c>
       <c r="M301">
-        <v>2.8</v>
+        <v>29</v>
       </c>
       <c r="N301">
-        <v>2.1</v>
+        <v>1.125</v>
       </c>
       <c r="O301">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="P301">
-        <v>3.7</v>
+        <v>21</v>
       </c>
       <c r="Q301">
-        <v>-0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R301">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S301">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T301">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U301">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V301">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W301">
         <v>0</v>
@@ -27277,7 +27277,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7626374</v>
+        <v>7626375</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27286,49 +27286,49 @@
         <v>28</v>
       </c>
       <c r="E302" s="2">
-        <v>45340.53125</v>
+        <v>45341.45833333334</v>
       </c>
       <c r="F302" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G302" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K302">
-        <v>1.083</v>
+        <v>1.533</v>
       </c>
       <c r="L302">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="M302">
-        <v>29</v>
+        <v>5.75</v>
       </c>
       <c r="N302">
-        <v>1.125</v>
+        <v>1.6</v>
       </c>
       <c r="O302">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="P302">
-        <v>21</v>
+        <v>5.5</v>
       </c>
       <c r="Q302">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R302">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S302">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T302">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U302">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V302">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W302">
         <v>0</v>
@@ -27343,80 +27343,6 @@
         <v>0</v>
       </c>
       <c r="AA302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:29">
-      <c r="A303" s="1">
-        <v>301</v>
-      </c>
-      <c r="B303">
-        <v>7626375</v>
-      </c>
-      <c r="C303" t="s">
-        <v>28</v>
-      </c>
-      <c r="D303" t="s">
-        <v>28</v>
-      </c>
-      <c r="E303" s="2">
-        <v>45341.45833333334</v>
-      </c>
-      <c r="F303" t="s">
-        <v>43</v>
-      </c>
-      <c r="G303" t="s">
-        <v>39</v>
-      </c>
-      <c r="K303">
-        <v>1.533</v>
-      </c>
-      <c r="L303">
-        <v>4.2</v>
-      </c>
-      <c r="M303">
-        <v>5.75</v>
-      </c>
-      <c r="N303">
-        <v>1.6</v>
-      </c>
-      <c r="O303">
-        <v>4.2</v>
-      </c>
-      <c r="P303">
-        <v>5.5</v>
-      </c>
-      <c r="Q303">
-        <v>-1</v>
-      </c>
-      <c r="R303">
-        <v>2.05</v>
-      </c>
-      <c r="S303">
-        <v>1.8</v>
-      </c>
-      <c r="T303">
-        <v>2.25</v>
-      </c>
-      <c r="U303">
-        <v>1.85</v>
-      </c>
-      <c r="V303">
-        <v>2</v>
-      </c>
-      <c r="W303">
-        <v>0</v>
-      </c>
-      <c r="X303">
-        <v>0</v>
-      </c>
-      <c r="Y303">
-        <v>0</v>
-      </c>
-      <c r="Z303">
-        <v>0</v>
-      </c>
-      <c r="AA303">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>CSKA 1948 Sofia</t>
+    <t>Levski Sofia</t>
   </si>
   <si>
-    <t>Levski Sofia</t>
+    <t>CSKA 1948 Sofia</t>
   </si>
   <si>
     <t>Spartak Varna</t>
@@ -160,10 +160,10 @@
     <t>D</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC302"/>
+  <dimension ref="A1:AC309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6188477</v>
+        <v>6188475</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
       <c r="K3">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="L3">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>9</v>
+        <v>3.9</v>
       </c>
       <c r="N3">
-        <v>1.181</v>
+        <v>1.65</v>
       </c>
       <c r="O3">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Q3">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6188475</v>
+        <v>6188477</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,73 +815,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
       <c r="K4">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M4">
-        <v>3.9</v>
+        <v>9</v>
       </c>
       <c r="N4">
-        <v>1.65</v>
+        <v>1.181</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="P4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -913,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>11</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>2.7</v>
@@ -1091,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>5.25</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
         <v>1.533</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10">
         <v>2.25</v>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>1.533</v>
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14">
         <v>5.75</v>
@@ -1794,7 +1794,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16">
         <v>1.285</v>
@@ -2058,7 +2058,7 @@
         <v>44982.3125</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>37</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18">
         <v>1.615</v>
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19">
         <v>2.15</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20">
         <v>1.666</v>
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K21">
         <v>1.444</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
         <v>1.85</v>
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
         <v>7</v>
@@ -2604,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
         <v>3.75</v>
@@ -2681,7 +2681,7 @@
         <v>44985.53125</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2773,7 +2773,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26">
         <v>3.75</v>
@@ -2871,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
         <v>1.75</v>
@@ -2960,7 +2960,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28">
         <v>1.85</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
         <v>3.3</v>
@@ -3218,7 +3218,7 @@
         <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>7</v>
@@ -3316,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32">
         <v>1.1</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
         <v>1.5</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34">
         <v>3.25</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
         <v>1.909</v>
@@ -3672,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
         <v>2.25</v>
@@ -3749,7 +3749,7 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>1.166</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38">
         <v>2.4</v>
@@ -3939,7 +3939,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
         <v>1.333</v>
@@ -4016,7 +4016,7 @@
         <v>44997.48958333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>40</v>
@@ -4028,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40">
         <v>2.6</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42">
         <v>1.6</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43">
         <v>2.45</v>
@@ -4375,7 +4375,7 @@
         <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4384,7 +4384,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44">
         <v>4.2</v>
@@ -4473,7 +4473,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K45">
         <v>11</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46">
         <v>1.166</v>
@@ -4731,7 +4731,7 @@
         <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4740,7 +4740,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48">
         <v>2.9</v>
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -5007,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K51">
         <v>1.09</v>
@@ -5084,7 +5084,7 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>38</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K52">
         <v>1.333</v>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K53">
         <v>4.75</v>
@@ -5274,7 +5274,7 @@
         <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K54">
         <v>2.4</v>
@@ -5363,7 +5363,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55">
         <v>4</v>
@@ -5529,7 +5529,7 @@
         <v>45026.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
         <v>29</v>
@@ -5541,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K57">
         <v>1.7</v>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K59">
         <v>1.909</v>
@@ -5799,7 +5799,7 @@
         <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5808,7 +5808,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K60">
         <v>6.5</v>
@@ -5897,7 +5897,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K61">
         <v>6.5</v>
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62">
         <v>2.4</v>
@@ -6155,7 +6155,7 @@
         <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K65">
         <v>1.909</v>
@@ -6342,7 +6342,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66">
         <v>4</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67">
         <v>1.142</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
         <v>4.5</v>
@@ -6597,7 +6597,7 @@
         <v>45038.5625</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
         <v>35</v>
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K69">
         <v>1.8</v>
@@ -6698,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K70">
         <v>7.5</v>
@@ -6775,7 +6775,7 @@
         <v>45039.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71">
         <v>1.25</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72">
         <v>1.833</v>
@@ -7054,7 +7054,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74">
         <v>2.75</v>
@@ -7143,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
         <v>1.444</v>
@@ -7232,7 +7232,7 @@
         <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K76">
         <v>1.4</v>
@@ -7401,7 +7401,7 @@
         <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7410,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K78">
         <v>3</v>
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7579,7 +7579,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K81">
         <v>2.6</v>
@@ -7766,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K82">
         <v>2.4</v>
@@ -7935,7 +7935,7 @@
         <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K86">
         <v>1.125</v>
@@ -8211,7 +8211,7 @@
         <v>4</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K87">
         <v>3.4</v>
@@ -8300,7 +8300,7 @@
         <v>4</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K88">
         <v>10</v>
@@ -8377,7 +8377,7 @@
         <v>45050.60416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
         <v>33</v>
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K89">
         <v>1.25</v>
@@ -8555,7 +8555,7 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>36</v>
@@ -8567,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
         <v>1.5</v>
@@ -8656,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -8745,7 +8745,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K93">
         <v>1.4</v>
@@ -8834,7 +8834,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94">
         <v>7</v>
@@ -8923,7 +8923,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K95">
         <v>1.75</v>
@@ -9003,7 +9003,7 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K96">
         <v>3.3</v>
@@ -9101,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K97">
         <v>1.1</v>
@@ -9190,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K98">
         <v>1.909</v>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K99">
         <v>1.909</v>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
         <v>2.1</v>
@@ -9546,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K102">
         <v>1.8</v>
@@ -9623,10 +9623,10 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F103" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" t="s">
         <v>30</v>
-      </c>
-      <c r="G103" t="s">
-        <v>31</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K104">
         <v>1.727</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K105">
         <v>1.222</v>
@@ -9991,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K107">
         <v>1.8</v>
@@ -10071,7 +10071,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K110">
         <v>2.3</v>
@@ -10338,7 +10338,7 @@
         <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10347,7 +10347,7 @@
         <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K111">
         <v>4.5</v>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K112">
         <v>2.15</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K113">
         <v>2.625</v>
@@ -10703,7 +10703,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K115">
         <v>1.909</v>
@@ -10881,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K117">
         <v>2.4</v>
@@ -10958,7 +10958,7 @@
         <v>45072.60416666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>39</v>
@@ -10970,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K118">
         <v>1.533</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
         <v>1.363</v>
@@ -11225,7 +11225,7 @@
         <v>45074.625</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
         <v>43</v>
@@ -11326,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K122">
         <v>3.4</v>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6703696</v>
+        <v>6703695</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>49</v>
       </c>
       <c r="K124">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="N124">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="O124">
         <v>3.6</v>
       </c>
       <c r="P124">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="Q124">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA124">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6703695</v>
+        <v>6703696</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
         <v>48</v>
       </c>
       <c r="K125">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="L125">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>3.3</v>
+        <v>1.833</v>
       </c>
       <c r="N125">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="O125">
         <v>3.6</v>
       </c>
       <c r="P125">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q125">
+        <v>0.75</v>
+      </c>
+      <c r="R125">
+        <v>1.875</v>
+      </c>
+      <c r="S125">
+        <v>1.975</v>
+      </c>
+      <c r="T125">
+        <v>2.25</v>
+      </c>
+      <c r="U125">
+        <v>1.975</v>
+      </c>
+      <c r="V125">
+        <v>1.875</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z125">
         <v>-0.5</v>
       </c>
-      <c r="R125">
-        <v>1.925</v>
-      </c>
-      <c r="S125">
-        <v>1.925</v>
-      </c>
-      <c r="T125">
-        <v>2.75</v>
-      </c>
-      <c r="U125">
-        <v>2</v>
-      </c>
-      <c r="V125">
-        <v>1.85</v>
-      </c>
-      <c r="W125">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>0.925</v>
-      </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC125">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11771,7 +11771,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>2.2</v>
@@ -11860,7 +11860,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K128">
         <v>1.95</v>
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K129">
         <v>2.8</v>
@@ -12029,7 +12029,7 @@
         <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12118,7 +12118,7 @@
         <v>43</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12127,7 +12127,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K131">
         <v>1.615</v>
@@ -12216,7 +12216,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K132">
         <v>2</v>
@@ -12305,7 +12305,7 @@
         <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K133">
         <v>5.25</v>
@@ -12394,7 +12394,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K134">
         <v>1.5</v>
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6627725</v>
+        <v>6627290</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,56 +12471,56 @@
         <v>45084.53125</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K135">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M135">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="N135">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="O135">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P135">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>1.85</v>
+      </c>
+      <c r="T135">
+        <v>2.75</v>
+      </c>
+      <c r="U135">
         <v>1.825</v>
       </c>
-      <c r="S135">
+      <c r="V135">
         <v>2.025</v>
       </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
-      <c r="U135">
-        <v>1.85</v>
-      </c>
-      <c r="V135">
-        <v>2</v>
-      </c>
       <c r="W135">
         <v>-1</v>
       </c>
@@ -12528,19 +12528,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA135">
+        <v>-0</v>
+      </c>
+      <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
         <v>1.025</v>
-      </c>
-      <c r="AB135">
-        <v>-0.5</v>
-      </c>
-      <c r="AC135">
-        <v>0.5</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>45084.53125</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
         <v>35</v>
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6627290</v>
+        <v>6627725</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,55 +12649,55 @@
         <v>45084.53125</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K137">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M137">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="N137">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="O137">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P137">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
+        <v>2.025</v>
+      </c>
+      <c r="T137">
+        <v>2.25</v>
+      </c>
+      <c r="U137">
         <v>1.85</v>
       </c>
-      <c r="T137">
-        <v>2.75</v>
-      </c>
-      <c r="U137">
-        <v>1.825</v>
-      </c>
       <c r="V137">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12706,19 +12706,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.55</v>
+        <v>1.8</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12738,7 +12738,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G138" t="s">
         <v>37</v>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K138">
         <v>1.6</v>
@@ -12839,7 +12839,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
         <v>2.5</v>
@@ -12928,7 +12928,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
         <v>11</v>
@@ -13005,11 +13005,11 @@
         <v>45122.53125</v>
       </c>
       <c r="F141" t="s">
+        <v>30</v>
+      </c>
+      <c r="G141" t="s">
         <v>31</v>
       </c>
-      <c r="G141" t="s">
-        <v>30</v>
-      </c>
       <c r="H141">
         <v>1</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K141">
         <v>2.3</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
         <v>2</v>
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K146">
         <v>2.8</v>
@@ -13539,7 +13539,7 @@
         <v>45128.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
         <v>42</v>
@@ -13551,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K147">
         <v>1.142</v>
@@ -13640,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K148">
         <v>1.25</v>
@@ -13720,7 +13720,7 @@
         <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13729,7 +13729,7 @@
         <v>3</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K149">
         <v>3.6</v>
@@ -13818,7 +13818,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K150">
         <v>1.1</v>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K151">
         <v>1.5</v>
@@ -13996,7 +13996,7 @@
         <v>4</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K152">
         <v>3</v>
@@ -14085,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K153">
         <v>3.6</v>
@@ -14174,7 +14174,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K154">
         <v>3.8</v>
@@ -14263,7 +14263,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K155">
         <v>4.2</v>
@@ -14352,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K156">
         <v>2.4</v>
@@ -14518,7 +14518,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14530,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K158">
         <v>1.25</v>
@@ -14619,7 +14619,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K159">
         <v>1.4</v>
@@ -14708,7 +14708,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K160">
         <v>1.444</v>
@@ -14797,7 +14797,7 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K161">
         <v>2</v>
@@ -14886,7 +14886,7 @@
         <v>5</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K162">
         <v>7.5</v>
@@ -14975,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K163">
         <v>1.85</v>
@@ -15144,7 +15144,7 @@
         <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15153,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K165">
         <v>3</v>
@@ -15230,7 +15230,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
         <v>44</v>
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K167">
         <v>1.909</v>
@@ -15420,7 +15420,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K168">
         <v>1.75</v>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K169">
         <v>4</v>
@@ -15598,7 +15598,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K170">
         <v>3.6</v>
@@ -15687,7 +15687,7 @@
         <v>5</v>
       </c>
       <c r="J171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K171">
         <v>2.4</v>
@@ -15764,7 +15764,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
         <v>41</v>
@@ -15776,7 +15776,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K172">
         <v>1.166</v>
@@ -15865,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K173">
         <v>1.85</v>
@@ -16034,7 +16034,7 @@
         <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16043,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K175">
         <v>4.75</v>
@@ -16132,7 +16132,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K176">
         <v>1.909</v>
@@ -16221,7 +16221,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K177">
         <v>2</v>
@@ -16310,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K178">
         <v>2.8</v>
@@ -16399,7 +16399,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K179">
         <v>8.5</v>
@@ -16488,7 +16488,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K180">
         <v>1.5</v>
@@ -16577,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K181">
         <v>3.4</v>
@@ -16654,7 +16654,7 @@
         <v>45159.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
         <v>46</v>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K182">
         <v>1.222</v>
@@ -16755,7 +16755,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K183">
         <v>2.25</v>
@@ -16844,7 +16844,7 @@
         <v>4</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K184">
         <v>3.6</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K185">
         <v>2.05</v>
@@ -17111,7 +17111,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K187">
         <v>2.9</v>
@@ -17200,7 +17200,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K188">
         <v>1.142</v>
@@ -17280,7 +17280,7 @@
         <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17289,7 +17289,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K189">
         <v>3.6</v>
@@ -17378,7 +17378,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K190">
         <v>3.5</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K191">
         <v>4</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K192">
         <v>2.15</v>
@@ -17645,7 +17645,7 @@
         <v>3</v>
       </c>
       <c r="J193" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K193">
         <v>1.909</v>
@@ -17734,7 +17734,7 @@
         <v>3</v>
       </c>
       <c r="J194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K194">
         <v>5</v>
@@ -17823,7 +17823,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K195">
         <v>1.533</v>
@@ -17900,7 +17900,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
         <v>44</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K196">
         <v>1.2</v>
@@ -17989,7 +17989,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G197" t="s">
         <v>42</v>
@@ -18001,7 +18001,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K197">
         <v>1.142</v>
@@ -18090,7 +18090,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K198">
         <v>1.6</v>
@@ -18179,7 +18179,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K199">
         <v>1.571</v>
@@ -18268,7 +18268,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K200">
         <v>2.1</v>
@@ -18446,7 +18446,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K202">
         <v>3.6</v>
@@ -18526,7 +18526,7 @@
         <v>40</v>
       </c>
       <c r="G203" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18535,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K203">
         <v>2</v>
@@ -18624,7 +18624,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K204">
         <v>1.909</v>
@@ -18704,7 +18704,7 @@
         <v>45</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H205">
         <v>2</v>
@@ -18802,7 +18802,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K206">
         <v>2.5</v>
@@ -18879,7 +18879,7 @@
         <v>45191.47916666666</v>
       </c>
       <c r="F207" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
         <v>39</v>
@@ -18980,7 +18980,7 @@
         <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K208">
         <v>3.6</v>
@@ -19069,7 +19069,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K209">
         <v>1.7</v>
@@ -19158,7 +19158,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K210">
         <v>1.8</v>
@@ -19235,7 +19235,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G211" t="s">
         <v>46</v>
@@ -19247,7 +19247,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K211">
         <v>1.25</v>
@@ -19336,7 +19336,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K212">
         <v>2.75</v>
@@ -19425,7 +19425,7 @@
         <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K213">
         <v>8</v>
@@ -19505,7 +19505,7 @@
         <v>34</v>
       </c>
       <c r="G214" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19603,7 +19603,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K215">
         <v>1.833</v>
@@ -19772,7 +19772,7 @@
         <v>36</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -19781,7 +19781,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K217">
         <v>4.333</v>
@@ -19959,7 +19959,7 @@
         <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K219">
         <v>1.909</v>
@@ -20048,7 +20048,7 @@
         <v>3</v>
       </c>
       <c r="J220" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K220">
         <v>3.3</v>
@@ -20137,7 +20137,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K221">
         <v>1.3</v>
@@ -20217,7 +20217,7 @@
         <v>41</v>
       </c>
       <c r="G222" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20226,7 +20226,7 @@
         <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K222">
         <v>7.5</v>
@@ -20315,7 +20315,7 @@
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K223">
         <v>1.85</v>
@@ -20404,7 +20404,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K224">
         <v>1.55</v>
@@ -20570,7 +20570,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G226" t="s">
         <v>43</v>
@@ -20582,7 +20582,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K226">
         <v>3.2</v>
@@ -20849,7 +20849,7 @@
         <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K229">
         <v>3.2</v>
@@ -20938,7 +20938,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K230">
         <v>1.8</v>
@@ -21027,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K231">
         <v>2.2</v>
@@ -21107,7 +21107,7 @@
         <v>40</v>
       </c>
       <c r="G232" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21205,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K233">
         <v>3.5</v>
@@ -21383,7 +21383,7 @@
         <v>5</v>
       </c>
       <c r="J235" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K235">
         <v>2.4</v>
@@ -21460,7 +21460,7 @@
         <v>45207.48958333334</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
         <v>29</v>
@@ -21472,7 +21472,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K236">
         <v>1.75</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K237">
         <v>1.05</v>
@@ -21739,7 +21739,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K239">
         <v>1.5</v>
@@ -21828,7 +21828,7 @@
         <v>5</v>
       </c>
       <c r="J240" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K240">
         <v>3.25</v>
@@ -21908,7 +21908,7 @@
         <v>38</v>
       </c>
       <c r="G241" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -22006,7 +22006,7 @@
         <v>2</v>
       </c>
       <c r="J242" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K242">
         <v>12</v>
@@ -22095,7 +22095,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K243">
         <v>2.625</v>
@@ -22172,7 +22172,7 @@
         <v>45221.4375</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G244" t="s">
         <v>39</v>
@@ -22184,7 +22184,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K244">
         <v>1.7</v>
@@ -22362,7 +22362,7 @@
         <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K246">
         <v>2.3</v>
@@ -22451,7 +22451,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K247">
         <v>1.75</v>
@@ -22540,7 +22540,7 @@
         <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K248">
         <v>1.3</v>
@@ -22617,7 +22617,7 @@
         <v>45225.47916666666</v>
       </c>
       <c r="F249" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G249" t="s">
         <v>35</v>
@@ -22718,7 +22718,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K250">
         <v>2</v>
@@ -22887,7 +22887,7 @@
         <v>34</v>
       </c>
       <c r="G252" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -22896,7 +22896,7 @@
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K252">
         <v>5.5</v>
@@ -22985,7 +22985,7 @@
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K253">
         <v>1.125</v>
@@ -23074,7 +23074,7 @@
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K254">
         <v>10</v>
@@ -23154,7 +23154,7 @@
         <v>37</v>
       </c>
       <c r="G255" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -23252,7 +23252,7 @@
         <v>2</v>
       </c>
       <c r="J256" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K256">
         <v>7.5</v>
@@ -23519,7 +23519,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K259">
         <v>1.222</v>
@@ -23608,7 +23608,7 @@
         <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K260">
         <v>2.1</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K261">
         <v>1.65</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K262">
         <v>1.181</v>
@@ -23875,7 +23875,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K263">
         <v>1.909</v>
@@ -23952,11 +23952,11 @@
         <v>45237.52083333334</v>
       </c>
       <c r="F264" t="s">
+        <v>31</v>
+      </c>
+      <c r="G264" t="s">
         <v>30</v>
       </c>
-      <c r="G264" t="s">
-        <v>31</v>
-      </c>
       <c r="H264">
         <v>1</v>
       </c>
@@ -23964,7 +23964,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K264">
         <v>2.6</v>
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K265">
         <v>1.666</v>
@@ -24142,7 +24142,7 @@
         <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K266">
         <v>1.45</v>
@@ -24311,7 +24311,7 @@
         <v>42</v>
       </c>
       <c r="G268" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H268">
         <v>2</v>
@@ -24320,7 +24320,7 @@
         <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K268">
         <v>6</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K269">
         <v>1.7</v>
@@ -24498,7 +24498,7 @@
         <v>4</v>
       </c>
       <c r="J270" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K270">
         <v>7</v>
@@ -24575,7 +24575,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F271" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G271" t="s">
         <v>29</v>
@@ -24676,7 +24676,7 @@
         <v>4</v>
       </c>
       <c r="J272" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K272">
         <v>11</v>
@@ -24765,7 +24765,7 @@
         <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K273">
         <v>1.909</v>
@@ -24854,7 +24854,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K274">
         <v>4.2</v>
@@ -24943,7 +24943,7 @@
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K275">
         <v>1.444</v>
@@ -25032,7 +25032,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K276">
         <v>1.153</v>
@@ -25121,7 +25121,7 @@
         <v>2</v>
       </c>
       <c r="J277" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K277">
         <v>1.4</v>
@@ -25201,7 +25201,7 @@
         <v>37</v>
       </c>
       <c r="G278" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>3</v>
       </c>
       <c r="J278" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K278">
         <v>2.7</v>
@@ -25299,7 +25299,7 @@
         <v>3</v>
       </c>
       <c r="J279" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K279">
         <v>1.153</v>
@@ -25379,7 +25379,7 @@
         <v>38</v>
       </c>
       <c r="G280" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H280">
         <v>2</v>
@@ -25477,7 +25477,7 @@
         <v>2</v>
       </c>
       <c r="J281" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K281">
         <v>1.95</v>
@@ -25646,7 +25646,7 @@
         <v>44</v>
       </c>
       <c r="G283" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H283">
         <v>1</v>
@@ -25655,7 +25655,7 @@
         <v>3</v>
       </c>
       <c r="J283" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K283">
         <v>4.5</v>
@@ -25744,7 +25744,7 @@
         <v>2</v>
       </c>
       <c r="J284" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K284">
         <v>5</v>
@@ -25821,7 +25821,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F285" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G285" t="s">
         <v>35</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K285">
         <v>1.727</v>
@@ -26011,7 +26011,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K287">
         <v>1.062</v>
@@ -26100,7 +26100,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K288">
         <v>2.4</v>
@@ -26189,7 +26189,7 @@
         <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K289">
         <v>3.75</v>
@@ -26278,7 +26278,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K290">
         <v>1.615</v>
@@ -26358,7 +26358,7 @@
         <v>41</v>
       </c>
       <c r="G291" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H291">
         <v>0</v>
@@ -26367,7 +26367,7 @@
         <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K291">
         <v>7.5</v>
@@ -26444,7 +26444,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F292" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G292" t="s">
         <v>45</v>
@@ -26456,7 +26456,7 @@
         <v>3</v>
       </c>
       <c r="J292" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K292">
         <v>1.333</v>
@@ -26545,7 +26545,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K293">
         <v>1.533</v>
@@ -26634,7 +26634,7 @@
         <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K294">
         <v>2.8</v>
@@ -26723,7 +26723,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K295">
         <v>1.363</v>
@@ -26889,7 +26889,7 @@
         <v>45274.52083333334</v>
       </c>
       <c r="F297" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G297" t="s">
         <v>37</v>
@@ -26901,7 +26901,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K297">
         <v>1.85</v>
@@ -26990,7 +26990,7 @@
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K298">
         <v>2.4</v>
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7626377</v>
+        <v>7626378</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27064,64 +27064,79 @@
         <v>28</v>
       </c>
       <c r="E299" s="2">
-        <v>45340.32291666666</v>
+        <v>45339.29166666666</v>
       </c>
       <c r="F299" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G299" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H299">
+        <v>2</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+      <c r="J299" t="s">
+        <v>49</v>
       </c>
       <c r="K299">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="L299">
         <v>4</v>
       </c>
       <c r="M299">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="N299">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="O299">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P299">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="Q299">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R299">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S299">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T299">
         <v>2.25</v>
       </c>
       <c r="U299">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V299">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W299">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="X299">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y299">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA299">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB299">
+        <v>0.925</v>
+      </c>
+      <c r="AC299">
+        <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27129,7 +27144,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7626380</v>
+        <v>7626376</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27138,34 +27153,43 @@
         <v>28</v>
       </c>
       <c r="E300" s="2">
-        <v>45340.42708333334</v>
+        <v>45339.39583333334</v>
       </c>
       <c r="F300" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G300" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="H300">
+        <v>3</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300" t="s">
+        <v>49</v>
       </c>
       <c r="K300">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L300">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M300">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="N300">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O300">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P300">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q300">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R300">
         <v>1.8</v>
@@ -27177,25 +27201,31 @@
         <v>2</v>
       </c>
       <c r="U300">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V300">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W300">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X300">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y300">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z300">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA300">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB300">
+        <v>0.825</v>
+      </c>
+      <c r="AC300">
+        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27203,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7626374</v>
+        <v>7626381</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27212,64 +27242,79 @@
         <v>28</v>
       </c>
       <c r="E301" s="2">
-        <v>45340.53125</v>
+        <v>45339.5</v>
       </c>
       <c r="F301" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G301" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="H301">
+        <v>1</v>
+      </c>
+      <c r="I301">
+        <v>2</v>
+      </c>
+      <c r="J301" t="s">
+        <v>48</v>
       </c>
       <c r="K301">
-        <v>1.083</v>
+        <v>5.75</v>
       </c>
       <c r="L301">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="M301">
-        <v>29</v>
+        <v>1.533</v>
       </c>
       <c r="N301">
-        <v>1.125</v>
+        <v>6.5</v>
       </c>
       <c r="O301">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="P301">
-        <v>21</v>
+        <v>1.5</v>
       </c>
       <c r="Q301">
-        <v>-2.25</v>
+        <v>1</v>
       </c>
       <c r="R301">
+        <v>2.025</v>
+      </c>
+      <c r="S301">
+        <v>1.825</v>
+      </c>
+      <c r="T301">
+        <v>2.25</v>
+      </c>
+      <c r="U301">
+        <v>1.9</v>
+      </c>
+      <c r="V301">
         <v>1.95</v>
       </c>
-      <c r="S301">
-        <v>1.9</v>
-      </c>
-      <c r="T301">
-        <v>3</v>
-      </c>
-      <c r="U301">
-        <v>1.925</v>
-      </c>
-      <c r="V301">
-        <v>1.925</v>
-      </c>
       <c r="W301">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X301">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y301">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z301">
         <v>0</v>
       </c>
       <c r="AA301">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB301">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC301">
+        <v>-1</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27277,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7626375</v>
+        <v>7626377</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27286,40 +27331,49 @@
         <v>28</v>
       </c>
       <c r="E302" s="2">
-        <v>45341.45833333334</v>
+        <v>45340.32291666666</v>
       </c>
       <c r="F302" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G302" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="H302">
+        <v>1</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+      <c r="J302" t="s">
+        <v>47</v>
       </c>
       <c r="K302">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="L302">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M302">
+        <v>1.571</v>
+      </c>
+      <c r="N302">
         <v>5.75</v>
       </c>
-      <c r="N302">
-        <v>1.6</v>
-      </c>
       <c r="O302">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P302">
-        <v>5.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q302">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R302">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S302">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T302">
         <v>2.25</v>
@@ -27331,18 +27385,572 @@
         <v>2</v>
       </c>
       <c r="W302">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X302">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y302">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA302">
+        <v>-1</v>
+      </c>
+      <c r="AB302">
+        <v>-0.5</v>
+      </c>
+      <c r="AC302">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:29">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>7626380</v>
+      </c>
+      <c r="C303" t="s">
+        <v>28</v>
+      </c>
+      <c r="D303" t="s">
+        <v>28</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45340.42708333334</v>
+      </c>
+      <c r="F303" t="s">
+        <v>37</v>
+      </c>
+      <c r="G303" t="s">
+        <v>35</v>
+      </c>
+      <c r="H303">
+        <v>1</v>
+      </c>
+      <c r="I303">
+        <v>2</v>
+      </c>
+      <c r="J303" t="s">
+        <v>48</v>
+      </c>
+      <c r="K303">
+        <v>2.5</v>
+      </c>
+      <c r="L303">
+        <v>3.2</v>
+      </c>
+      <c r="M303">
+        <v>2.8</v>
+      </c>
+      <c r="N303">
+        <v>2.1</v>
+      </c>
+      <c r="O303">
+        <v>3.3</v>
+      </c>
+      <c r="P303">
+        <v>3.6</v>
+      </c>
+      <c r="Q303">
+        <v>-0.25</v>
+      </c>
+      <c r="R303">
+        <v>1.85</v>
+      </c>
+      <c r="S303">
+        <v>2</v>
+      </c>
+      <c r="T303">
+        <v>2</v>
+      </c>
+      <c r="U303">
+        <v>1.825</v>
+      </c>
+      <c r="V303">
+        <v>2.025</v>
+      </c>
+      <c r="W303">
+        <v>-1</v>
+      </c>
+      <c r="X303">
+        <v>-1</v>
+      </c>
+      <c r="Y303">
+        <v>2.6</v>
+      </c>
+      <c r="Z303">
+        <v>-1</v>
+      </c>
+      <c r="AA303">
+        <v>1</v>
+      </c>
+      <c r="AB303">
+        <v>0.825</v>
+      </c>
+      <c r="AC303">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:29">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>7626374</v>
+      </c>
+      <c r="C304" t="s">
+        <v>28</v>
+      </c>
+      <c r="D304" t="s">
+        <v>28</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45340.53125</v>
+      </c>
+      <c r="F304" t="s">
+        <v>40</v>
+      </c>
+      <c r="G304" t="s">
+        <v>41</v>
+      </c>
+      <c r="H304">
+        <v>3</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304" t="s">
+        <v>49</v>
+      </c>
+      <c r="K304">
+        <v>1.083</v>
+      </c>
+      <c r="L304">
+        <v>9.5</v>
+      </c>
+      <c r="M304">
+        <v>29</v>
+      </c>
+      <c r="N304">
+        <v>1.166</v>
+      </c>
+      <c r="O304">
+        <v>7.5</v>
+      </c>
+      <c r="P304">
+        <v>17</v>
+      </c>
+      <c r="Q304">
+        <v>-2</v>
+      </c>
+      <c r="R304">
+        <v>1.925</v>
+      </c>
+      <c r="S304">
+        <v>1.925</v>
+      </c>
+      <c r="T304">
+        <v>2.75</v>
+      </c>
+      <c r="U304">
+        <v>1.85</v>
+      </c>
+      <c r="V304">
+        <v>2</v>
+      </c>
+      <c r="W304">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X304">
+        <v>-1</v>
+      </c>
+      <c r="Y304">
+        <v>-1</v>
+      </c>
+      <c r="Z304">
+        <v>0.925</v>
+      </c>
+      <c r="AA304">
+        <v>-1</v>
+      </c>
+      <c r="AB304">
+        <v>0.425</v>
+      </c>
+      <c r="AC304">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:27">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>7626375</v>
+      </c>
+      <c r="C305" t="s">
+        <v>28</v>
+      </c>
+      <c r="D305" t="s">
+        <v>28</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45341.45833333334</v>
+      </c>
+      <c r="F305" t="s">
+        <v>43</v>
+      </c>
+      <c r="G305" t="s">
+        <v>39</v>
+      </c>
+      <c r="K305">
+        <v>1.533</v>
+      </c>
+      <c r="L305">
+        <v>4.2</v>
+      </c>
+      <c r="M305">
+        <v>5.75</v>
+      </c>
+      <c r="N305">
+        <v>1.7</v>
+      </c>
+      <c r="O305">
+        <v>4</v>
+      </c>
+      <c r="P305">
+        <v>5</v>
+      </c>
+      <c r="Q305">
+        <v>-0.75</v>
+      </c>
+      <c r="R305">
+        <v>1.875</v>
+      </c>
+      <c r="S305">
+        <v>1.975</v>
+      </c>
+      <c r="T305">
+        <v>2.25</v>
+      </c>
+      <c r="U305">
+        <v>1.85</v>
+      </c>
+      <c r="V305">
+        <v>2</v>
+      </c>
+      <c r="W305">
+        <v>0</v>
+      </c>
+      <c r="X305">
+        <v>0</v>
+      </c>
+      <c r="Y305">
+        <v>0</v>
+      </c>
+      <c r="Z305">
+        <v>0</v>
+      </c>
+      <c r="AA305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:27">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>6978405</v>
+      </c>
+      <c r="C306" t="s">
+        <v>28</v>
+      </c>
+      <c r="D306" t="s">
+        <v>28</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45345.52083333334</v>
+      </c>
+      <c r="F306" t="s">
+        <v>29</v>
+      </c>
+      <c r="G306" t="s">
+        <v>46</v>
+      </c>
+      <c r="K306">
+        <v>1.285</v>
+      </c>
+      <c r="L306">
+        <v>5.5</v>
+      </c>
+      <c r="M306">
+        <v>9.5</v>
+      </c>
+      <c r="N306">
+        <v>1.333</v>
+      </c>
+      <c r="O306">
+        <v>5.25</v>
+      </c>
+      <c r="P306">
+        <v>9</v>
+      </c>
+      <c r="Q306">
+        <v>-1.5</v>
+      </c>
+      <c r="R306">
+        <v>1.975</v>
+      </c>
+      <c r="S306">
+        <v>1.875</v>
+      </c>
+      <c r="T306">
+        <v>2.75</v>
+      </c>
+      <c r="U306">
+        <v>1.95</v>
+      </c>
+      <c r="V306">
+        <v>1.9</v>
+      </c>
+      <c r="W306">
+        <v>0</v>
+      </c>
+      <c r="X306">
+        <v>0</v>
+      </c>
+      <c r="Y306">
+        <v>0</v>
+      </c>
+      <c r="Z306">
+        <v>0</v>
+      </c>
+      <c r="AA306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:27">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>6978383</v>
+      </c>
+      <c r="C307" t="s">
+        <v>28</v>
+      </c>
+      <c r="D307" t="s">
+        <v>28</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45346.32291666666</v>
+      </c>
+      <c r="F307" t="s">
+        <v>35</v>
+      </c>
+      <c r="G307" t="s">
+        <v>44</v>
+      </c>
+      <c r="K307">
+        <v>1.444</v>
+      </c>
+      <c r="L307">
+        <v>4.333</v>
+      </c>
+      <c r="M307">
+        <v>7</v>
+      </c>
+      <c r="N307">
+        <v>1.55</v>
+      </c>
+      <c r="O307">
+        <v>4</v>
+      </c>
+      <c r="P307">
+        <v>5.5</v>
+      </c>
+      <c r="Q307">
+        <v>-0.75</v>
+      </c>
+      <c r="R307">
+        <v>1.725</v>
+      </c>
+      <c r="S307">
+        <v>2.15</v>
+      </c>
+      <c r="T307">
+        <v>2.25</v>
+      </c>
+      <c r="U307">
+        <v>1.8</v>
+      </c>
+      <c r="V307">
+        <v>2.05</v>
+      </c>
+      <c r="W307">
+        <v>0</v>
+      </c>
+      <c r="X307">
+        <v>0</v>
+      </c>
+      <c r="Y307">
+        <v>0</v>
+      </c>
+      <c r="Z307">
+        <v>0</v>
+      </c>
+      <c r="AA307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:27">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>6978403</v>
+      </c>
+      <c r="C308" t="s">
+        <v>28</v>
+      </c>
+      <c r="D308" t="s">
+        <v>28</v>
+      </c>
+      <c r="E308" s="2">
+        <v>45346.53125</v>
+      </c>
+      <c r="F308" t="s">
+        <v>30</v>
+      </c>
+      <c r="G308" t="s">
+        <v>37</v>
+      </c>
+      <c r="K308">
+        <v>1.444</v>
+      </c>
+      <c r="L308">
+        <v>4.2</v>
+      </c>
+      <c r="M308">
+        <v>7.5</v>
+      </c>
+      <c r="N308">
+        <v>1.533</v>
+      </c>
+      <c r="O308">
+        <v>4</v>
+      </c>
+      <c r="P308">
+        <v>6</v>
+      </c>
+      <c r="Q308">
+        <v>-0.75</v>
+      </c>
+      <c r="R308">
+        <v>1.7</v>
+      </c>
+      <c r="S308">
+        <v>2.2</v>
+      </c>
+      <c r="T308">
+        <v>2.25</v>
+      </c>
+      <c r="U308">
+        <v>1.925</v>
+      </c>
+      <c r="V308">
+        <v>1.925</v>
+      </c>
+      <c r="W308">
+        <v>0</v>
+      </c>
+      <c r="X308">
+        <v>0</v>
+      </c>
+      <c r="Y308">
+        <v>0</v>
+      </c>
+      <c r="Z308">
+        <v>0</v>
+      </c>
+      <c r="AA308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:27">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>6978404</v>
+      </c>
+      <c r="C309" t="s">
+        <v>28</v>
+      </c>
+      <c r="D309" t="s">
+        <v>28</v>
+      </c>
+      <c r="E309" s="2">
+        <v>45347.39583333334</v>
+      </c>
+      <c r="F309" t="s">
+        <v>38</v>
+      </c>
+      <c r="G309" t="s">
+        <v>45</v>
+      </c>
+      <c r="K309">
+        <v>2.2</v>
+      </c>
+      <c r="L309">
+        <v>3.2</v>
+      </c>
+      <c r="M309">
+        <v>3.4</v>
+      </c>
+      <c r="N309">
+        <v>2.3</v>
+      </c>
+      <c r="O309">
+        <v>3.2</v>
+      </c>
+      <c r="P309">
+        <v>3.25</v>
+      </c>
+      <c r="Q309">
+        <v>-0.25</v>
+      </c>
+      <c r="R309">
+        <v>1.975</v>
+      </c>
+      <c r="S309">
+        <v>1.875</v>
+      </c>
+      <c r="T309">
+        <v>2</v>
+      </c>
+      <c r="U309">
+        <v>1.775</v>
+      </c>
+      <c r="V309">
+        <v>2.1</v>
+      </c>
+      <c r="W309">
+        <v>0</v>
+      </c>
+      <c r="X309">
+        <v>0</v>
+      </c>
+      <c r="Y309">
+        <v>0</v>
+      </c>
+      <c r="Z309">
+        <v>0</v>
+      </c>
+      <c r="AA309">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Levski Sofia</t>
+    <t>CSKA 1948 Sofia</t>
   </si>
   <si>
-    <t>CSKA 1948 Sofia</t>
+    <t>Levski Sofia</t>
   </si>
   <si>
     <t>Spartak Varna</t>
@@ -160,10 +160,10 @@
     <t>D</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC309"/>
+  <dimension ref="A1:AC313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6188475</v>
+        <v>6188477</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
       <c r="K3">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M3">
-        <v>3.9</v>
+        <v>9</v>
       </c>
       <c r="N3">
-        <v>1.65</v>
+        <v>1.181</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="P3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6188477</v>
+        <v>6188475</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,73 +815,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
       <c r="K4">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="L4">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>3.9</v>
       </c>
       <c r="N4">
-        <v>1.181</v>
+        <v>1.65</v>
       </c>
       <c r="O4">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Q4">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -913,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5">
         <v>11</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>2.7</v>
@@ -1091,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7">
         <v>5.25</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>1.533</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>2.25</v>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>1.533</v>
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14">
         <v>5.75</v>
@@ -1794,7 +1794,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>1.285</v>
@@ -2058,7 +2058,7 @@
         <v>44982.3125</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>37</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18">
         <v>1.615</v>
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>2.15</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20">
         <v>1.666</v>
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>1.444</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22">
         <v>1.85</v>
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23">
         <v>7</v>
@@ -2604,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24">
         <v>3.75</v>
@@ -2681,7 +2681,7 @@
         <v>44985.53125</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2773,7 +2773,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
         <v>3.75</v>
@@ -2871,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
         <v>1.75</v>
@@ -2960,7 +2960,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28">
         <v>1.85</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>3.3</v>
@@ -3218,7 +3218,7 @@
         <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31">
         <v>7</v>
@@ -3316,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32">
         <v>1.1</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
         <v>1.5</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
         <v>3.25</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>1.909</v>
@@ -3672,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
         <v>2.25</v>
@@ -3749,7 +3749,7 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37">
         <v>1.166</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38">
         <v>2.4</v>
@@ -3939,7 +3939,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
         <v>1.333</v>
@@ -4016,7 +4016,7 @@
         <v>44997.48958333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>40</v>
@@ -4028,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
         <v>2.6</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K42">
         <v>1.6</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K43">
         <v>2.45</v>
@@ -4375,7 +4375,7 @@
         <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4384,7 +4384,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44">
         <v>4.2</v>
@@ -4473,7 +4473,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45">
         <v>11</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K46">
         <v>1.166</v>
@@ -4731,7 +4731,7 @@
         <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4740,7 +4740,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48">
         <v>2.9</v>
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -5007,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K51">
         <v>1.09</v>
@@ -5084,7 +5084,7 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
         <v>38</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K52">
         <v>1.333</v>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53">
         <v>4.75</v>
@@ -5274,7 +5274,7 @@
         <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K54">
         <v>2.4</v>
@@ -5363,7 +5363,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K55">
         <v>4</v>
@@ -5529,7 +5529,7 @@
         <v>45026.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
         <v>29</v>
@@ -5541,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K57">
         <v>1.7</v>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K59">
         <v>1.909</v>
@@ -5799,7 +5799,7 @@
         <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5808,7 +5808,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K60">
         <v>6.5</v>
@@ -5897,7 +5897,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K61">
         <v>6.5</v>
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K62">
         <v>2.4</v>
@@ -6155,7 +6155,7 @@
         <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K65">
         <v>1.909</v>
@@ -6342,7 +6342,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66">
         <v>4</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K67">
         <v>1.142</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
         <v>4.5</v>
@@ -6597,7 +6597,7 @@
         <v>45038.5625</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>35</v>
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K69">
         <v>1.8</v>
@@ -6698,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K70">
         <v>7.5</v>
@@ -6775,7 +6775,7 @@
         <v>45039.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K71">
         <v>1.25</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K72">
         <v>1.833</v>
@@ -7054,7 +7054,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
         <v>2.75</v>
@@ -7143,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
         <v>1.444</v>
@@ -7232,7 +7232,7 @@
         <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K76">
         <v>1.4</v>
@@ -7401,7 +7401,7 @@
         <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7410,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K78">
         <v>3</v>
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7579,7 +7579,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81">
         <v>2.6</v>
@@ -7766,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>2.4</v>
@@ -7935,7 +7935,7 @@
         <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K86">
         <v>1.125</v>
@@ -8211,7 +8211,7 @@
         <v>4</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K87">
         <v>3.4</v>
@@ -8300,7 +8300,7 @@
         <v>4</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K88">
         <v>10</v>
@@ -8377,7 +8377,7 @@
         <v>45050.60416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
         <v>33</v>
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K89">
         <v>1.25</v>
@@ -8555,7 +8555,7 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>36</v>
@@ -8567,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K91">
         <v>1.5</v>
@@ -8656,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -8745,7 +8745,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K93">
         <v>1.4</v>
@@ -8834,7 +8834,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K94">
         <v>7</v>
@@ -8923,7 +8923,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K95">
         <v>1.75</v>
@@ -9003,7 +9003,7 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K96">
         <v>3.3</v>
@@ -9101,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K97">
         <v>1.1</v>
@@ -9190,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98">
         <v>1.909</v>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K99">
         <v>1.909</v>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K101">
         <v>2.1</v>
@@ -9546,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>1.8</v>
@@ -9623,10 +9623,10 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F103" t="s">
+        <v>30</v>
+      </c>
+      <c r="G103" t="s">
         <v>31</v>
-      </c>
-      <c r="G103" t="s">
-        <v>30</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K104">
         <v>1.727</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K105">
         <v>1.222</v>
@@ -9991,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K107">
         <v>1.8</v>
@@ -10071,7 +10071,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K110">
         <v>2.3</v>
@@ -10338,7 +10338,7 @@
         <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10347,7 +10347,7 @@
         <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K111">
         <v>4.5</v>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K112">
         <v>2.15</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K113">
         <v>2.625</v>
@@ -10703,7 +10703,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K115">
         <v>1.909</v>
@@ -10881,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K117">
         <v>2.4</v>
@@ -10958,7 +10958,7 @@
         <v>45072.60416666666</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
         <v>39</v>
@@ -10970,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K118">
         <v>1.533</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K120">
         <v>1.363</v>
@@ -11225,7 +11225,7 @@
         <v>45074.625</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
         <v>43</v>
@@ -11326,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K122">
         <v>3.4</v>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6703695</v>
+        <v>6703696</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
         <v>49</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="L124">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>3.3</v>
+        <v>1.833</v>
       </c>
       <c r="N124">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="O124">
         <v>3.6</v>
       </c>
       <c r="P124">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q124">
+        <v>0.75</v>
+      </c>
+      <c r="R124">
+        <v>1.875</v>
+      </c>
+      <c r="S124">
+        <v>1.975</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
+        <v>1.975</v>
+      </c>
+      <c r="V124">
+        <v>1.875</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z124">
         <v>-0.5</v>
       </c>
-      <c r="R124">
-        <v>1.925</v>
-      </c>
-      <c r="S124">
-        <v>1.925</v>
-      </c>
-      <c r="T124">
-        <v>2.75</v>
-      </c>
-      <c r="U124">
-        <v>2</v>
-      </c>
-      <c r="V124">
-        <v>1.85</v>
-      </c>
-      <c r="W124">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>0.925</v>
-      </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6703696</v>
+        <v>6627749</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M125">
-        <v>1.833</v>
+        <v>4.333</v>
       </c>
       <c r="N125">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P125">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="Q125">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y125">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
         <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB125">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6627749</v>
+        <v>6703695</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K126">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L126">
         <v>3.3</v>
       </c>
       <c r="M126">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N126">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O126">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T126">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X126">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA126">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11771,7 +11771,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K127">
         <v>2.2</v>
@@ -11860,7 +11860,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K128">
         <v>1.95</v>
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K129">
         <v>2.8</v>
@@ -12029,7 +12029,7 @@
         <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12118,7 +12118,7 @@
         <v>43</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12127,7 +12127,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
         <v>1.615</v>
@@ -12216,7 +12216,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
         <v>2</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45083.5625</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
         <v>48</v>
       </c>
       <c r="K133">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N133">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O133">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P133">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q133">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA133">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-0.5</v>
       </c>
       <c r="AC133">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45083.5625</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
         <v>49</v>
       </c>
       <c r="K134">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N134">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O134">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P134">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
+        <v>2.025</v>
+      </c>
+      <c r="T134">
+        <v>3.25</v>
+      </c>
+      <c r="U134">
+        <v>2</v>
+      </c>
+      <c r="V134">
         <v>1.85</v>
       </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>1.875</v>
-      </c>
-      <c r="V134">
-        <v>1.975</v>
-      </c>
       <c r="W134">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB134">
         <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K135">
         <v>6</v>
@@ -12560,7 +12560,7 @@
         <v>45084.53125</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G136" t="s">
         <v>35</v>
@@ -12649,7 +12649,7 @@
         <v>45084.53125</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
         <v>40</v>
@@ -12661,7 +12661,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
         <v>2.625</v>
@@ -12738,7 +12738,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
         <v>37</v>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K138">
         <v>1.6</v>
@@ -12839,7 +12839,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K139">
         <v>2.5</v>
@@ -12928,7 +12928,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
         <v>11</v>
@@ -13005,10 +13005,10 @@
         <v>45122.53125</v>
       </c>
       <c r="F141" t="s">
+        <v>31</v>
+      </c>
+      <c r="G141" t="s">
         <v>30</v>
-      </c>
-      <c r="G141" t="s">
-        <v>31</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13017,7 +13017,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K141">
         <v>2.3</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
         <v>2</v>
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K146">
         <v>2.8</v>
@@ -13539,7 +13539,7 @@
         <v>45128.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
         <v>42</v>
@@ -13551,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K147">
         <v>1.142</v>
@@ -13640,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K148">
         <v>1.25</v>
@@ -13720,7 +13720,7 @@
         <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13729,7 +13729,7 @@
         <v>3</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K149">
         <v>3.6</v>
@@ -13818,7 +13818,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K150">
         <v>1.1</v>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K151">
         <v>1.5</v>
@@ -13996,7 +13996,7 @@
         <v>4</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K152">
         <v>3</v>
@@ -14085,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K153">
         <v>3.6</v>
@@ -14174,7 +14174,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K154">
         <v>3.8</v>
@@ -14263,7 +14263,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K155">
         <v>4.2</v>
@@ -14352,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K156">
         <v>2.4</v>
@@ -14518,7 +14518,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14530,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K158">
         <v>1.25</v>
@@ -14619,7 +14619,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K159">
         <v>1.4</v>
@@ -14708,7 +14708,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K160">
         <v>1.444</v>
@@ -14797,7 +14797,7 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K161">
         <v>2</v>
@@ -14886,7 +14886,7 @@
         <v>5</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K162">
         <v>7.5</v>
@@ -14975,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K163">
         <v>1.85</v>
@@ -15144,7 +15144,7 @@
         <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15153,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K165">
         <v>3</v>
@@ -15230,7 +15230,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
         <v>44</v>
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K167">
         <v>1.909</v>
@@ -15420,7 +15420,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K168">
         <v>1.75</v>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K169">
         <v>4</v>
@@ -15598,7 +15598,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K170">
         <v>3.6</v>
@@ -15687,7 +15687,7 @@
         <v>5</v>
       </c>
       <c r="J171" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K171">
         <v>2.4</v>
@@ -15764,7 +15764,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G172" t="s">
         <v>41</v>
@@ -15776,7 +15776,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K172">
         <v>1.166</v>
@@ -15865,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K173">
         <v>1.85</v>
@@ -16034,7 +16034,7 @@
         <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16043,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K175">
         <v>4.75</v>
@@ -16132,7 +16132,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K176">
         <v>1.909</v>
@@ -16221,7 +16221,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K177">
         <v>2</v>
@@ -16310,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K178">
         <v>2.8</v>
@@ -16399,7 +16399,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K179">
         <v>8.5</v>
@@ -16488,7 +16488,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K180">
         <v>1.5</v>
@@ -16577,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K181">
         <v>3.4</v>
@@ -16654,7 +16654,7 @@
         <v>45159.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
         <v>46</v>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K182">
         <v>1.222</v>
@@ -16755,7 +16755,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K183">
         <v>2.25</v>
@@ -16844,7 +16844,7 @@
         <v>4</v>
       </c>
       <c r="J184" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K184">
         <v>3.6</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K185">
         <v>2.05</v>
@@ -17111,7 +17111,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K187">
         <v>2.9</v>
@@ -17200,7 +17200,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K188">
         <v>1.142</v>
@@ -17280,7 +17280,7 @@
         <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17289,7 +17289,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K189">
         <v>3.6</v>
@@ -17378,7 +17378,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K190">
         <v>3.5</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K191">
         <v>4</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K192">
         <v>2.15</v>
@@ -17645,7 +17645,7 @@
         <v>3</v>
       </c>
       <c r="J193" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K193">
         <v>1.909</v>
@@ -17734,7 +17734,7 @@
         <v>3</v>
       </c>
       <c r="J194" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K194">
         <v>5</v>
@@ -17823,7 +17823,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K195">
         <v>1.533</v>
@@ -17900,7 +17900,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G196" t="s">
         <v>44</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K196">
         <v>1.2</v>
@@ -17989,7 +17989,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F197" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G197" t="s">
         <v>42</v>
@@ -18001,7 +18001,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K197">
         <v>1.142</v>
@@ -18090,7 +18090,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K198">
         <v>1.6</v>
@@ -18179,7 +18179,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K199">
         <v>1.571</v>
@@ -18268,7 +18268,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K200">
         <v>2.1</v>
@@ -18446,7 +18446,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K202">
         <v>3.6</v>
@@ -18526,7 +18526,7 @@
         <v>40</v>
       </c>
       <c r="G203" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18535,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K203">
         <v>2</v>
@@ -18624,7 +18624,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K204">
         <v>1.909</v>
@@ -18704,7 +18704,7 @@
         <v>45</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>2</v>
@@ -18802,7 +18802,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K206">
         <v>2.5</v>
@@ -18879,7 +18879,7 @@
         <v>45191.47916666666</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G207" t="s">
         <v>39</v>
@@ -18980,7 +18980,7 @@
         <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K208">
         <v>3.6</v>
@@ -19069,7 +19069,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K209">
         <v>1.7</v>
@@ -19158,7 +19158,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K210">
         <v>1.8</v>
@@ -19235,7 +19235,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G211" t="s">
         <v>46</v>
@@ -19247,7 +19247,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K211">
         <v>1.25</v>
@@ -19336,7 +19336,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K212">
         <v>2.75</v>
@@ -19425,7 +19425,7 @@
         <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K213">
         <v>8</v>
@@ -19505,7 +19505,7 @@
         <v>34</v>
       </c>
       <c r="G214" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19603,7 +19603,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K215">
         <v>1.833</v>
@@ -19772,7 +19772,7 @@
         <v>36</v>
       </c>
       <c r="G217" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -19781,7 +19781,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K217">
         <v>4.333</v>
@@ -19959,7 +19959,7 @@
         <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K219">
         <v>1.909</v>
@@ -20048,7 +20048,7 @@
         <v>3</v>
       </c>
       <c r="J220" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K220">
         <v>3.3</v>
@@ -20137,7 +20137,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K221">
         <v>1.3</v>
@@ -20217,7 +20217,7 @@
         <v>41</v>
       </c>
       <c r="G222" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20226,7 +20226,7 @@
         <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K222">
         <v>7.5</v>
@@ -20315,7 +20315,7 @@
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
         <v>1.85</v>
@@ -20404,7 +20404,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K224">
         <v>1.55</v>
@@ -20570,7 +20570,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F226" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
         <v>43</v>
@@ -20582,7 +20582,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K226">
         <v>3.2</v>
@@ -20849,7 +20849,7 @@
         <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K229">
         <v>3.2</v>
@@ -20938,7 +20938,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K230">
         <v>1.8</v>
@@ -21027,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K231">
         <v>2.2</v>
@@ -21107,7 +21107,7 @@
         <v>40</v>
       </c>
       <c r="G232" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21205,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K233">
         <v>3.5</v>
@@ -21383,7 +21383,7 @@
         <v>5</v>
       </c>
       <c r="J235" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K235">
         <v>2.4</v>
@@ -21460,7 +21460,7 @@
         <v>45207.48958333334</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G236" t="s">
         <v>29</v>
@@ -21472,7 +21472,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K236">
         <v>1.75</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K237">
         <v>1.05</v>
@@ -21739,7 +21739,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K239">
         <v>1.5</v>
@@ -21828,7 +21828,7 @@
         <v>5</v>
       </c>
       <c r="J240" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K240">
         <v>3.25</v>
@@ -21908,7 +21908,7 @@
         <v>38</v>
       </c>
       <c r="G241" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -22006,7 +22006,7 @@
         <v>2</v>
       </c>
       <c r="J242" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K242">
         <v>12</v>
@@ -22095,7 +22095,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K243">
         <v>2.625</v>
@@ -22172,7 +22172,7 @@
         <v>45221.4375</v>
       </c>
       <c r="F244" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G244" t="s">
         <v>39</v>
@@ -22184,7 +22184,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K244">
         <v>1.7</v>
@@ -22362,7 +22362,7 @@
         <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K246">
         <v>2.3</v>
@@ -22451,7 +22451,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K247">
         <v>1.75</v>
@@ -22540,7 +22540,7 @@
         <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K248">
         <v>1.3</v>
@@ -22617,7 +22617,7 @@
         <v>45225.47916666666</v>
       </c>
       <c r="F249" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G249" t="s">
         <v>35</v>
@@ -22718,7 +22718,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K250">
         <v>2</v>
@@ -22887,7 +22887,7 @@
         <v>34</v>
       </c>
       <c r="G252" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -22896,7 +22896,7 @@
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K252">
         <v>5.5</v>
@@ -22985,7 +22985,7 @@
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K253">
         <v>1.125</v>
@@ -23074,7 +23074,7 @@
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K254">
         <v>10</v>
@@ -23154,7 +23154,7 @@
         <v>37</v>
       </c>
       <c r="G255" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -23252,7 +23252,7 @@
         <v>2</v>
       </c>
       <c r="J256" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K256">
         <v>7.5</v>
@@ -23519,7 +23519,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K259">
         <v>1.222</v>
@@ -23608,7 +23608,7 @@
         <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K260">
         <v>2.1</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K261">
         <v>1.65</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K262">
         <v>1.181</v>
@@ -23875,7 +23875,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K263">
         <v>1.909</v>
@@ -23952,10 +23952,10 @@
         <v>45237.52083333334</v>
       </c>
       <c r="F264" t="s">
+        <v>30</v>
+      </c>
+      <c r="G264" t="s">
         <v>31</v>
-      </c>
-      <c r="G264" t="s">
-        <v>30</v>
       </c>
       <c r="H264">
         <v>1</v>
@@ -23964,7 +23964,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K264">
         <v>2.6</v>
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K265">
         <v>1.666</v>
@@ -24142,7 +24142,7 @@
         <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K266">
         <v>1.45</v>
@@ -24311,7 +24311,7 @@
         <v>42</v>
       </c>
       <c r="G268" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H268">
         <v>2</v>
@@ -24320,7 +24320,7 @@
         <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K268">
         <v>6</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K269">
         <v>1.7</v>
@@ -24498,7 +24498,7 @@
         <v>4</v>
       </c>
       <c r="J270" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K270">
         <v>7</v>
@@ -24575,7 +24575,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F271" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G271" t="s">
         <v>29</v>
@@ -24676,7 +24676,7 @@
         <v>4</v>
       </c>
       <c r="J272" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K272">
         <v>11</v>
@@ -24765,7 +24765,7 @@
         <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K273">
         <v>1.909</v>
@@ -24854,7 +24854,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K274">
         <v>4.2</v>
@@ -24943,7 +24943,7 @@
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K275">
         <v>1.444</v>
@@ -25032,7 +25032,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K276">
         <v>1.153</v>
@@ -25121,7 +25121,7 @@
         <v>2</v>
       </c>
       <c r="J277" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K277">
         <v>1.4</v>
@@ -25201,7 +25201,7 @@
         <v>37</v>
       </c>
       <c r="G278" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>3</v>
       </c>
       <c r="J278" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K278">
         <v>2.7</v>
@@ -25299,7 +25299,7 @@
         <v>3</v>
       </c>
       <c r="J279" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K279">
         <v>1.153</v>
@@ -25379,7 +25379,7 @@
         <v>38</v>
       </c>
       <c r="G280" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H280">
         <v>2</v>
@@ -25477,7 +25477,7 @@
         <v>2</v>
       </c>
       <c r="J281" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K281">
         <v>1.95</v>
@@ -25646,7 +25646,7 @@
         <v>44</v>
       </c>
       <c r="G283" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H283">
         <v>1</v>
@@ -25655,7 +25655,7 @@
         <v>3</v>
       </c>
       <c r="J283" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K283">
         <v>4.5</v>
@@ -25744,7 +25744,7 @@
         <v>2</v>
       </c>
       <c r="J284" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K284">
         <v>5</v>
@@ -25821,7 +25821,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F285" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G285" t="s">
         <v>35</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K285">
         <v>1.727</v>
@@ -26011,7 +26011,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K287">
         <v>1.062</v>
@@ -26100,7 +26100,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K288">
         <v>2.4</v>
@@ -26189,7 +26189,7 @@
         <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K289">
         <v>3.75</v>
@@ -26278,7 +26278,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K290">
         <v>1.615</v>
@@ -26358,7 +26358,7 @@
         <v>41</v>
       </c>
       <c r="G291" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H291">
         <v>0</v>
@@ -26367,7 +26367,7 @@
         <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K291">
         <v>7.5</v>
@@ -26444,7 +26444,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F292" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G292" t="s">
         <v>45</v>
@@ -26456,7 +26456,7 @@
         <v>3</v>
       </c>
       <c r="J292" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K292">
         <v>1.333</v>
@@ -26545,7 +26545,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K293">
         <v>1.533</v>
@@ -26634,7 +26634,7 @@
         <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K294">
         <v>2.8</v>
@@ -26723,7 +26723,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K295">
         <v>1.363</v>
@@ -26889,7 +26889,7 @@
         <v>45274.52083333334</v>
       </c>
       <c r="F297" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G297" t="s">
         <v>37</v>
@@ -26901,7 +26901,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K297">
         <v>1.85</v>
@@ -26990,7 +26990,7 @@
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K298">
         <v>2.4</v>
@@ -27079,7 +27079,7 @@
         <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K299">
         <v>5.25</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K300">
         <v>1.8</v>
@@ -27248,7 +27248,7 @@
         <v>42</v>
       </c>
       <c r="G301" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27257,7 +27257,7 @@
         <v>2</v>
       </c>
       <c r="J301" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K301">
         <v>5.75</v>
@@ -27337,7 +27337,7 @@
         <v>46</v>
       </c>
       <c r="G302" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H302">
         <v>1</v>
@@ -27435,7 +27435,7 @@
         <v>2</v>
       </c>
       <c r="J303" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K303">
         <v>2.5</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K304">
         <v>1.083</v>
@@ -27584,7 +27584,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="305" spans="1:27">
+    <row r="305" spans="1:29">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -27606,6 +27606,15 @@
       <c r="G305" t="s">
         <v>39</v>
       </c>
+      <c r="H305">
+        <v>3</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
+      </c>
+      <c r="J305" t="s">
+        <v>48</v>
+      </c>
       <c r="K305">
         <v>1.533</v>
       </c>
@@ -27616,54 +27625,60 @@
         <v>5.75</v>
       </c>
       <c r="N305">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="O305">
         <v>4</v>
       </c>
       <c r="P305">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q305">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R305">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S305">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T305">
         <v>2.25</v>
       </c>
       <c r="U305">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V305">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W305">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="X305">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB305">
+        <v>0.825</v>
+      </c>
+      <c r="AC305">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:29">
       <c r="A306" s="1">
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6978405</v>
+        <v>6978402</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27672,49 +27687,49 @@
         <v>28</v>
       </c>
       <c r="E306" s="2">
-        <v>45345.52083333334</v>
+        <v>45345.41666666666</v>
       </c>
       <c r="F306" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G306" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K306">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="L306">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M306">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="N306">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="O306">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P306">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q306">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R306">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S306">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T306">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U306">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V306">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W306">
         <v>0</v>
@@ -27732,12 +27747,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:27">
+    <row r="307" spans="1:29">
       <c r="A307" s="1">
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6978383</v>
+        <v>6978405</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27746,49 +27761,49 @@
         <v>28</v>
       </c>
       <c r="E307" s="2">
-        <v>45346.32291666666</v>
+        <v>45345.52083333334</v>
       </c>
       <c r="F307" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G307" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K307">
-        <v>1.444</v>
+        <v>1.285</v>
       </c>
       <c r="L307">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="M307">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="N307">
-        <v>1.55</v>
+        <v>1.333</v>
       </c>
       <c r="O307">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P307">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q307">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R307">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S307">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="T307">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U307">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V307">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W307">
         <v>0</v>
@@ -27806,12 +27821,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:27">
+    <row r="308" spans="1:29">
       <c r="A308" s="1">
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6978403</v>
+        <v>6978383</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27820,49 +27835,49 @@
         <v>28</v>
       </c>
       <c r="E308" s="2">
-        <v>45346.53125</v>
+        <v>45346.32291666666</v>
       </c>
       <c r="F308" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G308" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K308">
         <v>1.444</v>
       </c>
       <c r="L308">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M308">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="N308">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O308">
         <v>4</v>
       </c>
       <c r="P308">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q308">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R308">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="S308">
-        <v>2.2</v>
+        <v>1.775</v>
       </c>
       <c r="T308">
         <v>2.25</v>
       </c>
       <c r="U308">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V308">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W308">
         <v>0</v>
@@ -27880,77 +27895,373 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:27">
+    <row r="309" spans="1:29">
       <c r="A309" s="1">
         <v>307</v>
       </c>
       <c r="B309">
+        <v>6978408</v>
+      </c>
+      <c r="C309" t="s">
+        <v>28</v>
+      </c>
+      <c r="D309" t="s">
+        <v>28</v>
+      </c>
+      <c r="E309" s="2">
+        <v>45346.42708333334</v>
+      </c>
+      <c r="F309" t="s">
+        <v>39</v>
+      </c>
+      <c r="G309" t="s">
+        <v>40</v>
+      </c>
+      <c r="K309">
+        <v>3.2</v>
+      </c>
+      <c r="L309">
+        <v>3</v>
+      </c>
+      <c r="M309">
+        <v>2.4</v>
+      </c>
+      <c r="N309">
+        <v>2.9</v>
+      </c>
+      <c r="O309">
+        <v>3</v>
+      </c>
+      <c r="P309">
+        <v>2.6</v>
+      </c>
+      <c r="Q309">
+        <v>0</v>
+      </c>
+      <c r="R309">
+        <v>2.1</v>
+      </c>
+      <c r="S309">
+        <v>1.775</v>
+      </c>
+      <c r="T309">
+        <v>2</v>
+      </c>
+      <c r="U309">
+        <v>1.85</v>
+      </c>
+      <c r="V309">
+        <v>2</v>
+      </c>
+      <c r="W309">
+        <v>0</v>
+      </c>
+      <c r="X309">
+        <v>0</v>
+      </c>
+      <c r="Y309">
+        <v>0</v>
+      </c>
+      <c r="Z309">
+        <v>0</v>
+      </c>
+      <c r="AA309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:29">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>6978403</v>
+      </c>
+      <c r="C310" t="s">
+        <v>28</v>
+      </c>
+      <c r="D310" t="s">
+        <v>28</v>
+      </c>
+      <c r="E310" s="2">
+        <v>45346.53125</v>
+      </c>
+      <c r="F310" t="s">
+        <v>31</v>
+      </c>
+      <c r="G310" t="s">
+        <v>37</v>
+      </c>
+      <c r="K310">
+        <v>1.444</v>
+      </c>
+      <c r="L310">
+        <v>4.2</v>
+      </c>
+      <c r="M310">
+        <v>7.5</v>
+      </c>
+      <c r="N310">
+        <v>1.65</v>
+      </c>
+      <c r="O310">
+        <v>3.8</v>
+      </c>
+      <c r="P310">
+        <v>5.25</v>
+      </c>
+      <c r="Q310">
+        <v>-0.75</v>
+      </c>
+      <c r="R310">
+        <v>1.85</v>
+      </c>
+      <c r="S310">
+        <v>2</v>
+      </c>
+      <c r="T310">
+        <v>2</v>
+      </c>
+      <c r="U310">
+        <v>1.85</v>
+      </c>
+      <c r="V310">
+        <v>2</v>
+      </c>
+      <c r="W310">
+        <v>0</v>
+      </c>
+      <c r="X310">
+        <v>0</v>
+      </c>
+      <c r="Y310">
+        <v>0</v>
+      </c>
+      <c r="Z310">
+        <v>0</v>
+      </c>
+      <c r="AA310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:29">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
         <v>6978404</v>
       </c>
-      <c r="C309" t="s">
-        <v>28</v>
-      </c>
-      <c r="D309" t="s">
-        <v>28</v>
-      </c>
-      <c r="E309" s="2">
+      <c r="C311" t="s">
+        <v>28</v>
+      </c>
+      <c r="D311" t="s">
+        <v>28</v>
+      </c>
+      <c r="E311" s="2">
         <v>45347.39583333334</v>
       </c>
-      <c r="F309" t="s">
+      <c r="F311" t="s">
         <v>38</v>
       </c>
-      <c r="G309" t="s">
+      <c r="G311" t="s">
         <v>45</v>
       </c>
-      <c r="K309">
+      <c r="K311">
         <v>2.2</v>
       </c>
-      <c r="L309">
+      <c r="L311">
         <v>3.2</v>
       </c>
-      <c r="M309">
+      <c r="M311">
         <v>3.4</v>
       </c>
-      <c r="N309">
-        <v>2.3</v>
-      </c>
-      <c r="O309">
+      <c r="N311">
+        <v>2.375</v>
+      </c>
+      <c r="O311">
         <v>3.2</v>
       </c>
-      <c r="P309">
-        <v>3.25</v>
-      </c>
-      <c r="Q309">
+      <c r="P311">
+        <v>3.2</v>
+      </c>
+      <c r="Q311">
         <v>-0.25</v>
       </c>
-      <c r="R309">
+      <c r="R311">
         <v>1.975</v>
       </c>
-      <c r="S309">
+      <c r="S311">
         <v>1.875</v>
       </c>
-      <c r="T309">
-        <v>2</v>
-      </c>
-      <c r="U309">
+      <c r="T311">
+        <v>2</v>
+      </c>
+      <c r="U311">
+        <v>1.825</v>
+      </c>
+      <c r="V311">
+        <v>2.025</v>
+      </c>
+      <c r="W311">
+        <v>0</v>
+      </c>
+      <c r="X311">
+        <v>0</v>
+      </c>
+      <c r="Y311">
+        <v>0</v>
+      </c>
+      <c r="Z311">
+        <v>0</v>
+      </c>
+      <c r="AA311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:29">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>6978406</v>
+      </c>
+      <c r="C312" t="s">
+        <v>28</v>
+      </c>
+      <c r="D312" t="s">
+        <v>28</v>
+      </c>
+      <c r="E312" s="2">
+        <v>45347.48958333334</v>
+      </c>
+      <c r="F312" t="s">
+        <v>30</v>
+      </c>
+      <c r="G312" t="s">
+        <v>36</v>
+      </c>
+      <c r="K312">
+        <v>1.6</v>
+      </c>
+      <c r="L312">
+        <v>3.75</v>
+      </c>
+      <c r="M312">
+        <v>5.75</v>
+      </c>
+      <c r="N312">
+        <v>1.727</v>
+      </c>
+      <c r="O312">
+        <v>3.5</v>
+      </c>
+      <c r="P312">
+        <v>5</v>
+      </c>
+      <c r="Q312">
+        <v>-0.75</v>
+      </c>
+      <c r="R312">
+        <v>2.025</v>
+      </c>
+      <c r="S312">
+        <v>1.825</v>
+      </c>
+      <c r="T312">
+        <v>2</v>
+      </c>
+      <c r="U312">
         <v>1.775</v>
       </c>
-      <c r="V309">
+      <c r="V312">
         <v>2.1</v>
       </c>
-      <c r="W309">
-        <v>0</v>
-      </c>
-      <c r="X309">
-        <v>0</v>
-      </c>
-      <c r="Y309">
-        <v>0</v>
-      </c>
-      <c r="Z309">
-        <v>0</v>
-      </c>
-      <c r="AA309">
+      <c r="W312">
+        <v>0</v>
+      </c>
+      <c r="X312">
+        <v>0</v>
+      </c>
+      <c r="Y312">
+        <v>0</v>
+      </c>
+      <c r="Z312">
+        <v>0</v>
+      </c>
+      <c r="AA312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:29">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>6978407</v>
+      </c>
+      <c r="C313" t="s">
+        <v>28</v>
+      </c>
+      <c r="D313" t="s">
+        <v>28</v>
+      </c>
+      <c r="E313" s="2">
+        <v>45348.52083333334</v>
+      </c>
+      <c r="F313" t="s">
+        <v>34</v>
+      </c>
+      <c r="G313" t="s">
+        <v>43</v>
+      </c>
+      <c r="K313">
+        <v>13</v>
+      </c>
+      <c r="L313">
+        <v>6</v>
+      </c>
+      <c r="M313">
+        <v>1.222</v>
+      </c>
+      <c r="N313">
+        <v>15</v>
+      </c>
+      <c r="O313">
+        <v>5.75</v>
+      </c>
+      <c r="P313">
+        <v>1.222</v>
+      </c>
+      <c r="Q313">
+        <v>1.75</v>
+      </c>
+      <c r="R313">
+        <v>1.975</v>
+      </c>
+      <c r="S313">
+        <v>1.875</v>
+      </c>
+      <c r="T313">
+        <v>2.75</v>
+      </c>
+      <c r="U313">
+        <v>1.85</v>
+      </c>
+      <c r="V313">
+        <v>2</v>
+      </c>
+      <c r="W313">
+        <v>0</v>
+      </c>
+      <c r="X313">
+        <v>0</v>
+      </c>
+      <c r="Y313">
+        <v>0</v>
+      </c>
+      <c r="Z313">
+        <v>0</v>
+      </c>
+      <c r="AA313">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6627749</v>
+        <v>6703695</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K125">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L125">
         <v>3.3</v>
       </c>
       <c r="M125">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N125">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O125">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X125">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA125">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6703695</v>
+        <v>6627749</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K126">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L126">
         <v>3.3</v>
       </c>
       <c r="M126">
+        <v>4.333</v>
+      </c>
+      <c r="N126">
+        <v>2.45</v>
+      </c>
+      <c r="O126">
+        <v>2.9</v>
+      </c>
+      <c r="P126">
         <v>3.3</v>
       </c>
-      <c r="N126">
-        <v>1.85</v>
-      </c>
-      <c r="O126">
-        <v>3.6</v>
-      </c>
-      <c r="P126">
-        <v>4</v>
-      </c>
       <c r="Q126">
+        <v>-0.25</v>
+      </c>
+      <c r="R126">
+        <v>2.025</v>
+      </c>
+      <c r="S126">
+        <v>1.825</v>
+      </c>
+      <c r="T126">
+        <v>2</v>
+      </c>
+      <c r="U126">
+        <v>2.1</v>
+      </c>
+      <c r="V126">
+        <v>1.775</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>1.9</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
         <v>-0.5</v>
       </c>
-      <c r="R126">
-        <v>1.925</v>
-      </c>
-      <c r="S126">
-        <v>1.925</v>
-      </c>
-      <c r="T126">
-        <v>2.75</v>
-      </c>
-      <c r="U126">
-        <v>2</v>
-      </c>
-      <c r="V126">
-        <v>1.85</v>
-      </c>
-      <c r="W126">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
-      <c r="Y126">
-        <v>-1</v>
-      </c>
-      <c r="Z126">
-        <v>0.925</v>
-      </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45083.5625</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N133">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O133">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P133">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q133">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
+        <v>2.025</v>
+      </c>
+      <c r="T133">
+        <v>3.25</v>
+      </c>
+      <c r="U133">
+        <v>2</v>
+      </c>
+      <c r="V133">
         <v>1.85</v>
       </c>
-      <c r="T133">
-        <v>2.25</v>
-      </c>
-      <c r="U133">
-        <v>1.875</v>
-      </c>
-      <c r="V133">
-        <v>1.975</v>
-      </c>
       <c r="W133">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z133">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB133">
         <v>-0.5</v>
       </c>
       <c r="AC133">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45083.5625</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M134">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N134">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O134">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P134">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q134">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA134">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
         <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6627290</v>
+        <v>6627725</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,55 +12471,55 @@
         <v>45084.53125</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
         <v>49</v>
       </c>
       <c r="K135">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="N135">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="O135">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P135">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S135">
+        <v>2.025</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
         <v>1.85</v>
       </c>
-      <c r="T135">
-        <v>2.75</v>
-      </c>
-      <c r="U135">
-        <v>1.825</v>
-      </c>
       <c r="V135">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12528,19 +12528,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.55</v>
+        <v>1.8</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6627725</v>
+        <v>6627290</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,56 +12649,56 @@
         <v>45084.53125</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
         <v>49</v>
       </c>
       <c r="K137">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="N137">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="O137">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P137">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
+        <v>1.85</v>
+      </c>
+      <c r="T137">
+        <v>2.75</v>
+      </c>
+      <c r="U137">
         <v>1.825</v>
       </c>
-      <c r="S137">
+      <c r="V137">
         <v>2.025</v>
       </c>
-      <c r="T137">
-        <v>2.25</v>
-      </c>
-      <c r="U137">
-        <v>1.85</v>
-      </c>
-      <c r="V137">
-        <v>2</v>
-      </c>
       <c r="W137">
         <v>-1</v>
       </c>
@@ -12706,19 +12706,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA137">
+        <v>-0</v>
+      </c>
+      <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
         <v>1.025</v>
-      </c>
-      <c r="AB137">
-        <v>-0.5</v>
-      </c>
-      <c r="AC137">
-        <v>0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -27779,31 +27779,31 @@
         <v>9.5</v>
       </c>
       <c r="N307">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O307">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P307">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q307">
         <v>-1.5</v>
       </c>
       <c r="R307">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S307">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T307">
         <v>2.75</v>
       </c>
       <c r="U307">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V307">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W307">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>7</v>
       </c>
       <c r="N308">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="O308">
         <v>4</v>
@@ -27865,19 +27865,19 @@
         <v>-1</v>
       </c>
       <c r="R308">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S308">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T308">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U308">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V308">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W308">
         <v>0</v>
@@ -28001,22 +28001,22 @@
         <v>7.5</v>
       </c>
       <c r="N310">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="O310">
         <v>3.8</v>
       </c>
       <c r="P310">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q310">
         <v>-0.75</v>
       </c>
       <c r="R310">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S310">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T310">
         <v>2</v>
@@ -28075,22 +28075,22 @@
         <v>3.4</v>
       </c>
       <c r="N311">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O311">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P311">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q311">
         <v>-0.25</v>
       </c>
       <c r="R311">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S311">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T311">
         <v>2</v>
@@ -28149,31 +28149,31 @@
         <v>5.75</v>
       </c>
       <c r="N312">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O312">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P312">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q312">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R312">
+        <v>1.825</v>
+      </c>
+      <c r="S312">
         <v>2.025</v>
       </c>
-      <c r="S312">
-        <v>1.825</v>
-      </c>
       <c r="T312">
         <v>2</v>
       </c>
       <c r="U312">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V312">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W312">
         <v>0</v>
@@ -28235,10 +28235,10 @@
         <v>1.75</v>
       </c>
       <c r="R313">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S313">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T313">
         <v>2.75</v>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -106,10 +106,10 @@
     <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>CSKA 1948 Sofia</t>
+    <t>Levski Sofia</t>
   </si>
   <si>
-    <t>Levski Sofia</t>
+    <t>CSKA 1948 Sofia</t>
   </si>
   <si>
     <t>Spartak Varna</t>
@@ -160,10 +160,10 @@
     <t>D</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6188477</v>
+        <v>6188475</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
       <c r="K3">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="L3">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>9</v>
+        <v>3.9</v>
       </c>
       <c r="N3">
-        <v>1.181</v>
+        <v>1.65</v>
       </c>
       <c r="O3">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Q3">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6188475</v>
+        <v>6188477</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,73 +815,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
       </c>
       <c r="K4">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M4">
-        <v>3.9</v>
+        <v>9</v>
       </c>
       <c r="N4">
-        <v>1.65</v>
+        <v>1.181</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="P4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -913,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>11</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>2.7</v>
@@ -1091,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>5.25</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
         <v>1.533</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10">
         <v>2.25</v>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>1.533</v>
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14">
         <v>5.75</v>
@@ -1794,7 +1794,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16">
         <v>1.285</v>
@@ -2058,7 +2058,7 @@
         <v>44982.3125</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>37</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18">
         <v>1.615</v>
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19">
         <v>2.15</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20">
         <v>1.666</v>
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K21">
         <v>1.444</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22">
         <v>1.85</v>
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
         <v>7</v>
@@ -2604,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
         <v>3.75</v>
@@ -2681,7 +2681,7 @@
         <v>44985.53125</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2773,7 +2773,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26">
         <v>3.75</v>
@@ -2871,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27">
         <v>1.75</v>
@@ -2960,7 +2960,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28">
         <v>1.85</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
         <v>3.3</v>
@@ -3218,7 +3218,7 @@
         <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>7</v>
@@ -3316,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32">
         <v>1.1</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
         <v>1.5</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34">
         <v>3.25</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
         <v>1.909</v>
@@ -3672,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
         <v>2.25</v>
@@ -3749,7 +3749,7 @@
         <v>44996.52083333334</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>1.166</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38">
         <v>2.4</v>
@@ -3939,7 +3939,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
         <v>1.333</v>
@@ -4016,7 +4016,7 @@
         <v>44997.48958333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>40</v>
@@ -4028,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40">
         <v>2.6</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42">
         <v>1.6</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43">
         <v>2.45</v>
@@ -4375,7 +4375,7 @@
         <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4384,7 +4384,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44">
         <v>4.2</v>
@@ -4473,7 +4473,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K45">
         <v>11</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46">
         <v>1.166</v>
@@ -4731,7 +4731,7 @@
         <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4740,7 +4740,7 @@
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48">
         <v>2.9</v>
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -5007,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K51">
         <v>1.09</v>
@@ -5084,7 +5084,7 @@
         <v>45024.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>38</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K52">
         <v>1.333</v>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K53">
         <v>4.75</v>
@@ -5274,7 +5274,7 @@
         <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K54">
         <v>2.4</v>
@@ -5363,7 +5363,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55">
         <v>4</v>
@@ -5529,7 +5529,7 @@
         <v>45026.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
         <v>29</v>
@@ -5541,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K57">
         <v>1.7</v>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K59">
         <v>1.909</v>
@@ -5799,7 +5799,7 @@
         <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5808,7 +5808,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K60">
         <v>6.5</v>
@@ -5897,7 +5897,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K61">
         <v>6.5</v>
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K62">
         <v>2.4</v>
@@ -6155,7 +6155,7 @@
         <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K65">
         <v>1.909</v>
@@ -6342,7 +6342,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66">
         <v>4</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K67">
         <v>1.142</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68">
         <v>4.5</v>
@@ -6597,7 +6597,7 @@
         <v>45038.5625</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
         <v>35</v>
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K69">
         <v>1.8</v>
@@ -6698,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K70">
         <v>7.5</v>
@@ -6775,7 +6775,7 @@
         <v>45039.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71">
         <v>1.25</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72">
         <v>1.833</v>
@@ -7054,7 +7054,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74">
         <v>2.75</v>
@@ -7143,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
         <v>1.444</v>
@@ -7232,7 +7232,7 @@
         <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K76">
         <v>1.4</v>
@@ -7401,7 +7401,7 @@
         <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7410,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K78">
         <v>3</v>
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K79">
         <v>1.909</v>
@@ -7579,7 +7579,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K81">
         <v>2.6</v>
@@ -7766,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K82">
         <v>2.4</v>
@@ -7935,7 +7935,7 @@
         <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K86">
         <v>1.125</v>
@@ -8211,7 +8211,7 @@
         <v>4</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K87">
         <v>3.4</v>
@@ -8300,7 +8300,7 @@
         <v>4</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K88">
         <v>10</v>
@@ -8377,7 +8377,7 @@
         <v>45050.60416666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
         <v>33</v>
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K89">
         <v>1.25</v>
@@ -8555,7 +8555,7 @@
         <v>45052.58333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>36</v>
@@ -8567,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
         <v>1.5</v>
@@ -8656,7 +8656,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -8745,7 +8745,7 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K93">
         <v>1.4</v>
@@ -8834,7 +8834,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94">
         <v>7</v>
@@ -8923,7 +8923,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K95">
         <v>1.75</v>
@@ -9003,7 +9003,7 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K96">
         <v>3.3</v>
@@ -9101,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K97">
         <v>1.1</v>
@@ -9190,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K98">
         <v>1.909</v>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K99">
         <v>1.909</v>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K101">
         <v>2.1</v>
@@ -9546,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K102">
         <v>1.8</v>
@@ -9623,10 +9623,10 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F103" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" t="s">
         <v>30</v>
-      </c>
-      <c r="G103" t="s">
-        <v>31</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K104">
         <v>1.727</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K105">
         <v>1.222</v>
@@ -9991,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K107">
         <v>1.8</v>
@@ -10071,7 +10071,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K110">
         <v>2.3</v>
@@ -10338,7 +10338,7 @@
         <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10347,7 +10347,7 @@
         <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K111">
         <v>4.5</v>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K112">
         <v>2.15</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K113">
         <v>2.625</v>
@@ -10703,7 +10703,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K115">
         <v>1.909</v>
@@ -10881,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K117">
         <v>2.4</v>
@@ -10958,7 +10958,7 @@
         <v>45072.60416666666</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>39</v>
@@ -10970,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K118">
         <v>1.533</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K119">
         <v>1.8</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
         <v>1.363</v>
@@ -11225,7 +11225,7 @@
         <v>45074.625</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
         <v>43</v>
@@ -11326,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K122">
         <v>3.4</v>
@@ -11504,7 +11504,7 @@
         <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K124">
         <v>3.8</v>
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6703695</v>
+        <v>6627749</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L125">
         <v>3.3</v>
       </c>
       <c r="M125">
+        <v>4.333</v>
+      </c>
+      <c r="N125">
+        <v>2.45</v>
+      </c>
+      <c r="O125">
+        <v>2.9</v>
+      </c>
+      <c r="P125">
         <v>3.3</v>
       </c>
-      <c r="N125">
-        <v>1.85</v>
-      </c>
-      <c r="O125">
-        <v>3.6</v>
-      </c>
-      <c r="P125">
-        <v>4</v>
-      </c>
       <c r="Q125">
+        <v>-0.25</v>
+      </c>
+      <c r="R125">
+        <v>2.025</v>
+      </c>
+      <c r="S125">
+        <v>1.825</v>
+      </c>
+      <c r="T125">
+        <v>2</v>
+      </c>
+      <c r="U125">
+        <v>2.1</v>
+      </c>
+      <c r="V125">
+        <v>1.775</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>1.9</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
         <v>-0.5</v>
       </c>
-      <c r="R125">
-        <v>1.925</v>
-      </c>
-      <c r="S125">
-        <v>1.925</v>
-      </c>
-      <c r="T125">
-        <v>2.75</v>
-      </c>
-      <c r="U125">
-        <v>2</v>
-      </c>
-      <c r="V125">
-        <v>1.85</v>
-      </c>
-      <c r="W125">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>0.925</v>
-      </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6627749</v>
+        <v>6703695</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K126">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L126">
         <v>3.3</v>
       </c>
       <c r="M126">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N126">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O126">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T126">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X126">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA126">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11771,7 +11771,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>2.2</v>
@@ -11860,7 +11860,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K128">
         <v>1.95</v>
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K129">
         <v>2.8</v>
@@ -12029,7 +12029,7 @@
         <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12118,7 +12118,7 @@
         <v>43</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12127,7 +12127,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K131">
         <v>1.615</v>
@@ -12216,7 +12216,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K132">
         <v>2</v>
@@ -12305,7 +12305,7 @@
         <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K133">
         <v>5.25</v>
@@ -12394,7 +12394,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K134">
         <v>1.5</v>
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6627725</v>
+        <v>6627724</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12474,46 +12474,46 @@
         <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M135">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N135">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O135">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
+        <v>2.025</v>
+      </c>
+      <c r="S135">
         <v>1.825</v>
       </c>
-      <c r="S135">
-        <v>2.025</v>
-      </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
         <v>1.85</v>
@@ -12525,22 +12525,22 @@
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y135">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6627724</v>
+        <v>6627725</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12563,46 +12563,46 @@
         <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K136">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L136">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M136">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N136">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="O136">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P136">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R136">
+        <v>1.825</v>
+      </c>
+      <c r="S136">
         <v>2.025</v>
       </c>
-      <c r="S136">
-        <v>1.825</v>
-      </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
         <v>1.85</v>
@@ -12614,22 +12614,22 @@
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12661,7 +12661,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K137">
         <v>6</v>
@@ -12738,7 +12738,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G138" t="s">
         <v>37</v>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K138">
         <v>1.6</v>
@@ -12839,7 +12839,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K139">
         <v>2.5</v>
@@ -12928,7 +12928,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
         <v>11</v>
@@ -13005,10 +13005,10 @@
         <v>45122.53125</v>
       </c>
       <c r="F141" t="s">
+        <v>30</v>
+      </c>
+      <c r="G141" t="s">
         <v>31</v>
-      </c>
-      <c r="G141" t="s">
-        <v>30</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13017,7 +13017,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K141">
         <v>2.3</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
         <v>2</v>
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K146">
         <v>2.8</v>
@@ -13539,7 +13539,7 @@
         <v>45128.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
         <v>42</v>
@@ -13551,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K147">
         <v>1.142</v>
@@ -13640,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K148">
         <v>1.25</v>
@@ -13720,7 +13720,7 @@
         <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13729,7 +13729,7 @@
         <v>3</v>
       </c>
       <c r="J149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K149">
         <v>3.6</v>
@@ -13818,7 +13818,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K150">
         <v>1.1</v>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K151">
         <v>1.5</v>
@@ -13996,7 +13996,7 @@
         <v>4</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K152">
         <v>3</v>
@@ -14085,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K153">
         <v>3.6</v>
@@ -14174,7 +14174,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K154">
         <v>3.8</v>
@@ -14263,7 +14263,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K155">
         <v>4.2</v>
@@ -14352,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K156">
         <v>2.4</v>
@@ -14518,7 +14518,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14530,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K158">
         <v>1.25</v>
@@ -14619,7 +14619,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K159">
         <v>1.4</v>
@@ -14708,7 +14708,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K160">
         <v>1.444</v>
@@ -14797,7 +14797,7 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K161">
         <v>2</v>
@@ -14886,7 +14886,7 @@
         <v>5</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K162">
         <v>7.5</v>
@@ -14975,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K163">
         <v>1.85</v>
@@ -15144,7 +15144,7 @@
         <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15153,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K165">
         <v>3</v>
@@ -15230,7 +15230,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
         <v>44</v>
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K167">
         <v>1.909</v>
@@ -15420,7 +15420,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K168">
         <v>1.75</v>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K169">
         <v>4</v>
@@ -15598,7 +15598,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K170">
         <v>3.6</v>
@@ -15687,7 +15687,7 @@
         <v>5</v>
       </c>
       <c r="J171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K171">
         <v>2.4</v>
@@ -15764,7 +15764,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
         <v>41</v>
@@ -15776,7 +15776,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K172">
         <v>1.166</v>
@@ -15865,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K173">
         <v>1.85</v>
@@ -16034,7 +16034,7 @@
         <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16043,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K175">
         <v>4.75</v>
@@ -16132,7 +16132,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K176">
         <v>1.909</v>
@@ -16221,7 +16221,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K177">
         <v>2</v>
@@ -16310,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K178">
         <v>2.8</v>
@@ -16399,7 +16399,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K179">
         <v>8.5</v>
@@ -16488,7 +16488,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K180">
         <v>1.5</v>
@@ -16577,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K181">
         <v>3.4</v>
@@ -16654,7 +16654,7 @@
         <v>45159.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
         <v>46</v>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K182">
         <v>1.222</v>
@@ -16755,7 +16755,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K183">
         <v>2.25</v>
@@ -16844,7 +16844,7 @@
         <v>4</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K184">
         <v>3.6</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K185">
         <v>2.05</v>
@@ -17111,7 +17111,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K187">
         <v>2.9</v>
@@ -17200,7 +17200,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K188">
         <v>1.142</v>
@@ -17280,7 +17280,7 @@
         <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17289,7 +17289,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K189">
         <v>3.6</v>
@@ -17378,7 +17378,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K190">
         <v>3.5</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K191">
         <v>4</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K192">
         <v>2.15</v>
@@ -17645,7 +17645,7 @@
         <v>3</v>
       </c>
       <c r="J193" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K193">
         <v>1.909</v>
@@ -17734,7 +17734,7 @@
         <v>3</v>
       </c>
       <c r="J194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K194">
         <v>5</v>
@@ -17823,7 +17823,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K195">
         <v>1.533</v>
@@ -17900,7 +17900,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
         <v>44</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K196">
         <v>1.2</v>
@@ -17989,7 +17989,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G197" t="s">
         <v>42</v>
@@ -18001,7 +18001,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K197">
         <v>1.142</v>
@@ -18090,7 +18090,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K198">
         <v>1.6</v>
@@ -18179,7 +18179,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K199">
         <v>1.571</v>
@@ -18268,7 +18268,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K200">
         <v>2.1</v>
@@ -18446,7 +18446,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K202">
         <v>3.6</v>
@@ -18526,7 +18526,7 @@
         <v>40</v>
       </c>
       <c r="G203" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18535,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K203">
         <v>2</v>
@@ -18624,7 +18624,7 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K204">
         <v>1.909</v>
@@ -18704,7 +18704,7 @@
         <v>45</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H205">
         <v>2</v>
@@ -18802,7 +18802,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K206">
         <v>2.5</v>
@@ -18879,7 +18879,7 @@
         <v>45191.47916666666</v>
       </c>
       <c r="F207" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
         <v>39</v>
@@ -18980,7 +18980,7 @@
         <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K208">
         <v>3.6</v>
@@ -19069,7 +19069,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K209">
         <v>1.7</v>
@@ -19158,7 +19158,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K210">
         <v>1.8</v>
@@ -19235,7 +19235,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G211" t="s">
         <v>46</v>
@@ -19247,7 +19247,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K211">
         <v>1.25</v>
@@ -19336,7 +19336,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K212">
         <v>2.75</v>
@@ -19425,7 +19425,7 @@
         <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K213">
         <v>8</v>
@@ -19505,7 +19505,7 @@
         <v>34</v>
       </c>
       <c r="G214" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19603,7 +19603,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K215">
         <v>1.833</v>
@@ -19772,7 +19772,7 @@
         <v>36</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -19781,7 +19781,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K217">
         <v>4.333</v>
@@ -19959,7 +19959,7 @@
         <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K219">
         <v>1.909</v>
@@ -20048,7 +20048,7 @@
         <v>3</v>
       </c>
       <c r="J220" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K220">
         <v>3.3</v>
@@ -20137,7 +20137,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K221">
         <v>1.3</v>
@@ -20217,7 +20217,7 @@
         <v>41</v>
       </c>
       <c r="G222" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -20226,7 +20226,7 @@
         <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K222">
         <v>7.5</v>
@@ -20315,7 +20315,7 @@
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K223">
         <v>1.85</v>
@@ -20404,7 +20404,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K224">
         <v>1.55</v>
@@ -20570,7 +20570,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G226" t="s">
         <v>43</v>
@@ -20582,7 +20582,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K226">
         <v>3.2</v>
@@ -20849,7 +20849,7 @@
         <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K229">
         <v>3.2</v>
@@ -20938,7 +20938,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K230">
         <v>1.8</v>
@@ -21027,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K231">
         <v>2.2</v>
@@ -21107,7 +21107,7 @@
         <v>40</v>
       </c>
       <c r="G232" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21205,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K233">
         <v>3.5</v>
@@ -21383,7 +21383,7 @@
         <v>5</v>
       </c>
       <c r="J235" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K235">
         <v>2.4</v>
@@ -21460,7 +21460,7 @@
         <v>45207.48958333334</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
         <v>29</v>
@@ -21472,7 +21472,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K236">
         <v>1.75</v>
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K237">
         <v>1.05</v>
@@ -21739,7 +21739,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K239">
         <v>1.5</v>
@@ -21828,7 +21828,7 @@
         <v>5</v>
       </c>
       <c r="J240" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K240">
         <v>3.25</v>
@@ -21908,7 +21908,7 @@
         <v>38</v>
       </c>
       <c r="G241" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -22006,7 +22006,7 @@
         <v>2</v>
       </c>
       <c r="J242" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K242">
         <v>12</v>
@@ -22095,7 +22095,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K243">
         <v>2.625</v>
@@ -22172,7 +22172,7 @@
         <v>45221.4375</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G244" t="s">
         <v>39</v>
@@ -22184,7 +22184,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K244">
         <v>1.7</v>
@@ -22362,7 +22362,7 @@
         <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K246">
         <v>2.3</v>
@@ -22451,7 +22451,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K247">
         <v>1.75</v>
@@ -22540,7 +22540,7 @@
         <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K248">
         <v>1.3</v>
@@ -22617,7 +22617,7 @@
         <v>45225.47916666666</v>
       </c>
       <c r="F249" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G249" t="s">
         <v>35</v>
@@ -22718,7 +22718,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K250">
         <v>2</v>
@@ -22887,7 +22887,7 @@
         <v>34</v>
       </c>
       <c r="G252" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -22896,7 +22896,7 @@
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K252">
         <v>5.5</v>
@@ -22985,7 +22985,7 @@
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K253">
         <v>1.125</v>
@@ -23074,7 +23074,7 @@
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K254">
         <v>10</v>
@@ -23154,7 +23154,7 @@
         <v>37</v>
       </c>
       <c r="G255" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -23252,7 +23252,7 @@
         <v>2</v>
       </c>
       <c r="J256" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K256">
         <v>7.5</v>
@@ -23519,7 +23519,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K259">
         <v>1.222</v>
@@ -23608,7 +23608,7 @@
         <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K260">
         <v>2.1</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K261">
         <v>1.65</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K262">
         <v>1.181</v>
@@ -23875,7 +23875,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K263">
         <v>1.909</v>
@@ -23952,10 +23952,10 @@
         <v>45237.52083333334</v>
       </c>
       <c r="F264" t="s">
+        <v>31</v>
+      </c>
+      <c r="G264" t="s">
         <v>30</v>
-      </c>
-      <c r="G264" t="s">
-        <v>31</v>
       </c>
       <c r="H264">
         <v>1</v>
@@ -23964,7 +23964,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K264">
         <v>2.6</v>
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K265">
         <v>1.666</v>
@@ -24142,7 +24142,7 @@
         <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K266">
         <v>1.45</v>
@@ -24311,7 +24311,7 @@
         <v>42</v>
       </c>
       <c r="G268" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H268">
         <v>2</v>
@@ -24320,7 +24320,7 @@
         <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K268">
         <v>6</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K269">
         <v>1.7</v>
@@ -24498,7 +24498,7 @@
         <v>4</v>
       </c>
       <c r="J270" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K270">
         <v>7</v>
@@ -24575,7 +24575,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F271" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G271" t="s">
         <v>29</v>
@@ -24676,7 +24676,7 @@
         <v>4</v>
       </c>
       <c r="J272" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K272">
         <v>11</v>
@@ -24765,7 +24765,7 @@
         <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K273">
         <v>1.909</v>
@@ -24854,7 +24854,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K274">
         <v>4.2</v>
@@ -24943,7 +24943,7 @@
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K275">
         <v>1.444</v>
@@ -25032,7 +25032,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K276">
         <v>1.153</v>
@@ -25121,7 +25121,7 @@
         <v>2</v>
       </c>
       <c r="J277" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K277">
         <v>1.4</v>
@@ -25201,7 +25201,7 @@
         <v>37</v>
       </c>
       <c r="G278" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>3</v>
       </c>
       <c r="J278" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K278">
         <v>2.7</v>
@@ -25299,7 +25299,7 @@
         <v>3</v>
       </c>
       <c r="J279" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K279">
         <v>1.153</v>
@@ -25379,7 +25379,7 @@
         <v>38</v>
       </c>
       <c r="G280" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H280">
         <v>2</v>
@@ -25477,7 +25477,7 @@
         <v>2</v>
       </c>
       <c r="J281" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K281">
         <v>1.95</v>
@@ -25646,7 +25646,7 @@
         <v>44</v>
       </c>
       <c r="G283" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H283">
         <v>1</v>
@@ -25655,7 +25655,7 @@
         <v>3</v>
       </c>
       <c r="J283" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K283">
         <v>4.5</v>
@@ -25744,7 +25744,7 @@
         <v>2</v>
       </c>
       <c r="J284" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K284">
         <v>5</v>
@@ -25821,7 +25821,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F285" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G285" t="s">
         <v>35</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K285">
         <v>1.727</v>
@@ -26011,7 +26011,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K287">
         <v>1.062</v>
@@ -26100,7 +26100,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K288">
         <v>2.4</v>
@@ -26189,7 +26189,7 @@
         <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K289">
         <v>3.75</v>
@@ -26278,7 +26278,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K290">
         <v>1.615</v>
@@ -26358,7 +26358,7 @@
         <v>41</v>
       </c>
       <c r="G291" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H291">
         <v>0</v>
@@ -26367,7 +26367,7 @@
         <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K291">
         <v>7.5</v>
@@ -26444,7 +26444,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F292" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G292" t="s">
         <v>45</v>
@@ -26456,7 +26456,7 @@
         <v>3</v>
       </c>
       <c r="J292" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K292">
         <v>1.333</v>
@@ -26545,7 +26545,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K293">
         <v>1.533</v>
@@ -26634,7 +26634,7 @@
         <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K294">
         <v>2.8</v>
@@ -26723,7 +26723,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K295">
         <v>1.363</v>
@@ -26889,7 +26889,7 @@
         <v>45274.52083333334</v>
       </c>
       <c r="F297" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G297" t="s">
         <v>37</v>
@@ -26901,7 +26901,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K297">
         <v>1.85</v>
@@ -26990,7 +26990,7 @@
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K298">
         <v>2.4</v>
@@ -27079,7 +27079,7 @@
         <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K299">
         <v>5.25</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K300">
         <v>1.8</v>
@@ -27248,7 +27248,7 @@
         <v>42</v>
       </c>
       <c r="G301" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27257,7 +27257,7 @@
         <v>2</v>
       </c>
       <c r="J301" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K301">
         <v>5.75</v>
@@ -27337,7 +27337,7 @@
         <v>46</v>
       </c>
       <c r="G302" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H302">
         <v>1</v>
@@ -27435,7 +27435,7 @@
         <v>2</v>
       </c>
       <c r="J303" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K303">
         <v>2.5</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K304">
         <v>1.083</v>
@@ -27613,7 +27613,7 @@
         <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K305">
         <v>1.533</v>
@@ -27726,10 +27726,10 @@
         <v>2.25</v>
       </c>
       <c r="U306">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V306">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W306">
         <v>0</v>
@@ -27779,31 +27779,31 @@
         <v>9.5</v>
       </c>
       <c r="N307">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O307">
         <v>5.5</v>
       </c>
       <c r="P307">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Q307">
         <v>-1.5</v>
       </c>
       <c r="R307">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S307">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T307">
         <v>2.75</v>
       </c>
       <c r="U307">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V307">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W307">
         <v>0</v>
@@ -27853,31 +27853,31 @@
         <v>7</v>
       </c>
       <c r="N308">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O308">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P308">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q308">
         <v>-1</v>
       </c>
       <c r="R308">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S308">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T308">
         <v>2.5</v>
       </c>
       <c r="U308">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V308">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W308">
         <v>0</v>
@@ -27927,31 +27927,31 @@
         <v>2.4</v>
       </c>
       <c r="N309">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O309">
         <v>3</v>
       </c>
       <c r="P309">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q309">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R309">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="S309">
-        <v>1.775</v>
+        <v>2.125</v>
       </c>
       <c r="T309">
         <v>2</v>
       </c>
       <c r="U309">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V309">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W309">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F310" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G310" t="s">
         <v>37</v>
@@ -28075,10 +28075,10 @@
         <v>3.4</v>
       </c>
       <c r="N311">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O311">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P311">
         <v>3.6</v>
@@ -28087,19 +28087,19 @@
         <v>-0.25</v>
       </c>
       <c r="R311">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S311">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T311">
         <v>2</v>
       </c>
       <c r="U311">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V311">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W311">
         <v>0</v>
@@ -28134,7 +28134,7 @@
         <v>45347.48958333334</v>
       </c>
       <c r="F312" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G312" t="s">
         <v>36</v>
@@ -28223,31 +28223,31 @@
         <v>1.222</v>
       </c>
       <c r="N313">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O313">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="P313">
-        <v>1.222</v>
+        <v>1.25</v>
       </c>
       <c r="Q313">
         <v>1.75</v>
       </c>
       <c r="R313">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S313">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T313">
         <v>2.75</v>
       </c>
       <c r="U313">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V313">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W313">
         <v>0</v>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6703696</v>
+        <v>6703695</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="N124">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="O124">
         <v>3.6</v>
       </c>
       <c r="P124">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="Q124">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA124">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6627749</v>
+        <v>6703696</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K125">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="L125">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="N125">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="O125">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z125">
         <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6703695</v>
+        <v>6627749</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K126">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L126">
         <v>3.3</v>
       </c>
       <c r="M126">
+        <v>4.333</v>
+      </c>
+      <c r="N126">
+        <v>2.45</v>
+      </c>
+      <c r="O126">
+        <v>2.9</v>
+      </c>
+      <c r="P126">
         <v>3.3</v>
       </c>
-      <c r="N126">
-        <v>1.85</v>
-      </c>
-      <c r="O126">
-        <v>3.6</v>
-      </c>
-      <c r="P126">
-        <v>4</v>
-      </c>
       <c r="Q126">
+        <v>-0.25</v>
+      </c>
+      <c r="R126">
+        <v>2.025</v>
+      </c>
+      <c r="S126">
+        <v>1.825</v>
+      </c>
+      <c r="T126">
+        <v>2</v>
+      </c>
+      <c r="U126">
+        <v>2.1</v>
+      </c>
+      <c r="V126">
+        <v>1.775</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>1.9</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
         <v>-0.5</v>
       </c>
-      <c r="R126">
-        <v>1.925</v>
-      </c>
-      <c r="S126">
-        <v>1.925</v>
-      </c>
-      <c r="T126">
-        <v>2.75</v>
-      </c>
-      <c r="U126">
-        <v>2</v>
-      </c>
-      <c r="V126">
-        <v>1.85</v>
-      </c>
-      <c r="W126">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
-      <c r="Y126">
-        <v>-1</v>
-      </c>
-      <c r="Z126">
-        <v>0.925</v>
-      </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45083.5625</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N133">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O133">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P133">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q133">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA133">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-0.5</v>
       </c>
       <c r="AC133">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45083.5625</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N134">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O134">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P134">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
+        <v>2.025</v>
+      </c>
+      <c r="T134">
+        <v>3.25</v>
+      </c>
+      <c r="U134">
+        <v>2</v>
+      </c>
+      <c r="V134">
         <v>1.85</v>
       </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>1.875</v>
-      </c>
-      <c r="V134">
-        <v>1.975</v>
-      </c>
       <c r="W134">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB134">
         <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6627724</v>
+        <v>6627725</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,49 +12471,49 @@
         <v>45084.53125</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K135">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L135">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N135">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P135">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R135">
+        <v>1.825</v>
+      </c>
+      <c r="S135">
         <v>2.025</v>
       </c>
-      <c r="S135">
-        <v>1.825</v>
-      </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
         <v>1.85</v>
@@ -12525,22 +12525,22 @@
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6627725</v>
+        <v>6627724</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,49 +12560,49 @@
         <v>45084.53125</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M136">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N136">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O136">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P136">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
+        <v>2.025</v>
+      </c>
+      <c r="S136">
         <v>1.825</v>
       </c>
-      <c r="S136">
-        <v>2.025</v>
-      </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
         <v>1.85</v>
@@ -12614,22 +12614,22 @@
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y136">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -27705,13 +27705,13 @@
         <v>4</v>
       </c>
       <c r="N306">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O306">
         <v>3.4</v>
       </c>
       <c r="P306">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q306">
         <v>-0.5</v>
@@ -27726,10 +27726,10 @@
         <v>2.25</v>
       </c>
       <c r="U306">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V306">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W306">
         <v>0</v>
@@ -27779,22 +27779,22 @@
         <v>9.5</v>
       </c>
       <c r="N307">
-        <v>1.333</v>
+        <v>1.285</v>
       </c>
       <c r="O307">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="P307">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q307">
         <v>-1.5</v>
       </c>
       <c r="R307">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S307">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T307">
         <v>2.75</v>
@@ -27853,31 +27853,31 @@
         <v>7</v>
       </c>
       <c r="N308">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="O308">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P308">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="Q308">
         <v>-1</v>
       </c>
       <c r="R308">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S308">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T308">
         <v>2.5</v>
       </c>
       <c r="U308">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V308">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W308">
         <v>0</v>
@@ -28001,13 +28001,13 @@
         <v>7.5</v>
       </c>
       <c r="N310">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="O310">
         <v>3.8</v>
       </c>
       <c r="P310">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q310">
         <v>-0.75</v>
@@ -28075,7 +28075,7 @@
         <v>3.4</v>
       </c>
       <c r="N311">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O311">
         <v>3.2</v>
@@ -28087,10 +28087,10 @@
         <v>-0.25</v>
       </c>
       <c r="R311">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S311">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T311">
         <v>2</v>
@@ -28152,7 +28152,7 @@
         <v>1.8</v>
       </c>
       <c r="O312">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P312">
         <v>4.75</v>
@@ -28229,25 +28229,25 @@
         <v>5.25</v>
       </c>
       <c r="P313">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="Q313">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="R313">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S313">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T313">
         <v>2.75</v>
       </c>
       <c r="U313">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V313">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W313">
         <v>0</v>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6703695</v>
+        <v>6627749</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L124">
         <v>3.3</v>
       </c>
       <c r="M124">
+        <v>4.333</v>
+      </c>
+      <c r="N124">
+        <v>2.45</v>
+      </c>
+      <c r="O124">
+        <v>2.9</v>
+      </c>
+      <c r="P124">
         <v>3.3</v>
       </c>
-      <c r="N124">
-        <v>1.85</v>
-      </c>
-      <c r="O124">
-        <v>3.6</v>
-      </c>
-      <c r="P124">
-        <v>4</v>
-      </c>
       <c r="Q124">
+        <v>-0.25</v>
+      </c>
+      <c r="R124">
+        <v>2.025</v>
+      </c>
+      <c r="S124">
+        <v>1.825</v>
+      </c>
+      <c r="T124">
+        <v>2</v>
+      </c>
+      <c r="U124">
+        <v>2.1</v>
+      </c>
+      <c r="V124">
+        <v>1.775</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>1.9</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
         <v>-0.5</v>
       </c>
-      <c r="R124">
-        <v>1.925</v>
-      </c>
-      <c r="S124">
-        <v>1.925</v>
-      </c>
-      <c r="T124">
-        <v>2.75</v>
-      </c>
-      <c r="U124">
-        <v>2</v>
-      </c>
-      <c r="V124">
-        <v>1.85</v>
-      </c>
-      <c r="W124">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>0.925</v>
-      </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6703696</v>
+        <v>6703695</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M125">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="N125">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="O125">
         <v>3.6</v>
       </c>
       <c r="P125">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="Q125">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA125">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6627749</v>
+        <v>6703696</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K126">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M126">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="N126">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="O126">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R126">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z126">
         <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC126">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45083.5625</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K133">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N133">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O133">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P133">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q133">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
+        <v>2.025</v>
+      </c>
+      <c r="T133">
+        <v>3.25</v>
+      </c>
+      <c r="U133">
+        <v>2</v>
+      </c>
+      <c r="V133">
         <v>1.85</v>
       </c>
-      <c r="T133">
-        <v>2.25</v>
-      </c>
-      <c r="U133">
-        <v>1.875</v>
-      </c>
-      <c r="V133">
-        <v>1.975</v>
-      </c>
       <c r="W133">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z133">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB133">
         <v>-0.5</v>
       </c>
       <c r="AC133">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45083.5625</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M134">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N134">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O134">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P134">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q134">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA134">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
         <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6627725</v>
+        <v>6627724</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,49 +12471,49 @@
         <v>45084.53125</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M135">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N135">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O135">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
+        <v>2.025</v>
+      </c>
+      <c r="S135">
         <v>1.825</v>
       </c>
-      <c r="S135">
-        <v>2.025</v>
-      </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
         <v>1.85</v>
@@ -12525,22 +12525,22 @@
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y135">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6627724</v>
+        <v>6627725</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,49 +12560,49 @@
         <v>45084.53125</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K136">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L136">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M136">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N136">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="O136">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P136">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R136">
+        <v>1.825</v>
+      </c>
+      <c r="S136">
         <v>2.025</v>
       </c>
-      <c r="S136">
-        <v>1.825</v>
-      </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
         <v>1.85</v>
@@ -12614,22 +12614,22 @@
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -27695,6 +27695,15 @@
       <c r="G306" t="s">
         <v>42</v>
       </c>
+      <c r="H306">
+        <v>1</v>
+      </c>
+      <c r="I306">
+        <v>2</v>
+      </c>
+      <c r="J306" t="s">
+        <v>48</v>
+      </c>
       <c r="K306">
         <v>1.909</v>
       </c>
@@ -27705,46 +27714,52 @@
         <v>4</v>
       </c>
       <c r="N306">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O306">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P306">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q306">
         <v>-0.5</v>
       </c>
       <c r="R306">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S306">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T306">
         <v>2.25</v>
       </c>
       <c r="U306">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V306">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W306">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X306">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Z306">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA306">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB306">
+        <v>1</v>
+      </c>
+      <c r="AC306">
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27769,6 +27784,15 @@
       <c r="G307" t="s">
         <v>46</v>
       </c>
+      <c r="H307">
+        <v>2</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307" t="s">
+        <v>49</v>
+      </c>
       <c r="K307">
         <v>1.285</v>
       </c>
@@ -27779,46 +27803,52 @@
         <v>9.5</v>
       </c>
       <c r="N307">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="O307">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P307">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q307">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R307">
+        <v>1.95</v>
+      </c>
+      <c r="S307">
+        <v>1.9</v>
+      </c>
+      <c r="T307">
+        <v>3</v>
+      </c>
+      <c r="U307">
+        <v>2</v>
+      </c>
+      <c r="V307">
         <v>1.85</v>
       </c>
-      <c r="S307">
-        <v>2</v>
-      </c>
-      <c r="T307">
-        <v>2.75</v>
-      </c>
-      <c r="U307">
-        <v>1.8</v>
-      </c>
-      <c r="V307">
-        <v>2.05</v>
-      </c>
       <c r="W307">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X307">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y307">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z307">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA307">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB307">
+        <v>-1</v>
+      </c>
+      <c r="AC307">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27871,13 +27901,13 @@
         <v>1.85</v>
       </c>
       <c r="T308">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V308">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W308">
         <v>0</v>
@@ -28013,10 +28043,10 @@
         <v>-0.75</v>
       </c>
       <c r="R310">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S310">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T310">
         <v>2</v>
@@ -28087,10 +28117,10 @@
         <v>-0.25</v>
       </c>
       <c r="R311">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S311">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T311">
         <v>2</v>
@@ -28161,10 +28191,10 @@
         <v>-0.5</v>
       </c>
       <c r="R312">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S312">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T312">
         <v>2</v>
@@ -28235,10 +28265,10 @@
         <v>1.5</v>
       </c>
       <c r="R313">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S313">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T313">
         <v>2.75</v>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC313"/>
+  <dimension ref="A1:AC311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6627749</v>
+        <v>6703696</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K124">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="L124">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="N124">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="O124">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P124">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R124">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z124">
         <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6703695</v>
+        <v>6627749</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L125">
         <v>3.3</v>
       </c>
       <c r="M125">
+        <v>4.333</v>
+      </c>
+      <c r="N125">
+        <v>2.45</v>
+      </c>
+      <c r="O125">
+        <v>2.9</v>
+      </c>
+      <c r="P125">
         <v>3.3</v>
       </c>
-      <c r="N125">
-        <v>1.85</v>
-      </c>
-      <c r="O125">
-        <v>3.6</v>
-      </c>
-      <c r="P125">
-        <v>4</v>
-      </c>
       <c r="Q125">
+        <v>-0.25</v>
+      </c>
+      <c r="R125">
+        <v>2.025</v>
+      </c>
+      <c r="S125">
+        <v>1.825</v>
+      </c>
+      <c r="T125">
+        <v>2</v>
+      </c>
+      <c r="U125">
+        <v>2.1</v>
+      </c>
+      <c r="V125">
+        <v>1.775</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>1.9</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
         <v>-0.5</v>
       </c>
-      <c r="R125">
-        <v>1.925</v>
-      </c>
-      <c r="S125">
-        <v>1.925</v>
-      </c>
-      <c r="T125">
-        <v>2.75</v>
-      </c>
-      <c r="U125">
-        <v>2</v>
-      </c>
-      <c r="V125">
-        <v>1.85</v>
-      </c>
-      <c r="W125">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
-        <v>0.925</v>
-      </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6703696</v>
+        <v>6703695</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K126">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M126">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="N126">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="O126">
         <v>3.6</v>
       </c>
       <c r="P126">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="Q126">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S126">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA126">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45083.5625</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N133">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O133">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P133">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q133">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA133">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-0.5</v>
       </c>
       <c r="AC133">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45083.5625</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N134">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O134">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P134">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
+        <v>2.025</v>
+      </c>
+      <c r="T134">
+        <v>3.25</v>
+      </c>
+      <c r="U134">
+        <v>2</v>
+      </c>
+      <c r="V134">
         <v>1.85</v>
       </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>1.875</v>
-      </c>
-      <c r="V134">
-        <v>1.975</v>
-      </c>
       <c r="W134">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB134">
         <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6627724</v>
+        <v>6627290</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45084.53125</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K135">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="L135">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M135">
+        <v>1.45</v>
+      </c>
+      <c r="N135">
         <v>6</v>
       </c>
-      <c r="N135">
-        <v>1.45</v>
-      </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P135">
-        <v>8</v>
+        <v>1.55</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>1.85</v>
+      </c>
+      <c r="T135">
+        <v>2.75</v>
+      </c>
+      <c r="U135">
+        <v>1.825</v>
+      </c>
+      <c r="V135">
         <v>2.025</v>
       </c>
-      <c r="S135">
-        <v>1.825</v>
-      </c>
-      <c r="T135">
-        <v>2.5</v>
-      </c>
-      <c r="U135">
-        <v>1.85</v>
-      </c>
-      <c r="V135">
-        <v>2</v>
-      </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA135">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6627725</v>
+        <v>6627724</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,49 +12560,49 @@
         <v>45084.53125</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M136">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N136">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O136">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P136">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
+        <v>2.025</v>
+      </c>
+      <c r="S136">
         <v>1.825</v>
       </c>
-      <c r="S136">
-        <v>2.025</v>
-      </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
         <v>1.85</v>
@@ -12614,22 +12614,22 @@
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y136">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6627290</v>
+        <v>6627725</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,55 +12649,55 @@
         <v>45084.53125</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>48</v>
       </c>
       <c r="K137">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M137">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="N137">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="O137">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P137">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
+        <v>2.025</v>
+      </c>
+      <c r="T137">
+        <v>2.25</v>
+      </c>
+      <c r="U137">
         <v>1.85</v>
       </c>
-      <c r="T137">
-        <v>2.75</v>
-      </c>
-      <c r="U137">
-        <v>1.825</v>
-      </c>
       <c r="V137">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12706,19 +12706,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.55</v>
+        <v>1.8</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -27856,7 +27856,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6978383</v>
+        <v>6978403</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27865,34 +27865,34 @@
         <v>28</v>
       </c>
       <c r="E308" s="2">
-        <v>45346.32291666666</v>
+        <v>45346.53125</v>
       </c>
       <c r="F308" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G308" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K308">
         <v>1.444</v>
       </c>
       <c r="L308">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M308">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N308">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="O308">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P308">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q308">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R308">
         <v>2</v>
@@ -27901,13 +27901,13 @@
         <v>1.85</v>
       </c>
       <c r="T308">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U308">
+        <v>2.025</v>
+      </c>
+      <c r="V308">
         <v>1.825</v>
-      </c>
-      <c r="V308">
-        <v>2.025</v>
       </c>
       <c r="W308">
         <v>0</v>
@@ -27930,7 +27930,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6978408</v>
+        <v>6978404</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27939,49 +27939,49 @@
         <v>28</v>
       </c>
       <c r="E309" s="2">
-        <v>45346.42708333334</v>
+        <v>45347.39583333334</v>
       </c>
       <c r="F309" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G309" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K309">
+        <v>2.2</v>
+      </c>
+      <c r="L309">
         <v>3.2</v>
       </c>
-      <c r="L309">
-        <v>3</v>
-      </c>
       <c r="M309">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N309">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="O309">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P309">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q309">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R309">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S309">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="T309">
         <v>2</v>
       </c>
       <c r="U309">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V309">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W309">
         <v>0</v>
@@ -28004,7 +28004,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6978403</v>
+        <v>6978406</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28013,49 +28013,49 @@
         <v>28</v>
       </c>
       <c r="E310" s="2">
-        <v>45346.53125</v>
+        <v>45347.48958333334</v>
       </c>
       <c r="F310" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G310" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K310">
-        <v>1.444</v>
+        <v>1.6</v>
       </c>
       <c r="L310">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M310">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N310">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O310">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P310">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q310">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R310">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S310">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T310">
         <v>2</v>
       </c>
       <c r="U310">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V310">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W310">
         <v>0</v>
@@ -28078,7 +28078,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6978404</v>
+        <v>6978407</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28087,50 +28087,50 @@
         <v>28</v>
       </c>
       <c r="E311" s="2">
-        <v>45347.39583333334</v>
+        <v>45348.52083333334</v>
       </c>
       <c r="F311" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G311" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K311">
-        <v>2.2</v>
+        <v>13</v>
       </c>
       <c r="L311">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M311">
-        <v>3.4</v>
+        <v>1.222</v>
       </c>
       <c r="N311">
-        <v>2.15</v>
+        <v>12</v>
       </c>
       <c r="O311">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P311">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="Q311">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R311">
+        <v>2.025</v>
+      </c>
+      <c r="S311">
+        <v>1.825</v>
+      </c>
+      <c r="T311">
+        <v>2.75</v>
+      </c>
+      <c r="U311">
+        <v>1.95</v>
+      </c>
+      <c r="V311">
         <v>1.9</v>
       </c>
-      <c r="S311">
-        <v>1.95</v>
-      </c>
-      <c r="T311">
-        <v>2</v>
-      </c>
-      <c r="U311">
-        <v>1.875</v>
-      </c>
-      <c r="V311">
-        <v>1.975</v>
-      </c>
       <c r="W311">
         <v>0</v>
       </c>
@@ -28144,154 +28144,6 @@
         <v>0</v>
       </c>
       <c r="AA311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:29">
-      <c r="A312" s="1">
-        <v>310</v>
-      </c>
-      <c r="B312">
-        <v>6978406</v>
-      </c>
-      <c r="C312" t="s">
-        <v>28</v>
-      </c>
-      <c r="D312" t="s">
-        <v>28</v>
-      </c>
-      <c r="E312" s="2">
-        <v>45347.48958333334</v>
-      </c>
-      <c r="F312" t="s">
-        <v>31</v>
-      </c>
-      <c r="G312" t="s">
-        <v>36</v>
-      </c>
-      <c r="K312">
-        <v>1.6</v>
-      </c>
-      <c r="L312">
-        <v>3.75</v>
-      </c>
-      <c r="M312">
-        <v>5.75</v>
-      </c>
-      <c r="N312">
-        <v>1.8</v>
-      </c>
-      <c r="O312">
-        <v>3.5</v>
-      </c>
-      <c r="P312">
-        <v>4.75</v>
-      </c>
-      <c r="Q312">
-        <v>-0.5</v>
-      </c>
-      <c r="R312">
-        <v>1.85</v>
-      </c>
-      <c r="S312">
-        <v>2</v>
-      </c>
-      <c r="T312">
-        <v>2</v>
-      </c>
-      <c r="U312">
-        <v>1.8</v>
-      </c>
-      <c r="V312">
-        <v>2.05</v>
-      </c>
-      <c r="W312">
-        <v>0</v>
-      </c>
-      <c r="X312">
-        <v>0</v>
-      </c>
-      <c r="Y312">
-        <v>0</v>
-      </c>
-      <c r="Z312">
-        <v>0</v>
-      </c>
-      <c r="AA312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:29">
-      <c r="A313" s="1">
-        <v>311</v>
-      </c>
-      <c r="B313">
-        <v>6978407</v>
-      </c>
-      <c r="C313" t="s">
-        <v>28</v>
-      </c>
-      <c r="D313" t="s">
-        <v>28</v>
-      </c>
-      <c r="E313" s="2">
-        <v>45348.52083333334</v>
-      </c>
-      <c r="F313" t="s">
-        <v>34</v>
-      </c>
-      <c r="G313" t="s">
-        <v>43</v>
-      </c>
-      <c r="K313">
-        <v>13</v>
-      </c>
-      <c r="L313">
-        <v>6</v>
-      </c>
-      <c r="M313">
-        <v>1.222</v>
-      </c>
-      <c r="N313">
-        <v>12</v>
-      </c>
-      <c r="O313">
-        <v>5.25</v>
-      </c>
-      <c r="P313">
-        <v>1.285</v>
-      </c>
-      <c r="Q313">
-        <v>1.5</v>
-      </c>
-      <c r="R313">
-        <v>1.975</v>
-      </c>
-      <c r="S313">
-        <v>1.875</v>
-      </c>
-      <c r="T313">
-        <v>2.75</v>
-      </c>
-      <c r="U313">
-        <v>1.95</v>
-      </c>
-      <c r="V313">
-        <v>1.9</v>
-      </c>
-      <c r="W313">
-        <v>0</v>
-      </c>
-      <c r="X313">
-        <v>0</v>
-      </c>
-      <c r="Y313">
-        <v>0</v>
-      </c>
-      <c r="Z313">
-        <v>0</v>
-      </c>
-      <c r="AA313">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC311"/>
+  <dimension ref="A1:AC313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6703696</v>
+        <v>6703695</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="N124">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="O124">
         <v>3.6</v>
       </c>
       <c r="P124">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="Q124">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA124">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6627749</v>
+        <v>6703696</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K125">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="L125">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="N125">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="O125">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z125">
         <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6703695</v>
+        <v>6627749</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K126">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L126">
         <v>3.3</v>
       </c>
       <c r="M126">
+        <v>4.333</v>
+      </c>
+      <c r="N126">
+        <v>2.45</v>
+      </c>
+      <c r="O126">
+        <v>2.9</v>
+      </c>
+      <c r="P126">
         <v>3.3</v>
       </c>
-      <c r="N126">
-        <v>1.85</v>
-      </c>
-      <c r="O126">
-        <v>3.6</v>
-      </c>
-      <c r="P126">
-        <v>4</v>
-      </c>
       <c r="Q126">
+        <v>-0.25</v>
+      </c>
+      <c r="R126">
+        <v>2.025</v>
+      </c>
+      <c r="S126">
+        <v>1.825</v>
+      </c>
+      <c r="T126">
+        <v>2</v>
+      </c>
+      <c r="U126">
+        <v>2.1</v>
+      </c>
+      <c r="V126">
+        <v>1.775</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>1.9</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
         <v>-0.5</v>
       </c>
-      <c r="R126">
-        <v>1.925</v>
-      </c>
-      <c r="S126">
-        <v>1.925</v>
-      </c>
-      <c r="T126">
-        <v>2.75</v>
-      </c>
-      <c r="U126">
-        <v>2</v>
-      </c>
-      <c r="V126">
-        <v>1.85</v>
-      </c>
-      <c r="W126">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
-      <c r="Y126">
-        <v>-1</v>
-      </c>
-      <c r="Z126">
-        <v>0.925</v>
-      </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC126">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6627290</v>
+        <v>6627724</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45084.53125</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K135">
+        <v>1.5</v>
+      </c>
+      <c r="L135">
+        <v>3.8</v>
+      </c>
+      <c r="M135">
         <v>6</v>
       </c>
-      <c r="L135">
-        <v>4</v>
-      </c>
-      <c r="M135">
+      <c r="N135">
         <v>1.45</v>
       </c>
-      <c r="N135">
-        <v>6</v>
-      </c>
       <c r="O135">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>1.55</v>
+        <v>8</v>
       </c>
       <c r="Q135">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S135">
+        <v>1.825</v>
+      </c>
+      <c r="T135">
+        <v>2.5</v>
+      </c>
+      <c r="U135">
         <v>1.85</v>
       </c>
-      <c r="T135">
-        <v>2.75</v>
-      </c>
-      <c r="U135">
-        <v>1.825</v>
-      </c>
       <c r="V135">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y135">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6627724</v>
+        <v>6627290</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45084.53125</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K136">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="L136">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M136">
+        <v>1.45</v>
+      </c>
+      <c r="N136">
         <v>6</v>
       </c>
-      <c r="N136">
-        <v>1.45</v>
-      </c>
       <c r="O136">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P136">
-        <v>8</v>
+        <v>1.55</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>1.85</v>
+      </c>
+      <c r="T136">
+        <v>2.75</v>
+      </c>
+      <c r="U136">
+        <v>1.825</v>
+      </c>
+      <c r="V136">
         <v>2.025</v>
       </c>
-      <c r="S136">
-        <v>1.825</v>
-      </c>
-      <c r="T136">
-        <v>2.5</v>
-      </c>
-      <c r="U136">
-        <v>1.85</v>
-      </c>
-      <c r="V136">
-        <v>2</v>
-      </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA136">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -27856,7 +27856,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6978403</v>
+        <v>6978383</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27865,34 +27865,43 @@
         <v>28</v>
       </c>
       <c r="E308" s="2">
-        <v>45346.53125</v>
+        <v>45346.32291666666</v>
       </c>
       <c r="F308" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G308" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="H308">
+        <v>1</v>
+      </c>
+      <c r="I308">
+        <v>2</v>
+      </c>
+      <c r="J308" t="s">
+        <v>48</v>
       </c>
       <c r="K308">
         <v>1.444</v>
       </c>
       <c r="L308">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M308">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="N308">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="O308">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P308">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q308">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R308">
         <v>2</v>
@@ -27901,28 +27910,34 @@
         <v>1.85</v>
       </c>
       <c r="T308">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
+        <v>1.825</v>
+      </c>
+      <c r="V308">
         <v>2.025</v>
       </c>
-      <c r="V308">
-        <v>1.825</v>
-      </c>
       <c r="W308">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X308">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y308">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z308">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB308">
+        <v>0.825</v>
+      </c>
+      <c r="AC308">
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27930,7 +27945,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6978404</v>
+        <v>6978408</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27939,64 +27954,79 @@
         <v>28</v>
       </c>
       <c r="E309" s="2">
-        <v>45347.39583333334</v>
+        <v>45346.42708333334</v>
       </c>
       <c r="F309" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G309" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="H309">
+        <v>1</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309" t="s">
+        <v>49</v>
       </c>
       <c r="K309">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L309">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M309">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N309">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O309">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P309">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q309">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R309">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S309">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T309">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U309">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V309">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W309">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X309">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA309">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB309">
+        <v>-1</v>
+      </c>
+      <c r="AC309">
+        <v>1.025</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28004,7 +28034,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6978406</v>
+        <v>6978403</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28013,64 +28043,79 @@
         <v>28</v>
       </c>
       <c r="E310" s="2">
-        <v>45347.48958333334</v>
+        <v>45346.53125</v>
       </c>
       <c r="F310" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G310" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H310">
+        <v>4</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310" t="s">
+        <v>49</v>
       </c>
       <c r="K310">
-        <v>1.6</v>
+        <v>1.444</v>
       </c>
       <c r="L310">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M310">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="N310">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O310">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P310">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q310">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R310">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S310">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T310">
         <v>2</v>
       </c>
       <c r="U310">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V310">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W310">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X310">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y310">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA310">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB310">
+        <v>1</v>
+      </c>
+      <c r="AC310">
+        <v>-1</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28078,72 +28123,220 @@
         <v>309</v>
       </c>
       <c r="B311">
+        <v>6978404</v>
+      </c>
+      <c r="C311" t="s">
+        <v>28</v>
+      </c>
+      <c r="D311" t="s">
+        <v>28</v>
+      </c>
+      <c r="E311" s="2">
+        <v>45347.39583333334</v>
+      </c>
+      <c r="F311" t="s">
+        <v>38</v>
+      </c>
+      <c r="G311" t="s">
+        <v>45</v>
+      </c>
+      <c r="K311">
+        <v>2.2</v>
+      </c>
+      <c r="L311">
+        <v>3.2</v>
+      </c>
+      <c r="M311">
+        <v>3.4</v>
+      </c>
+      <c r="N311">
+        <v>2.15</v>
+      </c>
+      <c r="O311">
+        <v>3.2</v>
+      </c>
+      <c r="P311">
+        <v>3.6</v>
+      </c>
+      <c r="Q311">
+        <v>-0.25</v>
+      </c>
+      <c r="R311">
+        <v>1.925</v>
+      </c>
+      <c r="S311">
+        <v>1.925</v>
+      </c>
+      <c r="T311">
+        <v>2</v>
+      </c>
+      <c r="U311">
+        <v>1.9</v>
+      </c>
+      <c r="V311">
+        <v>1.95</v>
+      </c>
+      <c r="W311">
+        <v>0</v>
+      </c>
+      <c r="X311">
+        <v>0</v>
+      </c>
+      <c r="Y311">
+        <v>0</v>
+      </c>
+      <c r="Z311">
+        <v>0</v>
+      </c>
+      <c r="AA311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:29">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>6978406</v>
+      </c>
+      <c r="C312" t="s">
+        <v>28</v>
+      </c>
+      <c r="D312" t="s">
+        <v>28</v>
+      </c>
+      <c r="E312" s="2">
+        <v>45347.48958333334</v>
+      </c>
+      <c r="F312" t="s">
+        <v>31</v>
+      </c>
+      <c r="G312" t="s">
+        <v>36</v>
+      </c>
+      <c r="K312">
+        <v>1.6</v>
+      </c>
+      <c r="L312">
+        <v>3.75</v>
+      </c>
+      <c r="M312">
+        <v>5.75</v>
+      </c>
+      <c r="N312">
+        <v>1.85</v>
+      </c>
+      <c r="O312">
+        <v>3.4</v>
+      </c>
+      <c r="P312">
+        <v>4.333</v>
+      </c>
+      <c r="Q312">
+        <v>-0.5</v>
+      </c>
+      <c r="R312">
+        <v>1.85</v>
+      </c>
+      <c r="S312">
+        <v>2</v>
+      </c>
+      <c r="T312">
+        <v>2</v>
+      </c>
+      <c r="U312">
+        <v>1.825</v>
+      </c>
+      <c r="V312">
+        <v>2.025</v>
+      </c>
+      <c r="W312">
+        <v>0</v>
+      </c>
+      <c r="X312">
+        <v>0</v>
+      </c>
+      <c r="Y312">
+        <v>0</v>
+      </c>
+      <c r="Z312">
+        <v>0</v>
+      </c>
+      <c r="AA312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:29">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
         <v>6978407</v>
       </c>
-      <c r="C311" t="s">
-        <v>28</v>
-      </c>
-      <c r="D311" t="s">
-        <v>28</v>
-      </c>
-      <c r="E311" s="2">
+      <c r="C313" t="s">
+        <v>28</v>
+      </c>
+      <c r="D313" t="s">
+        <v>28</v>
+      </c>
+      <c r="E313" s="2">
         <v>45348.52083333334</v>
       </c>
-      <c r="F311" t="s">
+      <c r="F313" t="s">
         <v>34</v>
       </c>
-      <c r="G311" t="s">
+      <c r="G313" t="s">
         <v>43</v>
       </c>
-      <c r="K311">
+      <c r="K313">
         <v>13</v>
       </c>
-      <c r="L311">
+      <c r="L313">
         <v>6</v>
       </c>
-      <c r="M311">
+      <c r="M313">
         <v>1.222</v>
       </c>
-      <c r="N311">
+      <c r="N313">
         <v>12</v>
       </c>
-      <c r="O311">
+      <c r="O313">
         <v>5.25</v>
       </c>
-      <c r="P311">
+      <c r="P313">
         <v>1.285</v>
       </c>
-      <c r="Q311">
+      <c r="Q313">
         <v>1.5</v>
       </c>
-      <c r="R311">
+      <c r="R313">
         <v>2.025</v>
       </c>
-      <c r="S311">
+      <c r="S313">
         <v>1.825</v>
       </c>
-      <c r="T311">
+      <c r="T313">
         <v>2.75</v>
       </c>
-      <c r="U311">
+      <c r="U313">
         <v>1.95</v>
       </c>
-      <c r="V311">
+      <c r="V313">
         <v>1.9</v>
       </c>
-      <c r="W311">
-        <v>0</v>
-      </c>
-      <c r="X311">
-        <v>0</v>
-      </c>
-      <c r="Y311">
-        <v>0</v>
-      </c>
-      <c r="Z311">
-        <v>0</v>
-      </c>
-      <c r="AA311">
+      <c r="W313">
+        <v>0</v>
+      </c>
+      <c r="X313">
+        <v>0</v>
+      </c>
+      <c r="Y313">
+        <v>0</v>
+      </c>
+      <c r="Z313">
+        <v>0</v>
+      </c>
+      <c r="AA313">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -28171,10 +28171,10 @@
         <v>2</v>
       </c>
       <c r="U311">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V311">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W311">
         <v>0</v>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>Cherno More Varna</t>
   </si>
   <si>
-    <t>Levski Sofia</t>
+    <t>CSKA 1948 Sofia</t>
   </si>
   <si>
-    <t>CSKA 1948 Sofia</t>
+    <t>Levski Sofia</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC192"/>
+  <dimension ref="A1:AC193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6627725</v>
+        <v>6627724</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,46 +1432,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M11">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R11">
+        <v>2.025</v>
+      </c>
+      <c r="S11">
         <v>1.825</v>
       </c>
-      <c r="S11">
-        <v>2.025</v>
-      </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
         <v>1.85</v>
@@ -1483,22 +1483,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y11">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627724</v>
+        <v>6627725</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,46 +1521,46 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L12">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="O12">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q12">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R12">
+        <v>1.825</v>
+      </c>
+      <c r="S12">
         <v>2.025</v>
       </c>
-      <c r="S12">
-        <v>1.825</v>
-      </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
         <v>1.85</v>
@@ -1572,22 +1572,22 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,10 +1874,10 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
         <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2408,7 +2408,7 @@
         <v>45128.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2589,7 +2589,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4099,7 +4099,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -4903,7 +4903,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5523,7 +5523,7 @@
         <v>45159.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
         <v>42</v>
@@ -6149,7 +6149,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7395,7 +7395,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7748,7 +7748,7 @@
         <v>45191.47916666666</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
         <v>37</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8374,7 +8374,7 @@
         <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8641,7 +8641,7 @@
         <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10329,7 +10329,7 @@
         <v>45207.48958333334</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
         <v>36</v>
@@ -10777,7 +10777,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
         <v>37</v>
@@ -11486,7 +11486,7 @@
         <v>45225.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12821,10 +12821,10 @@
         <v>45237.52083333334</v>
       </c>
       <c r="F139" t="s">
+        <v>38</v>
+      </c>
+      <c r="G139" t="s">
         <v>39</v>
-      </c>
-      <c r="G139" t="s">
-        <v>38</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13444,7 +13444,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
         <v>36</v>
@@ -14070,7 +14070,7 @@
         <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14515,7 +14515,7 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15758,7 +15758,7 @@
         <v>45274.52083333334</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G172" t="s">
         <v>30</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16206,7 +16206,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17093,7 +17093,7 @@
         <v>45347.48958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G187" t="s">
         <v>35</v>
@@ -17187,6 +17187,15 @@
       <c r="G188" t="s">
         <v>33</v>
       </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188" t="s">
+        <v>45</v>
+      </c>
       <c r="K188">
         <v>13</v>
       </c>
@@ -17200,43 +17209,49 @@
         <v>13</v>
       </c>
       <c r="O188">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="P188">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="Q188">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
         <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V188">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA188">
-        <v>0</v>
+        <v>0.4625</v>
+      </c>
+      <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
+        <v>1.025</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17532,6 +17547,80 @@
         <v>0</v>
       </c>
       <c r="AA192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>6978410</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45354.39583333334</v>
+      </c>
+      <c r="F193" t="s">
+        <v>32</v>
+      </c>
+      <c r="G193" t="s">
+        <v>44</v>
+      </c>
+      <c r="K193">
+        <v>1.222</v>
+      </c>
+      <c r="L193">
+        <v>6</v>
+      </c>
+      <c r="M193">
+        <v>12</v>
+      </c>
+      <c r="N193">
+        <v>1.25</v>
+      </c>
+      <c r="O193">
+        <v>5.75</v>
+      </c>
+      <c r="P193">
+        <v>9.5</v>
+      </c>
+      <c r="Q193">
+        <v>-1.5</v>
+      </c>
+      <c r="R193">
+        <v>1.875</v>
+      </c>
+      <c r="S193">
+        <v>1.975</v>
+      </c>
+      <c r="T193">
+        <v>2.5</v>
+      </c>
+      <c r="U193">
+        <v>1.975</v>
+      </c>
+      <c r="V193">
+        <v>1.875</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
-    <t>Slavia Sofia</t>
+    <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Botev Plovdiv</t>
+    <t>Slavia Sofia</t>
   </si>
   <si>
     <t>Cherno More Varna</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC193"/>
+  <dimension ref="A1:AC196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N8">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
+        <v>2.025</v>
+      </c>
+      <c r="T8">
+        <v>3.25</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
         <v>1.85</v>
       </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
-      <c r="V8">
-        <v>1.975</v>
-      </c>
       <c r="W8">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O9">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P9">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q9">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,7 +4544,7 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
         <v>37</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>38</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
         <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>35</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8463,7 +8463,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,7 +8638,7 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>39</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10332,7 +10332,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13447,7 +13447,7 @@
         <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -15138,7 +15138,7 @@
         <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -17096,7 +17096,7 @@
         <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17286,31 +17286,31 @@
         <v>9</v>
       </c>
       <c r="N189">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="O189">
         <v>5.5</v>
       </c>
       <c r="P189">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q189">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189">
         <v>1.85</v>
-      </c>
-      <c r="S189">
-        <v>2</v>
       </c>
       <c r="T189">
         <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
         <v>0</v>
@@ -17360,31 +17360,31 @@
         <v>2.8</v>
       </c>
       <c r="N190">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O190">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P190">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q190">
         <v>0</v>
       </c>
       <c r="R190">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T190">
         <v>2.25</v>
       </c>
       <c r="U190">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V190">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W190">
         <v>0</v>
@@ -17440,25 +17440,25 @@
         <v>3.3</v>
       </c>
       <c r="P191">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q191">
         <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S191">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T191">
         <v>2</v>
       </c>
       <c r="U191">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V191">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W191">
         <v>0</v>
@@ -17493,10 +17493,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>36</v>
+      </c>
+      <c r="G192" t="s">
         <v>35</v>
-      </c>
-      <c r="G192" t="s">
-        <v>36</v>
       </c>
       <c r="K192">
         <v>2.4</v>
@@ -17508,22 +17508,22 @@
         <v>3</v>
       </c>
       <c r="N192">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="O192">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P192">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q192">
         <v>0</v>
       </c>
       <c r="R192">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S192">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T192">
         <v>2.25</v>
@@ -17582,45 +17582,267 @@
         <v>12</v>
       </c>
       <c r="N193">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="O193">
         <v>5.75</v>
       </c>
       <c r="P193">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Q193">
         <v>-1.5</v>
       </c>
       <c r="R193">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S193">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T193">
         <v>2.5</v>
       </c>
       <c r="U193">
+        <v>2</v>
+      </c>
+      <c r="V193">
+        <v>1.85</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>6978411</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45354.5</v>
+      </c>
+      <c r="F194" t="s">
+        <v>33</v>
+      </c>
+      <c r="G194" t="s">
+        <v>38</v>
+      </c>
+      <c r="K194">
+        <v>1.4</v>
+      </c>
+      <c r="L194">
+        <v>4.333</v>
+      </c>
+      <c r="M194">
+        <v>8.5</v>
+      </c>
+      <c r="N194">
+        <v>1.333</v>
+      </c>
+      <c r="O194">
+        <v>4.75</v>
+      </c>
+      <c r="P194">
+        <v>11</v>
+      </c>
+      <c r="Q194">
+        <v>-1.5</v>
+      </c>
+      <c r="R194">
         <v>1.975</v>
       </c>
-      <c r="V193">
+      <c r="S194">
         <v>1.875</v>
       </c>
-      <c r="W193">
-        <v>0</v>
-      </c>
-      <c r="X193">
-        <v>0</v>
-      </c>
-      <c r="Y193">
-        <v>0</v>
-      </c>
-      <c r="Z193">
-        <v>0</v>
-      </c>
-      <c r="AA193">
+      <c r="T194">
+        <v>2.75</v>
+      </c>
+      <c r="U194">
+        <v>1.975</v>
+      </c>
+      <c r="V194">
+        <v>1.875</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>6978415</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45355.41666666666</v>
+      </c>
+      <c r="F195" t="s">
+        <v>30</v>
+      </c>
+      <c r="G195" t="s">
+        <v>40</v>
+      </c>
+      <c r="K195">
+        <v>1.4</v>
+      </c>
+      <c r="L195">
+        <v>4.333</v>
+      </c>
+      <c r="M195">
+        <v>8.5</v>
+      </c>
+      <c r="N195">
+        <v>1.444</v>
+      </c>
+      <c r="O195">
+        <v>4</v>
+      </c>
+      <c r="P195">
+        <v>9</v>
+      </c>
+      <c r="Q195">
+        <v>-1.25</v>
+      </c>
+      <c r="R195">
+        <v>2.025</v>
+      </c>
+      <c r="S195">
+        <v>1.825</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
+        <v>2.05</v>
+      </c>
+      <c r="V195">
+        <v>1.8</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>6978384</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45355.52083333334</v>
+      </c>
+      <c r="F196" t="s">
+        <v>34</v>
+      </c>
+      <c r="G196" t="s">
+        <v>39</v>
+      </c>
+      <c r="K196">
+        <v>7</v>
+      </c>
+      <c r="L196">
+        <v>4.333</v>
+      </c>
+      <c r="M196">
+        <v>1.444</v>
+      </c>
+      <c r="N196">
+        <v>6.5</v>
+      </c>
+      <c r="O196">
+        <v>4.333</v>
+      </c>
+      <c r="P196">
+        <v>1.5</v>
+      </c>
+      <c r="Q196">
+        <v>1</v>
+      </c>
+      <c r="R196">
+        <v>1.925</v>
+      </c>
+      <c r="S196">
+        <v>1.925</v>
+      </c>
+      <c r="T196">
+        <v>2</v>
+      </c>
+      <c r="U196">
+        <v>1.8</v>
+      </c>
+      <c r="V196">
+        <v>2.05</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -127,13 +127,13 @@
     <t>Slavia Sofia</t>
   </si>
   <si>
-    <t>Cherno More Varna</t>
-  </si>
-  <si>
     <t>CSKA 1948 Sofia</t>
   </si>
   <si>
     <t>Levski Sofia</t>
+  </si>
+  <si>
+    <t>Cherno More Varna</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC196"/>
+  <dimension ref="A1:AC195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627290</v>
+        <v>6627724</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>1.5</v>
+      </c>
+      <c r="L10">
+        <v>3.8</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>1.45</v>
+      </c>
+      <c r="O10">
+        <v>4.2</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>-1.25</v>
+      </c>
+      <c r="R10">
+        <v>2.025</v>
+      </c>
+      <c r="S10">
+        <v>1.825</v>
+      </c>
+      <c r="T10">
+        <v>2.5</v>
+      </c>
+      <c r="U10">
+        <v>1.85</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>3.2</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
+        <v>-1</v>
+      </c>
+      <c r="AA10">
+        <v>0.825</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-      <c r="L10">
-        <v>4</v>
-      </c>
-      <c r="M10">
-        <v>1.45</v>
-      </c>
-      <c r="N10">
-        <v>6</v>
-      </c>
-      <c r="O10">
-        <v>4.333</v>
-      </c>
-      <c r="P10">
-        <v>1.55</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <v>1.85</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.825</v>
-      </c>
-      <c r="V10">
-        <v>2.025</v>
-      </c>
-      <c r="W10">
-        <v>-1</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>0.55</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>-0</v>
-      </c>
-      <c r="AB10">
-        <v>-1</v>
-      </c>
-      <c r="AC10">
-        <v>1.025</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6627724</v>
+        <v>6627725</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,46 +1432,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L11">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N11">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="O11">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q11">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R11">
+        <v>1.825</v>
+      </c>
+      <c r="S11">
         <v>2.025</v>
       </c>
-      <c r="S11">
-        <v>1.825</v>
-      </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
         <v>1.85</v>
@@ -1483,22 +1483,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627725</v>
+        <v>6627290</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,53 +1521,53 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="N12">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1.85</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
         <v>1.825</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>2.025</v>
       </c>
-      <c r="T12">
-        <v>2.25</v>
-      </c>
-      <c r="U12">
-        <v>1.85</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
       <c r="W12">
         <v>-1</v>
       </c>
@@ -1575,19 +1575,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
+        <v>-0</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
         <v>1.025</v>
-      </c>
-      <c r="AB12">
-        <v>-0.5</v>
-      </c>
-      <c r="AC12">
-        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,10 +1874,10 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1966,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2408,7 +2408,7 @@
         <v>45128.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2589,7 +2589,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>45130.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3565,7 +3565,7 @@
         <v>45142.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4099,7 +4099,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4547,7 +4547,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -4903,7 +4903,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5434,7 +5434,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5523,7 +5523,7 @@
         <v>45159.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
         <v>42</v>
@@ -5882,7 +5882,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6149,7 +6149,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7036,7 +7036,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7395,7 +7395,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7748,10 +7748,10 @@
         <v>45191.47916666666</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8374,7 +8374,7 @@
         <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>45195.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8641,7 +8641,7 @@
         <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10151,7 +10151,7 @@
         <v>45206.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45207.48958333334</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
         <v>35</v>
@@ -10777,7 +10777,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -11041,10 +11041,10 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
+        <v>38</v>
+      </c>
+      <c r="G119" t="s">
         <v>39</v>
-      </c>
-      <c r="G119" t="s">
-        <v>37</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11397,7 +11397,7 @@
         <v>45225.375</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11486,7 +11486,7 @@
         <v>45225.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12732,7 +12732,7 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12821,10 +12821,10 @@
         <v>45237.52083333334</v>
       </c>
       <c r="F139" t="s">
+        <v>37</v>
+      </c>
+      <c r="G139" t="s">
         <v>38</v>
-      </c>
-      <c r="G139" t="s">
-        <v>39</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13091,7 +13091,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13444,7 +13444,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
         <v>35</v>
@@ -13978,7 +13978,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14070,7 +14070,7 @@
         <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14515,7 +14515,7 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14604,7 +14604,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15135,7 +15135,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
         <v>36</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15758,7 +15758,7 @@
         <v>45274.52083333334</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G172" t="s">
         <v>30</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16206,7 +16206,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16826,7 +16826,7 @@
         <v>45346.42708333334</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17093,7 +17093,7 @@
         <v>45347.48958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
         <v>36</v>
@@ -17271,11 +17271,20 @@
         <v>45352.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
       </c>
+      <c r="H189">
+        <v>2</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189" t="s">
+        <v>46</v>
+      </c>
       <c r="K189">
         <v>1.3</v>
       </c>
@@ -17286,46 +17295,52 @@
         <v>9</v>
       </c>
       <c r="N189">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="O189">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="P189">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q189">
         <v>-1.75</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S189">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T189">
         <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W189">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="X189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB189">
+        <v>0.475</v>
+      </c>
+      <c r="AC189">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17333,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6978413</v>
+        <v>6978414</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17342,49 +17357,49 @@
         <v>28</v>
       </c>
       <c r="E190" s="2">
-        <v>45353.32291666666</v>
+        <v>45353.42708333334</v>
       </c>
       <c r="F190" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K190">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="L190">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M190">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N190">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O190">
         <v>3.25</v>
       </c>
       <c r="P190">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q190">
         <v>0</v>
       </c>
       <c r="R190">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S190">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T190">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U190">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W190">
         <v>0</v>
@@ -17407,7 +17422,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6978414</v>
+        <v>6978412</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17416,49 +17431,49 @@
         <v>28</v>
       </c>
       <c r="E191" s="2">
-        <v>45353.42708333334</v>
+        <v>45353.53125</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K191">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L191">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M191">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="N191">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="O191">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P191">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T191">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U191">
+        <v>2.025</v>
+      </c>
+      <c r="V191">
         <v>1.825</v>
-      </c>
-      <c r="V191">
-        <v>2.025</v>
       </c>
       <c r="W191">
         <v>0</v>
@@ -17481,7 +17496,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6978412</v>
+        <v>6978410</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17490,49 +17505,49 @@
         <v>28</v>
       </c>
       <c r="E192" s="2">
-        <v>45353.53125</v>
+        <v>45354.39583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G192" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K192">
-        <v>2.4</v>
+        <v>1.222</v>
       </c>
       <c r="L192">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M192">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N192">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="O192">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="P192">
+        <v>12</v>
+      </c>
+      <c r="Q192">
+        <v>-1.75</v>
+      </c>
+      <c r="R192">
+        <v>2.025</v>
+      </c>
+      <c r="S192">
+        <v>1.825</v>
+      </c>
+      <c r="T192">
         <v>2.5</v>
       </c>
-      <c r="Q192">
-        <v>0</v>
-      </c>
-      <c r="R192">
-        <v>2.05</v>
-      </c>
-      <c r="S192">
-        <v>1.8</v>
-      </c>
-      <c r="T192">
-        <v>2.25</v>
-      </c>
       <c r="U192">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W192">
         <v>0</v>
@@ -17555,7 +17570,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6978410</v>
+        <v>6978411</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17564,49 +17579,49 @@
         <v>28</v>
       </c>
       <c r="E193" s="2">
-        <v>45354.39583333334</v>
+        <v>45354.5</v>
       </c>
       <c r="F193" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G193" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K193">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="L193">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="M193">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="N193">
-        <v>1.285</v>
+        <v>1.333</v>
       </c>
       <c r="O193">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="P193">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q193">
         <v>-1.5</v>
       </c>
       <c r="R193">
+        <v>1.975</v>
+      </c>
+      <c r="S193">
+        <v>1.875</v>
+      </c>
+      <c r="T193">
+        <v>2.75</v>
+      </c>
+      <c r="U193">
+        <v>1.95</v>
+      </c>
+      <c r="V193">
         <v>1.9</v>
-      </c>
-      <c r="S193">
-        <v>1.95</v>
-      </c>
-      <c r="T193">
-        <v>2.5</v>
-      </c>
-      <c r="U193">
-        <v>2</v>
-      </c>
-      <c r="V193">
-        <v>1.85</v>
       </c>
       <c r="W193">
         <v>0</v>
@@ -17629,7 +17644,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6978411</v>
+        <v>6978415</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17638,13 +17653,13 @@
         <v>28</v>
       </c>
       <c r="E194" s="2">
-        <v>45354.5</v>
+        <v>45355.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G194" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K194">
         <v>1.4</v>
@@ -17656,31 +17671,31 @@
         <v>8.5</v>
       </c>
       <c r="N194">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O194">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P194">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q194">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R194">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S194">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T194">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V194">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W194">
         <v>0</v>
@@ -17703,7 +17718,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6978415</v>
+        <v>6978384</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17712,50 +17727,50 @@
         <v>28</v>
       </c>
       <c r="E195" s="2">
-        <v>45355.41666666666</v>
+        <v>45355.52083333334</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K195">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="L195">
         <v>4.333</v>
       </c>
       <c r="M195">
-        <v>8.5</v>
+        <v>1.444</v>
       </c>
       <c r="N195">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="O195">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P195">
-        <v>9</v>
+        <v>1.533</v>
       </c>
       <c r="Q195">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R195">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S195">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U195">
+        <v>1.8</v>
+      </c>
+      <c r="V195">
         <v>2.05</v>
       </c>
-      <c r="V195">
-        <v>1.8</v>
-      </c>
       <c r="W195">
         <v>0</v>
       </c>
@@ -17769,80 +17784,6 @@
         <v>0</v>
       </c>
       <c r="AA195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:27">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
-      <c r="B196">
-        <v>6978384</v>
-      </c>
-      <c r="C196" t="s">
-        <v>28</v>
-      </c>
-      <c r="D196" t="s">
-        <v>28</v>
-      </c>
-      <c r="E196" s="2">
-        <v>45355.52083333334</v>
-      </c>
-      <c r="F196" t="s">
-        <v>34</v>
-      </c>
-      <c r="G196" t="s">
-        <v>39</v>
-      </c>
-      <c r="K196">
-        <v>7</v>
-      </c>
-      <c r="L196">
-        <v>4.333</v>
-      </c>
-      <c r="M196">
-        <v>1.444</v>
-      </c>
-      <c r="N196">
-        <v>6.5</v>
-      </c>
-      <c r="O196">
-        <v>4.333</v>
-      </c>
-      <c r="P196">
-        <v>1.5</v>
-      </c>
-      <c r="Q196">
-        <v>1</v>
-      </c>
-      <c r="R196">
-        <v>1.925</v>
-      </c>
-      <c r="S196">
-        <v>1.925</v>
-      </c>
-      <c r="T196">
-        <v>2</v>
-      </c>
-      <c r="U196">
-        <v>1.8</v>
-      </c>
-      <c r="V196">
-        <v>2.05</v>
-      </c>
-      <c r="W196">
-        <v>0</v>
-      </c>
-      <c r="X196">
-        <v>0</v>
-      </c>
-      <c r="Y196">
-        <v>0</v>
-      </c>
-      <c r="Z196">
-        <v>0</v>
-      </c>
-      <c r="AA196">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,16 +121,16 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
+    <t>Slavia Sofia</t>
+  </si>
+  <si>
     <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Slavia Sofia</t>
+    <t>Levski Sofia</t>
   </si>
   <si>
     <t>CSKA 1948 Sofia</t>
-  </si>
-  <si>
-    <t>Levski Sofia</t>
   </si>
   <si>
     <t>Cherno More Varna</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC195"/>
+  <dimension ref="A1:AC196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N8">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O8">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N9">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P9">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
+        <v>2.025</v>
+      </c>
+      <c r="T9">
+        <v>3.25</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
-      <c r="V9">
-        <v>1.975</v>
-      </c>
       <c r="W9">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627724</v>
+        <v>6627725</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,46 +1343,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L10">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N10">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
+        <v>1.825</v>
+      </c>
+      <c r="S10">
         <v>2.025</v>
       </c>
-      <c r="S10">
-        <v>1.825</v>
-      </c>
       <c r="T10">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
         <v>1.85</v>
@@ -1394,22 +1394,22 @@
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6627725</v>
+        <v>6627724</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,46 +1432,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M11">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R11">
+        <v>2.025</v>
+      </c>
+      <c r="S11">
         <v>1.825</v>
       </c>
-      <c r="S11">
-        <v>2.025</v>
-      </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
         <v>1.85</v>
@@ -1483,22 +1483,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y11">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,10 +1874,10 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
         <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>45128.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2586,10 +2586,10 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4099,7 +4099,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,7 +4544,7 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -4903,7 +4903,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5523,7 +5523,7 @@
         <v>45159.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
         <v>42</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,10 +6146,10 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
         <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7395,7 +7395,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7748,7 +7748,7 @@
         <v>45191.47916666666</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
         <v>39</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8374,7 +8374,7 @@
         <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8463,7 +8463,7 @@
         <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,10 +8638,10 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10329,10 +10329,10 @@
         <v>45207.48958333334</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10777,7 +10777,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11041,7 +11041,7 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
         <v>39</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11486,7 +11486,7 @@
         <v>45225.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12821,10 +12821,10 @@
         <v>45237.52083333334</v>
       </c>
       <c r="F139" t="s">
+        <v>38</v>
+      </c>
+      <c r="G139" t="s">
         <v>37</v>
-      </c>
-      <c r="G139" t="s">
-        <v>38</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13444,10 +13444,10 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -14070,7 +14070,7 @@
         <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -14515,7 +14515,7 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15138,7 +15138,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15758,7 +15758,7 @@
         <v>45274.52083333334</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G172" t="s">
         <v>30</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16206,7 +16206,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17093,10 +17093,10 @@
         <v>45347.48958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6978414</v>
+        <v>6978413</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17357,64 +17357,79 @@
         <v>28</v>
       </c>
       <c r="E190" s="2">
-        <v>45353.42708333334</v>
+        <v>45353.32291666666</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190" t="s">
+        <v>45</v>
       </c>
       <c r="K190">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="L190">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M190">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="N190">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O190">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P190">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q190">
         <v>0</v>
       </c>
       <c r="R190">
+        <v>1.825</v>
+      </c>
+      <c r="S190">
+        <v>2.025</v>
+      </c>
+      <c r="T190">
+        <v>2</v>
+      </c>
+      <c r="U190">
+        <v>1.775</v>
+      </c>
+      <c r="V190">
         <v>2.1</v>
       </c>
-      <c r="S190">
-        <v>1.775</v>
-      </c>
-      <c r="T190">
-        <v>2</v>
-      </c>
-      <c r="U190">
-        <v>1.85</v>
-      </c>
-      <c r="V190">
-        <v>2</v>
-      </c>
       <c r="W190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB190">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC190">
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17422,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6978412</v>
+        <v>6978414</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17431,64 +17446,79 @@
         <v>28</v>
       </c>
       <c r="E191" s="2">
-        <v>45353.53125</v>
+        <v>45353.42708333334</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="H191">
+        <v>3</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191" t="s">
+        <v>46</v>
       </c>
       <c r="K191">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L191">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M191">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N191">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O191">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P191">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q191">
         <v>0</v>
       </c>
       <c r="R191">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S191">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T191">
         <v>2.25</v>
       </c>
       <c r="U191">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V191">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W191">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA191">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB191">
+        <v>1.05</v>
+      </c>
+      <c r="AC191">
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17496,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6978410</v>
+        <v>6978412</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17505,64 +17535,79 @@
         <v>28</v>
       </c>
       <c r="E192" s="2">
-        <v>45354.39583333334</v>
+        <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G192" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192" t="s">
+        <v>47</v>
       </c>
       <c r="K192">
-        <v>1.222</v>
+        <v>2.4</v>
       </c>
       <c r="L192">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M192">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N192">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="O192">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P192">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Q192">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R192">
+        <v>1.775</v>
+      </c>
+      <c r="S192">
+        <v>2.1</v>
+      </c>
+      <c r="T192">
+        <v>2.25</v>
+      </c>
+      <c r="U192">
         <v>2.025</v>
       </c>
-      <c r="S192">
+      <c r="V192">
         <v>1.825</v>
       </c>
-      <c r="T192">
-        <v>2.5</v>
-      </c>
-      <c r="U192">
-        <v>1.975</v>
-      </c>
-      <c r="V192">
-        <v>1.875</v>
-      </c>
       <c r="W192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X192">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
         <v>0</v>
       </c>
       <c r="AA192">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB192">
+        <v>1.025</v>
+      </c>
+      <c r="AC192">
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:27">
@@ -17570,7 +17615,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6978411</v>
+        <v>6978410</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17579,28 +17624,28 @@
         <v>28</v>
       </c>
       <c r="E193" s="2">
-        <v>45354.5</v>
+        <v>45354.39583333334</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G193" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K193">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="L193">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="M193">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="N193">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="O193">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P193">
         <v>11</v>
@@ -17609,19 +17654,19 @@
         <v>-1.5</v>
       </c>
       <c r="R193">
+        <v>1.825</v>
+      </c>
+      <c r="S193">
+        <v>2.025</v>
+      </c>
+      <c r="T193">
+        <v>2.5</v>
+      </c>
+      <c r="U193">
         <v>1.975</v>
       </c>
-      <c r="S193">
+      <c r="V193">
         <v>1.875</v>
-      </c>
-      <c r="T193">
-        <v>2.75</v>
-      </c>
-      <c r="U193">
-        <v>1.95</v>
-      </c>
-      <c r="V193">
-        <v>1.9</v>
       </c>
       <c r="W193">
         <v>0</v>
@@ -17644,7 +17689,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6978415</v>
+        <v>6978411</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17653,13 +17698,13 @@
         <v>28</v>
       </c>
       <c r="E194" s="2">
-        <v>45355.41666666666</v>
+        <v>45354.5</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G194" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K194">
         <v>1.4</v>
@@ -17671,31 +17716,31 @@
         <v>8.5</v>
       </c>
       <c r="N194">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O194">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P194">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q194">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R194">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S194">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U194">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V194">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
         <v>0</v>
@@ -17718,7 +17763,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6978384</v>
+        <v>6978415</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17727,63 +17772,137 @@
         <v>28</v>
       </c>
       <c r="E195" s="2">
-        <v>45355.52083333334</v>
+        <v>45355.41666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K195">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="L195">
         <v>4.333</v>
       </c>
       <c r="M195">
+        <v>8.5</v>
+      </c>
+      <c r="N195">
+        <v>1.5</v>
+      </c>
+      <c r="O195">
+        <v>4</v>
+      </c>
+      <c r="P195">
+        <v>8</v>
+      </c>
+      <c r="Q195">
+        <v>-1</v>
+      </c>
+      <c r="R195">
+        <v>1.8</v>
+      </c>
+      <c r="S195">
+        <v>2.05</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
+        <v>2.05</v>
+      </c>
+      <c r="V195">
+        <v>1.8</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>6978384</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45355.52083333334</v>
+      </c>
+      <c r="F196" t="s">
+        <v>34</v>
+      </c>
+      <c r="G196" t="s">
+        <v>37</v>
+      </c>
+      <c r="K196">
+        <v>7</v>
+      </c>
+      <c r="L196">
+        <v>4.333</v>
+      </c>
+      <c r="M196">
         <v>1.444</v>
       </c>
-      <c r="N195">
+      <c r="N196">
         <v>6</v>
       </c>
-      <c r="O195">
+      <c r="O196">
         <v>4.2</v>
       </c>
-      <c r="P195">
+      <c r="P196">
         <v>1.533</v>
       </c>
-      <c r="Q195">
+      <c r="Q196">
         <v>1</v>
       </c>
-      <c r="R195">
-        <v>1.85</v>
-      </c>
-      <c r="S195">
-        <v>2</v>
-      </c>
-      <c r="T195">
-        <v>2</v>
-      </c>
-      <c r="U195">
-        <v>1.8</v>
-      </c>
-      <c r="V195">
-        <v>2.05</v>
-      </c>
-      <c r="W195">
-        <v>0</v>
-      </c>
-      <c r="X195">
-        <v>0</v>
-      </c>
-      <c r="Y195">
-        <v>0</v>
-      </c>
-      <c r="Z195">
-        <v>0</v>
-      </c>
-      <c r="AA195">
+      <c r="R196">
+        <v>1.875</v>
+      </c>
+      <c r="S196">
+        <v>1.975</v>
+      </c>
+      <c r="T196">
+        <v>2</v>
+      </c>
+      <c r="U196">
+        <v>1.775</v>
+      </c>
+      <c r="V196">
+        <v>2.1</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,19 +121,19 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
+    <t>Botev Plovdiv</t>
+  </si>
+  <si>
     <t>Slavia Sofia</t>
   </si>
   <si>
-    <t>Botev Plovdiv</t>
-  </si>
-  <si>
-    <t>Levski Sofia</t>
+    <t>Cherno More Varna</t>
   </si>
   <si>
     <t>CSKA 1948 Sofia</t>
   </si>
   <si>
-    <t>Cherno More Varna</t>
+    <t>Levski Sofia</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC196"/>
+  <dimension ref="A1:AC204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N8">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
+        <v>2.025</v>
+      </c>
+      <c r="T8">
+        <v>3.25</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
         <v>1.85</v>
       </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
-      <c r="V8">
-        <v>1.975</v>
-      </c>
       <c r="W8">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O9">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P9">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q9">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627725</v>
+        <v>6627290</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,53 +1343,53 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
       </c>
       <c r="K10">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="N10">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1.85</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
         <v>1.825</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>2.025</v>
       </c>
-      <c r="T10">
-        <v>2.25</v>
-      </c>
-      <c r="U10">
-        <v>1.85</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
@@ -1397,19 +1397,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
+        <v>-0</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>1.025</v>
-      </c>
-      <c r="AB10">
-        <v>-0.5</v>
-      </c>
-      <c r="AC10">
-        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627290</v>
+        <v>6627725</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,52 +1521,52 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
+        <v>2.025</v>
+      </c>
+      <c r="T12">
+        <v>2.25</v>
+      </c>
+      <c r="U12">
         <v>1.85</v>
       </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1575,19 +1575,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.55</v>
+        <v>1.8</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,7 +1874,7 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>38</v>
@@ -1966,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2586,10 +2586,10 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>45130.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3565,7 +3565,7 @@
         <v>45142.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,10 +4544,10 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5434,7 +5434,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5882,7 +5882,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>38</v>
@@ -6327,7 +6327,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
         <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>35</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7036,7 +7036,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7751,7 +7751,7 @@
         <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8460,10 +8460,10 @@
         <v>45195.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,10 +8638,10 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10151,7 +10151,7 @@
         <v>45206.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10332,7 +10332,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11041,10 +11041,10 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
+        <v>39</v>
+      </c>
+      <c r="G119" t="s">
         <v>37</v>
-      </c>
-      <c r="G119" t="s">
-        <v>39</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11397,7 +11397,7 @@
         <v>45225.375</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12732,7 +12732,7 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12824,7 +12824,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13091,7 +13091,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13444,10 +13444,10 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13978,7 +13978,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -14604,7 +14604,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15135,10 +15135,10 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -16826,7 +16826,7 @@
         <v>45346.42708333334</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17096,7 +17096,7 @@
         <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17271,7 +17271,7 @@
         <v>45352.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17538,10 +17538,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>36</v>
+      </c>
+      <c r="G192" t="s">
         <v>35</v>
-      </c>
-      <c r="G192" t="s">
-        <v>36</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17610,7 +17610,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="193" spans="1:27">
+    <row r="193" spans="1:29">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -17632,6 +17632,15 @@
       <c r="G193" t="s">
         <v>44</v>
       </c>
+      <c r="H193">
+        <v>3</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193" t="s">
+        <v>46</v>
+      </c>
       <c r="K193">
         <v>1.222</v>
       </c>
@@ -17645,46 +17654,52 @@
         <v>1.25</v>
       </c>
       <c r="O193">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P193">
         <v>11</v>
       </c>
       <c r="Q193">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R193">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S193">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
         <v>2.5</v>
       </c>
       <c r="U193">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V193">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W193">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB193">
+        <v>0.825</v>
+      </c>
+      <c r="AC193">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -17706,6 +17721,15 @@
       <c r="G194" t="s">
         <v>38</v>
       </c>
+      <c r="H194">
+        <v>2</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194" t="s">
+        <v>46</v>
+      </c>
       <c r="K194">
         <v>1.4</v>
       </c>
@@ -17716,49 +17740,55 @@
         <v>8.5</v>
       </c>
       <c r="N194">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O194">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P194">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q194">
         <v>-1.5</v>
       </c>
       <c r="R194">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S194">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T194">
         <v>2.75</v>
       </c>
       <c r="U194">
+        <v>1.9</v>
+      </c>
+      <c r="V194">
         <v>1.95</v>
       </c>
-      <c r="V194">
-        <v>1.9</v>
-      </c>
       <c r="W194">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="X194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB194">
+        <v>-1</v>
+      </c>
+      <c r="AC194">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -17780,6 +17810,15 @@
       <c r="G195" t="s">
         <v>40</v>
       </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195" t="s">
+        <v>47</v>
+      </c>
       <c r="K195">
         <v>1.4</v>
       </c>
@@ -17802,37 +17841,43 @@
         <v>-1</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S195">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T195">
         <v>2.5</v>
       </c>
       <c r="U195">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V195">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:27">
+        <v>1.025</v>
+      </c>
+      <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -17852,7 +17897,16 @@
         <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196" t="s">
+        <v>45</v>
       </c>
       <c r="K196">
         <v>7</v>
@@ -17864,13 +17918,13 @@
         <v>1.444</v>
       </c>
       <c r="N196">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O196">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P196">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="Q196">
         <v>1</v>
@@ -17882,27 +17936,625 @@
         <v>1.975</v>
       </c>
       <c r="T196">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V196">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="W196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z196">
         <v>0</v>
       </c>
       <c r="AA196">
+        <v>-0</v>
+      </c>
+      <c r="AB196">
+        <v>-1</v>
+      </c>
+      <c r="AC196">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>6978418</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45359.5625</v>
+      </c>
+      <c r="F197" t="s">
+        <v>31</v>
+      </c>
+      <c r="G197" t="s">
+        <v>42</v>
+      </c>
+      <c r="K197">
+        <v>1.4</v>
+      </c>
+      <c r="L197">
+        <v>4.5</v>
+      </c>
+      <c r="M197">
+        <v>8</v>
+      </c>
+      <c r="N197">
+        <v>1.4</v>
+      </c>
+      <c r="O197">
+        <v>4.5</v>
+      </c>
+      <c r="P197">
+        <v>8</v>
+      </c>
+      <c r="Q197">
+        <v>-1.25</v>
+      </c>
+      <c r="R197">
+        <v>1.925</v>
+      </c>
+      <c r="S197">
+        <v>1.925</v>
+      </c>
+      <c r="T197">
+        <v>2.5</v>
+      </c>
+      <c r="U197">
+        <v>1.925</v>
+      </c>
+      <c r="V197">
+        <v>1.925</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>6978419</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45360.3125</v>
+      </c>
+      <c r="F198" t="s">
+        <v>29</v>
+      </c>
+      <c r="G198" t="s">
+        <v>36</v>
+      </c>
+      <c r="K198">
+        <v>2.35</v>
+      </c>
+      <c r="L198">
+        <v>3.1</v>
+      </c>
+      <c r="M198">
+        <v>3.2</v>
+      </c>
+      <c r="N198">
+        <v>3.1</v>
+      </c>
+      <c r="O198">
+        <v>3.1</v>
+      </c>
+      <c r="P198">
+        <v>2.375</v>
+      </c>
+      <c r="Q198">
+        <v>0.25</v>
+      </c>
+      <c r="R198">
+        <v>1.8</v>
+      </c>
+      <c r="S198">
+        <v>2.05</v>
+      </c>
+      <c r="T198">
+        <v>2</v>
+      </c>
+      <c r="U198">
+        <v>1.9</v>
+      </c>
+      <c r="V198">
+        <v>1.95</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>6978421</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45360.41666666666</v>
+      </c>
+      <c r="F199" t="s">
+        <v>38</v>
+      </c>
+      <c r="G199" t="s">
+        <v>32</v>
+      </c>
+      <c r="K199">
+        <v>2.7</v>
+      </c>
+      <c r="L199">
+        <v>3.1</v>
+      </c>
+      <c r="M199">
+        <v>2.7</v>
+      </c>
+      <c r="N199">
+        <v>3.25</v>
+      </c>
+      <c r="O199">
+        <v>3.2</v>
+      </c>
+      <c r="P199">
+        <v>2.3</v>
+      </c>
+      <c r="Q199">
+        <v>0.25</v>
+      </c>
+      <c r="R199">
+        <v>1.9</v>
+      </c>
+      <c r="S199">
+        <v>1.95</v>
+      </c>
+      <c r="T199">
+        <v>2</v>
+      </c>
+      <c r="U199">
+        <v>1.975</v>
+      </c>
+      <c r="V199">
+        <v>1.875</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>6978422</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45360.52083333334</v>
+      </c>
+      <c r="F200" t="s">
+        <v>44</v>
+      </c>
+      <c r="G200" t="s">
+        <v>37</v>
+      </c>
+      <c r="K200">
+        <v>4.8</v>
+      </c>
+      <c r="L200">
+        <v>3.6</v>
+      </c>
+      <c r="M200">
+        <v>1.727</v>
+      </c>
+      <c r="N200">
+        <v>4.5</v>
+      </c>
+      <c r="O200">
+        <v>3.75</v>
+      </c>
+      <c r="P200">
+        <v>1.7</v>
+      </c>
+      <c r="Q200">
+        <v>0.75</v>
+      </c>
+      <c r="R200">
+        <v>1.925</v>
+      </c>
+      <c r="S200">
+        <v>1.925</v>
+      </c>
+      <c r="T200">
+        <v>2.25</v>
+      </c>
+      <c r="U200">
+        <v>1.975</v>
+      </c>
+      <c r="V200">
+        <v>1.875</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>6978416</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45361.32291666666</v>
+      </c>
+      <c r="F201" t="s">
+        <v>43</v>
+      </c>
+      <c r="G201" t="s">
+        <v>30</v>
+      </c>
+      <c r="K201">
+        <v>5</v>
+      </c>
+      <c r="L201">
+        <v>3.5</v>
+      </c>
+      <c r="M201">
+        <v>1.727</v>
+      </c>
+      <c r="N201">
+        <v>3.8</v>
+      </c>
+      <c r="O201">
+        <v>3.5</v>
+      </c>
+      <c r="P201">
+        <v>1.95</v>
+      </c>
+      <c r="Q201">
+        <v>0.5</v>
+      </c>
+      <c r="R201">
+        <v>1.85</v>
+      </c>
+      <c r="S201">
+        <v>2</v>
+      </c>
+      <c r="T201">
+        <v>2.25</v>
+      </c>
+      <c r="U201">
+        <v>2</v>
+      </c>
+      <c r="V201">
+        <v>1.85</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>6978417</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45361.42708333334</v>
+      </c>
+      <c r="F202" t="s">
+        <v>39</v>
+      </c>
+      <c r="G202" t="s">
+        <v>41</v>
+      </c>
+      <c r="K202">
+        <v>1.4</v>
+      </c>
+      <c r="L202">
+        <v>4.333</v>
+      </c>
+      <c r="M202">
+        <v>8.5</v>
+      </c>
+      <c r="N202">
+        <v>1.333</v>
+      </c>
+      <c r="O202">
+        <v>4.333</v>
+      </c>
+      <c r="P202">
+        <v>12</v>
+      </c>
+      <c r="Q202">
+        <v>-1.25</v>
+      </c>
+      <c r="R202">
+        <v>1.85</v>
+      </c>
+      <c r="S202">
+        <v>2</v>
+      </c>
+      <c r="T202">
+        <v>2.25</v>
+      </c>
+      <c r="U202">
+        <v>1.9</v>
+      </c>
+      <c r="V202">
+        <v>1.95</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>6978420</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45361.53125</v>
+      </c>
+      <c r="F203" t="s">
+        <v>35</v>
+      </c>
+      <c r="G203" t="s">
+        <v>33</v>
+      </c>
+      <c r="K203">
+        <v>5.25</v>
+      </c>
+      <c r="L203">
+        <v>4.2</v>
+      </c>
+      <c r="M203">
+        <v>1.571</v>
+      </c>
+      <c r="N203">
+        <v>4.5</v>
+      </c>
+      <c r="O203">
+        <v>4.2</v>
+      </c>
+      <c r="P203">
+        <v>1.65</v>
+      </c>
+      <c r="Q203">
+        <v>0.75</v>
+      </c>
+      <c r="R203">
+        <v>2</v>
+      </c>
+      <c r="S203">
+        <v>1.85</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.825</v>
+      </c>
+      <c r="V203">
+        <v>2.025</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>6978385</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45362.52083333334</v>
+      </c>
+      <c r="F204" t="s">
+        <v>40</v>
+      </c>
+      <c r="G204" t="s">
+        <v>34</v>
+      </c>
+      <c r="K204">
+        <v>2.45</v>
+      </c>
+      <c r="L204">
+        <v>3.2</v>
+      </c>
+      <c r="M204">
+        <v>2.9</v>
+      </c>
+      <c r="N204">
+        <v>2.8</v>
+      </c>
+      <c r="O204">
+        <v>3.2</v>
+      </c>
+      <c r="P204">
+        <v>2.55</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>1.975</v>
+      </c>
+      <c r="S204">
+        <v>1.875</v>
+      </c>
+      <c r="T204">
+        <v>2</v>
+      </c>
+      <c r="U204">
+        <v>1.825</v>
+      </c>
+      <c r="V204">
+        <v>2.025</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,19 +121,19 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
+    <t>Slavia Sofia</t>
+  </si>
+  <si>
     <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Slavia Sofia</t>
-  </si>
-  <si>
-    <t>Cherno More Varna</t>
+    <t>Levski Sofia</t>
   </si>
   <si>
     <t>CSKA 1948 Sofia</t>
   </si>
   <si>
-    <t>Levski Sofia</t>
+    <t>Cherno More Varna</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC204"/>
+  <dimension ref="A1:AC202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N8">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O8">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N9">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P9">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
+        <v>2.025</v>
+      </c>
+      <c r="T9">
+        <v>3.25</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
-      <c r="V9">
-        <v>1.975</v>
-      </c>
       <c r="W9">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627290</v>
+        <v>6627725</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,52 +1343,52 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="N10">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S10">
+        <v>2.025</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
         <v>1.85</v>
       </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.825</v>
-      </c>
       <c r="V10">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1397,19 +1397,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.55</v>
+        <v>1.8</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627725</v>
+        <v>6627290</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,53 +1521,53 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="N12">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1.85</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
         <v>1.825</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>2.025</v>
       </c>
-      <c r="T12">
-        <v>2.25</v>
-      </c>
-      <c r="U12">
-        <v>1.85</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
       <c r="W12">
         <v>-1</v>
       </c>
@@ -1575,19 +1575,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
+        <v>-0</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
         <v>1.025</v>
-      </c>
-      <c r="AB12">
-        <v>-0.5</v>
-      </c>
-      <c r="AC12">
-        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,7 +1874,7 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
         <v>38</v>
@@ -1966,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2586,10 +2586,10 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>45130.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3565,7 +3565,7 @@
         <v>45142.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,10 +4544,10 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5434,7 +5434,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5882,7 +5882,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
         <v>38</v>
@@ -6327,7 +6327,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
         <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7036,7 +7036,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7751,7 +7751,7 @@
         <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8460,10 +8460,10 @@
         <v>45195.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,10 +8638,10 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10151,7 +10151,7 @@
         <v>45206.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10332,7 +10332,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11041,10 +11041,10 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119" t="s">
         <v>39</v>
-      </c>
-      <c r="G119" t="s">
-        <v>37</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11397,7 +11397,7 @@
         <v>45225.375</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12732,7 +12732,7 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12824,7 +12824,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13091,7 +13091,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13444,10 +13444,10 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13978,7 +13978,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -14604,7 +14604,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15135,10 +15135,10 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -16826,7 +16826,7 @@
         <v>45346.42708333334</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17096,7 +17096,7 @@
         <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17271,7 +17271,7 @@
         <v>45352.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17538,10 +17538,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>35</v>
+      </c>
+      <c r="G192" t="s">
         <v>36</v>
-      </c>
-      <c r="G192" t="s">
-        <v>35</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17897,7 +17897,7 @@
         <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17988,6 +17988,15 @@
       <c r="G197" t="s">
         <v>42</v>
       </c>
+      <c r="H197">
+        <v>3</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197" t="s">
+        <v>46</v>
+      </c>
       <c r="K197">
         <v>1.4</v>
       </c>
@@ -18010,34 +18019,40 @@
         <v>-1.25</v>
       </c>
       <c r="R197">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S197">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V197">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W197">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA197">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB197">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC197">
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18045,7 +18060,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6978419</v>
+        <v>6978422</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18054,49 +18069,49 @@
         <v>28</v>
       </c>
       <c r="E198" s="2">
-        <v>45360.3125</v>
+        <v>45360.52083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K198">
-        <v>2.35</v>
+        <v>4.8</v>
       </c>
       <c r="L198">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M198">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="N198">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="O198">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P198">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="Q198">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R198">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S198">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T198">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V198">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W198">
         <v>0</v>
@@ -18119,7 +18134,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6978421</v>
+        <v>6978416</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18128,43 +18143,43 @@
         <v>28</v>
       </c>
       <c r="E199" s="2">
-        <v>45360.41666666666</v>
+        <v>45361.32291666666</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G199" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K199">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="L199">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M199">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="N199">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="O199">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Q199">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R199">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S199">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T199">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U199">
         <v>1.975</v>
@@ -18193,7 +18208,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6978422</v>
+        <v>6978417</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18202,49 +18217,49 @@
         <v>28</v>
       </c>
       <c r="E200" s="2">
-        <v>45360.52083333334</v>
+        <v>45361.42708333334</v>
       </c>
       <c r="F200" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K200">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="L200">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M200">
-        <v>1.727</v>
+        <v>8.5</v>
       </c>
       <c r="N200">
+        <v>1.333</v>
+      </c>
+      <c r="O200">
         <v>4.5</v>
       </c>
-      <c r="O200">
-        <v>3.75</v>
-      </c>
       <c r="P200">
-        <v>1.7</v>
+        <v>12</v>
       </c>
       <c r="Q200">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R200">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S200">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T200">
         <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V200">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -18267,7 +18282,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6978416</v>
+        <v>6978420</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18276,49 +18291,49 @@
         <v>28</v>
       </c>
       <c r="E201" s="2">
-        <v>45361.32291666666</v>
+        <v>45361.53125</v>
       </c>
       <c r="F201" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K201">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="L201">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M201">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="N201">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="O201">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P201">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="Q201">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R201">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T201">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U201">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V201">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W201">
         <v>0</v>
@@ -18341,7 +18356,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6978417</v>
+        <v>6978385</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18350,49 +18365,49 @@
         <v>28</v>
       </c>
       <c r="E202" s="2">
-        <v>45361.42708333334</v>
+        <v>45362.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K202">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="L202">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M202">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="N202">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="O202">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P202">
-        <v>12</v>
+        <v>2.6</v>
       </c>
       <c r="Q202">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R202">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S202">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T202">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U202">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V202">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18407,154 +18422,6 @@
         <v>0</v>
       </c>
       <c r="AA202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:29">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203">
-        <v>6978420</v>
-      </c>
-      <c r="C203" t="s">
-        <v>28</v>
-      </c>
-      <c r="D203" t="s">
-        <v>28</v>
-      </c>
-      <c r="E203" s="2">
-        <v>45361.53125</v>
-      </c>
-      <c r="F203" t="s">
-        <v>35</v>
-      </c>
-      <c r="G203" t="s">
-        <v>33</v>
-      </c>
-      <c r="K203">
-        <v>5.25</v>
-      </c>
-      <c r="L203">
-        <v>4.2</v>
-      </c>
-      <c r="M203">
-        <v>1.571</v>
-      </c>
-      <c r="N203">
-        <v>4.5</v>
-      </c>
-      <c r="O203">
-        <v>4.2</v>
-      </c>
-      <c r="P203">
-        <v>1.65</v>
-      </c>
-      <c r="Q203">
-        <v>0.75</v>
-      </c>
-      <c r="R203">
-        <v>2</v>
-      </c>
-      <c r="S203">
-        <v>1.85</v>
-      </c>
-      <c r="T203">
-        <v>2.5</v>
-      </c>
-      <c r="U203">
-        <v>1.825</v>
-      </c>
-      <c r="V203">
-        <v>2.025</v>
-      </c>
-      <c r="W203">
-        <v>0</v>
-      </c>
-      <c r="X203">
-        <v>0</v>
-      </c>
-      <c r="Y203">
-        <v>0</v>
-      </c>
-      <c r="Z203">
-        <v>0</v>
-      </c>
-      <c r="AA203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:29">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204">
-        <v>6978385</v>
-      </c>
-      <c r="C204" t="s">
-        <v>28</v>
-      </c>
-      <c r="D204" t="s">
-        <v>28</v>
-      </c>
-      <c r="E204" s="2">
-        <v>45362.52083333334</v>
-      </c>
-      <c r="F204" t="s">
-        <v>40</v>
-      </c>
-      <c r="G204" t="s">
-        <v>34</v>
-      </c>
-      <c r="K204">
-        <v>2.45</v>
-      </c>
-      <c r="L204">
-        <v>3.2</v>
-      </c>
-      <c r="M204">
-        <v>2.9</v>
-      </c>
-      <c r="N204">
-        <v>2.8</v>
-      </c>
-      <c r="O204">
-        <v>3.2</v>
-      </c>
-      <c r="P204">
-        <v>2.55</v>
-      </c>
-      <c r="Q204">
-        <v>0</v>
-      </c>
-      <c r="R204">
-        <v>1.975</v>
-      </c>
-      <c r="S204">
-        <v>1.875</v>
-      </c>
-      <c r="T204">
-        <v>2</v>
-      </c>
-      <c r="U204">
-        <v>1.825</v>
-      </c>
-      <c r="V204">
-        <v>2.025</v>
-      </c>
-      <c r="W204">
-        <v>0</v>
-      </c>
-      <c r="X204">
-        <v>0</v>
-      </c>
-      <c r="Y204">
-        <v>0</v>
-      </c>
-      <c r="Z204">
-        <v>0</v>
-      </c>
-      <c r="AA204">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,19 +121,19 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
+    <t>Botev Plovdiv</t>
+  </si>
+  <si>
     <t>Slavia Sofia</t>
   </si>
   <si>
-    <t>Botev Plovdiv</t>
-  </si>
-  <si>
-    <t>Levski Sofia</t>
+    <t>Cherno More Varna</t>
   </si>
   <si>
     <t>CSKA 1948 Sofia</t>
   </si>
   <si>
-    <t>Cherno More Varna</t>
+    <t>Levski Sofia</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC202"/>
+  <dimension ref="A1:AC211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N8">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
+        <v>2.025</v>
+      </c>
+      <c r="T8">
+        <v>3.25</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
         <v>1.85</v>
       </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
-      <c r="V8">
-        <v>1.975</v>
-      </c>
       <c r="W8">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O9">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P9">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q9">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627725</v>
+        <v>6627290</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,53 +1343,53 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
       </c>
       <c r="K10">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="N10">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1.85</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
         <v>1.825</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>2.025</v>
       </c>
-      <c r="T10">
-        <v>2.25</v>
-      </c>
-      <c r="U10">
-        <v>1.85</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
@@ -1397,19 +1397,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
+        <v>-0</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>1.025</v>
-      </c>
-      <c r="AB10">
-        <v>-0.5</v>
-      </c>
-      <c r="AC10">
-        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627290</v>
+        <v>6627725</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,52 +1521,52 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
+        <v>2.025</v>
+      </c>
+      <c r="T12">
+        <v>2.25</v>
+      </c>
+      <c r="U12">
         <v>1.85</v>
       </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1575,19 +1575,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.55</v>
+        <v>1.8</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,7 +1874,7 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>38</v>
@@ -1966,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2586,10 +2586,10 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>45130.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3565,7 +3565,7 @@
         <v>45142.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,10 +4544,10 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5434,7 +5434,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5882,7 +5882,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>38</v>
@@ -6327,7 +6327,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
         <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>35</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7036,7 +7036,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7751,7 +7751,7 @@
         <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8460,10 +8460,10 @@
         <v>45195.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,10 +8638,10 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10151,7 +10151,7 @@
         <v>45206.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10332,7 +10332,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11041,10 +11041,10 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
+        <v>39</v>
+      </c>
+      <c r="G119" t="s">
         <v>37</v>
-      </c>
-      <c r="G119" t="s">
-        <v>39</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11397,7 +11397,7 @@
         <v>45225.375</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12732,7 +12732,7 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12824,7 +12824,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13091,7 +13091,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13444,10 +13444,10 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13978,7 +13978,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -14604,7 +14604,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15135,10 +15135,10 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -16826,7 +16826,7 @@
         <v>45346.42708333334</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17096,7 +17096,7 @@
         <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17271,7 +17271,7 @@
         <v>45352.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17538,10 +17538,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>36</v>
+      </c>
+      <c r="G192" t="s">
         <v>35</v>
-      </c>
-      <c r="G192" t="s">
-        <v>36</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17897,7 +17897,7 @@
         <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18060,7 +18060,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6978422</v>
+        <v>6978419</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18069,64 +18069,79 @@
         <v>28</v>
       </c>
       <c r="E198" s="2">
-        <v>45360.52083333334</v>
+        <v>45360.3125</v>
       </c>
       <c r="F198" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198" t="s">
+        <v>45</v>
       </c>
       <c r="K198">
-        <v>4.8</v>
+        <v>2.35</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M198">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="N198">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="O198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P198">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q198">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R198">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S198">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U198">
+        <v>2</v>
+      </c>
+      <c r="V198">
         <v>1.85</v>
       </c>
-      <c r="V198">
-        <v>2</v>
-      </c>
       <c r="W198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB198">
+        <v>1</v>
+      </c>
+      <c r="AC198">
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18134,7 +18149,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6978416</v>
+        <v>6978421</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18143,64 +18158,79 @@
         <v>28</v>
       </c>
       <c r="E199" s="2">
-        <v>45361.32291666666</v>
+        <v>45360.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199" t="s">
+        <v>45</v>
       </c>
       <c r="K199">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="L199">
+        <v>3.1</v>
+      </c>
+      <c r="M199">
+        <v>2.7</v>
+      </c>
+      <c r="N199">
+        <v>5.25</v>
+      </c>
+      <c r="O199">
         <v>3.5</v>
       </c>
-      <c r="M199">
+      <c r="P199">
         <v>1.727</v>
       </c>
-      <c r="N199">
-        <v>3.8</v>
-      </c>
-      <c r="O199">
-        <v>3.4</v>
-      </c>
-      <c r="P199">
-        <v>2</v>
-      </c>
       <c r="Q199">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R199">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T199">
         <v>2.25</v>
       </c>
       <c r="U199">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V199">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
-        <v>0</v>
+        <v>0.4875</v>
+      </c>
+      <c r="AB199">
+        <v>1.05</v>
+      </c>
+      <c r="AC199">
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18208,7 +18238,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6978417</v>
+        <v>6978422</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18217,40 +18247,49 @@
         <v>28</v>
       </c>
       <c r="E200" s="2">
-        <v>45361.42708333334</v>
+        <v>45360.52083333334</v>
       </c>
       <c r="F200" t="s">
+        <v>44</v>
+      </c>
+      <c r="G200" t="s">
         <v>37</v>
       </c>
-      <c r="G200" t="s">
-        <v>41</v>
+      <c r="H200">
+        <v>2</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200" t="s">
+        <v>46</v>
       </c>
       <c r="K200">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="L200">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M200">
-        <v>8.5</v>
+        <v>1.727</v>
       </c>
       <c r="N200">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="O200">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P200">
-        <v>12</v>
+        <v>1.533</v>
       </c>
       <c r="Q200">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R200">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S200">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T200">
         <v>2.25</v>
@@ -18262,19 +18301,25 @@
         <v>2</v>
       </c>
       <c r="W200">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA200">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB200">
+        <v>-0.5</v>
+      </c>
+      <c r="AC200">
+        <v>0.5</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18282,7 +18327,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6978420</v>
+        <v>6978416</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18291,64 +18336,79 @@
         <v>28</v>
       </c>
       <c r="E201" s="2">
-        <v>45361.53125</v>
+        <v>45361.32291666666</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G201" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+      <c r="J201" t="s">
+        <v>45</v>
       </c>
       <c r="K201">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="L201">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M201">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="N201">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O201">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P201">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="Q201">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R201">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S201">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V201">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB201">
+        <v>1</v>
+      </c>
+      <c r="AC201">
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18356,72 +18416,783 @@
         <v>200</v>
       </c>
       <c r="B202">
+        <v>6978417</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45361.42708333334</v>
+      </c>
+      <c r="F202" t="s">
+        <v>39</v>
+      </c>
+      <c r="G202" t="s">
+        <v>41</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202" t="s">
+        <v>47</v>
+      </c>
+      <c r="K202">
+        <v>1.4</v>
+      </c>
+      <c r="L202">
+        <v>4.333</v>
+      </c>
+      <c r="M202">
+        <v>8.5</v>
+      </c>
+      <c r="N202">
+        <v>1.4</v>
+      </c>
+      <c r="O202">
+        <v>4.2</v>
+      </c>
+      <c r="P202">
+        <v>9.5</v>
+      </c>
+      <c r="Q202">
+        <v>-1.25</v>
+      </c>
+      <c r="R202">
+        <v>2.025</v>
+      </c>
+      <c r="S202">
+        <v>1.825</v>
+      </c>
+      <c r="T202">
+        <v>2.25</v>
+      </c>
+      <c r="U202">
+        <v>1.875</v>
+      </c>
+      <c r="V202">
+        <v>1.975</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
+        <v>3.2</v>
+      </c>
+      <c r="Y202">
+        <v>-1</v>
+      </c>
+      <c r="Z202">
+        <v>-1</v>
+      </c>
+      <c r="AA202">
+        <v>0.825</v>
+      </c>
+      <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>6978420</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45361.53125</v>
+      </c>
+      <c r="F203" t="s">
+        <v>35</v>
+      </c>
+      <c r="G203" t="s">
+        <v>33</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203" t="s">
+        <v>45</v>
+      </c>
+      <c r="K203">
+        <v>5.25</v>
+      </c>
+      <c r="L203">
+        <v>4.2</v>
+      </c>
+      <c r="M203">
+        <v>1.571</v>
+      </c>
+      <c r="N203">
+        <v>4.2</v>
+      </c>
+      <c r="O203">
+        <v>3.8</v>
+      </c>
+      <c r="P203">
+        <v>1.8</v>
+      </c>
+      <c r="Q203">
+        <v>0.5</v>
+      </c>
+      <c r="R203">
+        <v>2</v>
+      </c>
+      <c r="S203">
+        <v>1.85</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.9</v>
+      </c>
+      <c r="V203">
+        <v>1.95</v>
+      </c>
+      <c r="W203">
+        <v>-1</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>0.8</v>
+      </c>
+      <c r="Z203">
+        <v>-1</v>
+      </c>
+      <c r="AA203">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
         <v>6978385</v>
       </c>
-      <c r="C202" t="s">
-        <v>28</v>
-      </c>
-      <c r="D202" t="s">
-        <v>28</v>
-      </c>
-      <c r="E202" s="2">
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
         <v>45362.52083333334</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F204" t="s">
         <v>40</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G204" t="s">
         <v>34</v>
       </c>
-      <c r="K202">
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="s">
+        <v>47</v>
+      </c>
+      <c r="K204">
         <v>2.45</v>
       </c>
-      <c r="L202">
+      <c r="L204">
         <v>3.2</v>
       </c>
-      <c r="M202">
+      <c r="M204">
         <v>2.9</v>
       </c>
-      <c r="N202">
+      <c r="N204">
         <v>2.75</v>
       </c>
-      <c r="O202">
+      <c r="O204">
+        <v>3.1</v>
+      </c>
+      <c r="P204">
+        <v>2.75</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>1.925</v>
+      </c>
+      <c r="S204">
+        <v>1.925</v>
+      </c>
+      <c r="T204">
+        <v>2</v>
+      </c>
+      <c r="U204">
+        <v>2</v>
+      </c>
+      <c r="V204">
+        <v>1.85</v>
+      </c>
+      <c r="W204">
+        <v>-1</v>
+      </c>
+      <c r="X204">
+        <v>2.1</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>-0</v>
+      </c>
+      <c r="AB204">
+        <v>0</v>
+      </c>
+      <c r="AC204">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>6978423</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45366.46875</v>
+      </c>
+      <c r="F205" t="s">
+        <v>44</v>
+      </c>
+      <c r="G205" t="s">
+        <v>43</v>
+      </c>
+      <c r="K205">
+        <v>1.85</v>
+      </c>
+      <c r="L205">
+        <v>3.5</v>
+      </c>
+      <c r="M205">
+        <v>4.333</v>
+      </c>
+      <c r="N205">
+        <v>1.909</v>
+      </c>
+      <c r="O205">
+        <v>3.4</v>
+      </c>
+      <c r="P205">
+        <v>4</v>
+      </c>
+      <c r="Q205">
+        <v>-0.5</v>
+      </c>
+      <c r="R205">
+        <v>1.95</v>
+      </c>
+      <c r="S205">
+        <v>1.9</v>
+      </c>
+      <c r="T205">
+        <v>2.25</v>
+      </c>
+      <c r="U205">
+        <v>2</v>
+      </c>
+      <c r="V205">
+        <v>1.85</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>6978424</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45366.57291666666</v>
+      </c>
+      <c r="F206" t="s">
+        <v>37</v>
+      </c>
+      <c r="G206" t="s">
+        <v>38</v>
+      </c>
+      <c r="K206">
+        <v>1.6</v>
+      </c>
+      <c r="L206">
+        <v>3.75</v>
+      </c>
+      <c r="M206">
+        <v>6</v>
+      </c>
+      <c r="N206">
+        <v>1.55</v>
+      </c>
+      <c r="O206">
+        <v>3.8</v>
+      </c>
+      <c r="P206">
+        <v>6.5</v>
+      </c>
+      <c r="Q206">
+        <v>-1</v>
+      </c>
+      <c r="R206">
+        <v>2.025</v>
+      </c>
+      <c r="S206">
+        <v>1.825</v>
+      </c>
+      <c r="T206">
+        <v>2.25</v>
+      </c>
+      <c r="U206">
+        <v>2.05</v>
+      </c>
+      <c r="V206">
+        <v>1.8</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>6978427</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45367.32291666666</v>
+      </c>
+      <c r="F207" t="s">
+        <v>36</v>
+      </c>
+      <c r="G207" t="s">
+        <v>31</v>
+      </c>
+      <c r="K207">
+        <v>2.15</v>
+      </c>
+      <c r="L207">
         <v>3.25</v>
       </c>
-      <c r="P202">
-        <v>2.6</v>
-      </c>
-      <c r="Q202">
-        <v>0</v>
-      </c>
-      <c r="R202">
+      <c r="M207">
+        <v>3.5</v>
+      </c>
+      <c r="N207">
+        <v>2.1</v>
+      </c>
+      <c r="O207">
+        <v>3.25</v>
+      </c>
+      <c r="P207">
+        <v>3.6</v>
+      </c>
+      <c r="Q207">
+        <v>-0.25</v>
+      </c>
+      <c r="R207">
+        <v>1.8</v>
+      </c>
+      <c r="S207">
+        <v>2.05</v>
+      </c>
+      <c r="T207">
+        <v>2.25</v>
+      </c>
+      <c r="U207">
+        <v>2.1</v>
+      </c>
+      <c r="V207">
+        <v>1.775</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>6978428</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45367.42708333334</v>
+      </c>
+      <c r="F208" t="s">
+        <v>42</v>
+      </c>
+      <c r="G208" t="s">
+        <v>39</v>
+      </c>
+      <c r="K208">
+        <v>9.5</v>
+      </c>
+      <c r="L208">
+        <v>4.5</v>
+      </c>
+      <c r="M208">
+        <v>1.363</v>
+      </c>
+      <c r="N208">
+        <v>12</v>
+      </c>
+      <c r="O208">
+        <v>4.5</v>
+      </c>
+      <c r="P208">
+        <v>1.3</v>
+      </c>
+      <c r="Q208">
+        <v>1.5</v>
+      </c>
+      <c r="R208">
+        <v>1.8</v>
+      </c>
+      <c r="S208">
+        <v>2.05</v>
+      </c>
+      <c r="T208">
+        <v>2.25</v>
+      </c>
+      <c r="U208">
+        <v>1.875</v>
+      </c>
+      <c r="V208">
         <v>1.975</v>
       </c>
-      <c r="S202">
-        <v>1.875</v>
-      </c>
-      <c r="T202">
-        <v>2</v>
-      </c>
-      <c r="U202">
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>6978429</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45368.32291666666</v>
+      </c>
+      <c r="F209" t="s">
+        <v>41</v>
+      </c>
+      <c r="G209" t="s">
+        <v>40</v>
+      </c>
+      <c r="K209">
+        <v>1.727</v>
+      </c>
+      <c r="L209">
+        <v>3.75</v>
+      </c>
+      <c r="M209">
+        <v>4.75</v>
+      </c>
+      <c r="N209">
+        <v>1.615</v>
+      </c>
+      <c r="O209">
+        <v>3.8</v>
+      </c>
+      <c r="P209">
+        <v>5.5</v>
+      </c>
+      <c r="Q209">
+        <v>-0.75</v>
+      </c>
+      <c r="R209">
+        <v>1.8</v>
+      </c>
+      <c r="S209">
+        <v>2.05</v>
+      </c>
+      <c r="T209">
+        <v>2.25</v>
+      </c>
+      <c r="U209">
+        <v>2.025</v>
+      </c>
+      <c r="V209">
         <v>1.825</v>
       </c>
-      <c r="V202">
-        <v>2.025</v>
-      </c>
-      <c r="W202">
-        <v>0</v>
-      </c>
-      <c r="X202">
-        <v>0</v>
-      </c>
-      <c r="Y202">
-        <v>0</v>
-      </c>
-      <c r="Z202">
-        <v>0</v>
-      </c>
-      <c r="AA202">
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>6978386</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45368.42708333334</v>
+      </c>
+      <c r="F210" t="s">
+        <v>34</v>
+      </c>
+      <c r="G210" t="s">
+        <v>30</v>
+      </c>
+      <c r="K210">
+        <v>3.25</v>
+      </c>
+      <c r="L210">
+        <v>3.2</v>
+      </c>
+      <c r="M210">
+        <v>2.3</v>
+      </c>
+      <c r="N210">
+        <v>3.4</v>
+      </c>
+      <c r="O210">
+        <v>3.2</v>
+      </c>
+      <c r="P210">
+        <v>2.25</v>
+      </c>
+      <c r="Q210">
+        <v>0.25</v>
+      </c>
+      <c r="R210">
+        <v>1.925</v>
+      </c>
+      <c r="S210">
+        <v>1.925</v>
+      </c>
+      <c r="T210">
+        <v>2.25</v>
+      </c>
+      <c r="U210">
+        <v>2.05</v>
+      </c>
+      <c r="V210">
+        <v>1.8</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>6978425</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45368.53125</v>
+      </c>
+      <c r="F211" t="s">
+        <v>32</v>
+      </c>
+      <c r="G211" t="s">
+        <v>35</v>
+      </c>
+      <c r="K211">
+        <v>1.6</v>
+      </c>
+      <c r="L211">
+        <v>4</v>
+      </c>
+      <c r="M211">
+        <v>5.5</v>
+      </c>
+      <c r="N211">
+        <v>1.6</v>
+      </c>
+      <c r="O211">
+        <v>4</v>
+      </c>
+      <c r="P211">
+        <v>5.75</v>
+      </c>
+      <c r="Q211">
+        <v>-1</v>
+      </c>
+      <c r="R211">
+        <v>2.05</v>
+      </c>
+      <c r="S211">
+        <v>1.8</v>
+      </c>
+      <c r="T211">
+        <v>2.5</v>
+      </c>
+      <c r="U211">
+        <v>1.95</v>
+      </c>
+      <c r="V211">
+        <v>1.9</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -18700,6 +18700,15 @@
       <c r="G205" t="s">
         <v>43</v>
       </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
+        <v>2</v>
+      </c>
+      <c r="J205" t="s">
+        <v>47</v>
+      </c>
       <c r="K205">
         <v>1.85</v>
       </c>
@@ -18710,46 +18719,52 @@
         <v>4.333</v>
       </c>
       <c r="N205">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O205">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P205">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q205">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R205">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S205">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T205">
         <v>2.25</v>
       </c>
       <c r="U205">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB205">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC205">
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18774,6 +18789,15 @@
       <c r="G206" t="s">
         <v>38</v>
       </c>
+      <c r="H206">
+        <v>2</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206" t="s">
+        <v>46</v>
+      </c>
       <c r="K206">
         <v>1.6</v>
       </c>
@@ -18790,19 +18814,19 @@
         <v>3.8</v>
       </c>
       <c r="P206">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q206">
         <v>-1</v>
       </c>
       <c r="R206">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S206">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T206">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
         <v>2.05</v>
@@ -18811,19 +18835,25 @@
         <v>1.8</v>
       </c>
       <c r="W206">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="X206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
         <v>0</v>
       </c>
       <c r="AA206">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB206">
+        <v>1.05</v>
+      </c>
+      <c r="AC206">
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18848,6 +18878,15 @@
       <c r="G207" t="s">
         <v>31</v>
       </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>2</v>
+      </c>
+      <c r="J207" t="s">
+        <v>45</v>
+      </c>
       <c r="K207">
         <v>2.15</v>
       </c>
@@ -18858,46 +18897,52 @@
         <v>3.5</v>
       </c>
       <c r="N207">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O207">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P207">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q207">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S207">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T207">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U207">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V207">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB207">
+        <v>0.875</v>
+      </c>
+      <c r="AC207">
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18922,6 +18967,15 @@
       <c r="G208" t="s">
         <v>39</v>
       </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>3</v>
+      </c>
+      <c r="J208" t="s">
+        <v>45</v>
+      </c>
       <c r="K208">
         <v>9.5</v>
       </c>
@@ -18932,16 +18986,16 @@
         <v>1.363</v>
       </c>
       <c r="N208">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="O208">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P208">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q208">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="R208">
         <v>1.8</v>
@@ -18953,33 +19007,39 @@
         <v>2.25</v>
       </c>
       <c r="U208">
+        <v>1.975</v>
+      </c>
+      <c r="V208">
         <v>1.875</v>
       </c>
-      <c r="V208">
-        <v>1.975</v>
-      </c>
       <c r="W208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27">
+        <v>1.05</v>
+      </c>
+      <c r="AB208">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC208">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6978429</v>
+        <v>6978426</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -18988,67 +19048,82 @@
         <v>28</v>
       </c>
       <c r="E209" s="2">
-        <v>45368.32291666666</v>
+        <v>45367.53125</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G209" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="H209">
+        <v>6</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209" t="s">
+        <v>46</v>
       </c>
       <c r="K209">
-        <v>1.727</v>
+        <v>1.083</v>
       </c>
       <c r="L209">
-        <v>3.75</v>
+        <v>9.5</v>
       </c>
       <c r="M209">
-        <v>4.75</v>
+        <v>29</v>
       </c>
       <c r="N209">
-        <v>1.615</v>
+        <v>1.111</v>
       </c>
       <c r="O209">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P209">
-        <v>5.5</v>
+        <v>23</v>
       </c>
       <c r="Q209">
-        <v>-0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R209">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S209">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U209">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V209">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="X209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB209">
+        <v>0.95</v>
+      </c>
+      <c r="AC209">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -19083,7 +19158,7 @@
         <v>3.4</v>
       </c>
       <c r="O210">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P210">
         <v>2.25</v>
@@ -19098,13 +19173,13 @@
         <v>1.925</v>
       </c>
       <c r="T210">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V210">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19122,7 +19197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:27">
+    <row r="211" spans="1:29">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -19154,16 +19229,16 @@
         <v>5.5</v>
       </c>
       <c r="N211">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="O211">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P211">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q211">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R211">
         <v>2.05</v>
@@ -19175,10 +19250,10 @@
         <v>2.5</v>
       </c>
       <c r="U211">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V211">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W211">
         <v>0</v>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,19 +121,19 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
+    <t>Slavia Sofia</t>
+  </si>
+  <si>
     <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Slavia Sofia</t>
-  </si>
-  <si>
-    <t>Cherno More Varna</t>
+    <t>Levski Sofia</t>
   </si>
   <si>
     <t>CSKA 1948 Sofia</t>
   </si>
   <si>
-    <t>Levski Sofia</t>
+    <t>Cherno More Varna</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC211"/>
+  <dimension ref="A1:AC220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N8">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O8">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N9">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P9">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
+        <v>2.025</v>
+      </c>
+      <c r="T9">
+        <v>3.25</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
-      <c r="V9">
-        <v>1.975</v>
-      </c>
       <c r="W9">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627290</v>
+        <v>6627725</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,52 +1343,52 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="N10">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S10">
+        <v>2.025</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
         <v>1.85</v>
       </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.825</v>
-      </c>
       <c r="V10">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1397,19 +1397,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.55</v>
+        <v>1.8</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627725</v>
+        <v>6627290</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,53 +1521,53 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="N12">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1.85</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
         <v>1.825</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>2.025</v>
       </c>
-      <c r="T12">
-        <v>2.25</v>
-      </c>
-      <c r="U12">
-        <v>1.85</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
       <c r="W12">
         <v>-1</v>
       </c>
@@ -1575,19 +1575,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
+        <v>-0</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
         <v>1.025</v>
-      </c>
-      <c r="AB12">
-        <v>-0.5</v>
-      </c>
-      <c r="AC12">
-        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,7 +1874,7 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
         <v>38</v>
@@ -1966,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2586,10 +2586,10 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>45130.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3565,7 +3565,7 @@
         <v>45142.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,10 +4544,10 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5434,7 +5434,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5882,7 +5882,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
         <v>38</v>
@@ -6327,7 +6327,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
         <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7036,7 +7036,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7751,7 +7751,7 @@
         <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8460,10 +8460,10 @@
         <v>45195.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,10 +8638,10 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10151,7 +10151,7 @@
         <v>45206.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10332,7 +10332,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11041,10 +11041,10 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119" t="s">
         <v>39</v>
-      </c>
-      <c r="G119" t="s">
-        <v>37</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11397,7 +11397,7 @@
         <v>45225.375</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12732,7 +12732,7 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12824,7 +12824,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13091,7 +13091,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13444,10 +13444,10 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13978,7 +13978,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -14604,7 +14604,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15135,10 +15135,10 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -16826,7 +16826,7 @@
         <v>45346.42708333334</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17096,7 +17096,7 @@
         <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17271,7 +17271,7 @@
         <v>45352.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17538,10 +17538,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>35</v>
+      </c>
+      <c r="G192" t="s">
         <v>36</v>
-      </c>
-      <c r="G192" t="s">
-        <v>35</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17897,7 +17897,7 @@
         <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18075,7 +18075,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18253,7 +18253,7 @@
         <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18428,7 +18428,7 @@
         <v>45361.42708333334</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G202" t="s">
         <v>41</v>
@@ -18517,7 +18517,7 @@
         <v>45361.53125</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18784,7 +18784,7 @@
         <v>45366.57291666666</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G206" t="s">
         <v>38</v>
@@ -18873,7 +18873,7 @@
         <v>45367.32291666666</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
         <v>31</v>
@@ -18965,7 +18965,7 @@
         <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19128,7 +19128,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6978386</v>
+        <v>6978429</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19137,64 +19137,79 @@
         <v>28</v>
       </c>
       <c r="E210" s="2">
-        <v>45368.42708333334</v>
+        <v>45368.32291666666</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G210" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210" t="s">
+        <v>47</v>
       </c>
       <c r="K210">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M210">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N210">
+        <v>1.666</v>
+      </c>
+      <c r="O210">
         <v>3.4</v>
       </c>
-      <c r="O210">
-        <v>3.25</v>
-      </c>
       <c r="P210">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q210">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S210">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T210">
         <v>2</v>
       </c>
       <c r="U210">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V210">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB210">
+        <v>0.875</v>
+      </c>
+      <c r="AC210">
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19202,72 +19217,768 @@
         <v>209</v>
       </c>
       <c r="B211">
+        <v>6978386</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45368.42708333334</v>
+      </c>
+      <c r="F211" t="s">
+        <v>34</v>
+      </c>
+      <c r="G211" t="s">
+        <v>30</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>46</v>
+      </c>
+      <c r="K211">
+        <v>3.25</v>
+      </c>
+      <c r="L211">
+        <v>3.2</v>
+      </c>
+      <c r="M211">
+        <v>2.3</v>
+      </c>
+      <c r="N211">
+        <v>3.25</v>
+      </c>
+      <c r="O211">
+        <v>3.25</v>
+      </c>
+      <c r="P211">
+        <v>2.3</v>
+      </c>
+      <c r="Q211">
+        <v>0.25</v>
+      </c>
+      <c r="R211">
+        <v>1.875</v>
+      </c>
+      <c r="S211">
+        <v>1.975</v>
+      </c>
+      <c r="T211">
+        <v>2</v>
+      </c>
+      <c r="U211">
+        <v>1.85</v>
+      </c>
+      <c r="V211">
+        <v>2</v>
+      </c>
+      <c r="W211">
+        <v>2.25</v>
+      </c>
+      <c r="X211">
+        <v>-1</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
+        <v>0.875</v>
+      </c>
+      <c r="AA211">
+        <v>-1</v>
+      </c>
+      <c r="AB211">
+        <v>-1</v>
+      </c>
+      <c r="AC211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
         <v>6978425</v>
       </c>
-      <c r="C211" t="s">
-        <v>28</v>
-      </c>
-      <c r="D211" t="s">
-        <v>28</v>
-      </c>
-      <c r="E211" s="2">
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
         <v>45368.53125</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F212" t="s">
         <v>32</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G212" t="s">
+        <v>36</v>
+      </c>
+      <c r="H212">
+        <v>4</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212" t="s">
+        <v>46</v>
+      </c>
+      <c r="K212">
+        <v>1.6</v>
+      </c>
+      <c r="L212">
+        <v>4</v>
+      </c>
+      <c r="M212">
+        <v>5.5</v>
+      </c>
+      <c r="N212">
+        <v>1.285</v>
+      </c>
+      <c r="O212">
+        <v>5.5</v>
+      </c>
+      <c r="P212">
+        <v>10</v>
+      </c>
+      <c r="Q212">
+        <v>-1.5</v>
+      </c>
+      <c r="R212">
+        <v>1.85</v>
+      </c>
+      <c r="S212">
+        <v>2</v>
+      </c>
+      <c r="T212">
+        <v>2.75</v>
+      </c>
+      <c r="U212">
+        <v>1.925</v>
+      </c>
+      <c r="V212">
+        <v>1.925</v>
+      </c>
+      <c r="W212">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA212">
+        <v>-1</v>
+      </c>
+      <c r="AB212">
+        <v>0.925</v>
+      </c>
+      <c r="AC212">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>7973582</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45380.375</v>
+      </c>
+      <c r="F213" t="s">
+        <v>40</v>
+      </c>
+      <c r="G213" t="s">
+        <v>42</v>
+      </c>
+      <c r="K213">
+        <v>1.909</v>
+      </c>
+      <c r="L213">
+        <v>3.3</v>
+      </c>
+      <c r="M213">
+        <v>4.2</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213">
+        <v>3.3</v>
+      </c>
+      <c r="P213">
+        <v>3.8</v>
+      </c>
+      <c r="Q213">
+        <v>-0.5</v>
+      </c>
+      <c r="R213">
+        <v>2.025</v>
+      </c>
+      <c r="S213">
+        <v>1.825</v>
+      </c>
+      <c r="T213">
+        <v>2</v>
+      </c>
+      <c r="U213">
+        <v>1.875</v>
+      </c>
+      <c r="V213">
+        <v>1.975</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>7973583</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45380.47916666666</v>
+      </c>
+      <c r="F214" t="s">
+        <v>30</v>
+      </c>
+      <c r="G214" t="s">
+        <v>41</v>
+      </c>
+      <c r="K214">
+        <v>1.833</v>
+      </c>
+      <c r="L214">
+        <v>3.4</v>
+      </c>
+      <c r="M214">
+        <v>4.5</v>
+      </c>
+      <c r="N214">
+        <v>1.85</v>
+      </c>
+      <c r="O214">
+        <v>3.4</v>
+      </c>
+      <c r="P214">
+        <v>4.333</v>
+      </c>
+      <c r="Q214">
+        <v>-0.5</v>
+      </c>
+      <c r="R214">
+        <v>1.9</v>
+      </c>
+      <c r="S214">
+        <v>1.95</v>
+      </c>
+      <c r="T214">
+        <v>2</v>
+      </c>
+      <c r="U214">
+        <v>1.775</v>
+      </c>
+      <c r="V214">
+        <v>2.1</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>7973584</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45380.58333333334</v>
+      </c>
+      <c r="F215" t="s">
+        <v>37</v>
+      </c>
+      <c r="G215" t="s">
         <v>35</v>
       </c>
-      <c r="K211">
+      <c r="K215">
+        <v>1.444</v>
+      </c>
+      <c r="L215">
+        <v>4.2</v>
+      </c>
+      <c r="M215">
+        <v>7.5</v>
+      </c>
+      <c r="N215">
+        <v>1.571</v>
+      </c>
+      <c r="O215">
+        <v>3.8</v>
+      </c>
+      <c r="P215">
+        <v>5.75</v>
+      </c>
+      <c r="Q215">
+        <v>-1</v>
+      </c>
+      <c r="R215">
+        <v>2.05</v>
+      </c>
+      <c r="S215">
+        <v>1.8</v>
+      </c>
+      <c r="T215">
+        <v>2</v>
+      </c>
+      <c r="U215">
+        <v>1.825</v>
+      </c>
+      <c r="V215">
+        <v>2.025</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>7973585</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45381.375</v>
+      </c>
+      <c r="F216" t="s">
+        <v>43</v>
+      </c>
+      <c r="G216" t="s">
+        <v>34</v>
+      </c>
+      <c r="K216">
+        <v>2.4</v>
+      </c>
+      <c r="L216">
+        <v>3.2</v>
+      </c>
+      <c r="M216">
+        <v>3</v>
+      </c>
+      <c r="N216">
+        <v>2.3</v>
+      </c>
+      <c r="O216">
+        <v>3.2</v>
+      </c>
+      <c r="P216">
+        <v>3.1</v>
+      </c>
+      <c r="Q216">
+        <v>-0.25</v>
+      </c>
+      <c r="R216">
+        <v>2.025</v>
+      </c>
+      <c r="S216">
+        <v>1.825</v>
+      </c>
+      <c r="T216">
+        <v>2</v>
+      </c>
+      <c r="U216">
+        <v>1.8</v>
+      </c>
+      <c r="V216">
+        <v>2.05</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>0</v>
+      </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
+      <c r="AA216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>7973586</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45381.47916666666</v>
+      </c>
+      <c r="F217" t="s">
+        <v>31</v>
+      </c>
+      <c r="G217" t="s">
+        <v>33</v>
+      </c>
+      <c r="K217">
+        <v>5.25</v>
+      </c>
+      <c r="L217">
+        <v>3.75</v>
+      </c>
+      <c r="M217">
+        <v>1.65</v>
+      </c>
+      <c r="N217">
+        <v>7.5</v>
+      </c>
+      <c r="O217">
+        <v>4</v>
+      </c>
+      <c r="P217">
+        <v>1.45</v>
+      </c>
+      <c r="Q217">
+        <v>1.25</v>
+      </c>
+      <c r="R217">
+        <v>1.8</v>
+      </c>
+      <c r="S217">
+        <v>2.05</v>
+      </c>
+      <c r="T217">
+        <v>2.5</v>
+      </c>
+      <c r="U217">
+        <v>1.85</v>
+      </c>
+      <c r="V217">
+        <v>2</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AA217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>6978434</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45381.58333333334</v>
+      </c>
+      <c r="F218" t="s">
+        <v>29</v>
+      </c>
+      <c r="G218" t="s">
+        <v>32</v>
+      </c>
+      <c r="K218">
+        <v>7.5</v>
+      </c>
+      <c r="L218">
+        <v>5</v>
+      </c>
+      <c r="M218">
+        <v>1.363</v>
+      </c>
+      <c r="N218">
+        <v>15</v>
+      </c>
+      <c r="O218">
+        <v>5.5</v>
+      </c>
+      <c r="P218">
+        <v>1.25</v>
+      </c>
+      <c r="Q218">
+        <v>1.5</v>
+      </c>
+      <c r="R218">
+        <v>2.025</v>
+      </c>
+      <c r="S218">
+        <v>1.825</v>
+      </c>
+      <c r="T218">
+        <v>2.5</v>
+      </c>
+      <c r="U218">
+        <v>2.05</v>
+      </c>
+      <c r="V218">
+        <v>1.8</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>7973587</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45382.4375</v>
+      </c>
+      <c r="F219" t="s">
+        <v>36</v>
+      </c>
+      <c r="G219" t="s">
+        <v>39</v>
+      </c>
+      <c r="K219">
+        <v>2.5</v>
+      </c>
+      <c r="L219">
+        <v>3.1</v>
+      </c>
+      <c r="M219">
+        <v>2.9</v>
+      </c>
+      <c r="N219">
+        <v>2.2</v>
+      </c>
+      <c r="O219">
+        <v>3.1</v>
+      </c>
+      <c r="P219">
+        <v>3.25</v>
+      </c>
+      <c r="Q219">
+        <v>-0.25</v>
+      </c>
+      <c r="R219">
+        <v>1.95</v>
+      </c>
+      <c r="S219">
+        <v>1.9</v>
+      </c>
+      <c r="T219">
+        <v>2.25</v>
+      </c>
+      <c r="U219">
+        <v>1.925</v>
+      </c>
+      <c r="V219">
+        <v>1.925</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>7973588</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45382.54166666666</v>
+      </c>
+      <c r="F220" t="s">
+        <v>38</v>
+      </c>
+      <c r="G220" t="s">
+        <v>44</v>
+      </c>
+      <c r="K220">
+        <v>1.615</v>
+      </c>
+      <c r="L220">
+        <v>3.6</v>
+      </c>
+      <c r="M220">
+        <v>6</v>
+      </c>
+      <c r="N220">
         <v>1.6</v>
       </c>
-      <c r="L211">
-        <v>4</v>
-      </c>
-      <c r="M211">
-        <v>5.5</v>
-      </c>
-      <c r="N211">
-        <v>1.45</v>
-      </c>
-      <c r="O211">
-        <v>4.333</v>
-      </c>
-      <c r="P211">
-        <v>7.5</v>
-      </c>
-      <c r="Q211">
-        <v>-1.25</v>
-      </c>
-      <c r="R211">
-        <v>2.05</v>
-      </c>
-      <c r="S211">
-        <v>1.8</v>
-      </c>
-      <c r="T211">
-        <v>2.5</v>
-      </c>
-      <c r="U211">
-        <v>1.925</v>
-      </c>
-      <c r="V211">
-        <v>1.925</v>
-      </c>
-      <c r="W211">
-        <v>0</v>
-      </c>
-      <c r="X211">
-        <v>0</v>
-      </c>
-      <c r="Y211">
-        <v>0</v>
-      </c>
-      <c r="Z211">
-        <v>0</v>
-      </c>
-      <c r="AA211">
+      <c r="O220">
+        <v>3.6</v>
+      </c>
+      <c r="P220">
+        <v>6</v>
+      </c>
+      <c r="Q220">
+        <v>-1</v>
+      </c>
+      <c r="R220">
+        <v>2.1</v>
+      </c>
+      <c r="S220">
+        <v>1.775</v>
+      </c>
+      <c r="T220">
+        <v>2.25</v>
+      </c>
+      <c r="U220">
+        <v>1.825</v>
+      </c>
+      <c r="V220">
+        <v>2.025</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
-    <t>Slavia Sofia</t>
+    <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Botev Plovdiv</t>
+    <t>Slavia Sofia</t>
   </si>
   <si>
     <t>Levski Sofia</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC220"/>
+  <dimension ref="A1:AC218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N8">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
+        <v>2.025</v>
+      </c>
+      <c r="T8">
+        <v>3.25</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
         <v>1.85</v>
       </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
-      <c r="V8">
-        <v>1.975</v>
-      </c>
       <c r="W8">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O9">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P9">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q9">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>37</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,7 +4544,7 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>38</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
         <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>35</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8463,7 +8463,7 @@
         <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,7 +8638,7 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>37</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10332,7 +10332,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13447,7 +13447,7 @@
         <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -15138,7 +15138,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -17096,7 +17096,7 @@
         <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17538,10 +17538,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>36</v>
+      </c>
+      <c r="G192" t="s">
         <v>35</v>
-      </c>
-      <c r="G192" t="s">
-        <v>36</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -18075,7 +18075,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18517,7 +18517,7 @@
         <v>45361.53125</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18873,7 +18873,7 @@
         <v>45367.32291666666</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
         <v>31</v>
@@ -19321,7 +19321,7 @@
         <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7973582</v>
+        <v>7973584</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19404,34 +19404,34 @@
         <v>28</v>
       </c>
       <c r="E213" s="2">
-        <v>45380.375</v>
+        <v>45380.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G213" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K213">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L213">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M213">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="N213">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O213">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P213">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q213">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R213">
         <v>2.025</v>
@@ -19443,10 +19443,10 @@
         <v>2</v>
       </c>
       <c r="U213">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19469,7 +19469,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7973583</v>
+        <v>7973585</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19478,49 +19478,49 @@
         <v>28</v>
       </c>
       <c r="E214" s="2">
-        <v>45380.47916666666</v>
+        <v>45381.375</v>
       </c>
       <c r="F214" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G214" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K214">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L214">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M214">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N214">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P214">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q214">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S214">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T214">
         <v>2</v>
       </c>
       <c r="U214">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V214">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W214">
         <v>0</v>
@@ -19543,7 +19543,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7973584</v>
+        <v>7973586</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19552,49 +19552,49 @@
         <v>28</v>
       </c>
       <c r="E215" s="2">
-        <v>45380.58333333334</v>
+        <v>45381.47916666666</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G215" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K215">
-        <v>1.444</v>
+        <v>5.25</v>
       </c>
       <c r="L215">
+        <v>3.75</v>
+      </c>
+      <c r="M215">
+        <v>1.65</v>
+      </c>
+      <c r="N215">
+        <v>7.5</v>
+      </c>
+      <c r="O215">
         <v>4.2</v>
       </c>
-      <c r="M215">
-        <v>7.5</v>
-      </c>
-      <c r="N215">
-        <v>1.571</v>
-      </c>
-      <c r="O215">
-        <v>3.8</v>
-      </c>
       <c r="P215">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q215">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R215">
+        <v>1.8</v>
+      </c>
+      <c r="S215">
         <v>2.05</v>
       </c>
-      <c r="S215">
-        <v>1.8</v>
-      </c>
       <c r="T215">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U215">
+        <v>2.025</v>
+      </c>
+      <c r="V215">
         <v>1.825</v>
-      </c>
-      <c r="V215">
-        <v>2.025</v>
       </c>
       <c r="W215">
         <v>0</v>
@@ -19617,7 +19617,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7973585</v>
+        <v>6978434</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19626,49 +19626,49 @@
         <v>28</v>
       </c>
       <c r="E216" s="2">
-        <v>45381.375</v>
+        <v>45381.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K216">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="L216">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M216">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="N216">
-        <v>2.3</v>
+        <v>19</v>
       </c>
       <c r="O216">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="P216">
-        <v>3.1</v>
+        <v>1.222</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R216">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S216">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T216">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V216">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19691,7 +19691,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7973586</v>
+        <v>7973587</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19700,49 +19700,49 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45381.47916666666</v>
+        <v>45382.4375</v>
       </c>
       <c r="F217" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K217">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="L217">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M217">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="N217">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="O217">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P217">
-        <v>1.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q217">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U217">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V217">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19765,7 +19765,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6978434</v>
+        <v>7973588</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19774,50 +19774,50 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45381.58333333334</v>
+        <v>45382.54166666666</v>
       </c>
       <c r="F218" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K218">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="L218">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M218">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="N218">
-        <v>15</v>
+        <v>1.6</v>
       </c>
       <c r="O218">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P218">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="Q218">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="R218">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S218">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T218">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U218">
+        <v>1.8</v>
+      </c>
+      <c r="V218">
         <v>2.05</v>
       </c>
-      <c r="V218">
-        <v>1.8</v>
-      </c>
       <c r="W218">
         <v>0</v>
       </c>
@@ -19831,154 +19831,6 @@
         <v>0</v>
       </c>
       <c r="AA218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:29">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219">
-        <v>7973587</v>
-      </c>
-      <c r="C219" t="s">
-        <v>28</v>
-      </c>
-      <c r="D219" t="s">
-        <v>28</v>
-      </c>
-      <c r="E219" s="2">
-        <v>45382.4375</v>
-      </c>
-      <c r="F219" t="s">
-        <v>36</v>
-      </c>
-      <c r="G219" t="s">
-        <v>39</v>
-      </c>
-      <c r="K219">
-        <v>2.5</v>
-      </c>
-      <c r="L219">
-        <v>3.1</v>
-      </c>
-      <c r="M219">
-        <v>2.9</v>
-      </c>
-      <c r="N219">
-        <v>2.2</v>
-      </c>
-      <c r="O219">
-        <v>3.1</v>
-      </c>
-      <c r="P219">
-        <v>3.25</v>
-      </c>
-      <c r="Q219">
-        <v>-0.25</v>
-      </c>
-      <c r="R219">
-        <v>1.95</v>
-      </c>
-      <c r="S219">
-        <v>1.9</v>
-      </c>
-      <c r="T219">
-        <v>2.25</v>
-      </c>
-      <c r="U219">
-        <v>1.925</v>
-      </c>
-      <c r="V219">
-        <v>1.925</v>
-      </c>
-      <c r="W219">
-        <v>0</v>
-      </c>
-      <c r="X219">
-        <v>0</v>
-      </c>
-      <c r="Y219">
-        <v>0</v>
-      </c>
-      <c r="Z219">
-        <v>0</v>
-      </c>
-      <c r="AA219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:29">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220">
-        <v>7973588</v>
-      </c>
-      <c r="C220" t="s">
-        <v>28</v>
-      </c>
-      <c r="D220" t="s">
-        <v>28</v>
-      </c>
-      <c r="E220" s="2">
-        <v>45382.54166666666</v>
-      </c>
-      <c r="F220" t="s">
-        <v>38</v>
-      </c>
-      <c r="G220" t="s">
-        <v>44</v>
-      </c>
-      <c r="K220">
-        <v>1.615</v>
-      </c>
-      <c r="L220">
-        <v>3.6</v>
-      </c>
-      <c r="M220">
-        <v>6</v>
-      </c>
-      <c r="N220">
-        <v>1.6</v>
-      </c>
-      <c r="O220">
-        <v>3.6</v>
-      </c>
-      <c r="P220">
-        <v>6</v>
-      </c>
-      <c r="Q220">
-        <v>-1</v>
-      </c>
-      <c r="R220">
-        <v>2.1</v>
-      </c>
-      <c r="S220">
-        <v>1.775</v>
-      </c>
-      <c r="T220">
-        <v>2.25</v>
-      </c>
-      <c r="U220">
-        <v>1.825</v>
-      </c>
-      <c r="V220">
-        <v>2.025</v>
-      </c>
-      <c r="W220">
-        <v>0</v>
-      </c>
-      <c r="X220">
-        <v>0</v>
-      </c>
-      <c r="Y220">
-        <v>0</v>
-      </c>
-      <c r="Z220">
-        <v>0</v>
-      </c>
-      <c r="AA220">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
-    <t>Botev Plovdiv</t>
+    <t>Slavia Sofia</t>
   </si>
   <si>
-    <t>Slavia Sofia</t>
+    <t>Botev Plovdiv</t>
   </si>
   <si>
     <t>Levski Sofia</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC218"/>
+  <dimension ref="A1:AC217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N8">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O8">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N9">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P9">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
+        <v>2.025</v>
+      </c>
+      <c r="T9">
+        <v>3.25</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
-      <c r="V9">
-        <v>1.975</v>
-      </c>
       <c r="W9">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>37</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,7 +4544,7 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
         <v>38</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
         <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8463,7 +8463,7 @@
         <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,7 +8638,7 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
         <v>37</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10332,7 +10332,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13447,7 +13447,7 @@
         <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -15138,7 +15138,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -17096,7 +17096,7 @@
         <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17538,10 +17538,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>35</v>
+      </c>
+      <c r="G192" t="s">
         <v>36</v>
-      </c>
-      <c r="G192" t="s">
-        <v>35</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -18075,7 +18075,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18517,7 +18517,7 @@
         <v>45361.53125</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18873,7 +18873,7 @@
         <v>45367.32291666666</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
         <v>31</v>
@@ -19321,7 +19321,7 @@
         <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7973584</v>
+        <v>7973585</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19404,49 +19404,49 @@
         <v>28</v>
       </c>
       <c r="E213" s="2">
-        <v>45380.58333333334</v>
+        <v>45381.375</v>
       </c>
       <c r="F213" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G213" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K213">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L213">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M213">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N213">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O213">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P213">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q213">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S213">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T213">
         <v>2</v>
       </c>
       <c r="U213">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19469,7 +19469,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7973585</v>
+        <v>7973586</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19478,49 +19478,49 @@
         <v>28</v>
       </c>
       <c r="E214" s="2">
-        <v>45381.375</v>
+        <v>45381.47916666666</v>
       </c>
       <c r="F214" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K214">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M214">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="N214">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="O214">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P214">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R214">
+        <v>1.8</v>
+      </c>
+      <c r="S214">
         <v>2.05</v>
       </c>
-      <c r="S214">
-        <v>1.8</v>
-      </c>
       <c r="T214">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V214">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W214">
         <v>0</v>
@@ -19543,7 +19543,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7973586</v>
+        <v>6978434</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19552,49 +19552,49 @@
         <v>28</v>
       </c>
       <c r="E215" s="2">
-        <v>45381.47916666666</v>
+        <v>45381.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K215">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M215">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="N215">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="O215">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P215">
-        <v>1.45</v>
+        <v>1.222</v>
       </c>
       <c r="Q215">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="R215">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S215">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T215">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U215">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V215">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W215">
         <v>0</v>
@@ -19617,7 +19617,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6978434</v>
+        <v>7973587</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19626,49 +19626,49 @@
         <v>28</v>
       </c>
       <c r="E216" s="2">
-        <v>45381.58333333334</v>
+        <v>45382.4375</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K216">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="L216">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M216">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="N216">
-        <v>19</v>
+        <v>2.2</v>
       </c>
       <c r="O216">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P216">
-        <v>1.222</v>
+        <v>3.5</v>
       </c>
       <c r="Q216">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S216">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V216">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19691,7 +19691,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7973587</v>
+        <v>7973588</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19700,49 +19700,49 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45382.4375</v>
+        <v>45382.54166666666</v>
       </c>
       <c r="F217" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G217" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K217">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L217">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M217">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N217">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O217">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P217">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S217">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T217">
         <v>2.25</v>
       </c>
       <c r="U217">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V217">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19757,80 +19757,6 @@
         <v>0</v>
       </c>
       <c r="AA217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:29">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218">
-        <v>7973588</v>
-      </c>
-      <c r="C218" t="s">
-        <v>28</v>
-      </c>
-      <c r="D218" t="s">
-        <v>28</v>
-      </c>
-      <c r="E218" s="2">
-        <v>45382.54166666666</v>
-      </c>
-      <c r="F218" t="s">
-        <v>38</v>
-      </c>
-      <c r="G218" t="s">
-        <v>44</v>
-      </c>
-      <c r="K218">
-        <v>1.615</v>
-      </c>
-      <c r="L218">
-        <v>3.6</v>
-      </c>
-      <c r="M218">
-        <v>6</v>
-      </c>
-      <c r="N218">
-        <v>1.6</v>
-      </c>
-      <c r="O218">
-        <v>3.6</v>
-      </c>
-      <c r="P218">
-        <v>6</v>
-      </c>
-      <c r="Q218">
-        <v>-1</v>
-      </c>
-      <c r="R218">
-        <v>2.05</v>
-      </c>
-      <c r="S218">
-        <v>1.8</v>
-      </c>
-      <c r="T218">
-        <v>2.25</v>
-      </c>
-      <c r="U218">
-        <v>1.8</v>
-      </c>
-      <c r="V218">
-        <v>2.05</v>
-      </c>
-      <c r="W218">
-        <v>0</v>
-      </c>
-      <c r="X218">
-        <v>0</v>
-      </c>
-      <c r="Y218">
-        <v>0</v>
-      </c>
-      <c r="Z218">
-        <v>0</v>
-      </c>
-      <c r="AA218">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
-    <t>Slavia Sofia</t>
+    <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Botev Plovdiv</t>
+    <t>Slavia Sofia</t>
   </si>
   <si>
     <t>Levski Sofia</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC217"/>
+  <dimension ref="A1:AC218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N8">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
+        <v>2.025</v>
+      </c>
+      <c r="T8">
+        <v>3.25</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
         <v>1.85</v>
       </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
-      <c r="V8">
-        <v>1.975</v>
-      </c>
       <c r="W8">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O9">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P9">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q9">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>37</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,7 +4544,7 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>38</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
         <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>35</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8463,7 +8463,7 @@
         <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,7 +8638,7 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>37</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10332,7 +10332,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13447,7 +13447,7 @@
         <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -15138,7 +15138,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -17096,7 +17096,7 @@
         <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17538,10 +17538,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>36</v>
+      </c>
+      <c r="G192" t="s">
         <v>35</v>
-      </c>
-      <c r="G192" t="s">
-        <v>36</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -18075,7 +18075,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18517,7 +18517,7 @@
         <v>45361.53125</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18873,7 +18873,7 @@
         <v>45367.32291666666</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
         <v>31</v>
@@ -19321,7 +19321,7 @@
         <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7973585</v>
+        <v>7973587</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19404,49 +19404,49 @@
         <v>28</v>
       </c>
       <c r="E213" s="2">
-        <v>45381.375</v>
+        <v>45382.4375</v>
       </c>
       <c r="F213" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G213" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K213">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L213">
+        <v>3.1</v>
+      </c>
+      <c r="M213">
+        <v>2.9</v>
+      </c>
+      <c r="N213">
+        <v>2.25</v>
+      </c>
+      <c r="O213">
         <v>3.2</v>
       </c>
-      <c r="M213">
-        <v>3</v>
-      </c>
-      <c r="N213">
-        <v>2.375</v>
-      </c>
-      <c r="O213">
-        <v>3.25</v>
-      </c>
       <c r="P213">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q213">
         <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19469,7 +19469,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7973586</v>
+        <v>7973588</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19478,49 +19478,49 @@
         <v>28</v>
       </c>
       <c r="E214" s="2">
-        <v>45381.47916666666</v>
+        <v>45382.54166666666</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G214" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K214">
-        <v>5.25</v>
+        <v>1.615</v>
       </c>
       <c r="L214">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M214">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="N214">
-        <v>7.5</v>
+        <v>1.666</v>
       </c>
       <c r="O214">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P214">
-        <v>1.45</v>
+        <v>6</v>
       </c>
       <c r="Q214">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R214">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S214">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T214">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U214">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W214">
         <v>0</v>
@@ -19543,7 +19543,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6978434</v>
+        <v>6978445</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19552,49 +19552,49 @@
         <v>28</v>
       </c>
       <c r="E215" s="2">
-        <v>45381.58333333334</v>
+        <v>45384.45833333334</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K215">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="L215">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="N215">
-        <v>19</v>
+        <v>4.2</v>
       </c>
       <c r="O215">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P215">
-        <v>1.222</v>
+        <v>1.909</v>
       </c>
       <c r="Q215">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R215">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S215">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T215">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
         <v>0</v>
@@ -19617,7 +19617,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7973587</v>
+        <v>6978444</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19626,49 +19626,49 @@
         <v>28</v>
       </c>
       <c r="E216" s="2">
-        <v>45382.4375</v>
+        <v>45384.5625</v>
       </c>
       <c r="F216" t="s">
         <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K216">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L216">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M216">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N216">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O216">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P216">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R216">
+        <v>1.875</v>
+      </c>
+      <c r="S216">
         <v>1.975</v>
-      </c>
-      <c r="S216">
-        <v>1.875</v>
       </c>
       <c r="T216">
         <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19691,7 +19691,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7973588</v>
+        <v>6978442</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19700,40 +19700,40 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45382.54166666666</v>
+        <v>45385.45833333334</v>
       </c>
       <c r="F217" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G217" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K217">
-        <v>1.615</v>
+        <v>1.45</v>
       </c>
       <c r="L217">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M217">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N217">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="O217">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P217">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q217">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R217">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S217">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T217">
         <v>2.25</v>
@@ -19757,6 +19757,80 @@
         <v>0</v>
       </c>
       <c r="AA217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>6978443</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45385.5625</v>
+      </c>
+      <c r="F218" t="s">
+        <v>33</v>
+      </c>
+      <c r="G218" t="s">
+        <v>37</v>
+      </c>
+      <c r="K218">
+        <v>1.571</v>
+      </c>
+      <c r="L218">
+        <v>3.8</v>
+      </c>
+      <c r="M218">
+        <v>6</v>
+      </c>
+      <c r="N218">
+        <v>1.5</v>
+      </c>
+      <c r="O218">
+        <v>4</v>
+      </c>
+      <c r="P218">
+        <v>7</v>
+      </c>
+      <c r="Q218">
+        <v>-1</v>
+      </c>
+      <c r="R218">
+        <v>1.875</v>
+      </c>
+      <c r="S218">
+        <v>1.975</v>
+      </c>
+      <c r="T218">
+        <v>2.25</v>
+      </c>
+      <c r="U218">
+        <v>1.825</v>
+      </c>
+      <c r="V218">
+        <v>2.025</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC218"/>
+  <dimension ref="A1:AC226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7973587</v>
+        <v>7973582</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19404,64 +19404,79 @@
         <v>28</v>
       </c>
       <c r="E213" s="2">
-        <v>45382.4375</v>
+        <v>45380.375</v>
       </c>
       <c r="F213" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="H213">
+        <v>2</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="s">
+        <v>46</v>
       </c>
       <c r="K213">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L213">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M213">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N213">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O213">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P213">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q213">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R213">
+        <v>2.025</v>
+      </c>
+      <c r="S213">
+        <v>1.825</v>
+      </c>
+      <c r="T213">
+        <v>2</v>
+      </c>
+      <c r="U213">
         <v>1.975</v>
       </c>
-      <c r="S213">
+      <c r="V213">
         <v>1.875</v>
       </c>
-      <c r="T213">
-        <v>2.25</v>
-      </c>
-      <c r="U213">
-        <v>1.925</v>
-      </c>
-      <c r="V213">
-        <v>1.925</v>
-      </c>
       <c r="W213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA213">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB213">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC213">
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19469,7 +19484,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7973588</v>
+        <v>7973583</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19478,64 +19493,79 @@
         <v>28</v>
       </c>
       <c r="E214" s="2">
-        <v>45382.54166666666</v>
+        <v>45380.47916666666</v>
       </c>
       <c r="F214" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214" t="s">
+        <v>47</v>
       </c>
       <c r="K214">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="L214">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M214">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N214">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O214">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P214">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V214">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA214">
-        <v>0</v>
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AB214">
+        <v>0</v>
+      </c>
+      <c r="AC214">
+        <v>-0</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19543,7 +19573,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6978445</v>
+        <v>7973584</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19552,64 +19582,79 @@
         <v>28</v>
       </c>
       <c r="E215" s="2">
-        <v>45384.45833333334</v>
+        <v>45380.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="H215">
+        <v>2</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215" t="s">
+        <v>46</v>
       </c>
       <c r="K215">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="L215">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M215">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="N215">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="O215">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P215">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q215">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R215">
+        <v>1.8</v>
+      </c>
+      <c r="S215">
+        <v>2.05</v>
+      </c>
+      <c r="T215">
+        <v>2</v>
+      </c>
+      <c r="U215">
         <v>1.925</v>
       </c>
-      <c r="S215">
+      <c r="V215">
         <v>1.925</v>
       </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
-      <c r="U215">
-        <v>1.9</v>
-      </c>
-      <c r="V215">
-        <v>1.95</v>
-      </c>
       <c r="W215">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA215">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB215">
+        <v>0</v>
+      </c>
+      <c r="AC215">
+        <v>-0</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19617,7 +19662,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6978444</v>
+        <v>7973585</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19626,34 +19671,43 @@
         <v>28</v>
       </c>
       <c r="E216" s="2">
-        <v>45384.5625</v>
+        <v>45381.375</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G216" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="H216">
+        <v>3</v>
+      </c>
+      <c r="I216">
+        <v>2</v>
+      </c>
+      <c r="J216" t="s">
+        <v>46</v>
       </c>
       <c r="K216">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L216">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M216">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N216">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O216">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P216">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Q216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R216">
         <v>1.875</v>
@@ -19662,28 +19716,34 @@
         <v>1.975</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U216">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W216">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA216">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB216">
+        <v>0.875</v>
+      </c>
+      <c r="AC216">
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19691,7 +19751,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6978442</v>
+        <v>7973586</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19700,64 +19760,79 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45385.45833333334</v>
+        <v>45381.47916666666</v>
       </c>
       <c r="F217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217" t="s">
+        <v>45</v>
       </c>
       <c r="K217">
-        <v>1.45</v>
+        <v>5.25</v>
       </c>
       <c r="L217">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M217">
-        <v>8</v>
+        <v>1.65</v>
       </c>
       <c r="N217">
-        <v>1.333</v>
+        <v>8.5</v>
       </c>
       <c r="O217">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P217">
-        <v>12</v>
+        <v>1.4</v>
       </c>
       <c r="Q217">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R217">
+        <v>1.925</v>
+      </c>
+      <c r="S217">
+        <v>1.925</v>
+      </c>
+      <c r="T217">
+        <v>2.75</v>
+      </c>
+      <c r="U217">
+        <v>2.025</v>
+      </c>
+      <c r="V217">
         <v>1.825</v>
       </c>
-      <c r="S217">
-        <v>2.025</v>
-      </c>
-      <c r="T217">
-        <v>2.25</v>
-      </c>
-      <c r="U217">
-        <v>1.8</v>
-      </c>
-      <c r="V217">
-        <v>2.05</v>
-      </c>
       <c r="W217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z217">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA217">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB217">
+        <v>0.5125</v>
+      </c>
+      <c r="AC217">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19765,72 +19840,679 @@
         <v>216</v>
       </c>
       <c r="B218">
+        <v>6978434</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45381.58333333334</v>
+      </c>
+      <c r="F218" t="s">
+        <v>29</v>
+      </c>
+      <c r="G218" t="s">
+        <v>32</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218" t="s">
+        <v>45</v>
+      </c>
+      <c r="K218">
+        <v>7.5</v>
+      </c>
+      <c r="L218">
+        <v>5</v>
+      </c>
+      <c r="M218">
+        <v>1.363</v>
+      </c>
+      <c r="N218">
+        <v>12</v>
+      </c>
+      <c r="O218">
+        <v>5.75</v>
+      </c>
+      <c r="P218">
+        <v>1.25</v>
+      </c>
+      <c r="Q218">
+        <v>1.5</v>
+      </c>
+      <c r="R218">
+        <v>2.025</v>
+      </c>
+      <c r="S218">
+        <v>1.825</v>
+      </c>
+      <c r="T218">
+        <v>2.5</v>
+      </c>
+      <c r="U218">
+        <v>1.95</v>
+      </c>
+      <c r="V218">
+        <v>1.9</v>
+      </c>
+      <c r="W218">
+        <v>-1</v>
+      </c>
+      <c r="X218">
+        <v>-1</v>
+      </c>
+      <c r="Y218">
+        <v>0.25</v>
+      </c>
+      <c r="Z218">
+        <v>1.025</v>
+      </c>
+      <c r="AA218">
+        <v>-1</v>
+      </c>
+      <c r="AB218">
+        <v>-1</v>
+      </c>
+      <c r="AC218">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>6978445</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45384.45833333334</v>
+      </c>
+      <c r="F219" t="s">
+        <v>42</v>
+      </c>
+      <c r="G219" t="s">
+        <v>30</v>
+      </c>
+      <c r="K219">
+        <v>4.5</v>
+      </c>
+      <c r="L219">
+        <v>3.4</v>
+      </c>
+      <c r="M219">
+        <v>1.833</v>
+      </c>
+      <c r="N219">
+        <v>4.333</v>
+      </c>
+      <c r="O219">
+        <v>3.4</v>
+      </c>
+      <c r="P219">
+        <v>1.909</v>
+      </c>
+      <c r="Q219">
+        <v>0.5</v>
+      </c>
+      <c r="R219">
+        <v>1.925</v>
+      </c>
+      <c r="S219">
+        <v>1.925</v>
+      </c>
+      <c r="T219">
+        <v>2.25</v>
+      </c>
+      <c r="U219">
+        <v>1.9</v>
+      </c>
+      <c r="V219">
+        <v>1.95</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>6978444</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45384.5625</v>
+      </c>
+      <c r="F220" t="s">
+        <v>36</v>
+      </c>
+      <c r="G220" t="s">
+        <v>40</v>
+      </c>
+      <c r="K220">
+        <v>1.571</v>
+      </c>
+      <c r="L220">
+        <v>3.8</v>
+      </c>
+      <c r="M220">
+        <v>6</v>
+      </c>
+      <c r="N220">
+        <v>1.5</v>
+      </c>
+      <c r="O220">
+        <v>4</v>
+      </c>
+      <c r="P220">
+        <v>7.5</v>
+      </c>
+      <c r="Q220">
+        <v>-1</v>
+      </c>
+      <c r="R220">
+        <v>1.875</v>
+      </c>
+      <c r="S220">
+        <v>1.975</v>
+      </c>
+      <c r="T220">
+        <v>2.25</v>
+      </c>
+      <c r="U220">
+        <v>1.9</v>
+      </c>
+      <c r="V220">
+        <v>1.95</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>6978389</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45385.35416666666</v>
+      </c>
+      <c r="F221" t="s">
+        <v>41</v>
+      </c>
+      <c r="G221" t="s">
+        <v>34</v>
+      </c>
+      <c r="K221">
+        <v>1.909</v>
+      </c>
+      <c r="L221">
+        <v>3.3</v>
+      </c>
+      <c r="M221">
+        <v>4.2</v>
+      </c>
+      <c r="N221">
+        <v>2</v>
+      </c>
+      <c r="O221">
+        <v>3.25</v>
+      </c>
+      <c r="P221">
+        <v>4</v>
+      </c>
+      <c r="Q221">
+        <v>-0.5</v>
+      </c>
+      <c r="R221">
+        <v>2.025</v>
+      </c>
+      <c r="S221">
+        <v>1.825</v>
+      </c>
+      <c r="T221">
+        <v>2</v>
+      </c>
+      <c r="U221">
+        <v>1.875</v>
+      </c>
+      <c r="V221">
+        <v>1.975</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>6978442</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45385.45833333334</v>
+      </c>
+      <c r="F222" t="s">
+        <v>32</v>
+      </c>
+      <c r="G222" t="s">
+        <v>31</v>
+      </c>
+      <c r="K222">
+        <v>1.45</v>
+      </c>
+      <c r="L222">
+        <v>4</v>
+      </c>
+      <c r="M222">
+        <v>8</v>
+      </c>
+      <c r="N222">
+        <v>1.333</v>
+      </c>
+      <c r="O222">
+        <v>4.5</v>
+      </c>
+      <c r="P222">
+        <v>12</v>
+      </c>
+      <c r="Q222">
+        <v>-1.25</v>
+      </c>
+      <c r="R222">
+        <v>1.825</v>
+      </c>
+      <c r="S222">
+        <v>2.025</v>
+      </c>
+      <c r="T222">
+        <v>2.25</v>
+      </c>
+      <c r="U222">
+        <v>1.8</v>
+      </c>
+      <c r="V222">
+        <v>2.05</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
         <v>6978443</v>
       </c>
-      <c r="C218" t="s">
-        <v>28</v>
-      </c>
-      <c r="D218" t="s">
-        <v>28</v>
-      </c>
-      <c r="E218" s="2">
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="2">
         <v>45385.5625</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F223" t="s">
         <v>33</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G223" t="s">
         <v>37</v>
       </c>
-      <c r="K218">
+      <c r="K223">
         <v>1.571</v>
       </c>
-      <c r="L218">
+      <c r="L223">
         <v>3.8</v>
       </c>
-      <c r="M218">
+      <c r="M223">
         <v>6</v>
       </c>
-      <c r="N218">
+      <c r="N223">
         <v>1.5</v>
       </c>
-      <c r="O218">
+      <c r="O223">
         <v>4</v>
       </c>
-      <c r="P218">
+      <c r="P223">
         <v>7</v>
       </c>
-      <c r="Q218">
-        <v>-1</v>
-      </c>
-      <c r="R218">
+      <c r="Q223">
+        <v>-1</v>
+      </c>
+      <c r="R223">
         <v>1.875</v>
       </c>
-      <c r="S218">
+      <c r="S223">
         <v>1.975</v>
       </c>
-      <c r="T218">
+      <c r="T223">
         <v>2.25</v>
       </c>
-      <c r="U218">
+      <c r="U223">
         <v>1.825</v>
       </c>
-      <c r="V218">
+      <c r="V223">
         <v>2.025</v>
       </c>
-      <c r="W218">
-        <v>0</v>
-      </c>
-      <c r="X218">
-        <v>0</v>
-      </c>
-      <c r="Y218">
-        <v>0</v>
-      </c>
-      <c r="Z218">
-        <v>0</v>
-      </c>
-      <c r="AA218">
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>6978439</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45386.35416666666</v>
+      </c>
+      <c r="F224" t="s">
+        <v>38</v>
+      </c>
+      <c r="G224" t="s">
+        <v>43</v>
+      </c>
+      <c r="K224">
+        <v>1.333</v>
+      </c>
+      <c r="L224">
+        <v>5.5</v>
+      </c>
+      <c r="M224">
+        <v>7.5</v>
+      </c>
+      <c r="N224">
+        <v>1.444</v>
+      </c>
+      <c r="O224">
+        <v>4.75</v>
+      </c>
+      <c r="P224">
+        <v>5.5</v>
+      </c>
+      <c r="Q224">
+        <v>-1.25</v>
+      </c>
+      <c r="R224">
+        <v>2.05</v>
+      </c>
+      <c r="S224">
+        <v>1.8</v>
+      </c>
+      <c r="T224">
+        <v>2.5</v>
+      </c>
+      <c r="U224">
+        <v>1.95</v>
+      </c>
+      <c r="V224">
+        <v>1.9</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>6978440</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45386.45833333334</v>
+      </c>
+      <c r="F225" t="s">
+        <v>44</v>
+      </c>
+      <c r="G225" t="s">
+        <v>35</v>
+      </c>
+      <c r="K225">
+        <v>3.5</v>
+      </c>
+      <c r="L225">
+        <v>3.2</v>
+      </c>
+      <c r="M225">
+        <v>2.15</v>
+      </c>
+      <c r="N225">
+        <v>4.333</v>
+      </c>
+      <c r="O225">
+        <v>3.3</v>
+      </c>
+      <c r="P225">
+        <v>1.85</v>
+      </c>
+      <c r="Q225">
+        <v>0.5</v>
+      </c>
+      <c r="R225">
+        <v>1.925</v>
+      </c>
+      <c r="S225">
+        <v>1.925</v>
+      </c>
+      <c r="T225">
+        <v>2.5</v>
+      </c>
+      <c r="U225">
+        <v>2.05</v>
+      </c>
+      <c r="V225">
+        <v>1.8</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>6978441</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45386.5625</v>
+      </c>
+      <c r="F226" t="s">
+        <v>39</v>
+      </c>
+      <c r="G226" t="s">
+        <v>29</v>
+      </c>
+      <c r="K226">
+        <v>1.363</v>
+      </c>
+      <c r="L226">
+        <v>4.75</v>
+      </c>
+      <c r="M226">
+        <v>8.5</v>
+      </c>
+      <c r="N226">
+        <v>1.333</v>
+      </c>
+      <c r="O226">
+        <v>4.333</v>
+      </c>
+      <c r="P226">
+        <v>12</v>
+      </c>
+      <c r="Q226">
+        <v>-1.5</v>
+      </c>
+      <c r="R226">
+        <v>2.05</v>
+      </c>
+      <c r="S226">
+        <v>1.8</v>
+      </c>
+      <c r="T226">
+        <v>2.25</v>
+      </c>
+      <c r="U226">
+        <v>1.825</v>
+      </c>
+      <c r="V226">
+        <v>2.025</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -127,13 +127,13 @@
     <t>Slavia Sofia</t>
   </si>
   <si>
+    <t>Cherno More Varna</t>
+  </si>
+  <si>
     <t>Levski Sofia</t>
   </si>
   <si>
     <t>CSKA 1948 Sofia</t>
-  </si>
-  <si>
-    <t>Cherno More Varna</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC226"/>
+  <dimension ref="A1:AC228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627725</v>
+        <v>6627290</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,53 +1343,53 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
       </c>
       <c r="K10">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="N10">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1.85</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
         <v>1.825</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>2.025</v>
       </c>
-      <c r="T10">
-        <v>2.25</v>
-      </c>
-      <c r="U10">
-        <v>1.85</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
@@ -1397,19 +1397,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
+        <v>-0</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>1.025</v>
-      </c>
-      <c r="AB10">
-        <v>-0.5</v>
-      </c>
-      <c r="AC10">
-        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6627724</v>
+        <v>6627725</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,46 +1432,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L11">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N11">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="O11">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q11">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R11">
+        <v>1.825</v>
+      </c>
+      <c r="S11">
         <v>2.025</v>
       </c>
-      <c r="S11">
-        <v>1.825</v>
-      </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
         <v>1.85</v>
@@ -1483,22 +1483,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627290</v>
+        <v>6627724</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12">
+        <v>1.5</v>
+      </c>
+      <c r="L12">
+        <v>3.8</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>1.45</v>
+      </c>
+      <c r="O12">
+        <v>4.2</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <v>-1.25</v>
+      </c>
+      <c r="R12">
+        <v>2.025</v>
+      </c>
+      <c r="S12">
+        <v>1.825</v>
+      </c>
+      <c r="T12">
+        <v>2.5</v>
+      </c>
+      <c r="U12">
+        <v>1.85</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>3.2</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
+        <v>0.825</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
         <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12">
-        <v>6</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <v>1.45</v>
-      </c>
-      <c r="N12">
-        <v>6</v>
-      </c>
-      <c r="O12">
-        <v>4.333</v>
-      </c>
-      <c r="P12">
-        <v>1.55</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>1.85</v>
-      </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
-      <c r="V12">
-        <v>2.025</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>0.55</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>-0</v>
-      </c>
-      <c r="AB12">
-        <v>-1</v>
-      </c>
-      <c r="AC12">
-        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,10 +1874,10 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1966,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2408,7 +2408,7 @@
         <v>45128.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2589,7 +2589,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>45130.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3565,7 +3565,7 @@
         <v>45142.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4099,7 +4099,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4547,7 +4547,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -4903,7 +4903,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5434,7 +5434,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5523,7 +5523,7 @@
         <v>45159.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
         <v>42</v>
@@ -5882,7 +5882,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6149,7 +6149,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7036,7 +7036,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7395,7 +7395,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7748,10 +7748,10 @@
         <v>45191.47916666666</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8374,7 +8374,7 @@
         <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>45195.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8641,7 +8641,7 @@
         <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10151,7 +10151,7 @@
         <v>45206.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45207.48958333334</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G111" t="s">
         <v>35</v>
@@ -10777,7 +10777,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -11041,10 +11041,10 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
+        <v>38</v>
+      </c>
+      <c r="G119" t="s">
         <v>37</v>
-      </c>
-      <c r="G119" t="s">
-        <v>39</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11397,7 +11397,7 @@
         <v>45225.375</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11486,7 +11486,7 @@
         <v>45225.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12732,7 +12732,7 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12821,10 +12821,10 @@
         <v>45237.52083333334</v>
       </c>
       <c r="F139" t="s">
+        <v>39</v>
+      </c>
+      <c r="G139" t="s">
         <v>38</v>
-      </c>
-      <c r="G139" t="s">
-        <v>37</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13091,7 +13091,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13444,7 +13444,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
         <v>35</v>
@@ -13978,7 +13978,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14070,7 +14070,7 @@
         <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14515,7 +14515,7 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14604,7 +14604,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15135,7 +15135,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
         <v>36</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15758,7 +15758,7 @@
         <v>45274.52083333334</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G172" t="s">
         <v>30</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16206,7 +16206,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16826,7 +16826,7 @@
         <v>45346.42708333334</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17093,7 +17093,7 @@
         <v>45347.48958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G187" t="s">
         <v>36</v>
@@ -17271,7 +17271,7 @@
         <v>45352.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17719,7 +17719,7 @@
         <v>33</v>
       </c>
       <c r="G194" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17897,7 +17897,7 @@
         <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18161,7 +18161,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G199" t="s">
         <v>32</v>
@@ -18253,7 +18253,7 @@
         <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18428,7 +18428,7 @@
         <v>45361.42708333334</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G202" t="s">
         <v>41</v>
@@ -18784,10 +18784,10 @@
         <v>45366.57291666666</v>
       </c>
       <c r="F206" t="s">
+        <v>37</v>
+      </c>
+      <c r="G206" t="s">
         <v>39</v>
-      </c>
-      <c r="G206" t="s">
-        <v>38</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -18965,7 +18965,7 @@
         <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19585,7 +19585,7 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G215" t="s">
         <v>36</v>
@@ -19929,7 +19929,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6978445</v>
+        <v>7973587</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19938,64 +19938,79 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45384.45833333334</v>
+        <v>45382.4375</v>
       </c>
       <c r="F219" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219" t="s">
+        <v>47</v>
       </c>
       <c r="K219">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L219">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M219">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="N219">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="O219">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P219">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q219">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S219">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T219">
         <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V219">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA219">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="AB219">
+        <v>-1</v>
+      </c>
+      <c r="AC219">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20003,7 +20018,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6978444</v>
+        <v>7973588</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20012,64 +20027,79 @@
         <v>28</v>
       </c>
       <c r="E220" s="2">
-        <v>45384.5625</v>
+        <v>45382.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220" t="s">
+        <v>45</v>
       </c>
       <c r="K220">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L220">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M220">
         <v>6</v>
       </c>
       <c r="N220">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O220">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P220">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q220">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R220">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S220">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T220">
         <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB220">
+        <v>-1</v>
+      </c>
+      <c r="AC220">
+        <v>1.05</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20077,7 +20107,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6978389</v>
+        <v>6978445</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20086,49 +20116,49 @@
         <v>28</v>
       </c>
       <c r="E221" s="2">
-        <v>45385.35416666666</v>
+        <v>45384.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G221" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K221">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="L221">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="N221">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="O221">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P221">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R221">
+        <v>2</v>
+      </c>
+      <c r="S221">
+        <v>1.85</v>
+      </c>
+      <c r="T221">
+        <v>2.25</v>
+      </c>
+      <c r="U221">
         <v>2.025</v>
       </c>
-      <c r="S221">
+      <c r="V221">
         <v>1.825</v>
-      </c>
-      <c r="T221">
-        <v>2</v>
-      </c>
-      <c r="U221">
-        <v>1.875</v>
-      </c>
-      <c r="V221">
-        <v>1.975</v>
       </c>
       <c r="W221">
         <v>0</v>
@@ -20151,7 +20181,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6978442</v>
+        <v>6978444</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20160,49 +20190,49 @@
         <v>28</v>
       </c>
       <c r="E222" s="2">
-        <v>45385.45833333334</v>
+        <v>45384.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K222">
+        <v>1.571</v>
+      </c>
+      <c r="L222">
+        <v>3.8</v>
+      </c>
+      <c r="M222">
+        <v>6</v>
+      </c>
+      <c r="N222">
         <v>1.45</v>
       </c>
-      <c r="L222">
+      <c r="O222">
         <v>4</v>
       </c>
-      <c r="M222">
-        <v>8</v>
-      </c>
-      <c r="N222">
-        <v>1.333</v>
-      </c>
-      <c r="O222">
-        <v>4.5</v>
-      </c>
       <c r="P222">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Q222">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R222">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S222">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T222">
         <v>2.25</v>
       </c>
       <c r="U222">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V222">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W222">
         <v>0</v>
@@ -20225,7 +20255,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6978443</v>
+        <v>6978389</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20234,49 +20264,49 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45385.5625</v>
+        <v>45385.35416666666</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G223" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K223">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L223">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M223">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N223">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O223">
+        <v>3.25</v>
+      </c>
+      <c r="P223">
         <v>4</v>
       </c>
-      <c r="P223">
-        <v>7</v>
-      </c>
       <c r="Q223">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
+        <v>1.85</v>
+      </c>
+      <c r="T223">
+        <v>2</v>
+      </c>
+      <c r="U223">
         <v>1.875</v>
       </c>
-      <c r="S223">
+      <c r="V223">
         <v>1.975</v>
-      </c>
-      <c r="T223">
-        <v>2.25</v>
-      </c>
-      <c r="U223">
-        <v>1.825</v>
-      </c>
-      <c r="V223">
-        <v>2.025</v>
       </c>
       <c r="W223">
         <v>0</v>
@@ -20299,7 +20329,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6978439</v>
+        <v>6978442</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20308,49 +20338,49 @@
         <v>28</v>
       </c>
       <c r="E224" s="2">
-        <v>45386.35416666666</v>
+        <v>45385.45833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K224">
-        <v>1.333</v>
+        <v>1.45</v>
       </c>
       <c r="L224">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M224">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N224">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O224">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P224">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="Q224">
         <v>-1.25</v>
       </c>
       <c r="R224">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S224">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V224">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20373,7 +20403,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6978440</v>
+        <v>6978443</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20382,49 +20412,49 @@
         <v>28</v>
       </c>
       <c r="E225" s="2">
-        <v>45386.45833333334</v>
+        <v>45385.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K225">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="L225">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M225">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="N225">
-        <v>4.333</v>
+        <v>1.533</v>
       </c>
       <c r="O225">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P225">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="Q225">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R225">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S225">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V225">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W225">
         <v>0</v>
@@ -20447,7 +20477,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6978441</v>
+        <v>6978439</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20456,63 +20486,211 @@
         <v>28</v>
       </c>
       <c r="E226" s="2">
-        <v>45386.5625</v>
+        <v>45386.35416666666</v>
       </c>
       <c r="F226" t="s">
         <v>39</v>
       </c>
       <c r="G226" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="K226">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="L226">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M226">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="N226">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O226">
         <v>4.333</v>
       </c>
       <c r="P226">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q226">
+        <v>-1</v>
+      </c>
+      <c r="R226">
+        <v>1.875</v>
+      </c>
+      <c r="S226">
+        <v>1.975</v>
+      </c>
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
+        <v>1.975</v>
+      </c>
+      <c r="V226">
+        <v>1.875</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>6978440</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45386.45833333334</v>
+      </c>
+      <c r="F227" t="s">
+        <v>44</v>
+      </c>
+      <c r="G227" t="s">
+        <v>35</v>
+      </c>
+      <c r="K227">
+        <v>3.5</v>
+      </c>
+      <c r="L227">
+        <v>3.2</v>
+      </c>
+      <c r="M227">
+        <v>2.15</v>
+      </c>
+      <c r="N227">
+        <v>4.2</v>
+      </c>
+      <c r="O227">
+        <v>3.3</v>
+      </c>
+      <c r="P227">
+        <v>1.909</v>
+      </c>
+      <c r="Q227">
+        <v>0.5</v>
+      </c>
+      <c r="R227">
+        <v>1.925</v>
+      </c>
+      <c r="S227">
+        <v>1.925</v>
+      </c>
+      <c r="T227">
+        <v>2.5</v>
+      </c>
+      <c r="U227">
+        <v>2.05</v>
+      </c>
+      <c r="V227">
+        <v>1.8</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>6978441</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45386.5625</v>
+      </c>
+      <c r="F228" t="s">
+        <v>37</v>
+      </c>
+      <c r="G228" t="s">
+        <v>29</v>
+      </c>
+      <c r="K228">
+        <v>1.363</v>
+      </c>
+      <c r="L228">
+        <v>4.75</v>
+      </c>
+      <c r="M228">
+        <v>8.5</v>
+      </c>
+      <c r="N228">
+        <v>1.25</v>
+      </c>
+      <c r="O228">
+        <v>5</v>
+      </c>
+      <c r="P228">
+        <v>15</v>
+      </c>
+      <c r="Q228">
         <v>-1.5</v>
       </c>
-      <c r="R226">
-        <v>2.05</v>
-      </c>
-      <c r="S226">
-        <v>1.8</v>
-      </c>
-      <c r="T226">
-        <v>2.25</v>
-      </c>
-      <c r="U226">
-        <v>1.825</v>
-      </c>
-      <c r="V226">
-        <v>2.025</v>
-      </c>
-      <c r="W226">
-        <v>0</v>
-      </c>
-      <c r="X226">
-        <v>0</v>
-      </c>
-      <c r="Y226">
-        <v>0</v>
-      </c>
-      <c r="Z226">
-        <v>0</v>
-      </c>
-      <c r="AA226">
+      <c r="R228">
+        <v>1.875</v>
+      </c>
+      <c r="S228">
+        <v>1.975</v>
+      </c>
+      <c r="T228">
+        <v>2.5</v>
+      </c>
+      <c r="U228">
+        <v>1.975</v>
+      </c>
+      <c r="V228">
+        <v>1.875</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,19 +121,19 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
+    <t>Slavia Sofia</t>
+  </si>
+  <si>
     <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Slavia Sofia</t>
-  </si>
-  <si>
-    <t>Cherno More Varna</t>
+    <t>CSKA 1948 Sofia</t>
   </si>
   <si>
     <t>Levski Sofia</t>
   </si>
   <si>
-    <t>CSKA 1948 Sofia</t>
+    <t>Cherno More Varna</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N8">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O8">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N9">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P9">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
+        <v>2.025</v>
+      </c>
+      <c r="T9">
+        <v>3.25</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
-      <c r="V9">
-        <v>1.975</v>
-      </c>
       <c r="W9">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627290</v>
+        <v>6627724</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>1.5</v>
+      </c>
+      <c r="L10">
+        <v>3.8</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>1.45</v>
+      </c>
+      <c r="O10">
+        <v>4.2</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>-1.25</v>
+      </c>
+      <c r="R10">
+        <v>2.025</v>
+      </c>
+      <c r="S10">
+        <v>1.825</v>
+      </c>
+      <c r="T10">
+        <v>2.5</v>
+      </c>
+      <c r="U10">
+        <v>1.85</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>3.2</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
+        <v>-1</v>
+      </c>
+      <c r="AA10">
+        <v>0.825</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-      <c r="L10">
-        <v>4</v>
-      </c>
-      <c r="M10">
-        <v>1.45</v>
-      </c>
-      <c r="N10">
-        <v>6</v>
-      </c>
-      <c r="O10">
-        <v>4.333</v>
-      </c>
-      <c r="P10">
-        <v>1.55</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <v>1.85</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.825</v>
-      </c>
-      <c r="V10">
-        <v>2.025</v>
-      </c>
-      <c r="W10">
-        <v>-1</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>0.55</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>-0</v>
-      </c>
-      <c r="AB10">
-        <v>-1</v>
-      </c>
-      <c r="AC10">
-        <v>1.025</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627724</v>
+        <v>6627290</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="L12">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M12">
+        <v>1.45</v>
+      </c>
+      <c r="N12">
         <v>6</v>
       </c>
-      <c r="N12">
-        <v>1.45</v>
-      </c>
       <c r="O12">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>8</v>
+        <v>1.55</v>
       </c>
       <c r="Q12">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1.85</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
+        <v>1.825</v>
+      </c>
+      <c r="V12">
         <v>2.025</v>
       </c>
-      <c r="S12">
-        <v>1.825</v>
-      </c>
-      <c r="T12">
-        <v>2.5</v>
-      </c>
-      <c r="U12">
-        <v>1.85</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1877,7 +1877,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1966,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>45128.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2586,7 +2586,7 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2764,7 +2764,7 @@
         <v>45130.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>45142.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4099,7 +4099,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,10 +4544,10 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4903,7 +4903,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5434,7 +5434,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5523,7 +5523,7 @@
         <v>45159.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
         <v>42</v>
@@ -5882,7 +5882,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,10 +6146,10 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
         <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -7036,7 +7036,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7395,7 +7395,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7748,10 +7748,10 @@
         <v>45191.47916666666</v>
       </c>
       <c r="F82" t="s">
+        <v>37</v>
+      </c>
+      <c r="G82" t="s">
         <v>39</v>
-      </c>
-      <c r="G82" t="s">
-        <v>37</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8374,7 +8374,7 @@
         <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8460,10 +8460,10 @@
         <v>45195.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,7 +8638,7 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -9086,7 +9086,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10151,7 +10151,7 @@
         <v>45206.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10329,10 +10329,10 @@
         <v>45207.48958333334</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10777,7 +10777,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11044,7 +11044,7 @@
         <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11397,7 +11397,7 @@
         <v>45225.375</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11486,7 +11486,7 @@
         <v>45225.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12732,7 +12732,7 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12821,7 +12821,7 @@
         <v>45237.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
         <v>38</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13091,7 +13091,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13447,7 +13447,7 @@
         <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13978,7 +13978,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14070,7 +14070,7 @@
         <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -14515,7 +14515,7 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14604,7 +14604,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -15135,10 +15135,10 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15313,7 +15313,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15758,7 +15758,7 @@
         <v>45274.52083333334</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G172" t="s">
         <v>30</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16206,7 +16206,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -16826,7 +16826,7 @@
         <v>45346.42708333334</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -17093,10 +17093,10 @@
         <v>45347.48958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17271,7 +17271,7 @@
         <v>45352.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17538,10 +17538,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>35</v>
+      </c>
+      <c r="G192" t="s">
         <v>36</v>
-      </c>
-      <c r="G192" t="s">
-        <v>35</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17719,7 +17719,7 @@
         <v>33</v>
       </c>
       <c r="G194" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -18075,7 +18075,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18161,7 +18161,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G199" t="s">
         <v>32</v>
@@ -18253,7 +18253,7 @@
         <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18517,7 +18517,7 @@
         <v>45361.53125</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18784,10 +18784,10 @@
         <v>45366.57291666666</v>
       </c>
       <c r="F206" t="s">
+        <v>39</v>
+      </c>
+      <c r="G206" t="s">
         <v>37</v>
-      </c>
-      <c r="G206" t="s">
-        <v>39</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -18873,7 +18873,7 @@
         <v>45367.32291666666</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
         <v>31</v>
@@ -19321,7 +19321,7 @@
         <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -19588,7 +19588,7 @@
         <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19941,10 +19941,10 @@
         <v>45382.4375</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -20030,7 +20030,7 @@
         <v>45382.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G220" t="s">
         <v>44</v>
@@ -20124,6 +20124,15 @@
       <c r="G221" t="s">
         <v>30</v>
       </c>
+      <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
+        <v>46</v>
+      </c>
       <c r="K221">
         <v>4.5</v>
       </c>
@@ -20134,46 +20143,52 @@
         <v>1.833</v>
       </c>
       <c r="N221">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O221">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P221">
         <v>1.8</v>
       </c>
       <c r="Q221">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R221">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S221">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U221">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V221">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA221">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB221">
+        <v>0.875</v>
+      </c>
+      <c r="AC221">
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20193,11 +20208,20 @@
         <v>45384.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
         <v>40</v>
       </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222" t="s">
+        <v>47</v>
+      </c>
       <c r="K222">
         <v>1.571</v>
       </c>
@@ -20208,46 +20232,52 @@
         <v>6</v>
       </c>
       <c r="N222">
-        <v>1.45</v>
+        <v>1.571</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P222">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Q222">
         <v>-1</v>
       </c>
       <c r="R222">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S222">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T222">
         <v>2.25</v>
       </c>
       <c r="U222">
+        <v>1.975</v>
+      </c>
+      <c r="V222">
         <v>1.875</v>
       </c>
-      <c r="V222">
-        <v>1.975</v>
-      </c>
       <c r="W222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB222">
+        <v>-1</v>
+      </c>
+      <c r="AC222">
+        <v>0.875</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20282,22 +20312,22 @@
         <v>4.2</v>
       </c>
       <c r="N223">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O223">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P223">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q223">
         <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S223">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T223">
         <v>2</v>
@@ -20356,22 +20386,22 @@
         <v>8</v>
       </c>
       <c r="N224">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O224">
         <v>4.333</v>
       </c>
       <c r="P224">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q224">
         <v>-1.25</v>
       </c>
       <c r="R224">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S224">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T224">
         <v>2.25</v>
@@ -20436,7 +20466,7 @@
         <v>3.8</v>
       </c>
       <c r="P225">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q225">
         <v>-1</v>
@@ -20451,10 +20481,10 @@
         <v>2.25</v>
       </c>
       <c r="U225">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V225">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W225">
         <v>0</v>
@@ -20489,7 +20519,7 @@
         <v>45386.35416666666</v>
       </c>
       <c r="F226" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G226" t="s">
         <v>43</v>
@@ -20507,28 +20537,28 @@
         <v>1.5</v>
       </c>
       <c r="O226">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P226">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q226">
         <v>-1</v>
       </c>
       <c r="R226">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S226">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T226">
         <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V226">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W226">
         <v>0</v>
@@ -20566,7 +20596,7 @@
         <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K227">
         <v>3.5</v>
@@ -20578,31 +20608,31 @@
         <v>2.15</v>
       </c>
       <c r="N227">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O227">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P227">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="Q227">
         <v>0.5</v>
       </c>
       <c r="R227">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S227">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U227">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V227">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W227">
         <v>0</v>
@@ -20637,7 +20667,7 @@
         <v>45386.5625</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G228" t="s">
         <v>29</v>
@@ -20652,10 +20682,10 @@
         <v>8.5</v>
       </c>
       <c r="N228">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="O228">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P228">
         <v>15</v>
@@ -20664,19 +20694,19 @@
         <v>-1.5</v>
       </c>
       <c r="R228">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S228">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T228">
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V228">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W228">
         <v>0</v>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC228"/>
+  <dimension ref="A1:AC227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20285,7 +20285,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6978389</v>
+        <v>6978439</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20294,49 +20294,49 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45385.35416666666</v>
+        <v>45386.35416666666</v>
       </c>
       <c r="F223" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G223" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K223">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L223">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="M223">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="N223">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O223">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P223">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R223">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S223">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T223">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V223">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W223">
         <v>0</v>
@@ -20359,7 +20359,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6978442</v>
+        <v>6978440</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20368,49 +20368,49 @@
         <v>28</v>
       </c>
       <c r="E224" s="2">
-        <v>45385.45833333334</v>
+        <v>45386.45833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G224" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K224">
-        <v>1.45</v>
+        <v>3.5</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M224">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="N224">
-        <v>1.333</v>
+        <v>4.333</v>
       </c>
       <c r="O224">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P224">
-        <v>12</v>
+        <v>1.909</v>
       </c>
       <c r="Q224">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R224">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S224">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T224">
         <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V224">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20433,7 +20433,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6978443</v>
+        <v>6978441</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20442,43 +20442,43 @@
         <v>28</v>
       </c>
       <c r="E225" s="2">
-        <v>45385.5625</v>
+        <v>45386.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G225" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K225">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="L225">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M225">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="N225">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="O225">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P225">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="Q225">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R225">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S225">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T225">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U225">
         <v>1.85</v>
@@ -20507,7 +20507,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6978439</v>
+        <v>6978388</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20516,49 +20516,49 @@
         <v>28</v>
       </c>
       <c r="E226" s="2">
-        <v>45386.35416666666</v>
+        <v>45388.48958333334</v>
       </c>
       <c r="F226" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G226" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K226">
-        <v>1.333</v>
+        <v>1.75</v>
       </c>
       <c r="L226">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M226">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N226">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O226">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P226">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q226">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R226">
+        <v>1.95</v>
+      </c>
+      <c r="S226">
         <v>1.9</v>
       </c>
-      <c r="S226">
-        <v>1.95</v>
-      </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V226">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W226">
         <v>0</v>
@@ -20581,7 +20581,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6978440</v>
+        <v>6978438</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20590,49 +20590,49 @@
         <v>28</v>
       </c>
       <c r="E227" s="2">
-        <v>45386.45833333334</v>
+        <v>45388.59375</v>
       </c>
       <c r="F227" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K227">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L227">
         <v>3.2</v>
       </c>
       <c r="M227">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N227">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O227">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P227">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q227">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S227">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T227">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U227">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V227">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W227">
         <v>0</v>
@@ -20647,80 +20647,6 @@
         <v>0</v>
       </c>
       <c r="AA227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:27">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="B228">
-        <v>6978441</v>
-      </c>
-      <c r="C228" t="s">
-        <v>28</v>
-      </c>
-      <c r="D228" t="s">
-        <v>28</v>
-      </c>
-      <c r="E228" s="2">
-        <v>45386.5625</v>
-      </c>
-      <c r="F228" t="s">
-        <v>39</v>
-      </c>
-      <c r="G228" t="s">
-        <v>29</v>
-      </c>
-      <c r="K228">
-        <v>1.363</v>
-      </c>
-      <c r="L228">
-        <v>4.75</v>
-      </c>
-      <c r="M228">
-        <v>8.5</v>
-      </c>
-      <c r="N228">
-        <v>1.285</v>
-      </c>
-      <c r="O228">
-        <v>4.75</v>
-      </c>
-      <c r="P228">
-        <v>15</v>
-      </c>
-      <c r="Q228">
-        <v>-1.5</v>
-      </c>
-      <c r="R228">
-        <v>1.825</v>
-      </c>
-      <c r="S228">
-        <v>2.025</v>
-      </c>
-      <c r="T228">
-        <v>2.5</v>
-      </c>
-      <c r="U228">
-        <v>1.9</v>
-      </c>
-      <c r="V228">
-        <v>1.95</v>
-      </c>
-      <c r="W228">
-        <v>0</v>
-      </c>
-      <c r="X228">
-        <v>0</v>
-      </c>
-      <c r="Y228">
-        <v>0</v>
-      </c>
-      <c r="Z228">
-        <v>0</v>
-      </c>
-      <c r="AA228">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC227"/>
+  <dimension ref="A1:AC230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20285,7 +20285,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6978439</v>
+        <v>6978388</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20294,49 +20294,49 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45386.35416666666</v>
+        <v>45388.48958333334</v>
       </c>
       <c r="F223" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G223" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K223">
-        <v>1.333</v>
+        <v>1.75</v>
       </c>
       <c r="L223">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M223">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N223">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O223">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P223">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q223">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R223">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S223">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U223">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V223">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W223">
         <v>0</v>
@@ -20359,7 +20359,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6978440</v>
+        <v>6978438</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20368,49 +20368,49 @@
         <v>28</v>
       </c>
       <c r="E224" s="2">
-        <v>45386.45833333334</v>
+        <v>45388.59375</v>
       </c>
       <c r="F224" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K224">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L224">
         <v>3.2</v>
       </c>
       <c r="M224">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N224">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="O224">
+        <v>3.1</v>
+      </c>
+      <c r="P224">
         <v>3.5</v>
       </c>
-      <c r="P224">
-        <v>1.909</v>
-      </c>
       <c r="Q224">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
+        <v>1.95</v>
+      </c>
+      <c r="S224">
+        <v>1.9</v>
+      </c>
+      <c r="T224">
+        <v>2</v>
+      </c>
+      <c r="U224">
+        <v>1.875</v>
+      </c>
+      <c r="V224">
         <v>1.975</v>
-      </c>
-      <c r="S224">
-        <v>1.875</v>
-      </c>
-      <c r="T224">
-        <v>2.25</v>
-      </c>
-      <c r="U224">
-        <v>1.85</v>
-      </c>
-      <c r="V224">
-        <v>2</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20433,7 +20433,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6978441</v>
+        <v>8035921</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20442,34 +20442,34 @@
         <v>28</v>
       </c>
       <c r="E225" s="2">
-        <v>45386.5625</v>
+        <v>45389.36458333334</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K225">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="L225">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M225">
-        <v>8.5</v>
+        <v>2.6</v>
       </c>
       <c r="N225">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="O225">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P225">
-        <v>17</v>
+        <v>2.7</v>
       </c>
       <c r="Q225">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R225">
         <v>1.975</v>
@@ -20478,13 +20478,13 @@
         <v>1.875</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U225">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V225">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W225">
         <v>0</v>
@@ -20507,7 +20507,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6978388</v>
+        <v>8035920</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20516,49 +20516,49 @@
         <v>28</v>
       </c>
       <c r="E226" s="2">
-        <v>45388.48958333334</v>
+        <v>45389.48958333334</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G226" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K226">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L226">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M226">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N226">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="O226">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P226">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q226">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S226">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T226">
         <v>2.25</v>
       </c>
       <c r="U226">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V226">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W226">
         <v>0</v>
@@ -20581,7 +20581,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6978438</v>
+        <v>6978446</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20590,63 +20590,285 @@
         <v>28</v>
       </c>
       <c r="E227" s="2">
-        <v>45388.59375</v>
+        <v>45389.59375</v>
       </c>
       <c r="F227" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G227" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K227">
+        <v>15</v>
+      </c>
+      <c r="L227">
+        <v>6</v>
+      </c>
+      <c r="M227">
+        <v>1.2</v>
+      </c>
+      <c r="N227">
+        <v>19</v>
+      </c>
+      <c r="O227">
+        <v>7</v>
+      </c>
+      <c r="P227">
+        <v>1.166</v>
+      </c>
+      <c r="Q227">
+        <v>2</v>
+      </c>
+      <c r="R227">
+        <v>2</v>
+      </c>
+      <c r="S227">
+        <v>1.85</v>
+      </c>
+      <c r="T227">
+        <v>3</v>
+      </c>
+      <c r="U227">
+        <v>1.95</v>
+      </c>
+      <c r="V227">
+        <v>1.9</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>6978437</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45390.45833333334</v>
+      </c>
+      <c r="F228" t="s">
+        <v>43</v>
+      </c>
+      <c r="G228" t="s">
+        <v>41</v>
+      </c>
+      <c r="K228">
+        <v>3</v>
+      </c>
+      <c r="L228">
+        <v>3.2</v>
+      </c>
+      <c r="M228">
+        <v>2.4</v>
+      </c>
+      <c r="N228">
+        <v>3</v>
+      </c>
+      <c r="O228">
+        <v>3.1</v>
+      </c>
+      <c r="P228">
+        <v>2.55</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>2.1</v>
+      </c>
+      <c r="S228">
+        <v>1.775</v>
+      </c>
+      <c r="T228">
+        <v>2</v>
+      </c>
+      <c r="U228">
+        <v>1.9</v>
+      </c>
+      <c r="V228">
+        <v>1.95</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>6978448</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45390.5625</v>
+      </c>
+      <c r="F229" t="s">
+        <v>31</v>
+      </c>
+      <c r="G229" t="s">
+        <v>39</v>
+      </c>
+      <c r="K229">
+        <v>2.9</v>
+      </c>
+      <c r="L229">
+        <v>3.1</v>
+      </c>
+      <c r="M229">
+        <v>2.5</v>
+      </c>
+      <c r="N229">
+        <v>3</v>
+      </c>
+      <c r="O229">
+        <v>3.1</v>
+      </c>
+      <c r="P229">
+        <v>2.5</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>2.1</v>
+      </c>
+      <c r="S229">
+        <v>1.775</v>
+      </c>
+      <c r="T229">
+        <v>2.25</v>
+      </c>
+      <c r="U229">
         <v>2.05</v>
       </c>
-      <c r="L227">
-        <v>3.2</v>
-      </c>
-      <c r="M227">
-        <v>3.75</v>
-      </c>
-      <c r="N227">
-        <v>2.1</v>
-      </c>
-      <c r="O227">
-        <v>3.2</v>
-      </c>
-      <c r="P227">
-        <v>3.6</v>
-      </c>
-      <c r="Q227">
+      <c r="V229">
+        <v>1.8</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>6978449</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45391.52083333334</v>
+      </c>
+      <c r="F230" t="s">
+        <v>29</v>
+      </c>
+      <c r="G230" t="s">
+        <v>44</v>
+      </c>
+      <c r="K230">
+        <v>2.25</v>
+      </c>
+      <c r="L230">
+        <v>3</v>
+      </c>
+      <c r="M230">
+        <v>3.5</v>
+      </c>
+      <c r="N230">
+        <v>2.25</v>
+      </c>
+      <c r="O230">
+        <v>3.1</v>
+      </c>
+      <c r="P230">
+        <v>3.5</v>
+      </c>
+      <c r="Q230">
         <v>-0.25</v>
       </c>
-      <c r="R227">
+      <c r="R230">
+        <v>1.925</v>
+      </c>
+      <c r="S230">
+        <v>1.925</v>
+      </c>
+      <c r="T230">
+        <v>2.25</v>
+      </c>
+      <c r="U230">
+        <v>2.025</v>
+      </c>
+      <c r="V230">
         <v>1.825</v>
       </c>
-      <c r="S227">
-        <v>2.025</v>
-      </c>
-      <c r="T227">
-        <v>2</v>
-      </c>
-      <c r="U227">
-        <v>1.9</v>
-      </c>
-      <c r="V227">
-        <v>1.95</v>
-      </c>
-      <c r="W227">
-        <v>0</v>
-      </c>
-      <c r="X227">
-        <v>0</v>
-      </c>
-      <c r="Y227">
-        <v>0</v>
-      </c>
-      <c r="Z227">
-        <v>0</v>
-      </c>
-      <c r="AA227">
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -127,13 +127,13 @@
     <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>CSKA 1948 Sofia</t>
-  </si>
-  <si>
     <t>Levski Sofia</t>
   </si>
   <si>
     <t>Cherno More Varna</t>
+  </si>
+  <si>
+    <t>CSKA 1948 Sofia</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC230"/>
+  <dimension ref="A1:AC236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627724</v>
+        <v>6627725</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,46 +1343,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L10">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N10">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
+        <v>1.825</v>
+      </c>
+      <c r="S10">
         <v>2.025</v>
       </c>
-      <c r="S10">
-        <v>1.825</v>
-      </c>
       <c r="T10">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
         <v>1.85</v>
@@ -1394,22 +1394,22 @@
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6627725</v>
+        <v>6627290</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,53 +1432,53 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>45</v>
       </c>
       <c r="K11">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="N11">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P11">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>1.85</v>
+      </c>
+      <c r="T11">
+        <v>2.75</v>
+      </c>
+      <c r="U11">
         <v>1.825</v>
       </c>
-      <c r="S11">
+      <c r="V11">
         <v>2.025</v>
       </c>
-      <c r="T11">
-        <v>2.25</v>
-      </c>
-      <c r="U11">
-        <v>1.85</v>
-      </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
       <c r="W11">
         <v>-1</v>
       </c>
@@ -1486,19 +1486,19 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA11">
+        <v>-0</v>
+      </c>
+      <c r="AB11">
+        <v>-1</v>
+      </c>
+      <c r="AC11">
         <v>1.025</v>
-      </c>
-      <c r="AB11">
-        <v>-0.5</v>
-      </c>
-      <c r="AC11">
-        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627290</v>
+        <v>6627724</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12">
+        <v>1.5</v>
+      </c>
+      <c r="L12">
+        <v>3.8</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>1.45</v>
+      </c>
+      <c r="O12">
+        <v>4.2</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <v>-1.25</v>
+      </c>
+      <c r="R12">
+        <v>2.025</v>
+      </c>
+      <c r="S12">
+        <v>1.825</v>
+      </c>
+      <c r="T12">
+        <v>2.5</v>
+      </c>
+      <c r="U12">
+        <v>1.85</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>3.2</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
+        <v>0.825</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
         <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12">
-        <v>6</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <v>1.45</v>
-      </c>
-      <c r="N12">
-        <v>6</v>
-      </c>
-      <c r="O12">
-        <v>4.333</v>
-      </c>
-      <c r="P12">
-        <v>1.55</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>1.85</v>
-      </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
-      <c r="V12">
-        <v>2.025</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>0.55</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>-0</v>
-      </c>
-      <c r="AB12">
-        <v>-1</v>
-      </c>
-      <c r="AC12">
-        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,10 +1874,10 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1966,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2408,7 +2408,7 @@
         <v>45128.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2589,7 +2589,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>45130.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3565,7 +3565,7 @@
         <v>45142.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4099,7 +4099,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4547,7 +4547,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -4903,7 +4903,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5434,7 +5434,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5523,7 +5523,7 @@
         <v>45159.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
         <v>42</v>
@@ -5882,7 +5882,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6149,7 +6149,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7036,7 +7036,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7395,7 +7395,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7748,10 +7748,10 @@
         <v>45191.47916666666</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8374,7 +8374,7 @@
         <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>45195.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
         <v>36</v>
@@ -8641,7 +8641,7 @@
         <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10151,7 +10151,7 @@
         <v>45206.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45207.48958333334</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G111" t="s">
         <v>36</v>
@@ -10777,7 +10777,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -11041,10 +11041,10 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119" t="s">
         <v>38</v>
-      </c>
-      <c r="G119" t="s">
-        <v>39</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11397,7 +11397,7 @@
         <v>45225.375</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11486,7 +11486,7 @@
         <v>45225.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12732,7 +12732,7 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12821,10 +12821,10 @@
         <v>45237.52083333334</v>
       </c>
       <c r="F139" t="s">
+        <v>39</v>
+      </c>
+      <c r="G139" t="s">
         <v>37</v>
-      </c>
-      <c r="G139" t="s">
-        <v>38</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13091,7 +13091,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13444,7 +13444,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
         <v>36</v>
@@ -13978,7 +13978,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14070,7 +14070,7 @@
         <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14515,7 +14515,7 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14604,7 +14604,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15135,7 +15135,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
         <v>35</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15758,7 +15758,7 @@
         <v>45274.52083333334</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G172" t="s">
         <v>30</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16206,7 +16206,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16826,7 +16826,7 @@
         <v>45346.42708333334</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17093,7 +17093,7 @@
         <v>45347.48958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G187" t="s">
         <v>35</v>
@@ -17271,7 +17271,7 @@
         <v>45352.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17719,7 +17719,7 @@
         <v>33</v>
       </c>
       <c r="G194" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17897,7 +17897,7 @@
         <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18161,7 +18161,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G199" t="s">
         <v>32</v>
@@ -18253,7 +18253,7 @@
         <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18428,7 +18428,7 @@
         <v>45361.42708333334</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G202" t="s">
         <v>41</v>
@@ -18784,10 +18784,10 @@
         <v>45366.57291666666</v>
       </c>
       <c r="F206" t="s">
+        <v>38</v>
+      </c>
+      <c r="G206" t="s">
         <v>39</v>
-      </c>
-      <c r="G206" t="s">
-        <v>37</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -18965,7 +18965,7 @@
         <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19585,7 +19585,7 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
         <v>35</v>
@@ -19944,7 +19944,7 @@
         <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -20030,7 +20030,7 @@
         <v>45382.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
         <v>44</v>
@@ -20285,7 +20285,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6978388</v>
+        <v>6978389</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20294,64 +20294,79 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45388.48958333334</v>
+        <v>45385.35416666666</v>
       </c>
       <c r="F223" t="s">
+        <v>41</v>
+      </c>
+      <c r="G223" t="s">
         <v>34</v>
       </c>
-      <c r="G223" t="s">
-        <v>42</v>
+      <c r="H223">
+        <v>3</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223" t="s">
+        <v>46</v>
       </c>
       <c r="K223">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M223">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N223">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O223">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P223">
         <v>5</v>
       </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S223">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T223">
         <v>2</v>
       </c>
       <c r="U223">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V223">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W223">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="X223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA223">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB223">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC223">
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20359,7 +20374,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6978438</v>
+        <v>6978442</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20368,72 +20383,87 @@
         <v>28</v>
       </c>
       <c r="E224" s="2">
-        <v>45388.59375</v>
+        <v>45385.45833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224" t="s">
+        <v>45</v>
       </c>
       <c r="K224">
+        <v>1.45</v>
+      </c>
+      <c r="L224">
+        <v>4</v>
+      </c>
+      <c r="M224">
+        <v>8</v>
+      </c>
+      <c r="N224">
+        <v>1.363</v>
+      </c>
+      <c r="O224">
+        <v>4.5</v>
+      </c>
+      <c r="P224">
+        <v>9.5</v>
+      </c>
+      <c r="Q224">
+        <v>-1.25</v>
+      </c>
+      <c r="R224">
+        <v>1.85</v>
+      </c>
+      <c r="S224">
+        <v>2</v>
+      </c>
+      <c r="T224">
+        <v>2.5</v>
+      </c>
+      <c r="U224">
         <v>2.05</v>
       </c>
-      <c r="L224">
-        <v>3.2</v>
-      </c>
-      <c r="M224">
-        <v>3.75</v>
-      </c>
-      <c r="N224">
-        <v>2.25</v>
-      </c>
-      <c r="O224">
-        <v>3.1</v>
-      </c>
-      <c r="P224">
-        <v>3.5</v>
-      </c>
-      <c r="Q224">
-        <v>-0.25</v>
-      </c>
-      <c r="R224">
-        <v>1.95</v>
-      </c>
-      <c r="S224">
-        <v>1.9</v>
-      </c>
-      <c r="T224">
-        <v>2</v>
-      </c>
-      <c r="U224">
-        <v>1.875</v>
-      </c>
       <c r="V224">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27">
+        <v>1</v>
+      </c>
+      <c r="AB224">
+        <v>1.05</v>
+      </c>
+      <c r="AC224">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225">
-        <v>8035921</v>
+        <v>6978443</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20442,72 +20472,87 @@
         <v>28</v>
       </c>
       <c r="E225" s="2">
-        <v>45389.36458333334</v>
+        <v>45385.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G225" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="H225">
+        <v>5</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225" t="s">
+        <v>46</v>
       </c>
       <c r="K225">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="L225">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M225">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N225">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O225">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P225">
-        <v>2.7</v>
+        <v>8.5</v>
       </c>
       <c r="Q225">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R225">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S225">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T225">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="V225">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W225">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB225">
+        <v>0.825</v>
+      </c>
+      <c r="AC225">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226">
-        <v>8035920</v>
+        <v>6978439</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20516,72 +20561,87 @@
         <v>28</v>
       </c>
       <c r="E226" s="2">
-        <v>45389.48958333334</v>
+        <v>45386.35416666666</v>
       </c>
       <c r="F226" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226" t="s">
+        <v>47</v>
       </c>
       <c r="K226">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L226">
+        <v>5.5</v>
+      </c>
+      <c r="M226">
+        <v>7.5</v>
+      </c>
+      <c r="N226">
+        <v>1.5</v>
+      </c>
+      <c r="O226">
+        <v>4.2</v>
+      </c>
+      <c r="P226">
+        <v>7</v>
+      </c>
+      <c r="Q226">
+        <v>-1</v>
+      </c>
+      <c r="R226">
+        <v>1.8</v>
+      </c>
+      <c r="S226">
+        <v>2.05</v>
+      </c>
+      <c r="T226">
+        <v>2.75</v>
+      </c>
+      <c r="U226">
+        <v>2</v>
+      </c>
+      <c r="V226">
+        <v>1.85</v>
+      </c>
+      <c r="W226">
+        <v>-1</v>
+      </c>
+      <c r="X226">
         <v>3.2</v>
       </c>
-      <c r="M226">
-        <v>3.6</v>
-      </c>
-      <c r="N226">
-        <v>1.909</v>
-      </c>
-      <c r="O226">
-        <v>3.3</v>
-      </c>
-      <c r="P226">
-        <v>4.5</v>
-      </c>
-      <c r="Q226">
-        <v>-0.5</v>
-      </c>
-      <c r="R226">
-        <v>1.925</v>
-      </c>
-      <c r="S226">
-        <v>1.925</v>
-      </c>
-      <c r="T226">
-        <v>2.25</v>
-      </c>
-      <c r="U226">
-        <v>1.825</v>
-      </c>
-      <c r="V226">
-        <v>2.025</v>
-      </c>
-      <c r="W226">
-        <v>0</v>
-      </c>
-      <c r="X226">
-        <v>0</v>
-      </c>
       <c r="Y226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27">
+        <v>1.05</v>
+      </c>
+      <c r="AB226">
+        <v>-1</v>
+      </c>
+      <c r="AC226">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6978446</v>
+        <v>6978440</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20590,72 +20650,87 @@
         <v>28</v>
       </c>
       <c r="E227" s="2">
-        <v>45389.59375</v>
+        <v>45386.45833333334</v>
       </c>
       <c r="F227" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>3</v>
+      </c>
+      <c r="J227" t="s">
+        <v>45</v>
       </c>
       <c r="K227">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="L227">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M227">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="N227">
-        <v>19</v>
+        <v>3.4</v>
       </c>
       <c r="O227">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P227">
-        <v>1.166</v>
+        <v>2.15</v>
       </c>
       <c r="Q227">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S227">
+        <v>1.9</v>
+      </c>
+      <c r="T227">
+        <v>2.25</v>
+      </c>
+      <c r="U227">
         <v>1.85</v>
       </c>
-      <c r="T227">
-        <v>3</v>
-      </c>
-      <c r="U227">
-        <v>1.95</v>
-      </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Z227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:27">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB227">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC227">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6978437</v>
+        <v>6978441</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20664,72 +20739,87 @@
         <v>28</v>
       </c>
       <c r="E228" s="2">
-        <v>45390.45833333334</v>
+        <v>45386.5625</v>
       </c>
       <c r="F228" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G228" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="H228">
+        <v>3</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228" t="s">
+        <v>46</v>
       </c>
       <c r="K228">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L228">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M228">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="N228">
-        <v>3</v>
+        <v>1.285</v>
       </c>
       <c r="O228">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P228">
-        <v>2.55</v>
+        <v>13</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R228">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S228">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T228">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W228">
-        <v>0</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB228">
+        <v>0.825</v>
+      </c>
+      <c r="AC228">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6978448</v>
+        <v>6978388</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20738,49 +20828,49 @@
         <v>28</v>
       </c>
       <c r="E229" s="2">
-        <v>45390.5625</v>
+        <v>45388.48958333334</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G229" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K229">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L229">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M229">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N229">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O229">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P229">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S229">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U229">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V229">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W229">
         <v>0</v>
@@ -20798,12 +20888,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:27">
+    <row r="230" spans="1:29">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6978449</v>
+        <v>6978438</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20812,22 +20902,22 @@
         <v>28</v>
       </c>
       <c r="E230" s="2">
-        <v>45391.52083333334</v>
+        <v>45388.59375</v>
       </c>
       <c r="F230" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G230" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K230">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L230">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M230">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N230">
         <v>2.25</v>
@@ -20842,33 +20932,477 @@
         <v>-0.25</v>
       </c>
       <c r="R230">
+        <v>1.95</v>
+      </c>
+      <c r="S230">
+        <v>1.9</v>
+      </c>
+      <c r="T230">
+        <v>2</v>
+      </c>
+      <c r="U230">
+        <v>1.875</v>
+      </c>
+      <c r="V230">
+        <v>1.975</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>8035921</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45389.36458333334</v>
+      </c>
+      <c r="F231" t="s">
+        <v>37</v>
+      </c>
+      <c r="G231" t="s">
+        <v>32</v>
+      </c>
+      <c r="K231">
+        <v>2.8</v>
+      </c>
+      <c r="L231">
+        <v>3.1</v>
+      </c>
+      <c r="M231">
+        <v>2.6</v>
+      </c>
+      <c r="N231">
+        <v>2.8</v>
+      </c>
+      <c r="O231">
+        <v>3.1</v>
+      </c>
+      <c r="P231">
+        <v>2.7</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>1.975</v>
+      </c>
+      <c r="S231">
+        <v>1.875</v>
+      </c>
+      <c r="T231">
+        <v>2</v>
+      </c>
+      <c r="U231">
+        <v>2.1</v>
+      </c>
+      <c r="V231">
+        <v>1.775</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>8035920</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45389.48958333334</v>
+      </c>
+      <c r="F232" t="s">
+        <v>36</v>
+      </c>
+      <c r="G232" t="s">
+        <v>39</v>
+      </c>
+      <c r="K232">
+        <v>2.1</v>
+      </c>
+      <c r="L232">
+        <v>3.2</v>
+      </c>
+      <c r="M232">
+        <v>3.6</v>
+      </c>
+      <c r="N232">
+        <v>1.909</v>
+      </c>
+      <c r="O232">
+        <v>3.3</v>
+      </c>
+      <c r="P232">
+        <v>4.5</v>
+      </c>
+      <c r="Q232">
+        <v>-0.5</v>
+      </c>
+      <c r="R232">
         <v>1.925</v>
       </c>
-      <c r="S230">
+      <c r="S232">
         <v>1.925</v>
       </c>
-      <c r="T230">
+      <c r="T232">
         <v>2.25</v>
       </c>
-      <c r="U230">
+      <c r="U232">
+        <v>1.825</v>
+      </c>
+      <c r="V232">
         <v>2.025</v>
       </c>
-      <c r="V230">
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>6978446</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45389.59375</v>
+      </c>
+      <c r="F233" t="s">
+        <v>40</v>
+      </c>
+      <c r="G233" t="s">
+        <v>33</v>
+      </c>
+      <c r="K233">
+        <v>15</v>
+      </c>
+      <c r="L233">
+        <v>6</v>
+      </c>
+      <c r="M233">
+        <v>1.2</v>
+      </c>
+      <c r="N233">
+        <v>19</v>
+      </c>
+      <c r="O233">
+        <v>7</v>
+      </c>
+      <c r="P233">
+        <v>1.166</v>
+      </c>
+      <c r="Q233">
+        <v>2</v>
+      </c>
+      <c r="R233">
+        <v>2</v>
+      </c>
+      <c r="S233">
+        <v>1.85</v>
+      </c>
+      <c r="T233">
+        <v>3</v>
+      </c>
+      <c r="U233">
+        <v>1.95</v>
+      </c>
+      <c r="V233">
+        <v>1.9</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>6978437</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45390.45833333334</v>
+      </c>
+      <c r="F234" t="s">
+        <v>43</v>
+      </c>
+      <c r="G234" t="s">
+        <v>41</v>
+      </c>
+      <c r="K234">
+        <v>3</v>
+      </c>
+      <c r="L234">
+        <v>3.2</v>
+      </c>
+      <c r="M234">
+        <v>2.4</v>
+      </c>
+      <c r="N234">
+        <v>3</v>
+      </c>
+      <c r="O234">
+        <v>3.1</v>
+      </c>
+      <c r="P234">
+        <v>2.55</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <v>2.1</v>
+      </c>
+      <c r="S234">
+        <v>1.775</v>
+      </c>
+      <c r="T234">
+        <v>2</v>
+      </c>
+      <c r="U234">
+        <v>1.9</v>
+      </c>
+      <c r="V234">
+        <v>1.95</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>6978448</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45390.5625</v>
+      </c>
+      <c r="F235" t="s">
+        <v>31</v>
+      </c>
+      <c r="G235" t="s">
+        <v>38</v>
+      </c>
+      <c r="K235">
+        <v>2.9</v>
+      </c>
+      <c r="L235">
+        <v>3.1</v>
+      </c>
+      <c r="M235">
+        <v>2.5</v>
+      </c>
+      <c r="N235">
+        <v>3</v>
+      </c>
+      <c r="O235">
+        <v>3.1</v>
+      </c>
+      <c r="P235">
+        <v>2.5</v>
+      </c>
+      <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="R235">
+        <v>2.1</v>
+      </c>
+      <c r="S235">
+        <v>1.775</v>
+      </c>
+      <c r="T235">
+        <v>2.25</v>
+      </c>
+      <c r="U235">
+        <v>2.05</v>
+      </c>
+      <c r="V235">
+        <v>1.8</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>6978449</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45391.52083333334</v>
+      </c>
+      <c r="F236" t="s">
+        <v>29</v>
+      </c>
+      <c r="G236" t="s">
+        <v>44</v>
+      </c>
+      <c r="K236">
+        <v>2.25</v>
+      </c>
+      <c r="L236">
+        <v>3</v>
+      </c>
+      <c r="M236">
+        <v>3.5</v>
+      </c>
+      <c r="N236">
+        <v>2.25</v>
+      </c>
+      <c r="O236">
+        <v>3.1</v>
+      </c>
+      <c r="P236">
+        <v>3.5</v>
+      </c>
+      <c r="Q236">
+        <v>-0.25</v>
+      </c>
+      <c r="R236">
+        <v>1.925</v>
+      </c>
+      <c r="S236">
+        <v>1.925</v>
+      </c>
+      <c r="T236">
+        <v>2.25</v>
+      </c>
+      <c r="U236">
+        <v>2.025</v>
+      </c>
+      <c r="V236">
         <v>1.825</v>
       </c>
-      <c r="W230">
-        <v>0</v>
-      </c>
-      <c r="X230">
-        <v>0</v>
-      </c>
-      <c r="Y230">
-        <v>0</v>
-      </c>
-      <c r="Z230">
-        <v>0</v>
-      </c>
-      <c r="AA230">
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
-    <t>Slavia Sofia</t>
+    <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Botev Plovdiv</t>
+    <t>Slavia Sofia</t>
   </si>
   <si>
     <t>Levski Sofia</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC236"/>
+  <dimension ref="A1:AC235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N8">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
+        <v>2.025</v>
+      </c>
+      <c r="T8">
+        <v>3.25</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
         <v>1.85</v>
       </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
-      <c r="V8">
-        <v>1.975</v>
-      </c>
       <c r="W8">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O9">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P9">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q9">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>37</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,7 +4544,7 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>39</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
         <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>35</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8463,7 +8463,7 @@
         <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,7 +8638,7 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>37</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10332,7 +10332,7 @@
         <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13447,7 +13447,7 @@
         <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -15138,7 +15138,7 @@
         <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -17096,7 +17096,7 @@
         <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17538,10 +17538,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>36</v>
+      </c>
+      <c r="G192" t="s">
         <v>35</v>
-      </c>
-      <c r="G192" t="s">
-        <v>36</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -18075,7 +18075,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18517,7 +18517,7 @@
         <v>45361.53125</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18873,7 +18873,7 @@
         <v>45367.32291666666</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
         <v>31</v>
@@ -19321,7 +19321,7 @@
         <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -19588,7 +19588,7 @@
         <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19941,7 +19941,7 @@
         <v>45382.4375</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
         <v>38</v>
@@ -20208,7 +20208,7 @@
         <v>45384.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
         <v>40</v>
@@ -20656,7 +20656,7 @@
         <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20819,7 +20819,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6978388</v>
+        <v>6978438</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20828,34 +20828,34 @@
         <v>28</v>
       </c>
       <c r="E229" s="2">
-        <v>45388.48958333334</v>
+        <v>45388.59375</v>
       </c>
       <c r="F229" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G229" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K229">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L229">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N229">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O229">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P229">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q229">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
         <v>2.05</v>
@@ -20867,10 +20867,10 @@
         <v>2</v>
       </c>
       <c r="U229">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V229">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W229">
         <v>0</v>
@@ -20893,7 +20893,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6978438</v>
+        <v>8035921</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20902,49 +20902,49 @@
         <v>28</v>
       </c>
       <c r="E230" s="2">
-        <v>45388.59375</v>
+        <v>45389.36458333334</v>
       </c>
       <c r="F230" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G230" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K230">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="L230">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M230">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N230">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="O230">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P230">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q230">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R230">
+        <v>1.925</v>
+      </c>
+      <c r="S230">
+        <v>1.925</v>
+      </c>
+      <c r="T230">
+        <v>1.75</v>
+      </c>
+      <c r="U230">
+        <v>1.9</v>
+      </c>
+      <c r="V230">
         <v>1.95</v>
-      </c>
-      <c r="S230">
-        <v>1.9</v>
-      </c>
-      <c r="T230">
-        <v>2</v>
-      </c>
-      <c r="U230">
-        <v>1.875</v>
-      </c>
-      <c r="V230">
-        <v>1.975</v>
       </c>
       <c r="W230">
         <v>0</v>
@@ -20967,7 +20967,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>8035921</v>
+        <v>8035920</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -20976,49 +20976,49 @@
         <v>28</v>
       </c>
       <c r="E231" s="2">
-        <v>45389.36458333334</v>
+        <v>45389.48958333334</v>
       </c>
       <c r="F231" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G231" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K231">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L231">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M231">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N231">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O231">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P231">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R231">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S231">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T231">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U231">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V231">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W231">
         <v>0</v>
@@ -21041,7 +21041,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>8035920</v>
+        <v>6978446</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21050,49 +21050,49 @@
         <v>28</v>
       </c>
       <c r="E232" s="2">
-        <v>45389.48958333334</v>
+        <v>45389.59375</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K232">
-        <v>2.1</v>
+        <v>15</v>
       </c>
       <c r="L232">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M232">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="N232">
-        <v>1.909</v>
+        <v>19</v>
       </c>
       <c r="O232">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="P232">
-        <v>4.5</v>
+        <v>1.166</v>
       </c>
       <c r="Q232">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="R232">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S232">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T232">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U232">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V232">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W232">
         <v>0</v>
@@ -21115,7 +21115,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6978446</v>
+        <v>6978437</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21124,49 +21124,49 @@
         <v>28</v>
       </c>
       <c r="E233" s="2">
-        <v>45389.59375</v>
+        <v>45390.45833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K233">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L233">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M233">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="N233">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O233">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="P233">
-        <v>1.166</v>
+        <v>2.55</v>
       </c>
       <c r="Q233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R233">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S233">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U233">
+        <v>1.9</v>
+      </c>
+      <c r="V233">
         <v>1.95</v>
-      </c>
-      <c r="V233">
-        <v>1.9</v>
       </c>
       <c r="W233">
         <v>0</v>
@@ -21189,7 +21189,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6978437</v>
+        <v>6978448</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21198,22 +21198,22 @@
         <v>28</v>
       </c>
       <c r="E234" s="2">
-        <v>45390.45833333334</v>
+        <v>45390.5625</v>
       </c>
       <c r="F234" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G234" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K234">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L234">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M234">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N234">
         <v>3</v>
@@ -21222,7 +21222,7 @@
         <v>3.1</v>
       </c>
       <c r="P234">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q234">
         <v>0</v>
@@ -21234,13 +21234,13 @@
         <v>1.775</v>
       </c>
       <c r="T234">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U234">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V234">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W234">
         <v>0</v>
@@ -21263,7 +21263,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6978448</v>
+        <v>6978449</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21272,40 +21272,40 @@
         <v>28</v>
       </c>
       <c r="E235" s="2">
-        <v>45390.5625</v>
+        <v>45391.52083333334</v>
       </c>
       <c r="F235" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K235">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L235">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M235">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N235">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="O235">
         <v>3.1</v>
       </c>
       <c r="P235">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q235">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S235">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T235">
         <v>2.25</v>
@@ -21329,80 +21329,6 @@
         <v>0</v>
       </c>
       <c r="AA235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:29">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236">
-        <v>6978449</v>
-      </c>
-      <c r="C236" t="s">
-        <v>28</v>
-      </c>
-      <c r="D236" t="s">
-        <v>28</v>
-      </c>
-      <c r="E236" s="2">
-        <v>45391.52083333334</v>
-      </c>
-      <c r="F236" t="s">
-        <v>29</v>
-      </c>
-      <c r="G236" t="s">
-        <v>44</v>
-      </c>
-      <c r="K236">
-        <v>2.25</v>
-      </c>
-      <c r="L236">
-        <v>3</v>
-      </c>
-      <c r="M236">
-        <v>3.5</v>
-      </c>
-      <c r="N236">
-        <v>2.25</v>
-      </c>
-      <c r="O236">
-        <v>3.1</v>
-      </c>
-      <c r="P236">
-        <v>3.5</v>
-      </c>
-      <c r="Q236">
-        <v>-0.25</v>
-      </c>
-      <c r="R236">
-        <v>1.925</v>
-      </c>
-      <c r="S236">
-        <v>1.925</v>
-      </c>
-      <c r="T236">
-        <v>2.25</v>
-      </c>
-      <c r="U236">
-        <v>2.025</v>
-      </c>
-      <c r="V236">
-        <v>1.825</v>
-      </c>
-      <c r="W236">
-        <v>0</v>
-      </c>
-      <c r="X236">
-        <v>0</v>
-      </c>
-      <c r="Y236">
-        <v>0</v>
-      </c>
-      <c r="Z236">
-        <v>0</v>
-      </c>
-      <c r="AA236">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,19 +121,19 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
+    <t>Slavia Sofia</t>
+  </si>
+  <si>
     <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Slavia Sofia</t>
-  </si>
-  <si>
-    <t>Levski Sofia</t>
+    <t>CSKA 1948 Sofia</t>
   </si>
   <si>
     <t>Cherno More Varna</t>
   </si>
   <si>
-    <t>CSKA 1948 Sofia</t>
+    <t>Levski Sofia</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC235"/>
+  <dimension ref="A1:AC236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N8">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O8">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N9">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P9">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
+        <v>2.025</v>
+      </c>
+      <c r="T9">
+        <v>3.25</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
-      <c r="V9">
-        <v>1.975</v>
-      </c>
       <c r="W9">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627725</v>
+        <v>6627724</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,46 +1343,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M10">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N10">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
+        <v>2.025</v>
+      </c>
+      <c r="S10">
         <v>1.825</v>
       </c>
-      <c r="S10">
-        <v>2.025</v>
-      </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
         <v>1.85</v>
@@ -1394,22 +1394,22 @@
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y10">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627724</v>
+        <v>6627725</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,46 +1521,46 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L12">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="O12">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q12">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R12">
+        <v>1.825</v>
+      </c>
+      <c r="S12">
         <v>2.025</v>
       </c>
-      <c r="S12">
-        <v>1.825</v>
-      </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
         <v>1.85</v>
@@ -1572,22 +1572,22 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,10 +1874,10 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
         <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>45128.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2586,10 +2586,10 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4099,7 +4099,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,7 +4544,7 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
         <v>38</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -4903,7 +4903,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5523,7 +5523,7 @@
         <v>45159.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
         <v>42</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,10 +6146,10 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
         <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7395,7 +7395,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7748,7 +7748,7 @@
         <v>45191.47916666666</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
         <v>38</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8374,7 +8374,7 @@
         <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8463,7 +8463,7 @@
         <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,10 +8638,10 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10329,10 +10329,10 @@
         <v>45207.48958333334</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10777,7 +10777,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11041,7 +11041,7 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
         <v>38</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11486,7 +11486,7 @@
         <v>45225.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12821,10 +12821,10 @@
         <v>45237.52083333334</v>
       </c>
       <c r="F139" t="s">
+        <v>37</v>
+      </c>
+      <c r="G139" t="s">
         <v>39</v>
-      </c>
-      <c r="G139" t="s">
-        <v>37</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13444,10 +13444,10 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -14070,7 +14070,7 @@
         <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -14515,7 +14515,7 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15138,7 +15138,7 @@
         <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15758,7 +15758,7 @@
         <v>45274.52083333334</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G172" t="s">
         <v>30</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16206,7 +16206,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17093,10 +17093,10 @@
         <v>45347.48958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17538,10 +17538,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>35</v>
+      </c>
+      <c r="G192" t="s">
         <v>36</v>
-      </c>
-      <c r="G192" t="s">
-        <v>35</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17719,7 +17719,7 @@
         <v>33</v>
       </c>
       <c r="G194" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17897,7 +17897,7 @@
         <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18075,7 +18075,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18161,7 +18161,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G199" t="s">
         <v>32</v>
@@ -18428,7 +18428,7 @@
         <v>45361.42708333334</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G202" t="s">
         <v>41</v>
@@ -18517,7 +18517,7 @@
         <v>45361.53125</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18787,7 +18787,7 @@
         <v>38</v>
       </c>
       <c r="G206" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -18873,7 +18873,7 @@
         <v>45367.32291666666</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
         <v>31</v>
@@ -18965,7 +18965,7 @@
         <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19321,7 +19321,7 @@
         <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -19585,10 +19585,10 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19941,7 +19941,7 @@
         <v>45382.4375</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
         <v>38</v>
@@ -20030,7 +20030,7 @@
         <v>45382.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G220" t="s">
         <v>44</v>
@@ -20208,7 +20208,7 @@
         <v>45384.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
         <v>40</v>
@@ -20478,7 +20478,7 @@
         <v>33</v>
       </c>
       <c r="G225" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H225">
         <v>5</v>
@@ -20564,7 +20564,7 @@
         <v>45386.35416666666</v>
       </c>
       <c r="F226" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G226" t="s">
         <v>43</v>
@@ -20656,7 +20656,7 @@
         <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20819,7 +20819,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6978438</v>
+        <v>6978388</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20828,34 +20828,43 @@
         <v>28</v>
       </c>
       <c r="E229" s="2">
-        <v>45388.59375</v>
+        <v>45388.48958333334</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G229" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="H229">
+        <v>3</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229" t="s">
+        <v>46</v>
       </c>
       <c r="K229">
+        <v>1.75</v>
+      </c>
+      <c r="L229">
+        <v>3.5</v>
+      </c>
+      <c r="M229">
+        <v>4.75</v>
+      </c>
+      <c r="N229">
         <v>2.05</v>
       </c>
-      <c r="L229">
+      <c r="O229">
         <v>3.2</v>
       </c>
-      <c r="M229">
-        <v>3.75</v>
-      </c>
-      <c r="N229">
-        <v>2.375</v>
-      </c>
-      <c r="O229">
-        <v>3.1</v>
-      </c>
       <c r="P229">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R229">
         <v>2.05</v>
@@ -20867,25 +20876,31 @@
         <v>2</v>
       </c>
       <c r="U229">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V229">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W229">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA229">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB229">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC229">
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20893,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>8035921</v>
+        <v>6978438</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20902,64 +20917,79 @@
         <v>28</v>
       </c>
       <c r="E230" s="2">
-        <v>45389.36458333334</v>
+        <v>45388.59375</v>
       </c>
       <c r="F230" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G230" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="H230">
+        <v>2</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" t="s">
+        <v>46</v>
       </c>
       <c r="K230">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L230">
+        <v>3.2</v>
+      </c>
+      <c r="M230">
+        <v>3.75</v>
+      </c>
+      <c r="N230">
+        <v>2.45</v>
+      </c>
+      <c r="O230">
         <v>3.1</v>
       </c>
-      <c r="M230">
-        <v>2.6</v>
-      </c>
-      <c r="N230">
-        <v>2.75</v>
-      </c>
-      <c r="O230">
-        <v>3</v>
-      </c>
       <c r="P230">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R230">
+        <v>2.1</v>
+      </c>
+      <c r="S230">
+        <v>1.775</v>
+      </c>
+      <c r="T230">
+        <v>2</v>
+      </c>
+      <c r="U230">
         <v>1.925</v>
       </c>
-      <c r="S230">
+      <c r="V230">
         <v>1.925</v>
       </c>
-      <c r="T230">
-        <v>1.75</v>
-      </c>
-      <c r="U230">
-        <v>1.9</v>
-      </c>
-      <c r="V230">
-        <v>1.95</v>
-      </c>
       <c r="W230">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA230">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB230">
+        <v>0.925</v>
+      </c>
+      <c r="AC230">
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20967,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>8035920</v>
+        <v>8035921</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -20976,64 +21006,79 @@
         <v>28</v>
       </c>
       <c r="E231" s="2">
-        <v>45389.48958333334</v>
+        <v>45389.36458333334</v>
       </c>
       <c r="F231" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G231" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>2</v>
+      </c>
+      <c r="J231" t="s">
+        <v>45</v>
       </c>
       <c r="K231">
+        <v>2.8</v>
+      </c>
+      <c r="L231">
+        <v>3.1</v>
+      </c>
+      <c r="M231">
+        <v>2.6</v>
+      </c>
+      <c r="N231">
+        <v>2.9</v>
+      </c>
+      <c r="O231">
+        <v>3</v>
+      </c>
+      <c r="P231">
+        <v>2.625</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>2.025</v>
+      </c>
+      <c r="S231">
+        <v>1.825</v>
+      </c>
+      <c r="T231">
+        <v>1.75</v>
+      </c>
+      <c r="U231">
+        <v>1.775</v>
+      </c>
+      <c r="V231">
         <v>2.1</v>
       </c>
-      <c r="L231">
-        <v>3.2</v>
-      </c>
-      <c r="M231">
-        <v>3.6</v>
-      </c>
-      <c r="N231">
-        <v>1.8</v>
-      </c>
-      <c r="O231">
-        <v>3.4</v>
-      </c>
-      <c r="P231">
-        <v>5</v>
-      </c>
-      <c r="Q231">
+      <c r="W231">
+        <v>-1</v>
+      </c>
+      <c r="X231">
+        <v>-1</v>
+      </c>
+      <c r="Y231">
+        <v>1.625</v>
+      </c>
+      <c r="Z231">
+        <v>-1</v>
+      </c>
+      <c r="AA231">
+        <v>0.825</v>
+      </c>
+      <c r="AB231">
+        <v>0.3875</v>
+      </c>
+      <c r="AC231">
         <v>-0.5</v>
-      </c>
-      <c r="R231">
-        <v>1.8</v>
-      </c>
-      <c r="S231">
-        <v>2.05</v>
-      </c>
-      <c r="T231">
-        <v>2.5</v>
-      </c>
-      <c r="U231">
-        <v>2.025</v>
-      </c>
-      <c r="V231">
-        <v>1.825</v>
-      </c>
-      <c r="W231">
-        <v>0</v>
-      </c>
-      <c r="X231">
-        <v>0</v>
-      </c>
-      <c r="Y231">
-        <v>0</v>
-      </c>
-      <c r="Z231">
-        <v>0</v>
-      </c>
-      <c r="AA231">
-        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21041,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6978446</v>
+        <v>8035920</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21050,64 +21095,79 @@
         <v>28</v>
       </c>
       <c r="E232" s="2">
-        <v>45389.59375</v>
+        <v>45389.48958333334</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232" t="s">
+        <v>47</v>
       </c>
       <c r="K232">
-        <v>15</v>
+        <v>2.1</v>
       </c>
       <c r="L232">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M232">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="N232">
-        <v>19</v>
+        <v>1.8</v>
       </c>
       <c r="O232">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P232">
-        <v>1.166</v>
+        <v>5</v>
       </c>
       <c r="Q232">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S232">
+        <v>1.825</v>
+      </c>
+      <c r="T232">
+        <v>2.25</v>
+      </c>
+      <c r="U232">
         <v>1.85</v>
       </c>
-      <c r="T232">
-        <v>3</v>
-      </c>
-      <c r="U232">
-        <v>1.95</v>
-      </c>
       <c r="V232">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X232">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21115,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6978437</v>
+        <v>6978446</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21124,64 +21184,79 @@
         <v>28</v>
       </c>
       <c r="E233" s="2">
-        <v>45390.45833333334</v>
+        <v>45389.59375</v>
       </c>
       <c r="F233" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G233" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>2</v>
+      </c>
+      <c r="J233" t="s">
+        <v>45</v>
       </c>
       <c r="K233">
+        <v>15</v>
+      </c>
+      <c r="L233">
+        <v>6</v>
+      </c>
+      <c r="M233">
+        <v>1.2</v>
+      </c>
+      <c r="N233">
+        <v>15</v>
+      </c>
+      <c r="O233">
+        <v>5.75</v>
+      </c>
+      <c r="P233">
+        <v>1.222</v>
+      </c>
+      <c r="Q233">
+        <v>1.75</v>
+      </c>
+      <c r="R233">
+        <v>2</v>
+      </c>
+      <c r="S233">
+        <v>1.85</v>
+      </c>
+      <c r="T233">
         <v>3</v>
       </c>
-      <c r="L233">
-        <v>3.2</v>
-      </c>
-      <c r="M233">
-        <v>2.4</v>
-      </c>
-      <c r="N233">
-        <v>3</v>
-      </c>
-      <c r="O233">
-        <v>3.1</v>
-      </c>
-      <c r="P233">
-        <v>2.55</v>
-      </c>
-      <c r="Q233">
-        <v>0</v>
-      </c>
-      <c r="R233">
-        <v>2.1</v>
-      </c>
-      <c r="S233">
-        <v>1.775</v>
-      </c>
-      <c r="T233">
-        <v>2</v>
-      </c>
       <c r="U233">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V233">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA233">
-        <v>0</v>
+        <v>0.425</v>
+      </c>
+      <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
+        <v>0.825</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21189,7 +21264,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6978448</v>
+        <v>6978437</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21198,49 +21273,49 @@
         <v>28</v>
       </c>
       <c r="E234" s="2">
-        <v>45390.5625</v>
+        <v>45390.45833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G234" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K234">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L234">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M234">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N234">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="O234">
         <v>3.1</v>
       </c>
       <c r="P234">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q234">
         <v>0</v>
       </c>
       <c r="R234">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S234">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T234">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U234">
+        <v>1.8</v>
+      </c>
+      <c r="V234">
         <v>2.05</v>
-      </c>
-      <c r="V234">
-        <v>1.8</v>
       </c>
       <c r="W234">
         <v>0</v>
@@ -21263,7 +21338,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6978449</v>
+        <v>6978448</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21272,40 +21347,40 @@
         <v>28</v>
       </c>
       <c r="E235" s="2">
-        <v>45391.52083333334</v>
+        <v>45390.5625</v>
       </c>
       <c r="F235" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K235">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L235">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M235">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N235">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O235">
         <v>3.1</v>
       </c>
       <c r="P235">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S235">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T235">
         <v>2.25</v>
@@ -21329,6 +21404,80 @@
         <v>0</v>
       </c>
       <c r="AA235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>6978449</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45391.52083333334</v>
+      </c>
+      <c r="F236" t="s">
+        <v>29</v>
+      </c>
+      <c r="G236" t="s">
+        <v>44</v>
+      </c>
+      <c r="K236">
+        <v>2.25</v>
+      </c>
+      <c r="L236">
+        <v>3</v>
+      </c>
+      <c r="M236">
+        <v>3.5</v>
+      </c>
+      <c r="N236">
+        <v>2.625</v>
+      </c>
+      <c r="O236">
+        <v>3</v>
+      </c>
+      <c r="P236">
+        <v>2.9</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <v>1.825</v>
+      </c>
+      <c r="S236">
+        <v>2.025</v>
+      </c>
+      <c r="T236">
+        <v>2</v>
+      </c>
+      <c r="U236">
+        <v>1.775</v>
+      </c>
+      <c r="V236">
+        <v>2.1</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC236"/>
+  <dimension ref="A1:AC239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21281,6 +21281,15 @@
       <c r="G234" t="s">
         <v>41</v>
       </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234" t="s">
+        <v>47</v>
+      </c>
       <c r="K234">
         <v>3</v>
       </c>
@@ -21291,46 +21300,52 @@
         <v>2.4</v>
       </c>
       <c r="N234">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O234">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P234">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q234">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R234">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S234">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T234">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U234">
+        <v>2.05</v>
+      </c>
+      <c r="V234">
         <v>1.8</v>
       </c>
-      <c r="V234">
-        <v>2.05</v>
-      </c>
       <c r="W234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA234">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB234">
+        <v>-1</v>
+      </c>
+      <c r="AC234">
+        <v>0.8</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21355,6 +21370,15 @@
       <c r="G235" t="s">
         <v>38</v>
       </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235" t="s">
+        <v>46</v>
+      </c>
       <c r="K235">
         <v>2.9</v>
       </c>
@@ -21368,43 +21392,49 @@
         <v>3.2</v>
       </c>
       <c r="O235">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P235">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="Q235">
         <v>0.25</v>
       </c>
       <c r="R235">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S235">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T235">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U235">
+        <v>1.8</v>
+      </c>
+      <c r="V235">
         <v>2.05</v>
       </c>
-      <c r="V235">
-        <v>1.8</v>
-      </c>
       <c r="W235">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="X235">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA235">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB235">
+        <v>-1</v>
+      </c>
+      <c r="AC235">
+        <v>1.05</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21439,45 +21469,267 @@
         <v>3.5</v>
       </c>
       <c r="N236">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="O236">
         <v>3</v>
       </c>
       <c r="P236">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q236">
         <v>0</v>
       </c>
       <c r="R236">
+        <v>1.85</v>
+      </c>
+      <c r="S236">
+        <v>2</v>
+      </c>
+      <c r="T236">
+        <v>2</v>
+      </c>
+      <c r="U236">
+        <v>1.8</v>
+      </c>
+      <c r="V236">
+        <v>2.05</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>6978455</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45394.59375</v>
+      </c>
+      <c r="F237" t="s">
+        <v>32</v>
+      </c>
+      <c r="G237" t="s">
+        <v>40</v>
+      </c>
+      <c r="K237">
+        <v>1.166</v>
+      </c>
+      <c r="L237">
+        <v>7</v>
+      </c>
+      <c r="M237">
+        <v>15</v>
+      </c>
+      <c r="N237">
+        <v>1.142</v>
+      </c>
+      <c r="O237">
+        <v>7</v>
+      </c>
+      <c r="P237">
+        <v>17</v>
+      </c>
+      <c r="Q237">
+        <v>-2</v>
+      </c>
+      <c r="R237">
+        <v>1.925</v>
+      </c>
+      <c r="S237">
+        <v>1.925</v>
+      </c>
+      <c r="T237">
+        <v>2.75</v>
+      </c>
+      <c r="U237">
+        <v>1.875</v>
+      </c>
+      <c r="V237">
+        <v>1.975</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
+      <c r="AA237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>6978390</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45395.48958333334</v>
+      </c>
+      <c r="F238" t="s">
+        <v>35</v>
+      </c>
+      <c r="G238" t="s">
+        <v>34</v>
+      </c>
+      <c r="K238">
+        <v>1.25</v>
+      </c>
+      <c r="L238">
+        <v>6</v>
+      </c>
+      <c r="M238">
+        <v>10</v>
+      </c>
+      <c r="N238">
+        <v>1.363</v>
+      </c>
+      <c r="O238">
+        <v>5.25</v>
+      </c>
+      <c r="P238">
+        <v>7</v>
+      </c>
+      <c r="Q238">
+        <v>-1.25</v>
+      </c>
+      <c r="R238">
+        <v>1.875</v>
+      </c>
+      <c r="S238">
+        <v>1.975</v>
+      </c>
+      <c r="T238">
+        <v>2.25</v>
+      </c>
+      <c r="U238">
         <v>1.825</v>
       </c>
-      <c r="S236">
+      <c r="V238">
         <v>2.025</v>
       </c>
-      <c r="T236">
-        <v>2</v>
-      </c>
-      <c r="U236">
-        <v>1.775</v>
-      </c>
-      <c r="V236">
-        <v>2.1</v>
-      </c>
-      <c r="W236">
-        <v>0</v>
-      </c>
-      <c r="X236">
-        <v>0</v>
-      </c>
-      <c r="Y236">
-        <v>0</v>
-      </c>
-      <c r="Z236">
-        <v>0</v>
-      </c>
-      <c r="AA236">
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>6978457</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45396.45833333334</v>
+      </c>
+      <c r="F239" t="s">
+        <v>42</v>
+      </c>
+      <c r="G239" t="s">
+        <v>41</v>
+      </c>
+      <c r="K239">
+        <v>4</v>
+      </c>
+      <c r="L239">
+        <v>3.2</v>
+      </c>
+      <c r="M239">
+        <v>2</v>
+      </c>
+      <c r="N239">
+        <v>3.5</v>
+      </c>
+      <c r="O239">
+        <v>3.1</v>
+      </c>
+      <c r="P239">
+        <v>2.2</v>
+      </c>
+      <c r="Q239">
+        <v>0.25</v>
+      </c>
+      <c r="R239">
+        <v>1.975</v>
+      </c>
+      <c r="S239">
+        <v>1.875</v>
+      </c>
+      <c r="T239">
+        <v>2</v>
+      </c>
+      <c r="U239">
+        <v>1.8</v>
+      </c>
+      <c r="V239">
+        <v>2.05</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,19 +121,19 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
+    <t>Botev Plovdiv</t>
+  </si>
+  <si>
     <t>Slavia Sofia</t>
   </si>
   <si>
-    <t>Botev Plovdiv</t>
+    <t>Levski Sofia</t>
   </si>
   <si>
     <t>CSKA 1948 Sofia</t>
   </si>
   <si>
     <t>Cherno More Varna</t>
-  </si>
-  <si>
-    <t>Levski Sofia</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC239"/>
+  <dimension ref="A1:AC242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N8">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
+        <v>2.025</v>
+      </c>
+      <c r="T8">
+        <v>3.25</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
         <v>1.85</v>
       </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
-      <c r="V8">
-        <v>1.975</v>
-      </c>
       <c r="W8">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O9">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P9">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q9">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627724</v>
+        <v>6627725</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,46 +1343,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L10">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N10">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
+        <v>1.825</v>
+      </c>
+      <c r="S10">
         <v>2.025</v>
       </c>
-      <c r="S10">
-        <v>1.825</v>
-      </c>
       <c r="T10">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
         <v>1.85</v>
@@ -1394,22 +1394,22 @@
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6627290</v>
+        <v>6627724</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,73 +1432,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11">
+        <v>1.5</v>
+      </c>
+      <c r="L11">
+        <v>3.8</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>1.45</v>
+      </c>
+      <c r="O11">
+        <v>4.2</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>-1.25</v>
+      </c>
+      <c r="R11">
+        <v>2.025</v>
+      </c>
+      <c r="S11">
+        <v>1.825</v>
+      </c>
+      <c r="T11">
+        <v>2.5</v>
+      </c>
+      <c r="U11">
+        <v>1.85</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>3.2</v>
+      </c>
+      <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
+        <v>0.825</v>
+      </c>
+      <c r="AB11">
+        <v>-1</v>
+      </c>
+      <c r="AC11">
         <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11">
-        <v>6</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <v>1.45</v>
-      </c>
-      <c r="N11">
-        <v>6</v>
-      </c>
-      <c r="O11">
-        <v>4.333</v>
-      </c>
-      <c r="P11">
-        <v>1.55</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>1.85</v>
-      </c>
-      <c r="T11">
-        <v>2.75</v>
-      </c>
-      <c r="U11">
-        <v>1.825</v>
-      </c>
-      <c r="V11">
-        <v>2.025</v>
-      </c>
-      <c r="W11">
-        <v>-1</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>0.55</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>-0</v>
-      </c>
-      <c r="AB11">
-        <v>-1</v>
-      </c>
-      <c r="AC11">
-        <v>1.025</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627725</v>
+        <v>6627290</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,53 +1521,53 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="N12">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1.85</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
         <v>1.825</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>2.025</v>
       </c>
-      <c r="T12">
-        <v>2.25</v>
-      </c>
-      <c r="U12">
-        <v>1.85</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
       <c r="W12">
         <v>-1</v>
       </c>
@@ -1575,19 +1575,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
+        <v>-0</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
         <v>1.025</v>
-      </c>
-      <c r="AB12">
-        <v>-0.5</v>
-      </c>
-      <c r="AC12">
-        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,10 +1874,10 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1966,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>45128.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2586,10 +2586,10 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>45130.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3565,7 +3565,7 @@
         <v>45142.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4099,7 +4099,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,10 +4544,10 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -4903,7 +4903,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5434,7 +5434,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5523,7 +5523,7 @@
         <v>45159.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
         <v>42</v>
@@ -5882,7 +5882,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,10 +6146,10 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
         <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>35</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7036,7 +7036,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7395,7 +7395,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7748,10 +7748,10 @@
         <v>45191.47916666666</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8374,7 +8374,7 @@
         <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8460,10 +8460,10 @@
         <v>45195.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,10 +8638,10 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10151,7 +10151,7 @@
         <v>45206.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10329,10 +10329,10 @@
         <v>45207.48958333334</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10777,7 +10777,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11041,10 +11041,10 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119" t="s">
         <v>39</v>
-      </c>
-      <c r="G119" t="s">
-        <v>38</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11397,7 +11397,7 @@
         <v>45225.375</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11486,7 +11486,7 @@
         <v>45225.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12732,7 +12732,7 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12821,10 +12821,10 @@
         <v>45237.52083333334</v>
       </c>
       <c r="F139" t="s">
+        <v>38</v>
+      </c>
+      <c r="G139" t="s">
         <v>37</v>
-      </c>
-      <c r="G139" t="s">
-        <v>39</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13091,7 +13091,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13444,10 +13444,10 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13978,7 +13978,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14070,7 +14070,7 @@
         <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -14515,7 +14515,7 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14604,7 +14604,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15135,10 +15135,10 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15758,7 +15758,7 @@
         <v>45274.52083333334</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G172" t="s">
         <v>30</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16206,7 +16206,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -16826,7 +16826,7 @@
         <v>45346.42708333334</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17093,10 +17093,10 @@
         <v>45347.48958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17271,7 +17271,7 @@
         <v>45352.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17538,10 +17538,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>36</v>
+      </c>
+      <c r="G192" t="s">
         <v>35</v>
-      </c>
-      <c r="G192" t="s">
-        <v>36</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17719,7 +17719,7 @@
         <v>33</v>
       </c>
       <c r="G194" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17897,7 +17897,7 @@
         <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18075,7 +18075,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18161,7 +18161,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
         <v>32</v>
@@ -18253,7 +18253,7 @@
         <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18428,7 +18428,7 @@
         <v>45361.42708333334</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G202" t="s">
         <v>41</v>
@@ -18517,7 +18517,7 @@
         <v>45361.53125</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18784,10 +18784,10 @@
         <v>45366.57291666666</v>
       </c>
       <c r="F206" t="s">
+        <v>39</v>
+      </c>
+      <c r="G206" t="s">
         <v>38</v>
-      </c>
-      <c r="G206" t="s">
-        <v>37</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -18873,7 +18873,7 @@
         <v>45367.32291666666</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
         <v>31</v>
@@ -18965,7 +18965,7 @@
         <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19321,7 +19321,7 @@
         <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -19585,10 +19585,10 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19941,10 +19941,10 @@
         <v>45382.4375</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -20030,7 +20030,7 @@
         <v>45382.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G220" t="s">
         <v>44</v>
@@ -20208,7 +20208,7 @@
         <v>45384.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
         <v>40</v>
@@ -20478,7 +20478,7 @@
         <v>33</v>
       </c>
       <c r="G225" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H225">
         <v>5</v>
@@ -20564,7 +20564,7 @@
         <v>45386.35416666666</v>
       </c>
       <c r="F226" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G226" t="s">
         <v>43</v>
@@ -20656,7 +20656,7 @@
         <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20742,7 +20742,7 @@
         <v>45386.5625</v>
       </c>
       <c r="F228" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G228" t="s">
         <v>29</v>
@@ -20923,7 +20923,7 @@
         <v>30</v>
       </c>
       <c r="G230" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21009,7 +21009,7 @@
         <v>45389.36458333334</v>
       </c>
       <c r="F231" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G231" t="s">
         <v>32</v>
@@ -21098,10 +21098,10 @@
         <v>45389.48958333334</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -21368,7 +21368,7 @@
         <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21459,6 +21459,15 @@
       <c r="G236" t="s">
         <v>44</v>
       </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236" t="s">
+        <v>46</v>
+      </c>
       <c r="K236">
         <v>2.25</v>
       </c>
@@ -21469,13 +21478,13 @@
         <v>3.5</v>
       </c>
       <c r="N236">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="O236">
         <v>3</v>
       </c>
       <c r="P236">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q236">
         <v>0</v>
@@ -21490,25 +21499,31 @@
         <v>2</v>
       </c>
       <c r="U236">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V236">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W236">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="X236">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA236">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB236">
+        <v>-1</v>
+      </c>
+      <c r="AC236">
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21516,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6978455</v>
+        <v>7956727</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21525,49 +21540,49 @@
         <v>28</v>
       </c>
       <c r="E237" s="2">
-        <v>45394.59375</v>
+        <v>45393.53125</v>
       </c>
       <c r="F237" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G237" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K237">
-        <v>1.166</v>
+        <v>8.5</v>
       </c>
       <c r="L237">
+        <v>4.333</v>
+      </c>
+      <c r="M237">
+        <v>1.4</v>
+      </c>
+      <c r="N237">
         <v>7</v>
       </c>
-      <c r="M237">
-        <v>15</v>
-      </c>
-      <c r="N237">
-        <v>1.142</v>
-      </c>
       <c r="O237">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P237">
-        <v>17</v>
+        <v>1.45</v>
       </c>
       <c r="Q237">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="R237">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S237">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T237">
         <v>2.75</v>
       </c>
       <c r="U237">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V237">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W237">
         <v>0</v>
@@ -21590,7 +21605,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6978390</v>
+        <v>6978451</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21599,49 +21614,49 @@
         <v>28</v>
       </c>
       <c r="E238" s="2">
-        <v>45395.48958333334</v>
+        <v>45394.48958333334</v>
       </c>
       <c r="F238" t="s">
         <v>35</v>
       </c>
       <c r="G238" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K238">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="L238">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="M238">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N238">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O238">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P238">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q238">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R238">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S238">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T238">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W238">
         <v>0</v>
@@ -21664,72 +21679,294 @@
         <v>237</v>
       </c>
       <c r="B239">
+        <v>6978455</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45394.59375</v>
+      </c>
+      <c r="F239" t="s">
+        <v>32</v>
+      </c>
+      <c r="G239" t="s">
+        <v>40</v>
+      </c>
+      <c r="K239">
+        <v>1.166</v>
+      </c>
+      <c r="L239">
+        <v>7</v>
+      </c>
+      <c r="M239">
+        <v>15</v>
+      </c>
+      <c r="N239">
+        <v>1.166</v>
+      </c>
+      <c r="O239">
+        <v>6.5</v>
+      </c>
+      <c r="P239">
+        <v>15</v>
+      </c>
+      <c r="Q239">
+        <v>-2</v>
+      </c>
+      <c r="R239">
+        <v>2</v>
+      </c>
+      <c r="S239">
+        <v>1.85</v>
+      </c>
+      <c r="T239">
+        <v>2.75</v>
+      </c>
+      <c r="U239">
+        <v>1.825</v>
+      </c>
+      <c r="V239">
+        <v>2.025</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>6978390</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45395.48958333334</v>
+      </c>
+      <c r="F240" t="s">
+        <v>36</v>
+      </c>
+      <c r="G240" t="s">
+        <v>34</v>
+      </c>
+      <c r="K240">
+        <v>1.25</v>
+      </c>
+      <c r="L240">
+        <v>6</v>
+      </c>
+      <c r="M240">
+        <v>10</v>
+      </c>
+      <c r="N240">
+        <v>1.285</v>
+      </c>
+      <c r="O240">
+        <v>6</v>
+      </c>
+      <c r="P240">
+        <v>8.5</v>
+      </c>
+      <c r="Q240">
+        <v>-1.5</v>
+      </c>
+      <c r="R240">
+        <v>1.925</v>
+      </c>
+      <c r="S240">
+        <v>1.925</v>
+      </c>
+      <c r="T240">
+        <v>2.5</v>
+      </c>
+      <c r="U240">
+        <v>1.925</v>
+      </c>
+      <c r="V240">
+        <v>1.925</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>6978454</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45395.59375</v>
+      </c>
+      <c r="F241" t="s">
+        <v>39</v>
+      </c>
+      <c r="G241" t="s">
+        <v>37</v>
+      </c>
+      <c r="K241">
+        <v>2.7</v>
+      </c>
+      <c r="L241">
+        <v>3.1</v>
+      </c>
+      <c r="M241">
+        <v>2.7</v>
+      </c>
+      <c r="N241">
+        <v>2.4</v>
+      </c>
+      <c r="O241">
+        <v>3.1</v>
+      </c>
+      <c r="P241">
+        <v>3</v>
+      </c>
+      <c r="Q241">
+        <v>-0.25</v>
+      </c>
+      <c r="R241">
+        <v>2.1</v>
+      </c>
+      <c r="S241">
+        <v>1.775</v>
+      </c>
+      <c r="T241">
+        <v>2</v>
+      </c>
+      <c r="U241">
+        <v>1.875</v>
+      </c>
+      <c r="V241">
+        <v>1.975</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
         <v>6978457</v>
       </c>
-      <c r="C239" t="s">
-        <v>28</v>
-      </c>
-      <c r="D239" t="s">
-        <v>28</v>
-      </c>
-      <c r="E239" s="2">
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="2">
         <v>45396.45833333334</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F242" t="s">
         <v>42</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G242" t="s">
         <v>41</v>
       </c>
-      <c r="K239">
+      <c r="K242">
         <v>4</v>
       </c>
-      <c r="L239">
+      <c r="L242">
         <v>3.2</v>
       </c>
-      <c r="M239">
-        <v>2</v>
-      </c>
-      <c r="N239">
-        <v>3.5</v>
-      </c>
-      <c r="O239">
+      <c r="M242">
+        <v>2</v>
+      </c>
+      <c r="N242">
+        <v>3.6</v>
+      </c>
+      <c r="O242">
         <v>3.1</v>
       </c>
-      <c r="P239">
-        <v>2.2</v>
-      </c>
-      <c r="Q239">
+      <c r="P242">
+        <v>2.15</v>
+      </c>
+      <c r="Q242">
         <v>0.25</v>
       </c>
-      <c r="R239">
-        <v>1.975</v>
-      </c>
-      <c r="S239">
-        <v>1.875</v>
-      </c>
-      <c r="T239">
-        <v>2</v>
-      </c>
-      <c r="U239">
-        <v>1.8</v>
-      </c>
-      <c r="V239">
-        <v>2.05</v>
-      </c>
-      <c r="W239">
-        <v>0</v>
-      </c>
-      <c r="X239">
-        <v>0</v>
-      </c>
-      <c r="Y239">
-        <v>0</v>
-      </c>
-      <c r="Z239">
-        <v>0</v>
-      </c>
-      <c r="AA239">
+      <c r="R242">
+        <v>2</v>
+      </c>
+      <c r="S242">
+        <v>1.85</v>
+      </c>
+      <c r="T242">
+        <v>2.25</v>
+      </c>
+      <c r="U242">
+        <v>2.1</v>
+      </c>
+      <c r="V242">
+        <v>1.775</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC242"/>
+  <dimension ref="A1:AC243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21558,31 +21558,31 @@
         <v>1.4</v>
       </c>
       <c r="N237">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O237">
         <v>4.333</v>
       </c>
       <c r="P237">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="Q237">
         <v>1.25</v>
       </c>
       <c r="R237">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S237">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U237">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V237">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W237">
         <v>0</v>
@@ -21632,13 +21632,13 @@
         <v>7</v>
       </c>
       <c r="N238">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O238">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P238">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q238">
         <v>-1.5</v>
@@ -21653,10 +21653,10 @@
         <v>2.75</v>
       </c>
       <c r="U238">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V238">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W238">
         <v>0</v>
@@ -21706,10 +21706,10 @@
         <v>15</v>
       </c>
       <c r="N239">
-        <v>1.166</v>
+        <v>1.181</v>
       </c>
       <c r="O239">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="P239">
         <v>15</v>
@@ -21780,31 +21780,31 @@
         <v>10</v>
       </c>
       <c r="N240">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="O240">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P240">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Q240">
         <v>-1.5</v>
       </c>
       <c r="R240">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S240">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T240">
         <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V240">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W240">
         <v>0</v>
@@ -21860,25 +21860,25 @@
         <v>3.1</v>
       </c>
       <c r="P241">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q241">
         <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S241">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T241">
         <v>2</v>
       </c>
       <c r="U241">
+        <v>1.975</v>
+      </c>
+      <c r="V241">
         <v>1.875</v>
-      </c>
-      <c r="V241">
-        <v>1.975</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -21928,45 +21928,119 @@
         <v>2</v>
       </c>
       <c r="N242">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O242">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P242">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q242">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R242">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S242">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T242">
         <v>2.25</v>
       </c>
       <c r="U242">
+        <v>2.05</v>
+      </c>
+      <c r="V242">
+        <v>1.8</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>6978453</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45396.5625</v>
+      </c>
+      <c r="F243" t="s">
+        <v>44</v>
+      </c>
+      <c r="G243" t="s">
+        <v>31</v>
+      </c>
+      <c r="K243">
+        <v>3.9</v>
+      </c>
+      <c r="L243">
+        <v>3.25</v>
+      </c>
+      <c r="M243">
+        <v>2</v>
+      </c>
+      <c r="N243">
+        <v>3.75</v>
+      </c>
+      <c r="O243">
+        <v>3.3</v>
+      </c>
+      <c r="P243">
         <v>2.1</v>
       </c>
-      <c r="V242">
-        <v>1.775</v>
-      </c>
-      <c r="W242">
-        <v>0</v>
-      </c>
-      <c r="X242">
-        <v>0</v>
-      </c>
-      <c r="Y242">
-        <v>0</v>
-      </c>
-      <c r="Z242">
-        <v>0</v>
-      </c>
-      <c r="AA242">
+      <c r="Q243">
+        <v>0.25</v>
+      </c>
+      <c r="R243">
+        <v>2.025</v>
+      </c>
+      <c r="S243">
+        <v>1.825</v>
+      </c>
+      <c r="T243">
+        <v>2.25</v>
+      </c>
+      <c r="U243">
+        <v>2</v>
+      </c>
+      <c r="V243">
+        <v>1.85</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,19 +121,19 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
+    <t>Slavia Sofia</t>
+  </si>
+  <si>
     <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Slavia Sofia</t>
-  </si>
-  <si>
-    <t>Levski Sofia</t>
+    <t>Cherno More Varna</t>
   </si>
   <si>
     <t>CSKA 1948 Sofia</t>
   </si>
   <si>
-    <t>Cherno More Varna</t>
+    <t>Levski Sofia</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC243"/>
+  <dimension ref="A1:AC242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N8">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O8">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N9">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P9">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
+        <v>2.025</v>
+      </c>
+      <c r="T9">
+        <v>3.25</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
-      <c r="V9">
-        <v>1.975</v>
-      </c>
       <c r="W9">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627725</v>
+        <v>6627290</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,53 +1343,53 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
       </c>
       <c r="K10">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="N10">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1.85</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
         <v>1.825</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>2.025</v>
       </c>
-      <c r="T10">
-        <v>2.25</v>
-      </c>
-      <c r="U10">
-        <v>1.85</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
@@ -1397,19 +1397,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
+        <v>-0</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>1.025</v>
-      </c>
-      <c r="AB10">
-        <v>-0.5</v>
-      </c>
-      <c r="AC10">
-        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627290</v>
+        <v>6627725</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,52 +1521,52 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
+        <v>2.025</v>
+      </c>
+      <c r="T12">
+        <v>2.25</v>
+      </c>
+      <c r="U12">
         <v>1.85</v>
       </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1575,19 +1575,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.55</v>
+        <v>1.8</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,7 +1874,7 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>38</v>
@@ -1966,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2586,10 +2586,10 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>45130.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3565,7 +3565,7 @@
         <v>45142.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,10 +4544,10 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5434,7 +5434,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5882,7 +5882,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
         <v>38</v>
@@ -6327,7 +6327,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
         <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7036,7 +7036,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7751,7 +7751,7 @@
         <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8460,10 +8460,10 @@
         <v>45195.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,10 +8638,10 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10151,7 +10151,7 @@
         <v>45206.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10332,7 +10332,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11041,10 +11041,10 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
+        <v>39</v>
+      </c>
+      <c r="G119" t="s">
         <v>37</v>
-      </c>
-      <c r="G119" t="s">
-        <v>39</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11397,7 +11397,7 @@
         <v>45225.375</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12732,7 +12732,7 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12824,7 +12824,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13091,7 +13091,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13444,10 +13444,10 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13978,7 +13978,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -14604,7 +14604,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15135,10 +15135,10 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -16826,7 +16826,7 @@
         <v>45346.42708333334</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17096,7 +17096,7 @@
         <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17271,7 +17271,7 @@
         <v>45352.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17538,10 +17538,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>35</v>
+      </c>
+      <c r="G192" t="s">
         <v>36</v>
-      </c>
-      <c r="G192" t="s">
-        <v>35</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17897,7 +17897,7 @@
         <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18075,7 +18075,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18253,7 +18253,7 @@
         <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18428,7 +18428,7 @@
         <v>45361.42708333334</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G202" t="s">
         <v>41</v>
@@ -18517,7 +18517,7 @@
         <v>45361.53125</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18784,7 +18784,7 @@
         <v>45366.57291666666</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G206" t="s">
         <v>38</v>
@@ -18873,7 +18873,7 @@
         <v>45367.32291666666</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
         <v>31</v>
@@ -18965,7 +18965,7 @@
         <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19321,7 +19321,7 @@
         <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -19585,10 +19585,10 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19941,10 +19941,10 @@
         <v>45382.4375</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -20208,7 +20208,7 @@
         <v>45384.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
         <v>40</v>
@@ -20478,7 +20478,7 @@
         <v>33</v>
       </c>
       <c r="G225" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H225">
         <v>5</v>
@@ -20656,7 +20656,7 @@
         <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20742,7 +20742,7 @@
         <v>45386.5625</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
         <v>29</v>
@@ -20923,7 +20923,7 @@
         <v>30</v>
       </c>
       <c r="G230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21009,7 +21009,7 @@
         <v>45389.36458333334</v>
       </c>
       <c r="F231" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G231" t="s">
         <v>32</v>
@@ -21098,7 +21098,7 @@
         <v>45389.48958333334</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G232" t="s">
         <v>38</v>
@@ -21368,7 +21368,7 @@
         <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7956727</v>
+        <v>6978451</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21540,49 +21540,49 @@
         <v>28</v>
       </c>
       <c r="E237" s="2">
-        <v>45393.53125</v>
+        <v>45394.48958333334</v>
       </c>
       <c r="F237" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G237" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="K237">
-        <v>8.5</v>
+        <v>1.444</v>
       </c>
       <c r="L237">
         <v>4.333</v>
       </c>
       <c r="M237">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="N237">
-        <v>7.5</v>
+        <v>1.444</v>
       </c>
       <c r="O237">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P237">
-        <v>1.444</v>
+        <v>8</v>
       </c>
       <c r="Q237">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R237">
+        <v>1.95</v>
+      </c>
+      <c r="S237">
+        <v>1.9</v>
+      </c>
+      <c r="T237">
+        <v>2.75</v>
+      </c>
+      <c r="U237">
+        <v>1.975</v>
+      </c>
+      <c r="V237">
         <v>1.875</v>
-      </c>
-      <c r="S237">
-        <v>1.975</v>
-      </c>
-      <c r="T237">
-        <v>2.5</v>
-      </c>
-      <c r="U237">
-        <v>1.825</v>
-      </c>
-      <c r="V237">
-        <v>2.025</v>
       </c>
       <c r="W237">
         <v>0</v>
@@ -21605,7 +21605,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6978451</v>
+        <v>6978455</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21614,40 +21614,40 @@
         <v>28</v>
       </c>
       <c r="E238" s="2">
-        <v>45394.48958333334</v>
+        <v>45394.59375</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G238" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K238">
-        <v>1.444</v>
+        <v>1.166</v>
       </c>
       <c r="L238">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="M238">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N238">
-        <v>1.333</v>
+        <v>1.181</v>
       </c>
       <c r="O238">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="P238">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q238">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R238">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S238">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T238">
         <v>2.75</v>
@@ -21679,7 +21679,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6978455</v>
+        <v>6978390</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21688,49 +21688,49 @@
         <v>28</v>
       </c>
       <c r="E239" s="2">
-        <v>45394.59375</v>
+        <v>45395.48958333334</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G239" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K239">
-        <v>1.166</v>
+        <v>1.25</v>
       </c>
       <c r="L239">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M239">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N239">
-        <v>1.181</v>
+        <v>1.3</v>
       </c>
       <c r="O239">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="P239">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Q239">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R239">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S239">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T239">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U239">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V239">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21753,7 +21753,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6978390</v>
+        <v>6978454</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21762,49 +21762,49 @@
         <v>28</v>
       </c>
       <c r="E240" s="2">
-        <v>45395.48958333334</v>
+        <v>45395.59375</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G240" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K240">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="L240">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="M240">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="N240">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O240">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="P240">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="Q240">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S240">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T240">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U240">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V240">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W240">
         <v>0</v>
@@ -21827,7 +21827,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6978454</v>
+        <v>6978457</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21836,49 +21836,49 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45395.59375</v>
+        <v>45396.45833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G241" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K241">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="L241">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M241">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="N241">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O241">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P241">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="Q241">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R241">
+        <v>1.85</v>
+      </c>
+      <c r="S241">
+        <v>2</v>
+      </c>
+      <c r="T241">
+        <v>2.25</v>
+      </c>
+      <c r="U241">
         <v>2.05</v>
       </c>
-      <c r="S241">
+      <c r="V241">
         <v>1.8</v>
-      </c>
-      <c r="T241">
-        <v>2</v>
-      </c>
-      <c r="U241">
-        <v>1.975</v>
-      </c>
-      <c r="V241">
-        <v>1.875</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -21901,7 +21901,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6978457</v>
+        <v>6978453</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21910,40 +21910,40 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45396.45833333334</v>
+        <v>45396.5625</v>
       </c>
       <c r="F242" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G242" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K242">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L242">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M242">
         <v>2</v>
       </c>
       <c r="N242">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O242">
         <v>3.3</v>
       </c>
       <c r="P242">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q242">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R242">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S242">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T242">
         <v>2.25</v>
@@ -21967,80 +21967,6 @@
         <v>0</v>
       </c>
       <c r="AA242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243">
-        <v>6978453</v>
-      </c>
-      <c r="C243" t="s">
-        <v>28</v>
-      </c>
-      <c r="D243" t="s">
-        <v>28</v>
-      </c>
-      <c r="E243" s="2">
-        <v>45396.5625</v>
-      </c>
-      <c r="F243" t="s">
-        <v>44</v>
-      </c>
-      <c r="G243" t="s">
-        <v>31</v>
-      </c>
-      <c r="K243">
-        <v>3.9</v>
-      </c>
-      <c r="L243">
-        <v>3.25</v>
-      </c>
-      <c r="M243">
-        <v>2</v>
-      </c>
-      <c r="N243">
-        <v>3.75</v>
-      </c>
-      <c r="O243">
-        <v>3.3</v>
-      </c>
-      <c r="P243">
-        <v>2.1</v>
-      </c>
-      <c r="Q243">
-        <v>0.25</v>
-      </c>
-      <c r="R243">
-        <v>2.025</v>
-      </c>
-      <c r="S243">
-        <v>1.825</v>
-      </c>
-      <c r="T243">
-        <v>2.25</v>
-      </c>
-      <c r="U243">
-        <v>2</v>
-      </c>
-      <c r="V243">
-        <v>1.85</v>
-      </c>
-      <c r="W243">
-        <v>0</v>
-      </c>
-      <c r="X243">
-        <v>0</v>
-      </c>
-      <c r="Y243">
-        <v>0</v>
-      </c>
-      <c r="Z243">
-        <v>0</v>
-      </c>
-      <c r="AA243">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,19 +121,19 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
-    <t>Slavia Sofia</t>
+    <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Botev Plovdiv</t>
+    <t>Slavia Sofia</t>
   </si>
   <si>
     <t>Cherno More Varna</t>
   </si>
   <si>
-    <t>CSKA 1948 Sofia</t>
+    <t>Levski Sofia</t>
   </si>
   <si>
-    <t>Levski Sofia</t>
+    <t>CSKA 1948 Sofia</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC242"/>
+  <dimension ref="A1:AC243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N8">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
+        <v>2.025</v>
+      </c>
+      <c r="T8">
+        <v>3.25</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
         <v>1.85</v>
       </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
-      <c r="V8">
-        <v>1.975</v>
-      </c>
       <c r="W8">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O9">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P9">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q9">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6627724</v>
+        <v>6627725</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,46 +1432,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L11">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N11">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="O11">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q11">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R11">
+        <v>1.825</v>
+      </c>
+      <c r="S11">
         <v>2.025</v>
       </c>
-      <c r="S11">
-        <v>1.825</v>
-      </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
         <v>1.85</v>
@@ -1483,22 +1483,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627725</v>
+        <v>6627724</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,46 +1521,46 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M12">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N12">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P12">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R12">
+        <v>2.025</v>
+      </c>
+      <c r="S12">
         <v>1.825</v>
       </c>
-      <c r="S12">
-        <v>2.025</v>
-      </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
         <v>1.85</v>
@@ -1572,22 +1572,22 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y12">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,10 +1874,10 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
         <v>39</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>45128.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2586,10 +2586,10 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4099,7 +4099,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,7 +4544,7 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
         <v>37</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -4903,7 +4903,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5523,7 +5523,7 @@
         <v>45159.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
         <v>42</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,10 +6146,10 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
         <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>35</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7395,7 +7395,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7748,7 +7748,7 @@
         <v>45191.47916666666</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
         <v>37</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8374,7 +8374,7 @@
         <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8463,7 +8463,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,10 +8638,10 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10329,10 +10329,10 @@
         <v>45207.48958333334</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10777,7 +10777,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11041,7 +11041,7 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
         <v>37</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11486,7 +11486,7 @@
         <v>45225.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12821,10 +12821,10 @@
         <v>45237.52083333334</v>
       </c>
       <c r="F139" t="s">
+        <v>39</v>
+      </c>
+      <c r="G139" t="s">
         <v>38</v>
-      </c>
-      <c r="G139" t="s">
-        <v>39</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13444,10 +13444,10 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -14070,7 +14070,7 @@
         <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -14515,7 +14515,7 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15138,7 +15138,7 @@
         <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15758,7 +15758,7 @@
         <v>45274.52083333334</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G172" t="s">
         <v>30</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16206,7 +16206,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17093,10 +17093,10 @@
         <v>45347.48958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17538,10 +17538,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>36</v>
+      </c>
+      <c r="G192" t="s">
         <v>35</v>
-      </c>
-      <c r="G192" t="s">
-        <v>36</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17719,7 +17719,7 @@
         <v>33</v>
       </c>
       <c r="G194" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17897,7 +17897,7 @@
         <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18075,7 +18075,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18161,7 +18161,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G199" t="s">
         <v>32</v>
@@ -18428,7 +18428,7 @@
         <v>45361.42708333334</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G202" t="s">
         <v>41</v>
@@ -18517,7 +18517,7 @@
         <v>45361.53125</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18787,7 +18787,7 @@
         <v>37</v>
       </c>
       <c r="G206" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -18873,7 +18873,7 @@
         <v>45367.32291666666</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
         <v>31</v>
@@ -18965,7 +18965,7 @@
         <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19321,7 +19321,7 @@
         <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -19585,10 +19585,10 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19941,7 +19941,7 @@
         <v>45382.4375</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
         <v>37</v>
@@ -20030,7 +20030,7 @@
         <v>45382.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
         <v>44</v>
@@ -20208,7 +20208,7 @@
         <v>45384.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
         <v>40</v>
@@ -20478,7 +20478,7 @@
         <v>33</v>
       </c>
       <c r="G225" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H225">
         <v>5</v>
@@ -20564,7 +20564,7 @@
         <v>45386.35416666666</v>
       </c>
       <c r="F226" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G226" t="s">
         <v>43</v>
@@ -20656,7 +20656,7 @@
         <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20923,7 +20923,7 @@
         <v>30</v>
       </c>
       <c r="G230" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21009,7 +21009,7 @@
         <v>45389.36458333334</v>
       </c>
       <c r="F231" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G231" t="s">
         <v>32</v>
@@ -21098,10 +21098,10 @@
         <v>45389.48958333334</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6978451</v>
+        <v>7956727</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21540,64 +21540,79 @@
         <v>28</v>
       </c>
       <c r="E237" s="2">
-        <v>45394.48958333334</v>
+        <v>45393.53125</v>
       </c>
       <c r="F237" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G237" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237" t="s">
+        <v>45</v>
       </c>
       <c r="K237">
-        <v>1.444</v>
+        <v>8.5</v>
       </c>
       <c r="L237">
         <v>4.333</v>
       </c>
       <c r="M237">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="N237">
+        <v>7.5</v>
+      </c>
+      <c r="O237">
+        <v>4.333</v>
+      </c>
+      <c r="P237">
         <v>1.444</v>
       </c>
-      <c r="O237">
-        <v>4.5</v>
-      </c>
-      <c r="P237">
-        <v>8</v>
-      </c>
       <c r="Q237">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R237">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S237">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T237">
         <v>2.75</v>
       </c>
       <c r="U237">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V237">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="Z237">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA237">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB237">
+        <v>-1</v>
+      </c>
+      <c r="AC237">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21605,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6978455</v>
+        <v>6978390</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21614,49 +21629,49 @@
         <v>28</v>
       </c>
       <c r="E238" s="2">
-        <v>45394.59375</v>
+        <v>45395.48958333334</v>
       </c>
       <c r="F238" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K238">
-        <v>1.166</v>
+        <v>1.25</v>
       </c>
       <c r="L238">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M238">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N238">
-        <v>1.181</v>
+        <v>1.3</v>
       </c>
       <c r="O238">
+        <v>6</v>
+      </c>
+      <c r="P238">
         <v>7.5</v>
       </c>
-      <c r="P238">
-        <v>15</v>
-      </c>
       <c r="Q238">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R238">
+        <v>2.025</v>
+      </c>
+      <c r="S238">
+        <v>1.825</v>
+      </c>
+      <c r="T238">
+        <v>2.5</v>
+      </c>
+      <c r="U238">
         <v>1.975</v>
       </c>
-      <c r="S238">
+      <c r="V238">
         <v>1.875</v>
-      </c>
-      <c r="T238">
-        <v>2.75</v>
-      </c>
-      <c r="U238">
-        <v>1.875</v>
-      </c>
-      <c r="V238">
-        <v>1.975</v>
       </c>
       <c r="W238">
         <v>0</v>
@@ -21679,7 +21694,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6978390</v>
+        <v>6978454</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21688,49 +21703,49 @@
         <v>28</v>
       </c>
       <c r="E239" s="2">
-        <v>45395.48958333334</v>
+        <v>45395.59375</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G239" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K239">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="L239">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="M239">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="N239">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O239">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="P239">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="Q239">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
+        <v>1.975</v>
+      </c>
+      <c r="S239">
+        <v>1.875</v>
+      </c>
+      <c r="T239">
+        <v>2</v>
+      </c>
+      <c r="U239">
+        <v>1.95</v>
+      </c>
+      <c r="V239">
         <v>1.9</v>
-      </c>
-      <c r="S239">
-        <v>1.95</v>
-      </c>
-      <c r="T239">
-        <v>2.5</v>
-      </c>
-      <c r="U239">
-        <v>1.925</v>
-      </c>
-      <c r="V239">
-        <v>1.925</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21753,7 +21768,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6978454</v>
+        <v>6978457</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21762,49 +21777,49 @@
         <v>28</v>
       </c>
       <c r="E240" s="2">
-        <v>45395.59375</v>
+        <v>45396.45833333334</v>
       </c>
       <c r="F240" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G240" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K240">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="L240">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M240">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="N240">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="O240">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P240">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R240">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S240">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T240">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U240">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V240">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W240">
         <v>0</v>
@@ -21827,7 +21842,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6978457</v>
+        <v>6978453</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21836,40 +21851,40 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45396.45833333334</v>
+        <v>45396.5625</v>
       </c>
       <c r="F241" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G241" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K241">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L241">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M241">
         <v>2</v>
       </c>
       <c r="N241">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O241">
         <v>3.3</v>
       </c>
       <c r="P241">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q241">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R241">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S241">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T241">
         <v>2.25</v>
@@ -21901,7 +21916,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6978453</v>
+        <v>6978452</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21910,34 +21925,34 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45396.5625</v>
+        <v>45397.47916666666</v>
       </c>
       <c r="F242" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G242" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K242">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="L242">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M242">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N242">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="O242">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P242">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q242">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R242">
         <v>1.975</v>
@@ -21949,10 +21964,10 @@
         <v>2.25</v>
       </c>
       <c r="U242">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V242">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W242">
         <v>0</v>
@@ -21967,6 +21982,80 @@
         <v>0</v>
       </c>
       <c r="AA242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>6978456</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45397.58333333334</v>
+      </c>
+      <c r="F243" t="s">
+        <v>33</v>
+      </c>
+      <c r="G243" t="s">
+        <v>30</v>
+      </c>
+      <c r="K243">
+        <v>1.25</v>
+      </c>
+      <c r="L243">
+        <v>6</v>
+      </c>
+      <c r="M243">
+        <v>8</v>
+      </c>
+      <c r="N243">
+        <v>1.222</v>
+      </c>
+      <c r="O243">
+        <v>6</v>
+      </c>
+      <c r="P243">
+        <v>9</v>
+      </c>
+      <c r="Q243">
+        <v>-1.75</v>
+      </c>
+      <c r="R243">
+        <v>1.975</v>
+      </c>
+      <c r="S243">
+        <v>1.875</v>
+      </c>
+      <c r="T243">
+        <v>2.75</v>
+      </c>
+      <c r="U243">
+        <v>1.925</v>
+      </c>
+      <c r="V243">
+        <v>1.925</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,19 +121,19 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
-    <t>Botev Plovdiv</t>
-  </si>
-  <si>
     <t>Slavia Sofia</t>
   </si>
   <si>
-    <t>Cherno More Varna</t>
+    <t>Botev Plovdiv</t>
   </si>
   <si>
     <t>Levski Sofia</t>
   </si>
   <si>
     <t>CSKA 1948 Sofia</t>
+  </si>
+  <si>
+    <t>Cherno More Varna</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N8">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O8">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N9">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P9">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
+        <v>2.025</v>
+      </c>
+      <c r="T9">
+        <v>3.25</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
-      <c r="V9">
-        <v>1.975</v>
-      </c>
       <c r="W9">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627290</v>
+        <v>6627725</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,52 +1343,52 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="N10">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S10">
+        <v>2.025</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
         <v>1.85</v>
       </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.825</v>
-      </c>
       <c r="V10">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1397,19 +1397,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.55</v>
+        <v>1.8</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6627725</v>
+        <v>6627724</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,46 +1432,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M11">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R11">
+        <v>2.025</v>
+      </c>
+      <c r="S11">
         <v>1.825</v>
       </c>
-      <c r="S11">
-        <v>2.025</v>
-      </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
         <v>1.85</v>
@@ -1483,22 +1483,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y11">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627724</v>
+        <v>6627290</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="L12">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M12">
+        <v>1.45</v>
+      </c>
+      <c r="N12">
         <v>6</v>
       </c>
-      <c r="N12">
-        <v>1.45</v>
-      </c>
       <c r="O12">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>8</v>
+        <v>1.55</v>
       </c>
       <c r="Q12">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1.85</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
+        <v>1.825</v>
+      </c>
+      <c r="V12">
         <v>2.025</v>
       </c>
-      <c r="S12">
-        <v>1.825</v>
-      </c>
-      <c r="T12">
-        <v>2.5</v>
-      </c>
-      <c r="U12">
-        <v>1.85</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,10 +1874,10 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
         <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1966,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>45128.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2586,10 +2586,10 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>45130.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3565,7 +3565,7 @@
         <v>45142.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4099,7 +4099,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,10 +4544,10 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -4903,7 +4903,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5434,7 +5434,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5523,7 +5523,7 @@
         <v>45159.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
         <v>42</v>
@@ -5882,7 +5882,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,10 +6146,10 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
         <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7036,7 +7036,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7395,7 +7395,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7748,10 +7748,10 @@
         <v>45191.47916666666</v>
       </c>
       <c r="F82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" t="s">
         <v>39</v>
-      </c>
-      <c r="G82" t="s">
-        <v>37</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8374,7 +8374,7 @@
         <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8460,10 +8460,10 @@
         <v>45195.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,10 +8638,10 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10151,7 +10151,7 @@
         <v>45206.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10329,10 +10329,10 @@
         <v>45207.48958333334</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10777,7 +10777,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11041,10 +11041,10 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11397,7 +11397,7 @@
         <v>45225.375</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11486,7 +11486,7 @@
         <v>45225.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12732,7 +12732,7 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12821,10 +12821,10 @@
         <v>45237.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13091,7 +13091,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13444,10 +13444,10 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13978,7 +13978,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14070,7 +14070,7 @@
         <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -14515,7 +14515,7 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14604,7 +14604,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15135,10 +15135,10 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15758,7 +15758,7 @@
         <v>45274.52083333334</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G172" t="s">
         <v>30</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16206,7 +16206,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -16826,7 +16826,7 @@
         <v>45346.42708333334</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17093,10 +17093,10 @@
         <v>45347.48958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17271,7 +17271,7 @@
         <v>45352.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17538,10 +17538,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>35</v>
+      </c>
+      <c r="G192" t="s">
         <v>36</v>
-      </c>
-      <c r="G192" t="s">
-        <v>35</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17719,7 +17719,7 @@
         <v>33</v>
       </c>
       <c r="G194" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17897,7 +17897,7 @@
         <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18075,7 +18075,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18161,7 +18161,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
         <v>32</v>
@@ -18253,7 +18253,7 @@
         <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18428,7 +18428,7 @@
         <v>45361.42708333334</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G202" t="s">
         <v>41</v>
@@ -18517,7 +18517,7 @@
         <v>45361.53125</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18784,10 +18784,10 @@
         <v>45366.57291666666</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G206" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -18873,7 +18873,7 @@
         <v>45367.32291666666</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
         <v>31</v>
@@ -18965,7 +18965,7 @@
         <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19321,7 +19321,7 @@
         <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -19585,10 +19585,10 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19941,10 +19941,10 @@
         <v>45382.4375</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -20030,7 +20030,7 @@
         <v>45382.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G220" t="s">
         <v>44</v>
@@ -20208,7 +20208,7 @@
         <v>45384.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
         <v>40</v>
@@ -20478,7 +20478,7 @@
         <v>33</v>
       </c>
       <c r="G225" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H225">
         <v>5</v>
@@ -20564,7 +20564,7 @@
         <v>45386.35416666666</v>
       </c>
       <c r="F226" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G226" t="s">
         <v>43</v>
@@ -20656,7 +20656,7 @@
         <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20742,7 +20742,7 @@
         <v>45386.5625</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G228" t="s">
         <v>29</v>
@@ -20923,7 +20923,7 @@
         <v>30</v>
       </c>
       <c r="G230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21009,7 +21009,7 @@
         <v>45389.36458333334</v>
       </c>
       <c r="F231" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G231" t="s">
         <v>32</v>
@@ -21098,10 +21098,10 @@
         <v>45389.48958333334</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -21368,7 +21368,7 @@
         <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21543,7 +21543,7 @@
         <v>45393.53125</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G237" t="s">
         <v>33</v>
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6978390</v>
+        <v>6978451</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21629,64 +21629,79 @@
         <v>28</v>
       </c>
       <c r="E238" s="2">
-        <v>45395.48958333334</v>
+        <v>45394.48958333334</v>
       </c>
       <c r="F238" t="s">
         <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="H238">
+        <v>2</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238" t="s">
+        <v>46</v>
       </c>
       <c r="K238">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="L238">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="M238">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N238">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="O238">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P238">
         <v>7.5</v>
       </c>
       <c r="Q238">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R238">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S238">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V238">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W238">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA238">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB238">
+        <v>-1</v>
+      </c>
+      <c r="AC238">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21694,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6978454</v>
+        <v>6978455</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21703,64 +21718,79 @@
         <v>28</v>
       </c>
       <c r="E239" s="2">
-        <v>45395.59375</v>
+        <v>45394.59375</v>
       </c>
       <c r="F239" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>2</v>
+      </c>
+      <c r="J239" t="s">
+        <v>45</v>
       </c>
       <c r="K239">
-        <v>2.7</v>
+        <v>1.166</v>
       </c>
       <c r="L239">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="M239">
-        <v>2.7</v>
+        <v>15</v>
       </c>
       <c r="N239">
-        <v>2.375</v>
+        <v>1.181</v>
       </c>
       <c r="O239">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="P239">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R239">
+        <v>1.95</v>
+      </c>
+      <c r="S239">
+        <v>1.9</v>
+      </c>
+      <c r="T239">
+        <v>3</v>
+      </c>
+      <c r="U239">
+        <v>1.875</v>
+      </c>
+      <c r="V239">
         <v>1.975</v>
       </c>
-      <c r="S239">
-        <v>1.875</v>
-      </c>
-      <c r="T239">
-        <v>2</v>
-      </c>
-      <c r="U239">
-        <v>1.95</v>
-      </c>
-      <c r="V239">
-        <v>1.9</v>
-      </c>
       <c r="W239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB239">
+        <v>0</v>
+      </c>
+      <c r="AC239">
+        <v>-0</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21807,10 +21837,10 @@
         <v>0.5</v>
       </c>
       <c r="R240">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S240">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T240">
         <v>2.25</v>
@@ -21869,22 +21899,22 @@
         <v>2</v>
       </c>
       <c r="N241">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O241">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P241">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q241">
         <v>0.25</v>
       </c>
       <c r="R241">
+        <v>1.875</v>
+      </c>
+      <c r="S241">
         <v>1.975</v>
-      </c>
-      <c r="S241">
-        <v>1.875</v>
       </c>
       <c r="T241">
         <v>2.25</v>
@@ -21928,7 +21958,7 @@
         <v>45397.47916666666</v>
       </c>
       <c r="F242" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G242" t="s">
         <v>29</v>
@@ -21955,10 +21985,10 @@
         <v>-1</v>
       </c>
       <c r="R242">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S242">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T242">
         <v>2.25</v>
@@ -22029,19 +22059,19 @@
         <v>-1.75</v>
       </c>
       <c r="R243">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S243">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T243">
         <v>2.75</v>
       </c>
       <c r="U243">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V243">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W243">
         <v>0</v>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,16 +121,16 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
+    <t>Botev Plovdiv</t>
+  </si>
+  <si>
     <t>Slavia Sofia</t>
   </si>
   <si>
-    <t>Botev Plovdiv</t>
+    <t>CSKA 1948 Sofia</t>
   </si>
   <si>
     <t>Levski Sofia</t>
-  </si>
-  <si>
-    <t>CSKA 1948 Sofia</t>
   </si>
   <si>
     <t>Cherno More Varna</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC243"/>
+  <dimension ref="A1:AC242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N8">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
+        <v>2.025</v>
+      </c>
+      <c r="T8">
+        <v>3.25</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
         <v>1.85</v>
       </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
-      <c r="V8">
-        <v>1.975</v>
-      </c>
       <c r="W8">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O9">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P9">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q9">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627725</v>
+        <v>6627724</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,46 +1343,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M10">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N10">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
+        <v>2.025</v>
+      </c>
+      <c r="S10">
         <v>1.825</v>
       </c>
-      <c r="S10">
-        <v>2.025</v>
-      </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
         <v>1.85</v>
@@ -1394,22 +1394,22 @@
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y10">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6627724</v>
+        <v>6627725</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,46 +1432,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L11">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N11">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="O11">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q11">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R11">
+        <v>1.825</v>
+      </c>
+      <c r="S11">
         <v>2.025</v>
       </c>
-      <c r="S11">
-        <v>1.825</v>
-      </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
         <v>1.85</v>
@@ -1483,22 +1483,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,10 +1874,10 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
         <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>45128.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2586,10 +2586,10 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4099,7 +4099,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,7 +4544,7 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -4903,7 +4903,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5523,7 +5523,7 @@
         <v>45159.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
         <v>42</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,10 +6146,10 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
         <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>35</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7395,7 +7395,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7748,7 +7748,7 @@
         <v>45191.47916666666</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
         <v>39</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8374,7 +8374,7 @@
         <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8463,7 +8463,7 @@
         <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,10 +8638,10 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10329,10 +10329,10 @@
         <v>45207.48958333334</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10777,7 +10777,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11041,7 +11041,7 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
         <v>39</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11486,7 +11486,7 @@
         <v>45225.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12821,10 +12821,10 @@
         <v>45237.52083333334</v>
       </c>
       <c r="F139" t="s">
+        <v>37</v>
+      </c>
+      <c r="G139" t="s">
         <v>38</v>
-      </c>
-      <c r="G139" t="s">
-        <v>37</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13444,10 +13444,10 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -14070,7 +14070,7 @@
         <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -14515,7 +14515,7 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15138,7 +15138,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15758,7 +15758,7 @@
         <v>45274.52083333334</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G172" t="s">
         <v>30</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16206,7 +16206,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17093,10 +17093,10 @@
         <v>45347.48958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17538,10 +17538,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>36</v>
+      </c>
+      <c r="G192" t="s">
         <v>35</v>
-      </c>
-      <c r="G192" t="s">
-        <v>36</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17719,7 +17719,7 @@
         <v>33</v>
       </c>
       <c r="G194" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17897,7 +17897,7 @@
         <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18075,7 +18075,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18161,7 +18161,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G199" t="s">
         <v>32</v>
@@ -18428,7 +18428,7 @@
         <v>45361.42708333334</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G202" t="s">
         <v>41</v>
@@ -18517,7 +18517,7 @@
         <v>45361.53125</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18787,7 +18787,7 @@
         <v>39</v>
       </c>
       <c r="G206" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -18873,7 +18873,7 @@
         <v>45367.32291666666</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
         <v>31</v>
@@ -18965,7 +18965,7 @@
         <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19321,7 +19321,7 @@
         <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -19585,10 +19585,10 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19941,7 +19941,7 @@
         <v>45382.4375</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
         <v>39</v>
@@ -20030,7 +20030,7 @@
         <v>45382.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G220" t="s">
         <v>44</v>
@@ -20208,7 +20208,7 @@
         <v>45384.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
         <v>40</v>
@@ -20478,7 +20478,7 @@
         <v>33</v>
       </c>
       <c r="G225" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H225">
         <v>5</v>
@@ -20564,7 +20564,7 @@
         <v>45386.35416666666</v>
       </c>
       <c r="F226" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G226" t="s">
         <v>43</v>
@@ -20656,7 +20656,7 @@
         <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20923,7 +20923,7 @@
         <v>30</v>
       </c>
       <c r="G230" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21009,7 +21009,7 @@
         <v>45389.36458333334</v>
       </c>
       <c r="F231" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G231" t="s">
         <v>32</v>
@@ -21098,10 +21098,10 @@
         <v>45389.48958333334</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -21543,7 +21543,7 @@
         <v>45393.53125</v>
       </c>
       <c r="F237" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G237" t="s">
         <v>33</v>
@@ -21632,7 +21632,7 @@
         <v>45394.48958333334</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
         <v>43</v>
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6978457</v>
+        <v>6978390</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21807,64 +21807,79 @@
         <v>28</v>
       </c>
       <c r="E240" s="2">
-        <v>45396.45833333334</v>
+        <v>45395.48958333334</v>
       </c>
       <c r="F240" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G240" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="H240">
+        <v>3</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240" t="s">
+        <v>46</v>
       </c>
       <c r="K240">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="L240">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M240">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N240">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="O240">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P240">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q240">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R240">
+        <v>1.975</v>
+      </c>
+      <c r="S240">
+        <v>1.875</v>
+      </c>
+      <c r="T240">
+        <v>2.5</v>
+      </c>
+      <c r="U240">
+        <v>2.025</v>
+      </c>
+      <c r="V240">
         <v>1.825</v>
       </c>
-      <c r="S240">
-        <v>2.025</v>
-      </c>
-      <c r="T240">
-        <v>2.25</v>
-      </c>
-      <c r="U240">
-        <v>2.05</v>
-      </c>
-      <c r="V240">
-        <v>1.8</v>
-      </c>
       <c r="W240">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA240">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB240">
+        <v>1.025</v>
+      </c>
+      <c r="AC240">
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:27">
@@ -21872,7 +21887,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6978453</v>
+        <v>6978452</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21881,34 +21896,34 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45396.5625</v>
+        <v>45397.47916666666</v>
       </c>
       <c r="F241" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G241" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K241">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="L241">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M241">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N241">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O241">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P241">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q241">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R241">
         <v>1.875</v>
@@ -21920,10 +21935,10 @@
         <v>2.25</v>
       </c>
       <c r="U241">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V241">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -21946,7 +21961,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6978452</v>
+        <v>6978456</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21955,49 +21970,49 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45397.47916666666</v>
+        <v>45397.58333333334</v>
       </c>
       <c r="F242" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G242" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K242">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="L242">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M242">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N242">
-        <v>1.533</v>
+        <v>1.222</v>
       </c>
       <c r="O242">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P242">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Q242">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R242">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S242">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T242">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U242">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V242">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W242">
         <v>0</v>
@@ -22012,80 +22027,6 @@
         <v>0</v>
       </c>
       <c r="AA242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243">
-        <v>6978456</v>
-      </c>
-      <c r="C243" t="s">
-        <v>28</v>
-      </c>
-      <c r="D243" t="s">
-        <v>28</v>
-      </c>
-      <c r="E243" s="2">
-        <v>45397.58333333334</v>
-      </c>
-      <c r="F243" t="s">
-        <v>33</v>
-      </c>
-      <c r="G243" t="s">
-        <v>30</v>
-      </c>
-      <c r="K243">
-        <v>1.25</v>
-      </c>
-      <c r="L243">
-        <v>6</v>
-      </c>
-      <c r="M243">
-        <v>8</v>
-      </c>
-      <c r="N243">
-        <v>1.222</v>
-      </c>
-      <c r="O243">
-        <v>6</v>
-      </c>
-      <c r="P243">
-        <v>9</v>
-      </c>
-      <c r="Q243">
-        <v>-1.75</v>
-      </c>
-      <c r="R243">
-        <v>1.95</v>
-      </c>
-      <c r="S243">
-        <v>1.9</v>
-      </c>
-      <c r="T243">
-        <v>2.75</v>
-      </c>
-      <c r="U243">
-        <v>1.875</v>
-      </c>
-      <c r="V243">
-        <v>1.975</v>
-      </c>
-      <c r="W243">
-        <v>0</v>
-      </c>
-      <c r="X243">
-        <v>0</v>
-      </c>
-      <c r="Y243">
-        <v>0</v>
-      </c>
-      <c r="Z243">
-        <v>0</v>
-      </c>
-      <c r="AA243">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -127,13 +127,13 @@
     <t>Slavia Sofia</t>
   </si>
   <si>
-    <t>CSKA 1948 Sofia</t>
+    <t>Cherno More Varna</t>
   </si>
   <si>
     <t>Levski Sofia</t>
   </si>
   <si>
-    <t>Cherno More Varna</t>
+    <t>CSKA 1948 Sofia</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC242"/>
+  <dimension ref="A1:AC247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627724</v>
+        <v>6627290</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M10">
+        <v>1.45</v>
+      </c>
+      <c r="N10">
         <v>6</v>
       </c>
-      <c r="N10">
-        <v>1.45</v>
-      </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>8</v>
+        <v>1.55</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1.85</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
+        <v>1.825</v>
+      </c>
+      <c r="V10">
         <v>2.025</v>
       </c>
-      <c r="S10">
-        <v>1.825</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10">
-        <v>1.85</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627290</v>
+        <v>6627724</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12">
+        <v>1.5</v>
+      </c>
+      <c r="L12">
+        <v>3.8</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>1.45</v>
+      </c>
+      <c r="O12">
+        <v>4.2</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <v>-1.25</v>
+      </c>
+      <c r="R12">
+        <v>2.025</v>
+      </c>
+      <c r="S12">
+        <v>1.825</v>
+      </c>
+      <c r="T12">
+        <v>2.5</v>
+      </c>
+      <c r="U12">
+        <v>1.85</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>3.2</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
+        <v>0.825</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
         <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12">
-        <v>6</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <v>1.45</v>
-      </c>
-      <c r="N12">
-        <v>6</v>
-      </c>
-      <c r="O12">
-        <v>4.333</v>
-      </c>
-      <c r="P12">
-        <v>1.55</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>1.85</v>
-      </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
-      <c r="V12">
-        <v>2.025</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>0.55</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>-0</v>
-      </c>
-      <c r="AB12">
-        <v>-1</v>
-      </c>
-      <c r="AC12">
-        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1877,7 +1877,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1966,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2408,7 +2408,7 @@
         <v>45128.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2764,7 +2764,7 @@
         <v>45130.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3565,7 +3565,7 @@
         <v>45142.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -4099,7 +4099,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4547,7 +4547,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4903,7 +4903,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5434,7 +5434,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5523,7 +5523,7 @@
         <v>45159.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
         <v>42</v>
@@ -5882,7 +5882,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6149,7 +6149,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -7036,7 +7036,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7395,7 +7395,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7748,10 +7748,10 @@
         <v>45191.47916666666</v>
       </c>
       <c r="F82" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" t="s">
         <v>37</v>
-      </c>
-      <c r="G82" t="s">
-        <v>39</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8374,7 +8374,7 @@
         <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>45195.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -9086,7 +9086,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -10151,7 +10151,7 @@
         <v>45206.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45207.48958333334</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G111" t="s">
         <v>35</v>
@@ -10777,7 +10777,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -11044,7 +11044,7 @@
         <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11397,7 +11397,7 @@
         <v>45225.375</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11486,7 +11486,7 @@
         <v>45225.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -12732,7 +12732,7 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12821,7 +12821,7 @@
         <v>45237.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
         <v>38</v>
@@ -13091,7 +13091,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13978,7 +13978,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14070,7 +14070,7 @@
         <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14515,7 +14515,7 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14604,7 +14604,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -15135,7 +15135,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
         <v>36</v>
@@ -15313,7 +15313,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15758,7 +15758,7 @@
         <v>45274.52083333334</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G172" t="s">
         <v>30</v>
@@ -16206,7 +16206,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16826,7 +16826,7 @@
         <v>45346.42708333334</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -17093,7 +17093,7 @@
         <v>45347.48958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G187" t="s">
         <v>36</v>
@@ -17271,7 +17271,7 @@
         <v>45352.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17719,7 +17719,7 @@
         <v>33</v>
       </c>
       <c r="G194" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -18161,7 +18161,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G199" t="s">
         <v>32</v>
@@ -18253,7 +18253,7 @@
         <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18784,10 +18784,10 @@
         <v>45366.57291666666</v>
       </c>
       <c r="F206" t="s">
+        <v>37</v>
+      </c>
+      <c r="G206" t="s">
         <v>39</v>
-      </c>
-      <c r="G206" t="s">
-        <v>37</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -19944,7 +19944,7 @@
         <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -20030,7 +20030,7 @@
         <v>45382.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
         <v>44</v>
@@ -20564,7 +20564,7 @@
         <v>45386.35416666666</v>
       </c>
       <c r="F226" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G226" t="s">
         <v>43</v>
@@ -20742,7 +20742,7 @@
         <v>45386.5625</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
         <v>29</v>
@@ -21101,7 +21101,7 @@
         <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -21368,7 +21368,7 @@
         <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21543,7 +21543,7 @@
         <v>45393.53125</v>
       </c>
       <c r="F237" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G237" t="s">
         <v>33</v>
@@ -21882,12 +21882,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:29">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6978452</v>
+        <v>6978454</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21896,72 +21896,87 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45397.47916666666</v>
+        <v>45395.59375</v>
       </c>
       <c r="F241" t="s">
         <v>37</v>
       </c>
       <c r="G241" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="H241">
+        <v>3</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241" t="s">
+        <v>46</v>
       </c>
       <c r="K241">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="L241">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M241">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="N241">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O241">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P241">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q241">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
+        <v>1.95</v>
+      </c>
+      <c r="S241">
+        <v>1.9</v>
+      </c>
+      <c r="T241">
+        <v>2</v>
+      </c>
+      <c r="U241">
         <v>1.875</v>
       </c>
-      <c r="S241">
+      <c r="V241">
         <v>1.975</v>
       </c>
-      <c r="T241">
-        <v>2.25</v>
-      </c>
-      <c r="U241">
-        <v>1.9</v>
-      </c>
-      <c r="V241">
-        <v>1.95</v>
-      </c>
       <c r="W241">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB241">
+        <v>0.875</v>
+      </c>
+      <c r="AC241">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6978456</v>
+        <v>6978457</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21970,63 +21985,448 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45397.58333333334</v>
+        <v>45396.45833333334</v>
       </c>
       <c r="F242" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G242" t="s">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242" t="s">
+        <v>47</v>
       </c>
       <c r="K242">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="L242">
+        <v>3.2</v>
+      </c>
+      <c r="M242">
+        <v>2</v>
+      </c>
+      <c r="N242">
+        <v>5.5</v>
+      </c>
+      <c r="O242">
+        <v>3.6</v>
+      </c>
+      <c r="P242">
+        <v>1.7</v>
+      </c>
+      <c r="Q242">
+        <v>0.75</v>
+      </c>
+      <c r="R242">
+        <v>2</v>
+      </c>
+      <c r="S242">
+        <v>1.85</v>
+      </c>
+      <c r="T242">
+        <v>2.25</v>
+      </c>
+      <c r="U242">
+        <v>2</v>
+      </c>
+      <c r="V242">
+        <v>1.85</v>
+      </c>
+      <c r="W242">
+        <v>-1</v>
+      </c>
+      <c r="X242">
+        <v>2.6</v>
+      </c>
+      <c r="Y242">
+        <v>-1</v>
+      </c>
+      <c r="Z242">
+        <v>1</v>
+      </c>
+      <c r="AA242">
+        <v>-1</v>
+      </c>
+      <c r="AB242">
+        <v>-1</v>
+      </c>
+      <c r="AC242">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>6978458</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45401.47916666666</v>
+      </c>
+      <c r="F243" t="s">
+        <v>43</v>
+      </c>
+      <c r="G243" t="s">
+        <v>42</v>
+      </c>
+      <c r="K243">
+        <v>1.8</v>
+      </c>
+      <c r="L243">
+        <v>3.3</v>
+      </c>
+      <c r="M243">
+        <v>4.75</v>
+      </c>
+      <c r="N243">
+        <v>1.7</v>
+      </c>
+      <c r="O243">
+        <v>3.3</v>
+      </c>
+      <c r="P243">
+        <v>5.5</v>
+      </c>
+      <c r="Q243">
+        <v>-0.75</v>
+      </c>
+      <c r="R243">
+        <v>1.925</v>
+      </c>
+      <c r="S243">
+        <v>1.925</v>
+      </c>
+      <c r="T243">
+        <v>2.25</v>
+      </c>
+      <c r="U243">
+        <v>1.825</v>
+      </c>
+      <c r="V243">
+        <v>2.025</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>6978459</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45401.58333333334</v>
+      </c>
+      <c r="F244" t="s">
+        <v>41</v>
+      </c>
+      <c r="G244" t="s">
+        <v>36</v>
+      </c>
+      <c r="K244">
+        <v>2.3</v>
+      </c>
+      <c r="L244">
+        <v>3.1</v>
+      </c>
+      <c r="M244">
+        <v>3.25</v>
+      </c>
+      <c r="N244">
+        <v>2.8</v>
+      </c>
+      <c r="O244">
+        <v>3</v>
+      </c>
+      <c r="P244">
+        <v>2.625</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <v>2</v>
+      </c>
+      <c r="S244">
+        <v>1.85</v>
+      </c>
+      <c r="T244">
+        <v>2</v>
+      </c>
+      <c r="U244">
+        <v>1.775</v>
+      </c>
+      <c r="V244">
+        <v>2.1</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AA244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>6978461</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45402.38541666666</v>
+      </c>
+      <c r="F245" t="s">
+        <v>40</v>
+      </c>
+      <c r="G245" t="s">
+        <v>37</v>
+      </c>
+      <c r="K245">
+        <v>5.75</v>
+      </c>
+      <c r="L245">
+        <v>3.75</v>
+      </c>
+      <c r="M245">
+        <v>1.6</v>
+      </c>
+      <c r="N245">
         <v>6</v>
       </c>
-      <c r="M242">
-        <v>8</v>
-      </c>
-      <c r="N242">
-        <v>1.222</v>
-      </c>
-      <c r="O242">
-        <v>6</v>
-      </c>
-      <c r="P242">
-        <v>9</v>
-      </c>
-      <c r="Q242">
-        <v>-1.75</v>
-      </c>
-      <c r="R242">
-        <v>1.975</v>
-      </c>
-      <c r="S242">
-        <v>1.875</v>
-      </c>
-      <c r="T242">
-        <v>2.75</v>
-      </c>
-      <c r="U242">
-        <v>1.875</v>
-      </c>
-      <c r="V242">
-        <v>1.975</v>
-      </c>
-      <c r="W242">
-        <v>0</v>
-      </c>
-      <c r="X242">
-        <v>0</v>
-      </c>
-      <c r="Y242">
-        <v>0</v>
-      </c>
-      <c r="Z242">
-        <v>0</v>
-      </c>
-      <c r="AA242">
+      <c r="O245">
+        <v>3.75</v>
+      </c>
+      <c r="P245">
+        <v>1.571</v>
+      </c>
+      <c r="Q245">
+        <v>1</v>
+      </c>
+      <c r="R245">
+        <v>1.8</v>
+      </c>
+      <c r="S245">
+        <v>2.05</v>
+      </c>
+      <c r="T245">
+        <v>2.25</v>
+      </c>
+      <c r="U245">
+        <v>1.925</v>
+      </c>
+      <c r="V245">
+        <v>1.925</v>
+      </c>
+      <c r="W245">
+        <v>0</v>
+      </c>
+      <c r="X245">
+        <v>0</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+      <c r="Z245">
+        <v>0</v>
+      </c>
+      <c r="AA245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>6978462</v>
+      </c>
+      <c r="C246" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45402.59375</v>
+      </c>
+      <c r="F246" t="s">
+        <v>38</v>
+      </c>
+      <c r="G246" t="s">
+        <v>44</v>
+      </c>
+      <c r="K246">
+        <v>1.444</v>
+      </c>
+      <c r="L246">
+        <v>4.2</v>
+      </c>
+      <c r="M246">
+        <v>7.5</v>
+      </c>
+      <c r="N246">
+        <v>1.333</v>
+      </c>
+      <c r="O246">
+        <v>4.5</v>
+      </c>
+      <c r="P246">
+        <v>8.5</v>
+      </c>
+      <c r="Q246">
+        <v>-1.25</v>
+      </c>
+      <c r="R246">
+        <v>1.825</v>
+      </c>
+      <c r="S246">
+        <v>2.025</v>
+      </c>
+      <c r="T246">
+        <v>2.25</v>
+      </c>
+      <c r="U246">
+        <v>1.8</v>
+      </c>
+      <c r="V246">
+        <v>2.05</v>
+      </c>
+      <c r="W246">
+        <v>0</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AA246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>6978463</v>
+      </c>
+      <c r="C247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45403.38541666666</v>
+      </c>
+      <c r="F247" t="s">
+        <v>31</v>
+      </c>
+      <c r="G247" t="s">
+        <v>39</v>
+      </c>
+      <c r="K247">
+        <v>1.909</v>
+      </c>
+      <c r="L247">
+        <v>3.4</v>
+      </c>
+      <c r="M247">
+        <v>4</v>
+      </c>
+      <c r="N247">
+        <v>1.8</v>
+      </c>
+      <c r="O247">
+        <v>3.5</v>
+      </c>
+      <c r="P247">
+        <v>4.5</v>
+      </c>
+      <c r="Q247">
+        <v>-0.75</v>
+      </c>
+      <c r="R247">
+        <v>2.05</v>
+      </c>
+      <c r="S247">
+        <v>1.8</v>
+      </c>
+      <c r="T247">
+        <v>2.25</v>
+      </c>
+      <c r="U247">
+        <v>1.85</v>
+      </c>
+      <c r="V247">
+        <v>2</v>
+      </c>
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
+      <c r="AA247">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -127,13 +127,13 @@
     <t>Slavia Sofia</t>
   </si>
   <si>
-    <t>Cherno More Varna</t>
-  </si>
-  <si>
     <t>Levski Sofia</t>
   </si>
   <si>
     <t>CSKA 1948 Sofia</t>
+  </si>
+  <si>
+    <t>Cherno More Varna</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC247"/>
+  <dimension ref="A1:AC253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627290</v>
+        <v>6627725</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,52 +1343,52 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="N10">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S10">
+        <v>2.025</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
         <v>1.85</v>
       </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.825</v>
-      </c>
       <c r="V10">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1397,19 +1397,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.55</v>
+        <v>1.8</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6627725</v>
+        <v>6627724</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,46 +1432,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M11">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R11">
+        <v>2.025</v>
+      </c>
+      <c r="S11">
         <v>1.825</v>
       </c>
-      <c r="S11">
-        <v>2.025</v>
-      </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
         <v>1.85</v>
@@ -1483,22 +1483,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y11">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627724</v>
+        <v>6627290</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="L12">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M12">
+        <v>1.45</v>
+      </c>
+      <c r="N12">
         <v>6</v>
       </c>
-      <c r="N12">
-        <v>1.45</v>
-      </c>
       <c r="O12">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>8</v>
+        <v>1.55</v>
       </c>
       <c r="Q12">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1.85</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
+        <v>1.825</v>
+      </c>
+      <c r="V12">
         <v>2.025</v>
       </c>
-      <c r="S12">
-        <v>1.825</v>
-      </c>
-      <c r="T12">
-        <v>2.5</v>
-      </c>
-      <c r="U12">
-        <v>1.85</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,10 +1874,10 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
         <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1966,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2408,7 +2408,7 @@
         <v>45128.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2589,7 +2589,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>45130.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3565,7 +3565,7 @@
         <v>45142.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4099,7 +4099,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
@@ -4547,7 +4547,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -4903,7 +4903,7 @@
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5434,7 +5434,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5523,7 +5523,7 @@
         <v>45159.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
         <v>42</v>
@@ -5882,7 +5882,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6149,7 +6149,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7036,7 +7036,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7395,7 +7395,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7748,10 +7748,10 @@
         <v>45191.47916666666</v>
       </c>
       <c r="F82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" t="s">
         <v>39</v>
-      </c>
-      <c r="G82" t="s">
-        <v>37</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8374,7 +8374,7 @@
         <v>44</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>45195.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8641,7 +8641,7 @@
         <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10151,7 +10151,7 @@
         <v>45206.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10329,7 +10329,7 @@
         <v>45207.48958333334</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
         <v>35</v>
@@ -10777,7 +10777,7 @@
         <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -11041,10 +11041,10 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11397,7 +11397,7 @@
         <v>45225.375</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11486,7 +11486,7 @@
         <v>45225.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12732,7 +12732,7 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12821,10 +12821,10 @@
         <v>45237.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13091,7 +13091,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13444,7 +13444,7 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
         <v>35</v>
@@ -13978,7 +13978,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14070,7 +14070,7 @@
         <v>30</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14515,7 +14515,7 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14604,7 +14604,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15135,7 +15135,7 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
         <v>36</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>45270.3125</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15758,7 +15758,7 @@
         <v>45274.52083333334</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G172" t="s">
         <v>30</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16206,7 +16206,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16826,7 +16826,7 @@
         <v>45346.42708333334</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17093,7 +17093,7 @@
         <v>45347.48958333334</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G187" t="s">
         <v>36</v>
@@ -17271,7 +17271,7 @@
         <v>45352.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17719,7 +17719,7 @@
         <v>33</v>
       </c>
       <c r="G194" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17897,7 +17897,7 @@
         <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18161,7 +18161,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
         <v>32</v>
@@ -18253,7 +18253,7 @@
         <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18428,7 +18428,7 @@
         <v>45361.42708333334</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G202" t="s">
         <v>41</v>
@@ -18784,10 +18784,10 @@
         <v>45366.57291666666</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G206" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -18965,7 +18965,7 @@
         <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19585,7 +19585,7 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
         <v>36</v>
@@ -19944,7 +19944,7 @@
         <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -20030,7 +20030,7 @@
         <v>45382.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G220" t="s">
         <v>44</v>
@@ -20478,7 +20478,7 @@
         <v>33</v>
       </c>
       <c r="G225" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H225">
         <v>5</v>
@@ -20564,7 +20564,7 @@
         <v>45386.35416666666</v>
       </c>
       <c r="F226" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G226" t="s">
         <v>43</v>
@@ -20742,7 +20742,7 @@
         <v>45386.5625</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G228" t="s">
         <v>29</v>
@@ -21009,7 +21009,7 @@
         <v>45389.36458333334</v>
       </c>
       <c r="F231" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G231" t="s">
         <v>32</v>
@@ -21101,7 +21101,7 @@
         <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -21368,7 +21368,7 @@
         <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21543,7 +21543,7 @@
         <v>45393.53125</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G237" t="s">
         <v>33</v>
@@ -21899,10 +21899,10 @@
         <v>45395.59375</v>
       </c>
       <c r="F241" t="s">
+        <v>39</v>
+      </c>
+      <c r="G241" t="s">
         <v>37</v>
-      </c>
-      <c r="G241" t="s">
-        <v>38</v>
       </c>
       <c r="H241">
         <v>3</v>
@@ -22065,7 +22065,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6978458</v>
+        <v>6978453</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22074,64 +22074,79 @@
         <v>28</v>
       </c>
       <c r="E243" s="2">
-        <v>45401.47916666666</v>
+        <v>45396.5625</v>
       </c>
       <c r="F243" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G243" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="H243">
+        <v>2</v>
+      </c>
+      <c r="I243">
+        <v>2</v>
+      </c>
+      <c r="J243" t="s">
+        <v>47</v>
       </c>
       <c r="K243">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="L243">
+        <v>3.25</v>
+      </c>
+      <c r="M243">
+        <v>2</v>
+      </c>
+      <c r="N243">
         <v>3.3</v>
       </c>
-      <c r="M243">
-        <v>4.75</v>
-      </c>
-      <c r="N243">
-        <v>1.7</v>
-      </c>
       <c r="O243">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P243">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q243">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R243">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S243">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T243">
         <v>2.25</v>
       </c>
       <c r="U243">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V243">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA243">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB243">
+        <v>1.05</v>
+      </c>
+      <c r="AC243">
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22139,7 +22154,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6978459</v>
+        <v>6978452</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22148,64 +22163,79 @@
         <v>28</v>
       </c>
       <c r="E244" s="2">
-        <v>45401.58333333334</v>
+        <v>45397.47916666666</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G244" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="H244">
+        <v>2</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244" t="s">
+        <v>46</v>
       </c>
       <c r="K244">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L244">
+        <v>3.5</v>
+      </c>
+      <c r="M244">
+        <v>7</v>
+      </c>
+      <c r="N244">
+        <v>1.909</v>
+      </c>
+      <c r="O244">
         <v>3.1</v>
       </c>
-      <c r="M244">
-        <v>3.25</v>
-      </c>
-      <c r="N244">
-        <v>2.8</v>
-      </c>
-      <c r="O244">
-        <v>3</v>
-      </c>
       <c r="P244">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q244">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R244">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S244">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T244">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U244">
+        <v>2.1</v>
+      </c>
+      <c r="V244">
         <v>1.775</v>
       </c>
-      <c r="V244">
-        <v>2.1</v>
-      </c>
       <c r="W244">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA244">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB244">
+        <v>1.1</v>
+      </c>
+      <c r="AC244">
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22213,7 +22243,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6978461</v>
+        <v>6978456</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22222,34 +22252,43 @@
         <v>28</v>
       </c>
       <c r="E245" s="2">
-        <v>45402.38541666666</v>
+        <v>45397.58333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G245" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="H245">
+        <v>2</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245" t="s">
+        <v>46</v>
       </c>
       <c r="K245">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="L245">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M245">
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="N245">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="O245">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P245">
-        <v>1.571</v>
+        <v>12</v>
       </c>
       <c r="Q245">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R245">
         <v>1.8</v>
@@ -22258,28 +22297,34 @@
         <v>2.05</v>
       </c>
       <c r="T245">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U245">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V245">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W245">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA245">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB245">
+        <v>-1</v>
+      </c>
+      <c r="AC245">
+        <v>0.825</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22287,7 +22332,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6978462</v>
+        <v>6978458</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22296,40 +22341,40 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45402.59375</v>
+        <v>45401.47916666666</v>
       </c>
       <c r="F246" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G246" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K246">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L246">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M246">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N246">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="O246">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P246">
-        <v>8.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q246">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R246">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
         <v>2.25</v>
@@ -22361,72 +22406,516 @@
         <v>245</v>
       </c>
       <c r="B247">
+        <v>6978459</v>
+      </c>
+      <c r="C247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45401.58333333334</v>
+      </c>
+      <c r="F247" t="s">
+        <v>41</v>
+      </c>
+      <c r="G247" t="s">
+        <v>36</v>
+      </c>
+      <c r="K247">
+        <v>2.3</v>
+      </c>
+      <c r="L247">
+        <v>3.1</v>
+      </c>
+      <c r="M247">
+        <v>3.25</v>
+      </c>
+      <c r="N247">
+        <v>2.9</v>
+      </c>
+      <c r="O247">
+        <v>3</v>
+      </c>
+      <c r="P247">
+        <v>2.5</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="R247">
+        <v>2.1</v>
+      </c>
+      <c r="S247">
+        <v>1.775</v>
+      </c>
+      <c r="T247">
+        <v>2</v>
+      </c>
+      <c r="U247">
+        <v>1.9</v>
+      </c>
+      <c r="V247">
+        <v>1.95</v>
+      </c>
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
+      <c r="AA247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>6978461</v>
+      </c>
+      <c r="C248" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248" t="s">
+        <v>28</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45402.38541666666</v>
+      </c>
+      <c r="F248" t="s">
+        <v>40</v>
+      </c>
+      <c r="G248" t="s">
+        <v>39</v>
+      </c>
+      <c r="K248">
+        <v>5.75</v>
+      </c>
+      <c r="L248">
+        <v>3.75</v>
+      </c>
+      <c r="M248">
+        <v>1.6</v>
+      </c>
+      <c r="N248">
+        <v>6.5</v>
+      </c>
+      <c r="O248">
+        <v>3.75</v>
+      </c>
+      <c r="P248">
+        <v>1.55</v>
+      </c>
+      <c r="Q248">
+        <v>1</v>
+      </c>
+      <c r="R248">
+        <v>1.825</v>
+      </c>
+      <c r="S248">
+        <v>2.025</v>
+      </c>
+      <c r="T248">
+        <v>2.25</v>
+      </c>
+      <c r="U248">
+        <v>1.925</v>
+      </c>
+      <c r="V248">
+        <v>1.925</v>
+      </c>
+      <c r="W248">
+        <v>0</v>
+      </c>
+      <c r="X248">
+        <v>0</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+      <c r="Z248">
+        <v>0</v>
+      </c>
+      <c r="AA248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>6978391</v>
+      </c>
+      <c r="C249" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249" t="s">
+        <v>28</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45402.48958333334</v>
+      </c>
+      <c r="F249" t="s">
+        <v>34</v>
+      </c>
+      <c r="G249" t="s">
+        <v>33</v>
+      </c>
+      <c r="K249">
+        <v>10</v>
+      </c>
+      <c r="L249">
+        <v>6</v>
+      </c>
+      <c r="M249">
+        <v>1.25</v>
+      </c>
+      <c r="N249">
+        <v>11</v>
+      </c>
+      <c r="O249">
+        <v>6.5</v>
+      </c>
+      <c r="P249">
+        <v>1.222</v>
+      </c>
+      <c r="Q249">
+        <v>1.75</v>
+      </c>
+      <c r="R249">
+        <v>1.975</v>
+      </c>
+      <c r="S249">
+        <v>1.875</v>
+      </c>
+      <c r="T249">
+        <v>3</v>
+      </c>
+      <c r="U249">
+        <v>1.875</v>
+      </c>
+      <c r="V249">
+        <v>1.975</v>
+      </c>
+      <c r="W249">
+        <v>0</v>
+      </c>
+      <c r="X249">
+        <v>0</v>
+      </c>
+      <c r="Y249">
+        <v>0</v>
+      </c>
+      <c r="Z249">
+        <v>0</v>
+      </c>
+      <c r="AA249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>6978462</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" t="s">
+        <v>28</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45402.59375</v>
+      </c>
+      <c r="F250" t="s">
+        <v>37</v>
+      </c>
+      <c r="G250" t="s">
+        <v>44</v>
+      </c>
+      <c r="K250">
+        <v>1.444</v>
+      </c>
+      <c r="L250">
+        <v>4.2</v>
+      </c>
+      <c r="M250">
+        <v>7.5</v>
+      </c>
+      <c r="N250">
+        <v>1.333</v>
+      </c>
+      <c r="O250">
+        <v>5</v>
+      </c>
+      <c r="P250">
+        <v>8.5</v>
+      </c>
+      <c r="Q250">
+        <v>-1.5</v>
+      </c>
+      <c r="R250">
+        <v>2.05</v>
+      </c>
+      <c r="S250">
+        <v>1.8</v>
+      </c>
+      <c r="T250">
+        <v>2.5</v>
+      </c>
+      <c r="U250">
+        <v>2</v>
+      </c>
+      <c r="V250">
+        <v>1.85</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>0</v>
+      </c>
+      <c r="Z250">
+        <v>0</v>
+      </c>
+      <c r="AA250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
         <v>6978463</v>
       </c>
-      <c r="C247" t="s">
-        <v>28</v>
-      </c>
-      <c r="D247" t="s">
-        <v>28</v>
-      </c>
-      <c r="E247" s="2">
+      <c r="C251" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251" t="s">
+        <v>28</v>
+      </c>
+      <c r="E251" s="2">
         <v>45403.38541666666</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F251" t="s">
         <v>31</v>
       </c>
-      <c r="G247" t="s">
-        <v>39</v>
-      </c>
-      <c r="K247">
+      <c r="G251" t="s">
+        <v>38</v>
+      </c>
+      <c r="K251">
         <v>1.909</v>
       </c>
-      <c r="L247">
+      <c r="L251">
         <v>3.4</v>
       </c>
-      <c r="M247">
+      <c r="M251">
         <v>4</v>
       </c>
-      <c r="N247">
+      <c r="N251">
         <v>1.8</v>
       </c>
-      <c r="O247">
+      <c r="O251">
         <v>3.5</v>
       </c>
-      <c r="P247">
-        <v>4.5</v>
-      </c>
-      <c r="Q247">
-        <v>-0.75</v>
-      </c>
-      <c r="R247">
+      <c r="P251">
+        <v>4.333</v>
+      </c>
+      <c r="Q251">
+        <v>-0.5</v>
+      </c>
+      <c r="R251">
+        <v>1.825</v>
+      </c>
+      <c r="S251">
+        <v>2.025</v>
+      </c>
+      <c r="T251">
+        <v>2.25</v>
+      </c>
+      <c r="U251">
+        <v>1.825</v>
+      </c>
+      <c r="V251">
+        <v>2.025</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <v>0</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AA251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>6978464</v>
+      </c>
+      <c r="C252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45403.48958333334</v>
+      </c>
+      <c r="F252" t="s">
+        <v>29</v>
+      </c>
+      <c r="G252" t="s">
+        <v>35</v>
+      </c>
+      <c r="K252">
+        <v>2.6</v>
+      </c>
+      <c r="L252">
+        <v>3.2</v>
+      </c>
+      <c r="M252">
+        <v>2.75</v>
+      </c>
+      <c r="N252">
+        <v>3.75</v>
+      </c>
+      <c r="O252">
+        <v>3.4</v>
+      </c>
+      <c r="P252">
+        <v>1.909</v>
+      </c>
+      <c r="Q252">
+        <v>0.5</v>
+      </c>
+      <c r="R252">
+        <v>1.875</v>
+      </c>
+      <c r="S252">
+        <v>1.975</v>
+      </c>
+      <c r="T252">
+        <v>2.25</v>
+      </c>
+      <c r="U252">
+        <v>1.925</v>
+      </c>
+      <c r="V252">
+        <v>1.925</v>
+      </c>
+      <c r="W252">
+        <v>0</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+      <c r="Y252">
+        <v>0</v>
+      </c>
+      <c r="Z252">
+        <v>0</v>
+      </c>
+      <c r="AA252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>6978460</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" t="s">
+        <v>28</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45403.59375</v>
+      </c>
+      <c r="F253" t="s">
+        <v>30</v>
+      </c>
+      <c r="G253" t="s">
+        <v>32</v>
+      </c>
+      <c r="K253">
+        <v>5.5</v>
+      </c>
+      <c r="L253">
+        <v>3.6</v>
+      </c>
+      <c r="M253">
+        <v>1.65</v>
+      </c>
+      <c r="N253">
+        <v>5.5</v>
+      </c>
+      <c r="O253">
+        <v>3.6</v>
+      </c>
+      <c r="P253">
+        <v>1.615</v>
+      </c>
+      <c r="Q253">
+        <v>0.75</v>
+      </c>
+      <c r="R253">
+        <v>2.025</v>
+      </c>
+      <c r="S253">
+        <v>1.825</v>
+      </c>
+      <c r="T253">
+        <v>2.25</v>
+      </c>
+      <c r="U253">
+        <v>1.8</v>
+      </c>
+      <c r="V253">
         <v>2.05</v>
       </c>
-      <c r="S247">
-        <v>1.8</v>
-      </c>
-      <c r="T247">
-        <v>2.25</v>
-      </c>
-      <c r="U247">
-        <v>1.85</v>
-      </c>
-      <c r="V247">
-        <v>2</v>
-      </c>
-      <c r="W247">
-        <v>0</v>
-      </c>
-      <c r="X247">
-        <v>0</v>
-      </c>
-      <c r="Y247">
-        <v>0</v>
-      </c>
-      <c r="Z247">
-        <v>0</v>
-      </c>
-      <c r="AA247">
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>0</v>
+      </c>
+      <c r="Z253">
+        <v>0</v>
+      </c>
+      <c r="AA253">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -121,19 +121,19 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
+    <t>Slavia Sofia</t>
+  </si>
+  <si>
     <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Slavia Sofia</t>
-  </si>
-  <si>
-    <t>Levski Sofia</t>
+    <t>Cherno More Varna</t>
   </si>
   <si>
     <t>CSKA 1948 Sofia</t>
   </si>
   <si>
-    <t>Cherno More Varna</t>
+    <t>Levski Sofia</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N8">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O8">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N9">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P9">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
+        <v>2.025</v>
+      </c>
+      <c r="T9">
+        <v>3.25</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
-      <c r="V9">
-        <v>1.975</v>
-      </c>
       <c r="W9">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627725</v>
+        <v>6627290</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,53 +1343,53 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
       </c>
       <c r="K10">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="N10">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1.85</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
         <v>1.825</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>2.025</v>
       </c>
-      <c r="T10">
-        <v>2.25</v>
-      </c>
-      <c r="U10">
-        <v>1.85</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
@@ -1397,19 +1397,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
+        <v>-0</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>1.025</v>
-      </c>
-      <c r="AB10">
-        <v>-0.5</v>
-      </c>
-      <c r="AC10">
-        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627290</v>
+        <v>6627725</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,52 +1521,52 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
+        <v>2.025</v>
+      </c>
+      <c r="T12">
+        <v>2.25</v>
+      </c>
+      <c r="U12">
         <v>1.85</v>
       </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1575,19 +1575,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.55</v>
+        <v>1.8</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,7 +1874,7 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>38</v>
@@ -1966,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2586,10 +2586,10 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>45130.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3565,7 +3565,7 @@
         <v>45142.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,10 +4544,10 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5434,7 +5434,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5882,7 +5882,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
         <v>38</v>
@@ -6327,7 +6327,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
         <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7036,7 +7036,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7751,7 +7751,7 @@
         <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8460,10 +8460,10 @@
         <v>45195.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,10 +8638,10 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10151,7 +10151,7 @@
         <v>45206.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10332,7 +10332,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11041,10 +11041,10 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
+        <v>39</v>
+      </c>
+      <c r="G119" t="s">
         <v>37</v>
-      </c>
-      <c r="G119" t="s">
-        <v>39</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11397,7 +11397,7 @@
         <v>45225.375</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12732,7 +12732,7 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12824,7 +12824,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13091,7 +13091,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13444,10 +13444,10 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13978,7 +13978,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -14604,7 +14604,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15135,10 +15135,10 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -16826,7 +16826,7 @@
         <v>45346.42708333334</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17096,7 +17096,7 @@
         <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17271,7 +17271,7 @@
         <v>45352.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17538,10 +17538,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>35</v>
+      </c>
+      <c r="G192" t="s">
         <v>36</v>
-      </c>
-      <c r="G192" t="s">
-        <v>35</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17897,7 +17897,7 @@
         <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18075,7 +18075,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18253,7 +18253,7 @@
         <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18428,7 +18428,7 @@
         <v>45361.42708333334</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G202" t="s">
         <v>41</v>
@@ -18517,7 +18517,7 @@
         <v>45361.53125</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18784,7 +18784,7 @@
         <v>45366.57291666666</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G206" t="s">
         <v>38</v>
@@ -18873,7 +18873,7 @@
         <v>45367.32291666666</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
         <v>31</v>
@@ -18965,7 +18965,7 @@
         <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19321,7 +19321,7 @@
         <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -19585,10 +19585,10 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19941,10 +19941,10 @@
         <v>45382.4375</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -20208,7 +20208,7 @@
         <v>45384.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
         <v>40</v>
@@ -20478,7 +20478,7 @@
         <v>33</v>
       </c>
       <c r="G225" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H225">
         <v>5</v>
@@ -20656,7 +20656,7 @@
         <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20742,7 +20742,7 @@
         <v>45386.5625</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
         <v>29</v>
@@ -20923,7 +20923,7 @@
         <v>30</v>
       </c>
       <c r="G230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21009,7 +21009,7 @@
         <v>45389.36458333334</v>
       </c>
       <c r="F231" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G231" t="s">
         <v>32</v>
@@ -21098,7 +21098,7 @@
         <v>45389.48958333334</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G232" t="s">
         <v>38</v>
@@ -21368,7 +21368,7 @@
         <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21632,7 +21632,7 @@
         <v>45394.48958333334</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
         <v>43</v>
@@ -21810,7 +21810,7 @@
         <v>45395.48958333334</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G240" t="s">
         <v>34</v>
@@ -21899,10 +21899,10 @@
         <v>45395.59375</v>
       </c>
       <c r="F241" t="s">
+        <v>37</v>
+      </c>
+      <c r="G241" t="s">
         <v>39</v>
-      </c>
-      <c r="G241" t="s">
-        <v>37</v>
       </c>
       <c r="H241">
         <v>3</v>
@@ -22359,31 +22359,31 @@
         <v>4.75</v>
       </c>
       <c r="N246">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O246">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P246">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q246">
         <v>-0.75</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T246">
         <v>2.25</v>
       </c>
       <c r="U246">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V246">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22421,7 +22421,7 @@
         <v>41</v>
       </c>
       <c r="G247" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K247">
         <v>2.3</v>
@@ -22433,22 +22433,22 @@
         <v>3.25</v>
       </c>
       <c r="N247">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="O247">
         <v>3</v>
       </c>
       <c r="P247">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q247">
         <v>0</v>
       </c>
       <c r="R247">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S247">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T247">
         <v>2</v>
@@ -22495,7 +22495,7 @@
         <v>40</v>
       </c>
       <c r="G248" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K248">
         <v>5.75</v>
@@ -22640,7 +22640,7 @@
         <v>45402.59375</v>
       </c>
       <c r="F250" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G250" t="s">
         <v>44</v>
@@ -22667,10 +22667,10 @@
         <v>-1.5</v>
       </c>
       <c r="R250">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S250">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T250">
         <v>2.5</v>
@@ -22791,7 +22791,7 @@
         <v>29</v>
       </c>
       <c r="G252" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K252">
         <v>2.6</v>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,19 +121,19 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
+    <t>Botev Plovdiv</t>
+  </si>
+  <si>
     <t>Slavia Sofia</t>
   </si>
   <si>
-    <t>Botev Plovdiv</t>
-  </si>
-  <si>
-    <t>Cherno More Varna</t>
+    <t>Levski Sofia</t>
   </si>
   <si>
     <t>CSKA 1948 Sofia</t>
   </si>
   <si>
-    <t>Levski Sofia</t>
+    <t>Cherno More Varna</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC253"/>
+  <dimension ref="A1:AC251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L8">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N8">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O8">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q8">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
+        <v>2.025</v>
+      </c>
+      <c r="T8">
+        <v>3.25</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
         <v>1.85</v>
       </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
-      <c r="V8">
-        <v>1.975</v>
-      </c>
       <c r="W8">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N9">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O9">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P9">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q9">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627290</v>
+        <v>6627725</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,52 +1343,52 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="N10">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="O10">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S10">
+        <v>2.025</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
         <v>1.85</v>
       </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.825</v>
-      </c>
       <c r="V10">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1397,19 +1397,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.55</v>
+        <v>1.8</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627725</v>
+        <v>6627290</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,53 +1521,53 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="N12">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P12">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1.85</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
         <v>1.825</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>2.025</v>
       </c>
-      <c r="T12">
-        <v>2.25</v>
-      </c>
-      <c r="U12">
-        <v>1.85</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
       <c r="W12">
         <v>-1</v>
       </c>
@@ -1575,19 +1575,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
+        <v>-0</v>
+      </c>
+      <c r="AB12">
+        <v>-1</v>
+      </c>
+      <c r="AC12">
         <v>1.025</v>
-      </c>
-      <c r="AB12">
-        <v>-0.5</v>
-      </c>
-      <c r="AC12">
-        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,7 +1874,7 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
         <v>38</v>
@@ -1966,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2586,10 +2586,10 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>45130.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3565,7 +3565,7 @@
         <v>45142.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,10 +4544,10 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5434,7 +5434,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5882,7 +5882,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>38</v>
@@ -6327,7 +6327,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
         <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>35</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7036,7 +7036,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7751,7 +7751,7 @@
         <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8460,10 +8460,10 @@
         <v>45195.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,10 +8638,10 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10151,7 +10151,7 @@
         <v>45206.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10332,7 +10332,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11041,10 +11041,10 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119" t="s">
         <v>39</v>
-      </c>
-      <c r="G119" t="s">
-        <v>37</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11397,7 +11397,7 @@
         <v>45225.375</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12732,7 +12732,7 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12824,7 +12824,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13091,7 +13091,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13444,10 +13444,10 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13978,7 +13978,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -14604,7 +14604,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15135,10 +15135,10 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -16826,7 +16826,7 @@
         <v>45346.42708333334</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17096,7 +17096,7 @@
         <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17271,7 +17271,7 @@
         <v>45352.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17538,10 +17538,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>36</v>
+      </c>
+      <c r="G192" t="s">
         <v>35</v>
-      </c>
-      <c r="G192" t="s">
-        <v>36</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17897,7 +17897,7 @@
         <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18075,7 +18075,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18253,7 +18253,7 @@
         <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18428,7 +18428,7 @@
         <v>45361.42708333334</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G202" t="s">
         <v>41</v>
@@ -18517,7 +18517,7 @@
         <v>45361.53125</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18784,7 +18784,7 @@
         <v>45366.57291666666</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G206" t="s">
         <v>38</v>
@@ -18873,7 +18873,7 @@
         <v>45367.32291666666</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
         <v>31</v>
@@ -18965,7 +18965,7 @@
         <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19321,7 +19321,7 @@
         <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -19585,10 +19585,10 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19941,10 +19941,10 @@
         <v>45382.4375</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -20208,7 +20208,7 @@
         <v>45384.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
         <v>40</v>
@@ -20478,7 +20478,7 @@
         <v>33</v>
       </c>
       <c r="G225" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H225">
         <v>5</v>
@@ -20656,7 +20656,7 @@
         <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20742,7 +20742,7 @@
         <v>45386.5625</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G228" t="s">
         <v>29</v>
@@ -20923,7 +20923,7 @@
         <v>30</v>
       </c>
       <c r="G230" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21009,7 +21009,7 @@
         <v>45389.36458333334</v>
       </c>
       <c r="F231" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G231" t="s">
         <v>32</v>
@@ -21098,7 +21098,7 @@
         <v>45389.48958333334</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
         <v>38</v>
@@ -21368,7 +21368,7 @@
         <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21632,7 +21632,7 @@
         <v>45394.48958333334</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
         <v>43</v>
@@ -21810,7 +21810,7 @@
         <v>45395.48958333334</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G240" t="s">
         <v>34</v>
@@ -21899,10 +21899,10 @@
         <v>45395.59375</v>
       </c>
       <c r="F241" t="s">
+        <v>39</v>
+      </c>
+      <c r="G241" t="s">
         <v>37</v>
-      </c>
-      <c r="G241" t="s">
-        <v>39</v>
       </c>
       <c r="H241">
         <v>3</v>
@@ -22332,7 +22332,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6978458</v>
+        <v>6978461</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22341,49 +22341,49 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45401.47916666666</v>
+        <v>45402.38541666666</v>
       </c>
       <c r="F246" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G246" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K246">
-        <v>1.8</v>
+        <v>5.75</v>
       </c>
       <c r="L246">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M246">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="N246">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="O246">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P246">
-        <v>5.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q246">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R246">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S246">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T246">
         <v>2.25</v>
       </c>
       <c r="U246">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V246">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W246">
         <v>0</v>
@@ -22406,7 +22406,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6978459</v>
+        <v>6978391</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22415,49 +22415,49 @@
         <v>28</v>
       </c>
       <c r="E247" s="2">
-        <v>45401.58333333334</v>
+        <v>45402.48958333334</v>
       </c>
       <c r="F247" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G247" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K247">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="L247">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="M247">
-        <v>3.25</v>
+        <v>1.25</v>
       </c>
       <c r="N247">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="O247">
+        <v>6.5</v>
+      </c>
+      <c r="P247">
+        <v>1.222</v>
+      </c>
+      <c r="Q247">
+        <v>1.75</v>
+      </c>
+      <c r="R247">
+        <v>1.975</v>
+      </c>
+      <c r="S247">
+        <v>1.875</v>
+      </c>
+      <c r="T247">
         <v>3</v>
       </c>
-      <c r="P247">
-        <v>2.55</v>
-      </c>
-      <c r="Q247">
-        <v>0</v>
-      </c>
-      <c r="R247">
-        <v>2.05</v>
-      </c>
-      <c r="S247">
-        <v>1.8</v>
-      </c>
-      <c r="T247">
-        <v>2</v>
-      </c>
       <c r="U247">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V247">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22480,7 +22480,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6978461</v>
+        <v>6978462</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22489,49 +22489,49 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45402.38541666666</v>
+        <v>45402.59375</v>
       </c>
       <c r="F248" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G248" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K248">
-        <v>5.75</v>
+        <v>1.444</v>
       </c>
       <c r="L248">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M248">
-        <v>1.6</v>
+        <v>7.5</v>
       </c>
       <c r="N248">
-        <v>6.5</v>
+        <v>1.363</v>
       </c>
       <c r="O248">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P248">
-        <v>1.55</v>
+        <v>8</v>
       </c>
       <c r="Q248">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R248">
+        <v>1.875</v>
+      </c>
+      <c r="S248">
+        <v>1.975</v>
+      </c>
+      <c r="T248">
+        <v>2.5</v>
+      </c>
+      <c r="U248">
+        <v>2.025</v>
+      </c>
+      <c r="V248">
         <v>1.825</v>
-      </c>
-      <c r="S248">
-        <v>2.025</v>
-      </c>
-      <c r="T248">
-        <v>2.25</v>
-      </c>
-      <c r="U248">
-        <v>1.925</v>
-      </c>
-      <c r="V248">
-        <v>1.925</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22554,7 +22554,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6978391</v>
+        <v>6978463</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22563,49 +22563,49 @@
         <v>28</v>
       </c>
       <c r="E249" s="2">
-        <v>45402.48958333334</v>
+        <v>45403.38541666666</v>
       </c>
       <c r="F249" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G249" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K249">
-        <v>10</v>
+        <v>1.909</v>
       </c>
       <c r="L249">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M249">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="N249">
-        <v>11</v>
+        <v>1.8</v>
       </c>
       <c r="O249">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P249">
-        <v>1.222</v>
+        <v>4.75</v>
       </c>
       <c r="Q249">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R249">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S249">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T249">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U249">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V249">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22628,7 +22628,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6978462</v>
+        <v>6978464</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22637,49 +22637,49 @@
         <v>28</v>
       </c>
       <c r="E250" s="2">
-        <v>45402.59375</v>
+        <v>45403.48958333334</v>
       </c>
       <c r="F250" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G250" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K250">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="L250">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M250">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="N250">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="O250">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P250">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="Q250">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R250">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S250">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T250">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U250">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V250">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W250">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6978463</v>
+        <v>6978460</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22711,50 +22711,50 @@
         <v>28</v>
       </c>
       <c r="E251" s="2">
-        <v>45403.38541666666</v>
+        <v>45403.59375</v>
       </c>
       <c r="F251" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G251" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K251">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="L251">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="N251">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="O251">
         <v>3.5</v>
       </c>
       <c r="P251">
-        <v>4.333</v>
+        <v>1.7</v>
       </c>
       <c r="Q251">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R251">
+        <v>1.975</v>
+      </c>
+      <c r="S251">
+        <v>1.875</v>
+      </c>
+      <c r="T251">
+        <v>2.5</v>
+      </c>
+      <c r="U251">
+        <v>2.025</v>
+      </c>
+      <c r="V251">
         <v>1.825</v>
       </c>
-      <c r="S251">
-        <v>2.025</v>
-      </c>
-      <c r="T251">
-        <v>2.25</v>
-      </c>
-      <c r="U251">
-        <v>1.825</v>
-      </c>
-      <c r="V251">
-        <v>2.025</v>
-      </c>
       <c r="W251">
         <v>0</v>
       </c>
@@ -22768,154 +22768,6 @@
         <v>0</v>
       </c>
       <c r="AA251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:29">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252">
-        <v>6978464</v>
-      </c>
-      <c r="C252" t="s">
-        <v>28</v>
-      </c>
-      <c r="D252" t="s">
-        <v>28</v>
-      </c>
-      <c r="E252" s="2">
-        <v>45403.48958333334</v>
-      </c>
-      <c r="F252" t="s">
-        <v>29</v>
-      </c>
-      <c r="G252" t="s">
-        <v>36</v>
-      </c>
-      <c r="K252">
-        <v>2.6</v>
-      </c>
-      <c r="L252">
-        <v>3.2</v>
-      </c>
-      <c r="M252">
-        <v>2.75</v>
-      </c>
-      <c r="N252">
-        <v>3.75</v>
-      </c>
-      <c r="O252">
-        <v>3.4</v>
-      </c>
-      <c r="P252">
-        <v>1.909</v>
-      </c>
-      <c r="Q252">
-        <v>0.5</v>
-      </c>
-      <c r="R252">
-        <v>1.875</v>
-      </c>
-      <c r="S252">
-        <v>1.975</v>
-      </c>
-      <c r="T252">
-        <v>2.25</v>
-      </c>
-      <c r="U252">
-        <v>1.925</v>
-      </c>
-      <c r="V252">
-        <v>1.925</v>
-      </c>
-      <c r="W252">
-        <v>0</v>
-      </c>
-      <c r="X252">
-        <v>0</v>
-      </c>
-      <c r="Y252">
-        <v>0</v>
-      </c>
-      <c r="Z252">
-        <v>0</v>
-      </c>
-      <c r="AA252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:29">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253">
-        <v>6978460</v>
-      </c>
-      <c r="C253" t="s">
-        <v>28</v>
-      </c>
-      <c r="D253" t="s">
-        <v>28</v>
-      </c>
-      <c r="E253" s="2">
-        <v>45403.59375</v>
-      </c>
-      <c r="F253" t="s">
-        <v>30</v>
-      </c>
-      <c r="G253" t="s">
-        <v>32</v>
-      </c>
-      <c r="K253">
-        <v>5.5</v>
-      </c>
-      <c r="L253">
-        <v>3.6</v>
-      </c>
-      <c r="M253">
-        <v>1.65</v>
-      </c>
-      <c r="N253">
-        <v>5.5</v>
-      </c>
-      <c r="O253">
-        <v>3.6</v>
-      </c>
-      <c r="P253">
-        <v>1.615</v>
-      </c>
-      <c r="Q253">
-        <v>0.75</v>
-      </c>
-      <c r="R253">
-        <v>2.025</v>
-      </c>
-      <c r="S253">
-        <v>1.825</v>
-      </c>
-      <c r="T253">
-        <v>2.25</v>
-      </c>
-      <c r="U253">
-        <v>1.8</v>
-      </c>
-      <c r="V253">
-        <v>2.05</v>
-      </c>
-      <c r="W253">
-        <v>0</v>
-      </c>
-      <c r="X253">
-        <v>0</v>
-      </c>
-      <c r="Y253">
-        <v>0</v>
-      </c>
-      <c r="Z253">
-        <v>0</v>
-      </c>
-      <c r="AA253">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -121,19 +121,19 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
+    <t>Slavia Sofia</t>
+  </si>
+  <si>
     <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Slavia Sofia</t>
-  </si>
-  <si>
-    <t>Levski Sofia</t>
+    <t>Cherno More Varna</t>
   </si>
   <si>
     <t>CSKA 1948 Sofia</t>
   </si>
   <si>
-    <t>Cherno More Varna</t>
+    <t>Levski Sofia</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC251"/>
+  <dimension ref="A1:AC253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M8">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="N8">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="O8">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P8">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="N9">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="O9">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P9">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
+        <v>2.025</v>
+      </c>
+      <c r="T9">
+        <v>3.25</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
-      <c r="U9">
-        <v>1.875</v>
-      </c>
-      <c r="V9">
-        <v>1.975</v>
-      </c>
       <c r="W9">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
         <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627725</v>
+        <v>6627290</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,53 +1343,53 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
       </c>
       <c r="K10">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="N10">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P10">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1.85</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
         <v>1.825</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>2.025</v>
       </c>
-      <c r="T10">
-        <v>2.25</v>
-      </c>
-      <c r="U10">
-        <v>1.85</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
@@ -1397,19 +1397,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
+        <v>-0</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>1.025</v>
-      </c>
-      <c r="AB10">
-        <v>-0.5</v>
-      </c>
-      <c r="AC10">
-        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627290</v>
+        <v>6627725</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,52 +1521,52 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
+        <v>2.025</v>
+      </c>
+      <c r="T12">
+        <v>2.25</v>
+      </c>
+      <c r="U12">
         <v>1.85</v>
       </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1575,19 +1575,19 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.55</v>
+        <v>1.8</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1607,7 +1607,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1874,7 +1874,7 @@
         <v>45122.53125</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>38</v>
@@ -1966,7 +1966,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2586,10 +2586,10 @@
         <v>45129.55208333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>45130.54166666666</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -2945,7 +2945,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3565,7 +3565,7 @@
         <v>45142.54166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
         <v>42</v>
@@ -3654,7 +3654,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4544,10 +4544,10 @@
         <v>45150.63541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>45151.53125</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
         <v>43</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>41</v>
@@ -5434,7 +5434,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5882,7 +5882,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5971,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>45166.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
         <v>38</v>
@@ -6327,7 +6327,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
         <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6769,7 +6769,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
         <v>34</v>
@@ -6858,7 +6858,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
         <v>40</v>
@@ -7036,7 +7036,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>44</v>
@@ -7125,7 +7125,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7217,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7751,7 +7751,7 @@
         <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7837,7 +7837,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -8018,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8104,7 +8104,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
         <v>42</v>
@@ -8460,10 +8460,10 @@
         <v>45195.5625</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8638,10 +8638,10 @@
         <v>45196.5</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>44</v>
@@ -9353,7 +9353,7 @@
         <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10151,7 +10151,7 @@
         <v>45206.59375</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10332,7 +10332,7 @@
         <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10688,7 +10688,7 @@
         <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10955,7 +10955,7 @@
         <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11041,10 +11041,10 @@
         <v>45221.4375</v>
       </c>
       <c r="F119" t="s">
+        <v>39</v>
+      </c>
+      <c r="G119" t="s">
         <v>37</v>
-      </c>
-      <c r="G119" t="s">
-        <v>39</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11308,7 +11308,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11397,7 +11397,7 @@
         <v>45225.375</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11575,7 +11575,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -11756,7 +11756,7 @@
         <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12023,7 +12023,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12287,7 +12287,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12554,7 +12554,7 @@
         <v>45236.4375</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -12732,7 +12732,7 @@
         <v>45237.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -12824,7 +12824,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
         <v>43</v>
@@ -13091,7 +13091,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13444,10 +13444,10 @@
         <v>45242.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13800,7 +13800,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
         <v>40</v>
@@ -13978,7 +13978,7 @@
         <v>45256.53125</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G152" t="s">
         <v>41</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14248,7 +14248,7 @@
         <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14337,7 +14337,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>32</v>
@@ -14604,7 +14604,7 @@
         <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14690,7 +14690,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -15135,10 +15135,10 @@
         <v>45269.41666666666</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -15227,7 +15227,7 @@
         <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15402,7 +15402,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>34</v>
@@ -15939,7 +15939,7 @@
         <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>44</v>
@@ -16117,7 +16117,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16473,7 +16473,7 @@
         <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16648,7 +16648,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
         <v>42</v>
@@ -16826,7 +16826,7 @@
         <v>45346.42708333334</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16915,7 +16915,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -17096,7 +17096,7 @@
         <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17271,7 +17271,7 @@
         <v>45352.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
         <v>43</v>
@@ -17538,10 +17538,10 @@
         <v>45353.53125</v>
       </c>
       <c r="F192" t="s">
+        <v>35</v>
+      </c>
+      <c r="G192" t="s">
         <v>36</v>
-      </c>
-      <c r="G192" t="s">
-        <v>35</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17897,7 +17897,7 @@
         <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -18075,7 +18075,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18253,7 +18253,7 @@
         <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18428,7 +18428,7 @@
         <v>45361.42708333334</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G202" t="s">
         <v>41</v>
@@ -18517,7 +18517,7 @@
         <v>45361.53125</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
         <v>33</v>
@@ -18784,7 +18784,7 @@
         <v>45366.57291666666</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G206" t="s">
         <v>38</v>
@@ -18873,7 +18873,7 @@
         <v>45367.32291666666</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
         <v>31</v>
@@ -18965,7 +18965,7 @@
         <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19321,7 +19321,7 @@
         <v>32</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -19585,10 +19585,10 @@
         <v>45380.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19941,10 +19941,10 @@
         <v>45382.4375</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -20208,7 +20208,7 @@
         <v>45384.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
         <v>40</v>
@@ -20478,7 +20478,7 @@
         <v>33</v>
       </c>
       <c r="G225" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H225">
         <v>5</v>
@@ -20656,7 +20656,7 @@
         <v>44</v>
       </c>
       <c r="G227" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20742,7 +20742,7 @@
         <v>45386.5625</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
         <v>29</v>
@@ -20923,7 +20923,7 @@
         <v>30</v>
       </c>
       <c r="G230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21009,7 +21009,7 @@
         <v>45389.36458333334</v>
       </c>
       <c r="F231" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G231" t="s">
         <v>32</v>
@@ -21098,7 +21098,7 @@
         <v>45389.48958333334</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G232" t="s">
         <v>38</v>
@@ -21368,7 +21368,7 @@
         <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21632,7 +21632,7 @@
         <v>45394.48958333334</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
         <v>43</v>
@@ -21810,7 +21810,7 @@
         <v>45395.48958333334</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G240" t="s">
         <v>34</v>
@@ -21899,10 +21899,10 @@
         <v>45395.59375</v>
       </c>
       <c r="F241" t="s">
+        <v>37</v>
+      </c>
+      <c r="G241" t="s">
         <v>39</v>
-      </c>
-      <c r="G241" t="s">
-        <v>37</v>
       </c>
       <c r="H241">
         <v>3</v>
@@ -22332,7 +22332,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6978461</v>
+        <v>6978458</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22341,64 +22341,79 @@
         <v>28</v>
       </c>
       <c r="E246" s="2">
-        <v>45402.38541666666</v>
+        <v>45401.47916666666</v>
       </c>
       <c r="F246" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G246" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="H246">
+        <v>2</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246" t="s">
+        <v>46</v>
       </c>
       <c r="K246">
-        <v>5.75</v>
+        <v>1.8</v>
       </c>
       <c r="L246">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M246">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="N246">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="O246">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P246">
-        <v>1.55</v>
+        <v>5.25</v>
       </c>
       <c r="Q246">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R246">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S246">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T246">
         <v>2.25</v>
       </c>
       <c r="U246">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V246">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W246">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA246">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB246">
+        <v>-0.5</v>
+      </c>
+      <c r="AC246">
+        <v>0.5125</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22406,7 +22421,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6978391</v>
+        <v>6978459</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22415,64 +22430,79 @@
         <v>28</v>
       </c>
       <c r="E247" s="2">
-        <v>45402.48958333334</v>
+        <v>45401.58333333334</v>
       </c>
       <c r="F247" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G247" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="H247">
+        <v>2</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247" t="s">
+        <v>46</v>
       </c>
       <c r="K247">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="L247">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="M247">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="N247">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="O247">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P247">
-        <v>1.222</v>
+        <v>2.5</v>
       </c>
       <c r="Q247">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R247">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S247">
+        <v>1.8</v>
+      </c>
+      <c r="T247">
+        <v>2</v>
+      </c>
+      <c r="U247">
+        <v>1.95</v>
+      </c>
+      <c r="V247">
+        <v>1.9</v>
+      </c>
+      <c r="W247">
         <v>1.875</v>
       </c>
-      <c r="T247">
-        <v>3</v>
-      </c>
-      <c r="U247">
-        <v>1.875</v>
-      </c>
-      <c r="V247">
-        <v>1.975</v>
-      </c>
-      <c r="W247">
-        <v>0</v>
-      </c>
       <c r="X247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA247">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB247">
+        <v>0</v>
+      </c>
+      <c r="AC247">
+        <v>-0</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22480,7 +22510,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6978462</v>
+        <v>6978461</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22489,49 +22519,49 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45402.59375</v>
+        <v>45402.38541666666</v>
       </c>
       <c r="F248" t="s">
+        <v>40</v>
+      </c>
+      <c r="G248" t="s">
         <v>37</v>
       </c>
-      <c r="G248" t="s">
-        <v>44</v>
-      </c>
       <c r="K248">
-        <v>1.444</v>
+        <v>5.75</v>
       </c>
       <c r="L248">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M248">
-        <v>7.5</v>
+        <v>1.6</v>
       </c>
       <c r="N248">
-        <v>1.363</v>
+        <v>6.5</v>
       </c>
       <c r="O248">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P248">
-        <v>8</v>
+        <v>1.55</v>
       </c>
       <c r="Q248">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R248">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S248">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U248">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V248">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22554,7 +22584,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6978463</v>
+        <v>6978391</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22563,49 +22593,49 @@
         <v>28</v>
       </c>
       <c r="E249" s="2">
-        <v>45403.38541666666</v>
+        <v>45402.48958333334</v>
       </c>
       <c r="F249" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G249" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K249">
-        <v>1.909</v>
+        <v>10</v>
       </c>
       <c r="L249">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M249">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="N249">
-        <v>1.8</v>
+        <v>11</v>
       </c>
       <c r="O249">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P249">
-        <v>4.75</v>
+        <v>1.222</v>
       </c>
       <c r="Q249">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="R249">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S249">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T249">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U249">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V249">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22628,7 +22658,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6978464</v>
+        <v>6978462</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22637,49 +22667,49 @@
         <v>28</v>
       </c>
       <c r="E250" s="2">
-        <v>45403.48958333334</v>
+        <v>45402.59375</v>
       </c>
       <c r="F250" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G250" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K250">
-        <v>2.6</v>
+        <v>1.444</v>
       </c>
       <c r="L250">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M250">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="N250">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="O250">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P250">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q250">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R250">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S250">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T250">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U250">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V250">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W250">
         <v>0</v>
@@ -22702,7 +22732,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6978460</v>
+        <v>6978463</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22711,63 +22741,211 @@
         <v>28</v>
       </c>
       <c r="E251" s="2">
-        <v>45403.59375</v>
+        <v>45403.38541666666</v>
       </c>
       <c r="F251" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G251" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K251">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="L251">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M251">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="N251">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="O251">
         <v>3.5</v>
       </c>
       <c r="P251">
+        <v>4.75</v>
+      </c>
+      <c r="Q251">
+        <v>-0.75</v>
+      </c>
+      <c r="R251">
+        <v>2.05</v>
+      </c>
+      <c r="S251">
+        <v>1.8</v>
+      </c>
+      <c r="T251">
+        <v>2.25</v>
+      </c>
+      <c r="U251">
+        <v>1.8</v>
+      </c>
+      <c r="V251">
+        <v>2.05</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <v>0</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AA251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>6978464</v>
+      </c>
+      <c r="C252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45403.48958333334</v>
+      </c>
+      <c r="F252" t="s">
+        <v>29</v>
+      </c>
+      <c r="G252" t="s">
+        <v>36</v>
+      </c>
+      <c r="K252">
+        <v>2.6</v>
+      </c>
+      <c r="L252">
+        <v>3.2</v>
+      </c>
+      <c r="M252">
+        <v>2.75</v>
+      </c>
+      <c r="N252">
+        <v>3.8</v>
+      </c>
+      <c r="O252">
+        <v>3.5</v>
+      </c>
+      <c r="P252">
+        <v>2</v>
+      </c>
+      <c r="Q252">
+        <v>0.5</v>
+      </c>
+      <c r="R252">
+        <v>1.85</v>
+      </c>
+      <c r="S252">
+        <v>2</v>
+      </c>
+      <c r="T252">
+        <v>2.25</v>
+      </c>
+      <c r="U252">
+        <v>1.925</v>
+      </c>
+      <c r="V252">
+        <v>1.925</v>
+      </c>
+      <c r="W252">
+        <v>0</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+      <c r="Y252">
+        <v>0</v>
+      </c>
+      <c r="Z252">
+        <v>0</v>
+      </c>
+      <c r="AA252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>6978460</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" t="s">
+        <v>28</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45403.59375</v>
+      </c>
+      <c r="F253" t="s">
+        <v>30</v>
+      </c>
+      <c r="G253" t="s">
+        <v>32</v>
+      </c>
+      <c r="K253">
+        <v>5.5</v>
+      </c>
+      <c r="L253">
+        <v>3.6</v>
+      </c>
+      <c r="M253">
+        <v>1.65</v>
+      </c>
+      <c r="N253">
+        <v>5.5</v>
+      </c>
+      <c r="O253">
+        <v>3.5</v>
+      </c>
+      <c r="P253">
         <v>1.7</v>
       </c>
-      <c r="Q251">
+      <c r="Q253">
         <v>0.75</v>
       </c>
-      <c r="R251">
+      <c r="R253">
         <v>1.975</v>
       </c>
-      <c r="S251">
+      <c r="S253">
         <v>1.875</v>
       </c>
-      <c r="T251">
+      <c r="T253">
         <v>2.5</v>
       </c>
-      <c r="U251">
+      <c r="U253">
         <v>2.025</v>
       </c>
-      <c r="V251">
+      <c r="V253">
         <v>1.825</v>
       </c>
-      <c r="W251">
-        <v>0</v>
-      </c>
-      <c r="X251">
-        <v>0</v>
-      </c>
-      <c r="Y251">
-        <v>0</v>
-      </c>
-      <c r="Z251">
-        <v>0</v>
-      </c>
-      <c r="AA251">
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>0</v>
+      </c>
+      <c r="Z253">
+        <v>0</v>
+      </c>
+      <c r="AA253">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC253"/>
+  <dimension ref="A1:AC248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22510,7 +22510,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6978461</v>
+        <v>6978460</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22519,49 +22519,49 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45402.38541666666</v>
+        <v>45403.59375</v>
       </c>
       <c r="F248" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G248" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K248">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="L248">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M248">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="N248">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="O248">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P248">
-        <v>1.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q248">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R248">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S248">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T248">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U248">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V248">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22576,376 +22576,6 @@
         <v>0</v>
       </c>
       <c r="AA248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:29">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249">
-        <v>6978391</v>
-      </c>
-      <c r="C249" t="s">
-        <v>28</v>
-      </c>
-      <c r="D249" t="s">
-        <v>28</v>
-      </c>
-      <c r="E249" s="2">
-        <v>45402.48958333334</v>
-      </c>
-      <c r="F249" t="s">
-        <v>34</v>
-      </c>
-      <c r="G249" t="s">
-        <v>33</v>
-      </c>
-      <c r="K249">
-        <v>10</v>
-      </c>
-      <c r="L249">
-        <v>6</v>
-      </c>
-      <c r="M249">
-        <v>1.25</v>
-      </c>
-      <c r="N249">
-        <v>11</v>
-      </c>
-      <c r="O249">
-        <v>6.5</v>
-      </c>
-      <c r="P249">
-        <v>1.222</v>
-      </c>
-      <c r="Q249">
-        <v>1.75</v>
-      </c>
-      <c r="R249">
-        <v>1.975</v>
-      </c>
-      <c r="S249">
-        <v>1.875</v>
-      </c>
-      <c r="T249">
-        <v>3</v>
-      </c>
-      <c r="U249">
-        <v>1.875</v>
-      </c>
-      <c r="V249">
-        <v>1.975</v>
-      </c>
-      <c r="W249">
-        <v>0</v>
-      </c>
-      <c r="X249">
-        <v>0</v>
-      </c>
-      <c r="Y249">
-        <v>0</v>
-      </c>
-      <c r="Z249">
-        <v>0</v>
-      </c>
-      <c r="AA249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:29">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250">
-        <v>6978462</v>
-      </c>
-      <c r="C250" t="s">
-        <v>28</v>
-      </c>
-      <c r="D250" t="s">
-        <v>28</v>
-      </c>
-      <c r="E250" s="2">
-        <v>45402.59375</v>
-      </c>
-      <c r="F250" t="s">
-        <v>39</v>
-      </c>
-      <c r="G250" t="s">
-        <v>44</v>
-      </c>
-      <c r="K250">
-        <v>1.444</v>
-      </c>
-      <c r="L250">
-        <v>4.2</v>
-      </c>
-      <c r="M250">
-        <v>7.5</v>
-      </c>
-      <c r="N250">
-        <v>1.363</v>
-      </c>
-      <c r="O250">
-        <v>4.75</v>
-      </c>
-      <c r="P250">
-        <v>8</v>
-      </c>
-      <c r="Q250">
-        <v>-1.25</v>
-      </c>
-      <c r="R250">
-        <v>1.875</v>
-      </c>
-      <c r="S250">
-        <v>1.975</v>
-      </c>
-      <c r="T250">
-        <v>2.5</v>
-      </c>
-      <c r="U250">
-        <v>2.025</v>
-      </c>
-      <c r="V250">
-        <v>1.825</v>
-      </c>
-      <c r="W250">
-        <v>0</v>
-      </c>
-      <c r="X250">
-        <v>0</v>
-      </c>
-      <c r="Y250">
-        <v>0</v>
-      </c>
-      <c r="Z250">
-        <v>0</v>
-      </c>
-      <c r="AA250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:29">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251">
-        <v>6978463</v>
-      </c>
-      <c r="C251" t="s">
-        <v>28</v>
-      </c>
-      <c r="D251" t="s">
-        <v>28</v>
-      </c>
-      <c r="E251" s="2">
-        <v>45403.38541666666</v>
-      </c>
-      <c r="F251" t="s">
-        <v>31</v>
-      </c>
-      <c r="G251" t="s">
-        <v>38</v>
-      </c>
-      <c r="K251">
-        <v>1.909</v>
-      </c>
-      <c r="L251">
-        <v>3.4</v>
-      </c>
-      <c r="M251">
-        <v>4</v>
-      </c>
-      <c r="N251">
-        <v>1.8</v>
-      </c>
-      <c r="O251">
-        <v>3.5</v>
-      </c>
-      <c r="P251">
-        <v>4.75</v>
-      </c>
-      <c r="Q251">
-        <v>-0.75</v>
-      </c>
-      <c r="R251">
-        <v>2.05</v>
-      </c>
-      <c r="S251">
-        <v>1.8</v>
-      </c>
-      <c r="T251">
-        <v>2.25</v>
-      </c>
-      <c r="U251">
-        <v>1.8</v>
-      </c>
-      <c r="V251">
-        <v>2.05</v>
-      </c>
-      <c r="W251">
-        <v>0</v>
-      </c>
-      <c r="X251">
-        <v>0</v>
-      </c>
-      <c r="Y251">
-        <v>0</v>
-      </c>
-      <c r="Z251">
-        <v>0</v>
-      </c>
-      <c r="AA251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:29">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252">
-        <v>6978464</v>
-      </c>
-      <c r="C252" t="s">
-        <v>28</v>
-      </c>
-      <c r="D252" t="s">
-        <v>28</v>
-      </c>
-      <c r="E252" s="2">
-        <v>45403.48958333334</v>
-      </c>
-      <c r="F252" t="s">
-        <v>29</v>
-      </c>
-      <c r="G252" t="s">
-        <v>36</v>
-      </c>
-      <c r="K252">
-        <v>2.6</v>
-      </c>
-      <c r="L252">
-        <v>3.2</v>
-      </c>
-      <c r="M252">
-        <v>2.75</v>
-      </c>
-      <c r="N252">
-        <v>3.8</v>
-      </c>
-      <c r="O252">
-        <v>3.5</v>
-      </c>
-      <c r="P252">
-        <v>2</v>
-      </c>
-      <c r="Q252">
-        <v>0.5</v>
-      </c>
-      <c r="R252">
-        <v>1.85</v>
-      </c>
-      <c r="S252">
-        <v>2</v>
-      </c>
-      <c r="T252">
-        <v>2.25</v>
-      </c>
-      <c r="U252">
-        <v>1.925</v>
-      </c>
-      <c r="V252">
-        <v>1.925</v>
-      </c>
-      <c r="W252">
-        <v>0</v>
-      </c>
-      <c r="X252">
-        <v>0</v>
-      </c>
-      <c r="Y252">
-        <v>0</v>
-      </c>
-      <c r="Z252">
-        <v>0</v>
-      </c>
-      <c r="AA252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:29">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253">
-        <v>6978460</v>
-      </c>
-      <c r="C253" t="s">
-        <v>28</v>
-      </c>
-      <c r="D253" t="s">
-        <v>28</v>
-      </c>
-      <c r="E253" s="2">
-        <v>45403.59375</v>
-      </c>
-      <c r="F253" t="s">
-        <v>30</v>
-      </c>
-      <c r="G253" t="s">
-        <v>32</v>
-      </c>
-      <c r="K253">
-        <v>5.5</v>
-      </c>
-      <c r="L253">
-        <v>3.6</v>
-      </c>
-      <c r="M253">
-        <v>1.65</v>
-      </c>
-      <c r="N253">
-        <v>5.5</v>
-      </c>
-      <c r="O253">
-        <v>3.5</v>
-      </c>
-      <c r="P253">
-        <v>1.7</v>
-      </c>
-      <c r="Q253">
-        <v>0.75</v>
-      </c>
-      <c r="R253">
-        <v>1.975</v>
-      </c>
-      <c r="S253">
-        <v>1.875</v>
-      </c>
-      <c r="T253">
-        <v>2.5</v>
-      </c>
-      <c r="U253">
-        <v>2.025</v>
-      </c>
-      <c r="V253">
-        <v>1.825</v>
-      </c>
-      <c r="W253">
-        <v>0</v>
-      </c>
-      <c r="X253">
-        <v>0</v>
-      </c>
-      <c r="Y253">
-        <v>0</v>
-      </c>
-      <c r="Z253">
-        <v>0</v>
-      </c>
-      <c r="AA253">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC248"/>
+  <dimension ref="A1:AC252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22510,7 +22510,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6978460</v>
+        <v>6978461</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22519,63 +22519,419 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45403.59375</v>
+        <v>45402.38541666666</v>
       </c>
       <c r="F248" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G248" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248" t="s">
+        <v>47</v>
       </c>
       <c r="K248">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="L248">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M248">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="N248">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="O248">
         <v>3.6</v>
       </c>
       <c r="P248">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="Q248">
         <v>0.75</v>
       </c>
       <c r="R248">
+        <v>2.05</v>
+      </c>
+      <c r="S248">
+        <v>1.8</v>
+      </c>
+      <c r="T248">
+        <v>2.25</v>
+      </c>
+      <c r="U248">
         <v>1.975</v>
       </c>
-      <c r="S248">
+      <c r="V248">
         <v>1.875</v>
       </c>
-      <c r="T248">
+      <c r="W248">
+        <v>-1</v>
+      </c>
+      <c r="X248">
+        <v>2.6</v>
+      </c>
+      <c r="Y248">
+        <v>-1</v>
+      </c>
+      <c r="Z248">
+        <v>1.05</v>
+      </c>
+      <c r="AA248">
+        <v>-1</v>
+      </c>
+      <c r="AB248">
+        <v>-1</v>
+      </c>
+      <c r="AC248">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>6978391</v>
+      </c>
+      <c r="C249" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249" t="s">
+        <v>28</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45402.48958333334</v>
+      </c>
+      <c r="F249" t="s">
+        <v>34</v>
+      </c>
+      <c r="G249" t="s">
+        <v>33</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>3</v>
+      </c>
+      <c r="J249" t="s">
+        <v>45</v>
+      </c>
+      <c r="K249">
+        <v>10</v>
+      </c>
+      <c r="L249">
+        <v>6</v>
+      </c>
+      <c r="M249">
+        <v>1.25</v>
+      </c>
+      <c r="N249">
+        <v>12</v>
+      </c>
+      <c r="O249">
+        <v>7</v>
+      </c>
+      <c r="P249">
+        <v>1.222</v>
+      </c>
+      <c r="Q249">
+        <v>1.75</v>
+      </c>
+      <c r="R249">
+        <v>2.05</v>
+      </c>
+      <c r="S249">
+        <v>1.8</v>
+      </c>
+      <c r="T249">
+        <v>3</v>
+      </c>
+      <c r="U249">
+        <v>1.9</v>
+      </c>
+      <c r="V249">
+        <v>1.95</v>
+      </c>
+      <c r="W249">
+        <v>-1</v>
+      </c>
+      <c r="X249">
+        <v>-1</v>
+      </c>
+      <c r="Y249">
+        <v>0.222</v>
+      </c>
+      <c r="Z249">
+        <v>-1</v>
+      </c>
+      <c r="AA249">
+        <v>0.8</v>
+      </c>
+      <c r="AB249">
+        <v>0</v>
+      </c>
+      <c r="AC249">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>6978462</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" t="s">
+        <v>28</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45402.59375</v>
+      </c>
+      <c r="F250" t="s">
+        <v>39</v>
+      </c>
+      <c r="G250" t="s">
+        <v>44</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250" t="s">
+        <v>46</v>
+      </c>
+      <c r="K250">
+        <v>1.444</v>
+      </c>
+      <c r="L250">
+        <v>4.2</v>
+      </c>
+      <c r="M250">
+        <v>7.5</v>
+      </c>
+      <c r="N250">
+        <v>1.285</v>
+      </c>
+      <c r="O250">
+        <v>5.25</v>
+      </c>
+      <c r="P250">
+        <v>9.5</v>
+      </c>
+      <c r="Q250">
+        <v>-1.5</v>
+      </c>
+      <c r="R250">
+        <v>1.925</v>
+      </c>
+      <c r="S250">
+        <v>1.925</v>
+      </c>
+      <c r="T250">
         <v>2.5</v>
       </c>
-      <c r="U248">
+      <c r="U250">
+        <v>1.975</v>
+      </c>
+      <c r="V250">
+        <v>1.875</v>
+      </c>
+      <c r="W250">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X250">
+        <v>-1</v>
+      </c>
+      <c r="Y250">
+        <v>-1</v>
+      </c>
+      <c r="Z250">
+        <v>-1</v>
+      </c>
+      <c r="AA250">
+        <v>0.925</v>
+      </c>
+      <c r="AB250">
+        <v>-1</v>
+      </c>
+      <c r="AC250">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>6978463</v>
+      </c>
+      <c r="C251" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251" t="s">
+        <v>28</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45403.38541666666</v>
+      </c>
+      <c r="F251" t="s">
+        <v>31</v>
+      </c>
+      <c r="G251" t="s">
+        <v>38</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251" t="s">
+        <v>47</v>
+      </c>
+      <c r="K251">
+        <v>1.909</v>
+      </c>
+      <c r="L251">
+        <v>3.4</v>
+      </c>
+      <c r="M251">
+        <v>4</v>
+      </c>
+      <c r="N251">
+        <v>1.85</v>
+      </c>
+      <c r="O251">
+        <v>3.5</v>
+      </c>
+      <c r="P251">
+        <v>4.5</v>
+      </c>
+      <c r="Q251">
+        <v>-0.5</v>
+      </c>
+      <c r="R251">
+        <v>1.85</v>
+      </c>
+      <c r="S251">
+        <v>2</v>
+      </c>
+      <c r="T251">
+        <v>2.5</v>
+      </c>
+      <c r="U251">
+        <v>1.975</v>
+      </c>
+      <c r="V251">
+        <v>1.875</v>
+      </c>
+      <c r="W251">
+        <v>-1</v>
+      </c>
+      <c r="X251">
+        <v>2.5</v>
+      </c>
+      <c r="Y251">
+        <v>-1</v>
+      </c>
+      <c r="Z251">
+        <v>-1</v>
+      </c>
+      <c r="AA251">
+        <v>1</v>
+      </c>
+      <c r="AB251">
+        <v>-1</v>
+      </c>
+      <c r="AC251">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>6978460</v>
+      </c>
+      <c r="C252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45403.59375</v>
+      </c>
+      <c r="F252" t="s">
+        <v>30</v>
+      </c>
+      <c r="G252" t="s">
+        <v>32</v>
+      </c>
+      <c r="K252">
+        <v>5.5</v>
+      </c>
+      <c r="L252">
+        <v>3.6</v>
+      </c>
+      <c r="M252">
+        <v>1.65</v>
+      </c>
+      <c r="N252">
+        <v>5.25</v>
+      </c>
+      <c r="O252">
+        <v>3.6</v>
+      </c>
+      <c r="P252">
+        <v>1.666</v>
+      </c>
+      <c r="Q252">
+        <v>0.75</v>
+      </c>
+      <c r="R252">
+        <v>1.975</v>
+      </c>
+      <c r="S252">
+        <v>1.875</v>
+      </c>
+      <c r="T252">
+        <v>2.5</v>
+      </c>
+      <c r="U252">
         <v>1.925</v>
       </c>
-      <c r="V248">
+      <c r="V252">
         <v>1.925</v>
       </c>
-      <c r="W248">
-        <v>0</v>
-      </c>
-      <c r="X248">
-        <v>0</v>
-      </c>
-      <c r="Y248">
-        <v>0</v>
-      </c>
-      <c r="Z248">
-        <v>0</v>
-      </c>
-      <c r="AA248">
+      <c r="W252">
+        <v>0</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+      <c r="Y252">
+        <v>0</v>
+      </c>
+      <c r="Z252">
+        <v>0</v>
+      </c>
+      <c r="AA252">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -100,7 +100,25 @@
     <t>8129696</t>
   </si>
   <si>
+    <t>8129705</t>
+  </si>
+  <si>
     <t>8129612</t>
+  </si>
+  <si>
+    <t>8129603</t>
+  </si>
+  <si>
+    <t>8129510</t>
+  </si>
+  <si>
+    <t>8129608</t>
+  </si>
+  <si>
+    <t>8129613</t>
+  </si>
+  <si>
+    <t>8132670</t>
   </si>
   <si>
     <t>Bulgaria First League</t>
@@ -124,19 +142,19 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
-    <t>Slavia Sofia</t>
+    <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Botev Plovdiv</t>
+    <t>Slavia Sofia</t>
   </si>
   <si>
     <t>Levski Sofia</t>
   </si>
   <si>
-    <t>CSKA 1948 Sofia</t>
+    <t>Cherno More Varna</t>
   </si>
   <si>
-    <t>Cherno More Varna</t>
+    <t>CSKA 1948 Sofia</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -522,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB255"/>
+  <dimension ref="A1:AB261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,16 +637,16 @@
         <v>6627734</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
         <v>45078.47916666666</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -637,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J2">
         <v>2.2</v>
@@ -705,16 +723,16 @@
         <v>6627735</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2">
         <v>45078.58333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -723,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J3">
         <v>1.95</v>
@@ -791,16 +809,16 @@
         <v>6627722</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
         <v>45079.57291666666</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -809,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J4">
         <v>2.8</v>
@@ -877,16 +895,16 @@
         <v>6627723</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <v>45080.5</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -895,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J5">
         <v>1.65</v>
@@ -963,16 +981,16 @@
         <v>6627289</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
         <v>45080.60416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -981,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J6">
         <v>1.615</v>
@@ -1049,16 +1067,16 @@
         <v>6627751</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
         <v>45082.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1067,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -1132,85 +1150,85 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2">
         <v>45083.5625</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J8">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="K8">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L8">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="M8">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="N8">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="O8">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="P8">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R8">
+        <v>2.025</v>
+      </c>
+      <c r="S8">
+        <v>3.25</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
         <v>1.85</v>
       </c>
-      <c r="S8">
-        <v>2.25</v>
-      </c>
-      <c r="T8">
-        <v>1.875</v>
-      </c>
-      <c r="U8">
-        <v>1.975</v>
-      </c>
       <c r="V8">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA8">
         <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1218,85 +1236,85 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2">
         <v>45083.5625</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J9">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="K9">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L9">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="M9">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="N9">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="O9">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="P9">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
         <v>-0.5</v>
       </c>
       <c r="AB9">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1307,16 +1325,16 @@
         <v>6627725</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2">
         <v>45084.53125</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1325,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J10">
         <v>2.625</v>
@@ -1390,85 +1408,85 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6627724</v>
+        <v>6627290</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2">
         <v>45084.53125</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J11">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="K11">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L11">
+        <v>1.45</v>
+      </c>
+      <c r="M11">
         <v>6</v>
       </c>
-      <c r="M11">
-        <v>1.45</v>
-      </c>
       <c r="N11">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O11">
-        <v>8</v>
+        <v>1.55</v>
       </c>
       <c r="P11">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>1.85</v>
+      </c>
+      <c r="S11">
+        <v>2.75</v>
+      </c>
+      <c r="T11">
+        <v>1.825</v>
+      </c>
+      <c r="U11">
         <v>2.025</v>
       </c>
-      <c r="R11">
-        <v>1.825</v>
-      </c>
-      <c r="S11">
-        <v>2.5</v>
-      </c>
-      <c r="T11">
-        <v>1.85</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
       <c r="V11">
         <v>-1</v>
       </c>
       <c r="W11">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1476,85 +1494,85 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627290</v>
+        <v>6627724</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>45084.53125</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12">
+        <v>1.5</v>
+      </c>
+      <c r="K12">
+        <v>3.8</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>1.45</v>
+      </c>
+      <c r="N12">
+        <v>4.2</v>
+      </c>
+      <c r="O12">
+        <v>8</v>
+      </c>
+      <c r="P12">
+        <v>-1.25</v>
+      </c>
+      <c r="Q12">
+        <v>2.025</v>
+      </c>
+      <c r="R12">
+        <v>1.825</v>
+      </c>
+      <c r="S12">
+        <v>2.5</v>
+      </c>
+      <c r="T12">
+        <v>1.85</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>-1</v>
+      </c>
+      <c r="W12">
+        <v>3.2</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
+        <v>0.825</v>
+      </c>
+      <c r="AA12">
+        <v>-1</v>
+      </c>
+      <c r="AB12">
         <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12">
-        <v>6</v>
-      </c>
-      <c r="K12">
-        <v>4</v>
-      </c>
-      <c r="L12">
-        <v>1.45</v>
-      </c>
-      <c r="M12">
-        <v>6</v>
-      </c>
-      <c r="N12">
-        <v>4.333</v>
-      </c>
-      <c r="O12">
-        <v>1.55</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>2</v>
-      </c>
-      <c r="R12">
-        <v>1.85</v>
-      </c>
-      <c r="S12">
-        <v>2.75</v>
-      </c>
-      <c r="T12">
-        <v>1.825</v>
-      </c>
-      <c r="U12">
-        <v>2.025</v>
-      </c>
-      <c r="V12">
-        <v>-1</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>0.55</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
-      <c r="AB12">
-        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1565,16 +1583,16 @@
         <v>6749438</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2">
         <v>45088.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1583,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J13">
         <v>1.6</v>
@@ -1651,16 +1669,16 @@
         <v>6822366</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
         <v>45121.53125</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1669,7 +1687,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J14">
         <v>2.5</v>
@@ -1737,16 +1755,16 @@
         <v>6780988</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
         <v>45121.625</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1755,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J15">
         <v>11</v>
@@ -1823,16 +1841,16 @@
         <v>6780482</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2">
         <v>45122.53125</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1841,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -1909,16 +1927,16 @@
         <v>6824119</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>45122.625</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1927,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J17">
         <v>2.6</v>
@@ -1995,16 +2013,16 @@
         <v>6791826</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
         <v>45123.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2013,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J18">
         <v>2.5</v>
@@ -2081,16 +2099,16 @@
         <v>6824120</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2">
         <v>45123.625</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2099,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J19">
         <v>11</v>
@@ -2167,16 +2185,16 @@
         <v>6824118</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2">
         <v>45124.52083333334</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2185,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -2253,16 +2271,16 @@
         <v>6777643</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2">
         <v>45124.61458333334</v>
       </c>
       <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
         <v>43</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2271,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J21">
         <v>2.8</v>
@@ -2339,16 +2357,16 @@
         <v>6822367</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2357,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J22">
         <v>1.142</v>
@@ -2425,16 +2443,16 @@
         <v>6824122</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2">
         <v>45128.63541666666</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2443,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J23">
         <v>1.25</v>
@@ -2511,16 +2529,16 @@
         <v>6780483</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2">
         <v>45129.55208333334</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2529,7 +2547,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2597,16 +2615,16 @@
         <v>6831734</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2">
         <v>45129.64583333334</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2615,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J25">
         <v>1.1</v>
@@ -2683,16 +2701,16 @@
         <v>6824123</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2">
         <v>45130.54166666666</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2701,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J26">
         <v>1.5</v>
@@ -2769,16 +2787,16 @@
         <v>6824125</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2">
         <v>45130.63541666666</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2787,7 +2805,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -2855,16 +2873,16 @@
         <v>6824121</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2">
         <v>45131.54166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2873,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J28">
         <v>3.6</v>
@@ -2941,16 +2959,16 @@
         <v>6824124</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2">
         <v>45131.63541666666</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2959,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J29">
         <v>3.8</v>
@@ -3027,16 +3045,16 @@
         <v>6824128</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2">
         <v>45135.63541666666</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3045,7 +3063,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J30">
         <v>4.2</v>
@@ -3113,16 +3131,16 @@
         <v>6824127</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2">
         <v>45136.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3131,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J31">
         <v>2.4</v>
@@ -3199,16 +3217,16 @@
         <v>6791827</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3217,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J32">
         <v>2.8</v>
@@ -3285,16 +3303,16 @@
         <v>6780484</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2">
         <v>45137.63541666666</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -3303,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J33">
         <v>1.25</v>
@@ -3371,16 +3389,16 @@
         <v>6824126</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2">
         <v>45138.63541666666</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3389,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J34">
         <v>1.4</v>
@@ -3457,16 +3475,16 @@
         <v>6824132</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3475,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J35">
         <v>1.444</v>
@@ -3543,17 +3561,17 @@
         <v>6791828</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2">
         <v>45142.63541666666</v>
       </c>
       <c r="E36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" t="s">
         <v>37</v>
       </c>
-      <c r="F36" t="s">
-        <v>31</v>
-      </c>
       <c r="G36">
         <v>0</v>
       </c>
@@ -3561,7 +3579,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -3629,16 +3647,16 @@
         <v>6852041</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2">
         <v>45143.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3647,7 +3665,7 @@
         <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J37">
         <v>7.5</v>
@@ -3715,16 +3733,16 @@
         <v>6822368</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2">
         <v>45143.63541666666</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3733,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J38">
         <v>1.85</v>
@@ -3801,16 +3819,16 @@
         <v>6824131</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D39" s="2">
         <v>45144.53125</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3819,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J39">
         <v>1.5</v>
@@ -3887,16 +3905,16 @@
         <v>6780485</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D40" s="2">
         <v>45144.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3905,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J40">
         <v>3</v>
@@ -3973,16 +3991,16 @@
         <v>6826694</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2">
         <v>45145.54166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3991,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J41">
         <v>1.2</v>
@@ -4059,16 +4077,16 @@
         <v>6824133</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D42" s="2">
         <v>45145.63541666666</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4077,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J42">
         <v>1.909</v>
@@ -4145,16 +4163,16 @@
         <v>6824134</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4163,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J43">
         <v>1.75</v>
@@ -4231,16 +4249,16 @@
         <v>6822369</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2">
         <v>45149.63541666666</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4249,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J44">
         <v>4</v>
@@ -4317,16 +4335,16 @@
         <v>6791829</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2">
         <v>45150.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4335,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J45">
         <v>3.6</v>
@@ -4403,16 +4421,16 @@
         <v>6824136</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4421,7 +4439,7 @@
         <v>5</v>
       </c>
       <c r="I46" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J46">
         <v>2.4</v>
@@ -4489,16 +4507,16 @@
         <v>6780486</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D47" s="2">
         <v>45151.53125</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4507,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J47">
         <v>1.166</v>
@@ -4575,16 +4593,16 @@
         <v>6824137</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2">
         <v>45151.63541666666</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4593,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J48">
         <v>1.85</v>
@@ -4661,16 +4679,16 @@
         <v>6824135</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2">
         <v>45152.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4679,7 +4697,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J49">
         <v>2.6</v>
@@ -4747,16 +4765,16 @@
         <v>6826695</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D50" s="2">
         <v>45152.63541666666</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4765,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J50">
         <v>4.75</v>
@@ -4833,16 +4851,16 @@
         <v>6824141</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4851,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J51">
         <v>1.909</v>
@@ -4919,16 +4937,16 @@
         <v>6824142</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D52" s="2">
         <v>45156.63541666666</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4937,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J52">
         <v>2</v>
@@ -5005,16 +5023,16 @@
         <v>6824140</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D53" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5023,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J53">
         <v>2.8</v>
@@ -5091,16 +5109,16 @@
         <v>6824138</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D54" s="2">
         <v>45157.63541666666</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5109,7 +5127,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J54">
         <v>8.5</v>
@@ -5177,16 +5195,16 @@
         <v>6791830</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D55" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5195,7 +5213,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J55">
         <v>1.5</v>
@@ -5263,16 +5281,16 @@
         <v>6824139</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D56" s="2">
         <v>45158.63541666666</v>
       </c>
       <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" t="s">
         <v>40</v>
-      </c>
-      <c r="F56" t="s">
-        <v>34</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5281,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J56">
         <v>3.4</v>
@@ -5349,16 +5367,16 @@
         <v>6826696</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D57" s="2">
         <v>45159.60416666666</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5367,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J57">
         <v>1.222</v>
@@ -5435,16 +5453,16 @@
         <v>6822370</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D58" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5453,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J58">
         <v>2.25</v>
@@ -5521,16 +5539,16 @@
         <v>6824143</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D59" s="2">
         <v>45163.63541666666</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5539,7 +5557,7 @@
         <v>4</v>
       </c>
       <c r="I59" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J59">
         <v>3.6</v>
@@ -5607,16 +5625,16 @@
         <v>6824144</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D60" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5625,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J60">
         <v>2.05</v>
@@ -5693,16 +5711,16 @@
         <v>6824147</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D61" s="2">
         <v>45164.63541666666</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5711,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J61">
         <v>1.6</v>
@@ -5779,16 +5797,16 @@
         <v>6791831</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D62" s="2">
         <v>45165.54166666666</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5797,7 +5815,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J62">
         <v>2.9</v>
@@ -5865,16 +5883,16 @@
         <v>6824146</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D63" s="2">
         <v>45165.63541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G63">
         <v>5</v>
@@ -5883,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J63">
         <v>1.142</v>
@@ -5951,16 +5969,16 @@
         <v>6824145</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D64" s="2">
         <v>45166.60416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5969,7 +5987,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J64">
         <v>3.6</v>
@@ -6037,16 +6055,16 @@
         <v>6822371</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D65" s="2">
         <v>45170.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6055,7 +6073,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J65">
         <v>3.5</v>
@@ -6123,16 +6141,16 @@
         <v>6824148</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D66" s="2">
         <v>45170.55208333334</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6141,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -6209,16 +6227,16 @@
         <v>6791832</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D67" s="2">
         <v>45170.64583333334</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -6227,7 +6245,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J67">
         <v>2.15</v>
@@ -6295,16 +6313,16 @@
         <v>6824150</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D68" s="2">
         <v>45171.54166666666</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6313,7 +6331,7 @@
         <v>3</v>
       </c>
       <c r="I68" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J68">
         <v>1.909</v>
@@ -6381,16 +6399,16 @@
         <v>6824149</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D69" s="2">
         <v>45171.63541666666</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6399,7 +6417,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -6467,16 +6485,16 @@
         <v>6824151</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D70" s="2">
         <v>45172.54166666666</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G70">
         <v>4</v>
@@ -6485,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J70">
         <v>1.533</v>
@@ -6553,16 +6571,16 @@
         <v>6780489</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D71" s="2">
         <v>45172.63541666666</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6571,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J71">
         <v>1.2</v>
@@ -6639,16 +6657,16 @@
         <v>7158358</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D72" s="2">
         <v>45183.60416666666</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6657,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J72">
         <v>1.142</v>
@@ -6725,16 +6743,16 @@
         <v>7139599</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D73" s="2">
         <v>45184.47916666666</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G73">
         <v>4</v>
@@ -6743,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J73">
         <v>1.6</v>
@@ -6811,16 +6829,16 @@
         <v>7139606</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D74" s="2">
         <v>45184.58333333334</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6829,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J74">
         <v>1.571</v>
@@ -6897,16 +6915,16 @@
         <v>7139603</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D75" s="2">
         <v>45185.47916666666</v>
       </c>
       <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
         <v>36</v>
-      </c>
-      <c r="F75" t="s">
-        <v>30</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6915,7 +6933,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J75">
         <v>2.1</v>
@@ -6983,16 +7001,16 @@
         <v>7139604</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D76" s="2">
         <v>45185.58333333334</v>
       </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7001,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J76">
         <v>1.333</v>
@@ -7069,16 +7087,16 @@
         <v>7139602</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D77" s="2">
         <v>45186.48958333334</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7087,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J77">
         <v>3.6</v>
@@ -7155,16 +7173,16 @@
         <v>7139605</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D78" s="2">
         <v>45186.59375</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7173,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7241,16 +7259,16 @@
         <v>7139600</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D79" s="2">
         <v>45187.47916666666</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7259,7 +7277,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7327,16 +7345,16 @@
         <v>7139601</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D80" s="2">
         <v>45187.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7345,7 +7363,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J80">
         <v>5.5</v>
@@ -7413,16 +7431,16 @@
         <v>7179269</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D81" s="2">
         <v>45191.375</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7431,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J81">
         <v>2.5</v>
@@ -7499,16 +7517,16 @@
         <v>7179270</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D82" s="2">
         <v>45191.47916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7517,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J82">
         <v>1.95</v>
@@ -7585,16 +7603,16 @@
         <v>7179271</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D83" s="2">
         <v>45191.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7603,7 +7621,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J83">
         <v>3.6</v>
@@ -7671,16 +7689,16 @@
         <v>7179276</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D84" s="2">
         <v>45192.375</v>
       </c>
       <c r="E84" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7689,7 +7707,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J84">
         <v>1.7</v>
@@ -7757,16 +7775,16 @@
         <v>7179273</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D85" s="2">
         <v>45192.47916666666</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7775,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J85">
         <v>1.8</v>
@@ -7843,16 +7861,16 @@
         <v>7179274</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D86" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7861,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J86">
         <v>1.25</v>
@@ -7929,16 +7947,16 @@
         <v>7179275</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D87" s="2">
         <v>45193.5</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7947,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J87">
         <v>2.75</v>
@@ -8015,16 +8033,16 @@
         <v>7179272</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D88" s="2">
         <v>45193.60416666666</v>
       </c>
       <c r="E88" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8033,7 +8051,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J88">
         <v>8</v>
@@ -8101,16 +8119,16 @@
         <v>6824162</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D89" s="2">
         <v>45195.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8119,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J89">
         <v>4.75</v>
@@ -8187,16 +8205,16 @@
         <v>6791835</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D90" s="2">
         <v>45195.5625</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8205,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J90">
         <v>1.833</v>
@@ -8273,16 +8291,16 @@
         <v>6885560</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D91" s="2">
         <v>45196.39583333334</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8291,7 +8309,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J91">
         <v>1.95</v>
@@ -8359,16 +8377,16 @@
         <v>6780492</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D92" s="2">
         <v>45196.5</v>
       </c>
       <c r="E92" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8377,7 +8395,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J92">
         <v>4.333</v>
@@ -8445,16 +8463,16 @@
         <v>6824160</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D93" s="2">
         <v>45196.60416666666</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8463,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J93">
         <v>1.363</v>
@@ -8531,16 +8549,16 @@
         <v>6822374</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D94" s="2">
         <v>45197.39583333334</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8549,7 +8567,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J94">
         <v>1.909</v>
@@ -8617,16 +8635,16 @@
         <v>6852038</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D95" s="2">
         <v>45197.5</v>
       </c>
       <c r="E95" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8635,7 +8653,7 @@
         <v>3</v>
       </c>
       <c r="I95" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J95">
         <v>3.3</v>
@@ -8703,16 +8721,16 @@
         <v>6824161</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D96" s="2">
         <v>45197.60416666666</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8721,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J96">
         <v>1.3</v>
@@ -8789,16 +8807,16 @@
         <v>6826698</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D97" s="2">
         <v>45199.47916666666</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8807,7 +8825,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J97">
         <v>7.5</v>
@@ -8875,16 +8893,16 @@
         <v>6791836</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D98" s="2">
         <v>45199.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8893,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J98">
         <v>1.85</v>
@@ -8961,16 +8979,16 @@
         <v>6831735</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D99" s="2">
         <v>45200.38541666666</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F99" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8979,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J99">
         <v>1.55</v>
@@ -9047,16 +9065,16 @@
         <v>6824163</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D100" s="2">
         <v>45200.48958333334</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9065,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J100">
         <v>3.9</v>
@@ -9133,16 +9151,16 @@
         <v>6780493</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D101" s="2">
         <v>45200.60416666666</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9151,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J101">
         <v>3.2</v>
@@ -9219,16 +9237,16 @@
         <v>6874126</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D102" s="2">
         <v>45201.375</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9237,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J102">
         <v>2.2</v>
@@ -9305,16 +9323,16 @@
         <v>6822375</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D103" s="2">
         <v>45201.47916666666</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9323,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J103">
         <v>3.5</v>
@@ -9391,16 +9409,16 @@
         <v>6824164</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D104" s="2">
         <v>45201.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9409,7 +9427,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J104">
         <v>3.2</v>
@@ -9477,16 +9495,16 @@
         <v>6874127</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D105" s="2">
         <v>45205.47916666666</v>
       </c>
       <c r="E105" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9495,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J105">
         <v>1.8</v>
@@ -9563,16 +9581,16 @@
         <v>6824169</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D106" s="2">
         <v>45205.58333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9581,7 +9599,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J106">
         <v>2.2</v>
@@ -9649,16 +9667,16 @@
         <v>7290919</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D107" s="2">
         <v>45206.36458333334</v>
       </c>
       <c r="E107" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9667,7 +9685,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J107">
         <v>2.4</v>
@@ -9735,16 +9753,16 @@
         <v>7290917</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D108" s="2">
         <v>45206.48958333334</v>
       </c>
       <c r="E108" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9753,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J108">
         <v>3.5</v>
@@ -9821,16 +9839,16 @@
         <v>6824168</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D109" s="2">
         <v>45206.59375</v>
       </c>
       <c r="E109" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9839,7 +9857,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9907,16 +9925,16 @@
         <v>7290920</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D110" s="2">
         <v>45207.38541666666</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9925,7 +9943,7 @@
         <v>5</v>
       </c>
       <c r="I110" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J110">
         <v>2.4</v>
@@ -9993,16 +10011,16 @@
         <v>7290918</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D111" s="2">
         <v>45207.48958333334</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10011,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J111">
         <v>1.75</v>
@@ -10079,16 +10097,16 @@
         <v>6822376</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D112" s="2">
         <v>45207.59375</v>
       </c>
       <c r="E112" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G112">
         <v>4</v>
@@ -10097,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J112">
         <v>1.05</v>
@@ -10165,16 +10183,16 @@
         <v>6831737</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D113" s="2">
         <v>45219.44791666666</v>
       </c>
       <c r="E113" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10183,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J113">
         <v>1.833</v>
@@ -10251,16 +10269,16 @@
         <v>6824171</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D114" s="2">
         <v>45219.55208333334</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10269,7 +10287,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J114">
         <v>1.5</v>
@@ -10337,16 +10355,16 @@
         <v>6791838</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D115" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10355,7 +10373,7 @@
         <v>5</v>
       </c>
       <c r="I115" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J115">
         <v>3.25</v>
@@ -10423,16 +10441,16 @@
         <v>6824170</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D116" s="2">
         <v>45220.4375</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10441,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J116">
         <v>4.8</v>
@@ -10509,16 +10527,16 @@
         <v>6822377</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D117" s="2">
         <v>45220.54166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10527,7 +10545,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J117">
         <v>12</v>
@@ -10595,16 +10613,16 @@
         <v>6824172</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D118" s="2">
         <v>45221.33333333334</v>
       </c>
       <c r="E118" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10613,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J118">
         <v>2.625</v>
@@ -10681,16 +10699,16 @@
         <v>6780495</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D119" s="2">
         <v>45221.4375</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10699,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J119">
         <v>1.7</v>
@@ -10767,16 +10785,16 @@
         <v>6852039</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D120" s="2">
         <v>45221.54166666666</v>
       </c>
       <c r="E120" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10785,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J120">
         <v>5.5</v>
@@ -10853,16 +10871,16 @@
         <v>6831738</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D121" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E121" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F121" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10871,7 +10889,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J121">
         <v>2.3</v>
@@ -10939,16 +10957,16 @@
         <v>6791839</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D122" s="2">
         <v>45225.27083333334</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>6</v>
@@ -10957,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J122">
         <v>1.75</v>
@@ -11025,16 +11043,16 @@
         <v>6822378</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D123" s="2">
         <v>45225.375</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11043,7 +11061,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J123">
         <v>1.3</v>
@@ -11111,16 +11129,16 @@
         <v>6824175</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D124" s="2">
         <v>45225.47916666666</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11129,7 +11147,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J124">
         <v>1.85</v>
@@ -11197,16 +11215,16 @@
         <v>6824173</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D125" s="2">
         <v>45226.33333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11215,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J125">
         <v>2</v>
@@ -11283,16 +11301,16 @@
         <v>6824174</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D126" s="2">
         <v>45226.4375</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11301,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J126">
         <v>1.5</v>
@@ -11369,16 +11387,16 @@
         <v>6780496</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D127" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E127" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11387,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J127">
         <v>5.5</v>
@@ -11455,16 +11473,16 @@
         <v>6852042</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D128" s="2">
         <v>45228.55208333334</v>
       </c>
       <c r="E128" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -11473,7 +11491,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J128">
         <v>1.125</v>
@@ -11541,16 +11559,16 @@
         <v>7326962</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D129" s="2">
         <v>45231.5</v>
       </c>
       <c r="E129" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11559,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J129">
         <v>10</v>
@@ -11627,16 +11645,16 @@
         <v>7326964</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D130" s="2">
         <v>45231.60416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11645,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J130">
         <v>3</v>
@@ -11713,16 +11731,16 @@
         <v>7326963</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D131" s="2">
         <v>45232.54166666666</v>
       </c>
       <c r="E131" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11731,7 +11749,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J131">
         <v>7.5</v>
@@ -11799,16 +11817,16 @@
         <v>6822379</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D132" s="2">
         <v>45233.5</v>
       </c>
       <c r="E132" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11817,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J132">
         <v>2</v>
@@ -11885,16 +11903,16 @@
         <v>6791840</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D133" s="2">
         <v>45233.60416666666</v>
       </c>
       <c r="E133" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11903,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J133">
         <v>3.3</v>
@@ -11971,16 +11989,16 @@
         <v>6852043</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D134" s="2">
         <v>45235.4375</v>
       </c>
       <c r="E134" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11989,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J134">
         <v>1.222</v>
@@ -12057,16 +12075,16 @@
         <v>7408275</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D135" s="2">
         <v>45236.33333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12075,7 +12093,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J135">
         <v>2.1</v>
@@ -12143,16 +12161,16 @@
         <v>6824179</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D136" s="2">
         <v>45236.4375</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12161,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J136">
         <v>1.65</v>
@@ -12229,16 +12247,16 @@
         <v>6824178</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D137" s="2">
         <v>45236.54166666666</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G137">
         <v>3</v>
@@ -12247,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J137">
         <v>1.181</v>
@@ -12315,16 +12333,16 @@
         <v>6824177</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D138" s="2">
         <v>45237.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12333,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J138">
         <v>1.909</v>
@@ -12401,16 +12419,16 @@
         <v>6780497</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D139" s="2">
         <v>45237.52083333334</v>
       </c>
       <c r="E139" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12419,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J139">
         <v>2.6</v>
@@ -12487,16 +12505,16 @@
         <v>6824180</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D140" s="2">
         <v>45240.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12505,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J140">
         <v>1.666</v>
@@ -12573,16 +12591,16 @@
         <v>6824184</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D141" s="2">
         <v>45240.52083333334</v>
       </c>
       <c r="E141" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -12591,7 +12609,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J141">
         <v>1.45</v>
@@ -12659,16 +12677,16 @@
         <v>6824182</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D142" s="2">
         <v>45241.32291666666</v>
       </c>
       <c r="E142" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12677,7 +12695,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J142">
         <v>3.4</v>
@@ -12745,16 +12763,16 @@
         <v>6822380</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D143" s="2">
         <v>45241.42708333334</v>
       </c>
       <c r="E143" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12763,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J143">
         <v>6</v>
@@ -12831,16 +12849,16 @@
         <v>6824183</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D144" s="2">
         <v>45241.53125</v>
       </c>
       <c r="E144" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F144" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12849,7 +12867,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J144">
         <v>1.7</v>
@@ -12917,16 +12935,16 @@
         <v>6824181</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D145" s="2">
         <v>45242.33333333334</v>
       </c>
       <c r="E145" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12935,7 +12953,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J145">
         <v>7</v>
@@ -13003,16 +13021,16 @@
         <v>6780498</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D146" s="2">
         <v>45242.4375</v>
       </c>
       <c r="E146" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13021,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J146">
         <v>1.5</v>
@@ -13089,16 +13107,16 @@
         <v>6831739</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D147" s="2">
         <v>45242.54166666666</v>
       </c>
       <c r="E147" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13107,7 +13125,7 @@
         <v>4</v>
       </c>
       <c r="I147" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J147">
         <v>11</v>
@@ -13175,16 +13193,16 @@
         <v>6824186</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D148" s="2">
         <v>45254.52083333334</v>
       </c>
       <c r="E148" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -13193,7 +13211,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J148">
         <v>1.909</v>
@@ -13261,16 +13279,16 @@
         <v>6824185</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D149" s="2">
         <v>45255.3125</v>
       </c>
       <c r="E149" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13279,7 +13297,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J149">
         <v>4.2</v>
@@ -13347,16 +13365,16 @@
         <v>6791841</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D150" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13365,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J150">
         <v>1.444</v>
@@ -13433,16 +13451,16 @@
         <v>6824188</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D151" s="2">
         <v>45256.52083333334</v>
       </c>
       <c r="E151" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13451,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J151">
         <v>1.153</v>
@@ -13519,16 +13537,16 @@
         <v>6824187</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D152" s="2">
         <v>45256.53125</v>
       </c>
       <c r="E152" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13537,7 +13555,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J152">
         <v>1.4</v>
@@ -13605,16 +13623,16 @@
         <v>7527165</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D153" s="2">
         <v>45257.32291666666</v>
       </c>
       <c r="E153" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13623,7 +13641,7 @@
         <v>3</v>
       </c>
       <c r="I153" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J153">
         <v>2.7</v>
@@ -13691,16 +13709,16 @@
         <v>6824189</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D154" s="2">
         <v>45257.42708333334</v>
       </c>
       <c r="E154" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13709,7 +13727,7 @@
         <v>3</v>
       </c>
       <c r="I154" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J154">
         <v>1.153</v>
@@ -13777,16 +13795,16 @@
         <v>6780499</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D155" s="2">
         <v>45257.52083333334</v>
       </c>
       <c r="E155" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13795,7 +13813,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J155">
         <v>6</v>
@@ -13863,16 +13881,16 @@
         <v>7497758</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D156" s="2">
         <v>45261.41666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13881,7 +13899,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J156">
         <v>1.95</v>
@@ -13949,16 +13967,16 @@
         <v>7497754</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D157" s="2">
         <v>45261.52083333334</v>
       </c>
       <c r="E157" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13967,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J157">
         <v>6</v>
@@ -14035,16 +14053,16 @@
         <v>7497757</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D158" s="2">
         <v>45262.3125</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14053,7 +14071,7 @@
         <v>3</v>
       </c>
       <c r="I158" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J158">
         <v>4.5</v>
@@ -14121,16 +14139,16 @@
         <v>7497755</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D159" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14139,7 +14157,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J159">
         <v>5</v>
@@ -14207,16 +14225,16 @@
         <v>7497760</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D160" s="2">
         <v>45262.52083333334</v>
       </c>
       <c r="E160" t="s">
+        <v>44</v>
+      </c>
+      <c r="F160" t="s">
         <v>38</v>
-      </c>
-      <c r="F160" t="s">
-        <v>32</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14225,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J160">
         <v>1.727</v>
@@ -14293,16 +14311,16 @@
         <v>7497759</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D161" s="2">
         <v>45263.32291666666</v>
       </c>
       <c r="E161" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14311,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14379,16 +14397,16 @@
         <v>7497753</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D162" s="2">
         <v>45263.42708333334</v>
       </c>
       <c r="E162" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F162" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G162">
         <v>5</v>
@@ -14397,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J162">
         <v>1.062</v>
@@ -14465,16 +14483,16 @@
         <v>7497756</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D163" s="2">
         <v>45263.53125</v>
       </c>
       <c r="E163" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F163" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14483,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J163">
         <v>2.4</v>
@@ -14551,16 +14569,16 @@
         <v>6824193</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D164" s="2">
         <v>45269.3125</v>
       </c>
       <c r="E164" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14569,7 +14587,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J164">
         <v>3.75</v>
@@ -14637,16 +14655,16 @@
         <v>6824195</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D165" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -14655,7 +14673,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J165">
         <v>1.615</v>
@@ -14723,16 +14741,16 @@
         <v>6780501</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D166" s="2">
         <v>45269.52083333334</v>
       </c>
       <c r="E166" t="s">
+        <v>50</v>
+      </c>
+      <c r="F166" t="s">
         <v>44</v>
-      </c>
-      <c r="F166" t="s">
-        <v>38</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14741,7 +14759,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J166">
         <v>7.5</v>
@@ -14809,16 +14827,16 @@
         <v>6826701</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D167" s="2">
         <v>45270.3125</v>
       </c>
       <c r="E167" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -14827,7 +14845,7 @@
         <v>3</v>
       </c>
       <c r="I167" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J167">
         <v>1.333</v>
@@ -14895,16 +14913,16 @@
         <v>6791843</v>
       </c>
       <c r="C168" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D168" s="2">
         <v>45270.41666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14913,7 +14931,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J168">
         <v>1.533</v>
@@ -14981,16 +14999,16 @@
         <v>6824196</v>
       </c>
       <c r="C169" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D169" s="2">
         <v>45270.53125</v>
       </c>
       <c r="E169" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -14999,7 +15017,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J169">
         <v>2.8</v>
@@ -15067,16 +15085,16 @@
         <v>6822382</v>
       </c>
       <c r="C170" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D170" s="2">
         <v>45271.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15085,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J170">
         <v>1.363</v>
@@ -15153,16 +15171,16 @@
         <v>6824194</v>
       </c>
       <c r="C171" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D171" s="2">
         <v>45271.52083333334</v>
       </c>
       <c r="E171" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15171,7 +15189,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J171">
         <v>1.615</v>
@@ -15239,16 +15257,16 @@
         <v>7524523</v>
       </c>
       <c r="C172" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D172" s="2">
         <v>45274.52083333334</v>
       </c>
       <c r="E172" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15257,7 +15275,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J172">
         <v>1.85</v>
@@ -15325,16 +15343,16 @@
         <v>7626379</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D173" s="2">
         <v>45338.52083333334</v>
       </c>
       <c r="E173" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15343,7 +15361,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J173">
         <v>2.4</v>
@@ -15411,16 +15429,16 @@
         <v>7626378</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D174" s="2">
         <v>45339.29166666666</v>
       </c>
       <c r="E174" t="s">
+        <v>48</v>
+      </c>
+      <c r="F174" t="s">
         <v>42</v>
-      </c>
-      <c r="F174" t="s">
-        <v>37</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15429,7 +15447,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J174">
         <v>5.25</v>
@@ -15497,16 +15515,16 @@
         <v>7626376</v>
       </c>
       <c r="C175" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D175" s="2">
         <v>45339.39583333334</v>
       </c>
       <c r="E175" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F175" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15515,7 +15533,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J175">
         <v>1.8</v>
@@ -15583,16 +15601,16 @@
         <v>7626381</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D176" s="2">
         <v>45339.5</v>
       </c>
       <c r="E176" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15601,7 +15619,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J176">
         <v>5.75</v>
@@ -15669,16 +15687,16 @@
         <v>7626377</v>
       </c>
       <c r="C177" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D177" s="2">
         <v>45340.32291666666</v>
       </c>
       <c r="E177" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15687,7 +15705,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J177">
         <v>5.5</v>
@@ -15755,16 +15773,16 @@
         <v>7626380</v>
       </c>
       <c r="C178" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D178" s="2">
         <v>45340.42708333334</v>
       </c>
       <c r="E178" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15773,7 +15791,7 @@
         <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J178">
         <v>2.5</v>
@@ -15841,16 +15859,16 @@
         <v>7626374</v>
       </c>
       <c r="C179" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D179" s="2">
         <v>45340.53125</v>
       </c>
       <c r="E179" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F179" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G179">
         <v>3</v>
@@ -15859,7 +15877,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J179">
         <v>1.083</v>
@@ -15927,16 +15945,16 @@
         <v>7626375</v>
       </c>
       <c r="C180" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D180" s="2">
         <v>45341.45833333334</v>
       </c>
       <c r="E180" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G180">
         <v>3</v>
@@ -15945,7 +15963,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J180">
         <v>1.533</v>
@@ -16013,16 +16031,16 @@
         <v>6978402</v>
       </c>
       <c r="C181" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D181" s="2">
         <v>45345.41666666666</v>
       </c>
       <c r="E181" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16031,7 +16049,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J181">
         <v>1.909</v>
@@ -16099,16 +16117,16 @@
         <v>6978405</v>
       </c>
       <c r="C182" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D182" s="2">
         <v>45345.52083333334</v>
       </c>
       <c r="E182" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F182" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16117,7 +16135,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J182">
         <v>1.285</v>
@@ -16185,16 +16203,16 @@
         <v>6978383</v>
       </c>
       <c r="C183" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D183" s="2">
         <v>45346.32291666666</v>
       </c>
       <c r="E183" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16203,7 +16221,7 @@
         <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J183">
         <v>1.444</v>
@@ -16271,16 +16289,16 @@
         <v>6978408</v>
       </c>
       <c r="C184" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D184" s="2">
         <v>45346.42708333334</v>
       </c>
       <c r="E184" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F184" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16289,7 +16307,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J184">
         <v>3.2</v>
@@ -16357,16 +16375,16 @@
         <v>6978403</v>
       </c>
       <c r="C185" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D185" s="2">
         <v>45346.53125</v>
       </c>
       <c r="E185" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G185">
         <v>4</v>
@@ -16375,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J185">
         <v>1.444</v>
@@ -16443,16 +16461,16 @@
         <v>6978404</v>
       </c>
       <c r="C186" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D186" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F186" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16461,7 +16479,7 @@
         <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J186">
         <v>2.2</v>
@@ -16529,16 +16547,16 @@
         <v>6978406</v>
       </c>
       <c r="C187" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D187" s="2">
         <v>45347.48958333334</v>
       </c>
       <c r="E187" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16547,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J187">
         <v>1.6</v>
@@ -16615,16 +16633,16 @@
         <v>6978407</v>
       </c>
       <c r="C188" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D188" s="2">
         <v>45348.52083333334</v>
       </c>
       <c r="E188" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16633,7 +16651,7 @@
         <v>2</v>
       </c>
       <c r="I188" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J188">
         <v>13</v>
@@ -16701,16 +16719,16 @@
         <v>6978409</v>
       </c>
       <c r="C189" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D189" s="2">
         <v>45352.52083333334</v>
       </c>
       <c r="E189" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -16719,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J189">
         <v>1.3</v>
@@ -16787,16 +16805,16 @@
         <v>6978413</v>
       </c>
       <c r="C190" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D190" s="2">
         <v>45353.32291666666</v>
       </c>
       <c r="E190" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16805,7 +16823,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J190">
         <v>2.55</v>
@@ -16873,16 +16891,16 @@
         <v>6978414</v>
       </c>
       <c r="C191" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D191" s="2">
         <v>45353.42708333334</v>
       </c>
       <c r="E191" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G191">
         <v>3</v>
@@ -16891,7 +16909,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J191">
         <v>3.1</v>
@@ -16959,16 +16977,16 @@
         <v>6978412</v>
       </c>
       <c r="C192" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D192" s="2">
         <v>45353.53125</v>
       </c>
       <c r="E192" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F192" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16977,7 +16995,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J192">
         <v>2.4</v>
@@ -17045,16 +17063,16 @@
         <v>6978410</v>
       </c>
       <c r="C193" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D193" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E193" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F193" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G193">
         <v>3</v>
@@ -17063,7 +17081,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J193">
         <v>1.222</v>
@@ -17131,16 +17149,16 @@
         <v>6978411</v>
       </c>
       <c r="C194" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D194" s="2">
         <v>45354.5</v>
       </c>
       <c r="E194" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17149,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J194">
         <v>1.4</v>
@@ -17217,16 +17235,16 @@
         <v>6978415</v>
       </c>
       <c r="C195" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D195" s="2">
         <v>45355.41666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -17235,7 +17253,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J195">
         <v>1.4</v>
@@ -17303,16 +17321,16 @@
         <v>6978384</v>
       </c>
       <c r="C196" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D196" s="2">
         <v>45355.52083333334</v>
       </c>
       <c r="E196" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -17321,7 +17339,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J196">
         <v>7</v>
@@ -17389,16 +17407,16 @@
         <v>6978418</v>
       </c>
       <c r="C197" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D197" s="2">
         <v>45359.5625</v>
       </c>
       <c r="E197" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -17407,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J197">
         <v>1.4</v>
@@ -17475,16 +17493,16 @@
         <v>6978419</v>
       </c>
       <c r="C198" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D198" s="2">
         <v>45360.3125</v>
       </c>
       <c r="E198" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17493,7 +17511,7 @@
         <v>2</v>
       </c>
       <c r="I198" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J198">
         <v>2.35</v>
@@ -17561,16 +17579,16 @@
         <v>6978421</v>
       </c>
       <c r="C199" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D199" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E199" t="s">
+        <v>46</v>
+      </c>
+      <c r="F199" t="s">
         <v>39</v>
-      </c>
-      <c r="F199" t="s">
-        <v>33</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -17579,7 +17597,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J199">
         <v>2.7</v>
@@ -17647,17 +17665,17 @@
         <v>6978422</v>
       </c>
       <c r="C200" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D200" s="2">
         <v>45360.52083333334</v>
       </c>
       <c r="E200" t="s">
+        <v>51</v>
+      </c>
+      <c r="F200" t="s">
         <v>45</v>
       </c>
-      <c r="F200" t="s">
-        <v>40</v>
-      </c>
       <c r="G200">
         <v>2</v>
       </c>
@@ -17665,7 +17683,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J200">
         <v>4.8</v>
@@ -17733,16 +17751,16 @@
         <v>6978416</v>
       </c>
       <c r="C201" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D201" s="2">
         <v>45361.32291666666</v>
       </c>
       <c r="E201" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17751,7 +17769,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J201">
         <v>5</v>
@@ -17819,16 +17837,16 @@
         <v>6978417</v>
       </c>
       <c r="C202" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D202" s="2">
         <v>45361.42708333334</v>
       </c>
       <c r="E202" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17837,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J202">
         <v>1.4</v>
@@ -17905,16 +17923,16 @@
         <v>6978420</v>
       </c>
       <c r="C203" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D203" s="2">
         <v>45361.53125</v>
       </c>
       <c r="E203" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -17923,7 +17941,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J203">
         <v>5.25</v>
@@ -17991,16 +18009,16 @@
         <v>6978385</v>
       </c>
       <c r="C204" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D204" s="2">
         <v>45362.52083333334</v>
       </c>
       <c r="E204" t="s">
+        <v>47</v>
+      </c>
+      <c r="F204" t="s">
         <v>41</v>
-      </c>
-      <c r="F204" t="s">
-        <v>35</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18009,7 +18027,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J204">
         <v>2.45</v>
@@ -18077,16 +18095,16 @@
         <v>6978423</v>
       </c>
       <c r="C205" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D205" s="2">
         <v>45366.46875</v>
       </c>
       <c r="E205" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F205" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18095,7 +18113,7 @@
         <v>2</v>
       </c>
       <c r="I205" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J205">
         <v>1.85</v>
@@ -18163,16 +18181,16 @@
         <v>6978424</v>
       </c>
       <c r="C206" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D206" s="2">
         <v>45366.57291666666</v>
       </c>
       <c r="E206" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18181,7 +18199,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J206">
         <v>1.6</v>
@@ -18249,16 +18267,16 @@
         <v>6978427</v>
       </c>
       <c r="C207" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D207" s="2">
         <v>45367.32291666666</v>
       </c>
       <c r="E207" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F207" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -18267,7 +18285,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J207">
         <v>2.15</v>
@@ -18335,16 +18353,16 @@
         <v>6978428</v>
       </c>
       <c r="C208" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D208" s="2">
         <v>45367.42708333334</v>
       </c>
       <c r="E208" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18353,7 +18371,7 @@
         <v>3</v>
       </c>
       <c r="I208" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J208">
         <v>9.5</v>
@@ -18421,16 +18439,16 @@
         <v>6978426</v>
       </c>
       <c r="C209" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D209" s="2">
         <v>45367.53125</v>
       </c>
       <c r="E209" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F209" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G209">
         <v>6</v>
@@ -18439,7 +18457,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J209">
         <v>1.083</v>
@@ -18507,16 +18525,16 @@
         <v>6978429</v>
       </c>
       <c r="C210" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D210" s="2">
         <v>45368.32291666666</v>
       </c>
       <c r="E210" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F210" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -18525,7 +18543,7 @@
         <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J210">
         <v>1.727</v>
@@ -18593,16 +18611,16 @@
         <v>6978386</v>
       </c>
       <c r="C211" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D211" s="2">
         <v>45368.42708333334</v>
       </c>
       <c r="E211" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18611,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J211">
         <v>3.25</v>
@@ -18679,16 +18697,16 @@
         <v>6978425</v>
       </c>
       <c r="C212" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D212" s="2">
         <v>45368.53125</v>
       </c>
       <c r="E212" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G212">
         <v>4</v>
@@ -18697,7 +18715,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J212">
         <v>1.6</v>
@@ -18765,16 +18783,16 @@
         <v>7973582</v>
       </c>
       <c r="C213" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D213" s="2">
         <v>45380.375</v>
       </c>
       <c r="E213" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F213" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -18783,7 +18801,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J213">
         <v>1.909</v>
@@ -18851,16 +18869,16 @@
         <v>7973583</v>
       </c>
       <c r="C214" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D214" s="2">
         <v>45380.47916666666</v>
       </c>
       <c r="E214" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18869,7 +18887,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J214">
         <v>1.833</v>
@@ -18937,16 +18955,16 @@
         <v>7973584</v>
       </c>
       <c r="C215" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D215" s="2">
         <v>45380.58333333334</v>
       </c>
       <c r="E215" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18955,7 +18973,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J215">
         <v>1.444</v>
@@ -19023,16 +19041,16 @@
         <v>7973585</v>
       </c>
       <c r="C216" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D216" s="2">
         <v>45381.375</v>
       </c>
       <c r="E216" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G216">
         <v>3</v>
@@ -19041,7 +19059,7 @@
         <v>2</v>
       </c>
       <c r="I216" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J216">
         <v>2.4</v>
@@ -19109,16 +19127,16 @@
         <v>7973586</v>
       </c>
       <c r="C217" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D217" s="2">
         <v>45381.47916666666</v>
       </c>
       <c r="E217" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F217" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -19127,7 +19145,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J217">
         <v>5.25</v>
@@ -19195,16 +19213,16 @@
         <v>6978434</v>
       </c>
       <c r="C218" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D218" s="2">
         <v>45381.58333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -19213,7 +19231,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J218">
         <v>7.5</v>
@@ -19281,16 +19299,16 @@
         <v>7973587</v>
       </c>
       <c r="C219" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D219" s="2">
         <v>45382.4375</v>
       </c>
       <c r="E219" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -19299,7 +19317,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J219">
         <v>2.5</v>
@@ -19367,16 +19385,16 @@
         <v>7973588</v>
       </c>
       <c r="C220" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D220" s="2">
         <v>45382.54166666666</v>
       </c>
       <c r="E220" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F220" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19385,7 +19403,7 @@
         <v>1</v>
       </c>
       <c r="I220" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J220">
         <v>1.615</v>
@@ -19453,16 +19471,16 @@
         <v>6978445</v>
       </c>
       <c r="C221" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D221" s="2">
         <v>45384.45833333334</v>
       </c>
       <c r="E221" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19471,7 +19489,7 @@
         <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J221">
         <v>4.5</v>
@@ -19539,16 +19557,16 @@
         <v>6978444</v>
       </c>
       <c r="C222" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D222" s="2">
         <v>45384.5625</v>
       </c>
       <c r="E222" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19557,7 +19575,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J222">
         <v>1.571</v>
@@ -19625,16 +19643,16 @@
         <v>6978389</v>
       </c>
       <c r="C223" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D223" s="2">
         <v>45385.35416666666</v>
       </c>
       <c r="E223" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G223">
         <v>3</v>
@@ -19643,7 +19661,7 @@
         <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J223">
         <v>1.909</v>
@@ -19711,16 +19729,16 @@
         <v>6978442</v>
       </c>
       <c r="C224" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D224" s="2">
         <v>45385.45833333334</v>
       </c>
       <c r="E224" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19729,7 +19747,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J224">
         <v>1.45</v>
@@ -19797,16 +19815,16 @@
         <v>6978443</v>
       </c>
       <c r="C225" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D225" s="2">
         <v>45385.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G225">
         <v>5</v>
@@ -19815,7 +19833,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J225">
         <v>1.571</v>
@@ -19883,16 +19901,16 @@
         <v>6978439</v>
       </c>
       <c r="C226" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D226" s="2">
         <v>45386.35416666666</v>
       </c>
       <c r="E226" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F226" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -19901,7 +19919,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J226">
         <v>1.333</v>
@@ -19969,16 +19987,16 @@
         <v>6978440</v>
       </c>
       <c r="C227" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D227" s="2">
         <v>45386.45833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F227" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -19987,7 +20005,7 @@
         <v>3</v>
       </c>
       <c r="I227" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J227">
         <v>3.5</v>
@@ -20055,16 +20073,16 @@
         <v>6978441</v>
       </c>
       <c r="C228" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D228" s="2">
         <v>45386.5625</v>
       </c>
       <c r="E228" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20073,7 +20091,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J228">
         <v>1.363</v>
@@ -20141,16 +20159,16 @@
         <v>6978388</v>
       </c>
       <c r="C229" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D229" s="2">
         <v>45388.48958333334</v>
       </c>
       <c r="E229" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F229" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G229">
         <v>3</v>
@@ -20159,7 +20177,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J229">
         <v>1.75</v>
@@ -20227,16 +20245,16 @@
         <v>6978438</v>
       </c>
       <c r="C230" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D230" s="2">
         <v>45388.59375</v>
       </c>
       <c r="E230" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G230">
         <v>2</v>
@@ -20245,7 +20263,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J230">
         <v>2.05</v>
@@ -20313,16 +20331,16 @@
         <v>8035921</v>
       </c>
       <c r="C231" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D231" s="2">
         <v>45389.36458333334</v>
       </c>
       <c r="E231" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -20331,7 +20349,7 @@
         <v>2</v>
       </c>
       <c r="I231" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J231">
         <v>2.8</v>
@@ -20399,16 +20417,16 @@
         <v>8035920</v>
       </c>
       <c r="C232" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D232" s="2">
         <v>45389.48958333334</v>
       </c>
       <c r="E232" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F232" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -20417,7 +20435,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J232">
         <v>2.1</v>
@@ -20485,16 +20503,16 @@
         <v>6978446</v>
       </c>
       <c r="C233" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D233" s="2">
         <v>45389.59375</v>
       </c>
       <c r="E233" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -20503,7 +20521,7 @@
         <v>2</v>
       </c>
       <c r="I233" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J233">
         <v>15</v>
@@ -20571,16 +20589,16 @@
         <v>6978437</v>
       </c>
       <c r="C234" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D234" s="2">
         <v>45390.45833333334</v>
       </c>
       <c r="E234" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F234" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -20589,7 +20607,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J234">
         <v>3</v>
@@ -20657,16 +20675,16 @@
         <v>6978448</v>
       </c>
       <c r="C235" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D235" s="2">
         <v>45390.5625</v>
       </c>
       <c r="E235" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F235" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -20675,7 +20693,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J235">
         <v>2.9</v>
@@ -20743,16 +20761,16 @@
         <v>6978449</v>
       </c>
       <c r="C236" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D236" s="2">
         <v>45391.52083333334</v>
       </c>
       <c r="E236" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F236" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -20761,7 +20779,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J236">
         <v>2.25</v>
@@ -20829,16 +20847,16 @@
         <v>7956727</v>
       </c>
       <c r="C237" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D237" s="2">
         <v>45393.53125</v>
       </c>
       <c r="E237" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -20847,7 +20865,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J237">
         <v>8.5</v>
@@ -20915,16 +20933,16 @@
         <v>6978451</v>
       </c>
       <c r="C238" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D238" s="2">
         <v>45394.48958333334</v>
       </c>
       <c r="E238" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F238" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G238">
         <v>2</v>
@@ -20933,7 +20951,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J238">
         <v>1.444</v>
@@ -21001,16 +21019,16 @@
         <v>6978455</v>
       </c>
       <c r="C239" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D239" s="2">
         <v>45394.59375</v>
       </c>
       <c r="E239" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -21019,7 +21037,7 @@
         <v>2</v>
       </c>
       <c r="I239" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J239">
         <v>1.166</v>
@@ -21087,16 +21105,16 @@
         <v>6978390</v>
       </c>
       <c r="C240" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D240" s="2">
         <v>45395.48958333334</v>
       </c>
       <c r="E240" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G240">
         <v>3</v>
@@ -21105,7 +21123,7 @@
         <v>1</v>
       </c>
       <c r="I240" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J240">
         <v>1.25</v>
@@ -21173,16 +21191,16 @@
         <v>6978454</v>
       </c>
       <c r="C241" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D241" s="2">
         <v>45395.59375</v>
       </c>
       <c r="E241" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F241" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G241">
         <v>3</v>
@@ -21191,7 +21209,7 @@
         <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J241">
         <v>2.7</v>
@@ -21259,16 +21277,16 @@
         <v>6978457</v>
       </c>
       <c r="C242" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D242" s="2">
         <v>45396.45833333334</v>
       </c>
       <c r="E242" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F242" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -21277,7 +21295,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J242">
         <v>4</v>
@@ -21345,16 +21363,16 @@
         <v>6978453</v>
       </c>
       <c r="C243" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D243" s="2">
         <v>45396.5625</v>
       </c>
       <c r="E243" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F243" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -21363,7 +21381,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J243">
         <v>3.9</v>
@@ -21431,16 +21449,16 @@
         <v>6978452</v>
       </c>
       <c r="C244" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D244" s="2">
         <v>45397.47916666666</v>
       </c>
       <c r="E244" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F244" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -21449,7 +21467,7 @@
         <v>1</v>
       </c>
       <c r="I244" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J244">
         <v>1.5</v>
@@ -21517,16 +21535,16 @@
         <v>6978456</v>
       </c>
       <c r="C245" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D245" s="2">
         <v>45397.58333333334</v>
       </c>
       <c r="E245" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F245" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -21535,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J245">
         <v>1.25</v>
@@ -21603,16 +21621,16 @@
         <v>6978458</v>
       </c>
       <c r="C246" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D246" s="2">
         <v>45401.47916666666</v>
       </c>
       <c r="E246" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F246" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G246">
         <v>2</v>
@@ -21621,7 +21639,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J246">
         <v>1.8</v>
@@ -21689,16 +21707,16 @@
         <v>6978459</v>
       </c>
       <c r="C247" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D247" s="2">
         <v>45401.58333333334</v>
       </c>
       <c r="E247" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F247" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -21707,7 +21725,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J247">
         <v>2.3</v>
@@ -21775,16 +21793,16 @@
         <v>6978461</v>
       </c>
       <c r="C248" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D248" s="2">
         <v>45402.38541666666</v>
       </c>
       <c r="E248" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F248" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -21793,7 +21811,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J248">
         <v>5.75</v>
@@ -21861,16 +21879,16 @@
         <v>6978391</v>
       </c>
       <c r="C249" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D249" s="2">
         <v>45402.48958333334</v>
       </c>
       <c r="E249" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F249" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -21879,7 +21897,7 @@
         <v>3</v>
       </c>
       <c r="I249" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J249">
         <v>10</v>
@@ -21947,16 +21965,16 @@
         <v>6978462</v>
       </c>
       <c r="C250" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D250" s="2">
         <v>45402.59375</v>
       </c>
       <c r="E250" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F250" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -21965,7 +21983,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J250">
         <v>1.444</v>
@@ -22033,16 +22051,16 @@
         <v>6978463</v>
       </c>
       <c r="C251" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D251" s="2">
         <v>45403.38541666666</v>
       </c>
       <c r="E251" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F251" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -22051,7 +22069,7 @@
         <v>1</v>
       </c>
       <c r="I251" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J251">
         <v>1.909</v>
@@ -22119,16 +22137,16 @@
         <v>6978464</v>
       </c>
       <c r="C252" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D252" s="2">
         <v>45403.48958333334</v>
       </c>
       <c r="E252" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F252" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -22137,7 +22155,7 @@
         <v>4</v>
       </c>
       <c r="I252" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J252">
         <v>2.6</v>
@@ -22205,16 +22223,16 @@
         <v>6978460</v>
       </c>
       <c r="C253" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D253" s="2">
         <v>45403.59375</v>
       </c>
       <c r="E253" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F253" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -22223,7 +22241,7 @@
         <v>3</v>
       </c>
       <c r="I253" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J253">
         <v>5.5</v>
@@ -22291,16 +22309,16 @@
         <v>27</v>
       </c>
       <c r="C254" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D254" s="2">
         <v>45408.58333333334</v>
       </c>
       <c r="E254" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F254" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J254">
         <v>2.1</v>
@@ -22315,28 +22333,28 @@
         <v>2.2</v>
       </c>
       <c r="N254">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O254">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P254">
         <v>-0.25</v>
       </c>
       <c r="Q254">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R254">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S254">
         <v>2.25</v>
       </c>
       <c r="T254">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U254">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V254">
         <v>0</v>
@@ -22356,60 +22374,450 @@
         <v>28</v>
       </c>
       <c r="C255" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D255" s="2">
-        <v>45409.54166666666</v>
+        <v>45409.42708333334</v>
       </c>
       <c r="E255" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F255" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J255">
+        <v>2</v>
+      </c>
+      <c r="K255">
+        <v>3.3</v>
+      </c>
+      <c r="L255">
+        <v>3.8</v>
+      </c>
+      <c r="M255">
         <v>1.8</v>
       </c>
-      <c r="K255">
-        <v>3.6</v>
-      </c>
-      <c r="L255">
-        <v>4.333</v>
-      </c>
-      <c r="M255">
-        <v>1.833</v>
-      </c>
       <c r="N255">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O255">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P255">
         <v>-0.5</v>
       </c>
       <c r="Q255">
+        <v>1.825</v>
+      </c>
+      <c r="R255">
+        <v>2.025</v>
+      </c>
+      <c r="S255">
+        <v>2</v>
+      </c>
+      <c r="T255">
+        <v>1.9</v>
+      </c>
+      <c r="U255">
+        <v>1.95</v>
+      </c>
+      <c r="V255">
+        <v>0</v>
+      </c>
+      <c r="W255">
+        <v>0</v>
+      </c>
+      <c r="X255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:28">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>29</v>
+      </c>
+      <c r="C256" t="s">
+        <v>35</v>
+      </c>
+      <c r="D256" s="2">
+        <v>45409.54166666666</v>
+      </c>
+      <c r="E256" t="s">
+        <v>42</v>
+      </c>
+      <c r="F256" t="s">
+        <v>43</v>
+      </c>
+      <c r="J256">
+        <v>1.8</v>
+      </c>
+      <c r="K256">
+        <v>3.6</v>
+      </c>
+      <c r="L256">
+        <v>4.333</v>
+      </c>
+      <c r="M256">
+        <v>1.75</v>
+      </c>
+      <c r="N256">
+        <v>3.8</v>
+      </c>
+      <c r="O256">
+        <v>4.5</v>
+      </c>
+      <c r="P256">
+        <v>-0.5</v>
+      </c>
+      <c r="Q256">
+        <v>1.8</v>
+      </c>
+      <c r="R256">
+        <v>2.05</v>
+      </c>
+      <c r="S256">
+        <v>2.25</v>
+      </c>
+      <c r="T256">
+        <v>1.975</v>
+      </c>
+      <c r="U256">
+        <v>1.875</v>
+      </c>
+      <c r="V256">
+        <v>0</v>
+      </c>
+      <c r="W256">
+        <v>0</v>
+      </c>
+      <c r="X256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>30</v>
+      </c>
+      <c r="C257" t="s">
+        <v>35</v>
+      </c>
+      <c r="D257" s="2">
+        <v>45410.38541666666</v>
+      </c>
+      <c r="E257" t="s">
+        <v>41</v>
+      </c>
+      <c r="F257" t="s">
+        <v>36</v>
+      </c>
+      <c r="J257">
+        <v>2.15</v>
+      </c>
+      <c r="K257">
+        <v>3.25</v>
+      </c>
+      <c r="L257">
+        <v>3.4</v>
+      </c>
+      <c r="M257">
+        <v>1.95</v>
+      </c>
+      <c r="N257">
+        <v>3.4</v>
+      </c>
+      <c r="O257">
+        <v>4</v>
+      </c>
+      <c r="P257">
+        <v>-0.5</v>
+      </c>
+      <c r="Q257">
+        <v>1.975</v>
+      </c>
+      <c r="R257">
+        <v>1.875</v>
+      </c>
+      <c r="S257">
+        <v>2.25</v>
+      </c>
+      <c r="T257">
+        <v>2</v>
+      </c>
+      <c r="U257">
         <v>1.85</v>
       </c>
-      <c r="R255">
-        <v>2</v>
-      </c>
-      <c r="S255">
+      <c r="V257">
+        <v>0</v>
+      </c>
+      <c r="W257">
+        <v>0</v>
+      </c>
+      <c r="X257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:24">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>31</v>
+      </c>
+      <c r="C258" t="s">
+        <v>35</v>
+      </c>
+      <c r="D258" s="2">
+        <v>45410.48958333334</v>
+      </c>
+      <c r="E258" t="s">
+        <v>40</v>
+      </c>
+      <c r="F258" t="s">
+        <v>48</v>
+      </c>
+      <c r="J258">
+        <v>1.142</v>
+      </c>
+      <c r="K258">
+        <v>7.5</v>
+      </c>
+      <c r="L258">
+        <v>17</v>
+      </c>
+      <c r="M258">
+        <v>1.166</v>
+      </c>
+      <c r="N258">
+        <v>8</v>
+      </c>
+      <c r="O258">
+        <v>15</v>
+      </c>
+      <c r="P258">
+        <v>-2</v>
+      </c>
+      <c r="Q258">
+        <v>1.925</v>
+      </c>
+      <c r="R258">
+        <v>1.925</v>
+      </c>
+      <c r="S258">
+        <v>3</v>
+      </c>
+      <c r="T258">
+        <v>1.875</v>
+      </c>
+      <c r="U258">
+        <v>1.975</v>
+      </c>
+      <c r="V258">
+        <v>0</v>
+      </c>
+      <c r="W258">
+        <v>0</v>
+      </c>
+      <c r="X258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:24">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>32</v>
+      </c>
+      <c r="C259" t="s">
+        <v>35</v>
+      </c>
+      <c r="D259" s="2">
+        <v>45410.59375</v>
+      </c>
+      <c r="E259" t="s">
+        <v>45</v>
+      </c>
+      <c r="F259" t="s">
+        <v>38</v>
+      </c>
+      <c r="J259">
+        <v>1.65</v>
+      </c>
+      <c r="K259">
+        <v>3.6</v>
+      </c>
+      <c r="L259">
+        <v>5.5</v>
+      </c>
+      <c r="M259">
+        <v>1.6</v>
+      </c>
+      <c r="N259">
+        <v>3.6</v>
+      </c>
+      <c r="O259">
+        <v>6.5</v>
+      </c>
+      <c r="P259">
+        <v>-1</v>
+      </c>
+      <c r="Q259">
+        <v>2.1</v>
+      </c>
+      <c r="R259">
+        <v>1.775</v>
+      </c>
+      <c r="S259">
         <v>2.25</v>
       </c>
-      <c r="T255">
+      <c r="T259">
         <v>1.975</v>
       </c>
-      <c r="U255">
+      <c r="U259">
         <v>1.875</v>
       </c>
-      <c r="V255">
-        <v>0</v>
-      </c>
-      <c r="W255">
-        <v>0</v>
-      </c>
-      <c r="X255">
+      <c r="V259">
+        <v>0</v>
+      </c>
+      <c r="W259">
+        <v>0</v>
+      </c>
+      <c r="X259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:24">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>33</v>
+      </c>
+      <c r="C260" t="s">
+        <v>35</v>
+      </c>
+      <c r="D260" s="2">
+        <v>45411.48958333334</v>
+      </c>
+      <c r="E260" t="s">
+        <v>46</v>
+      </c>
+      <c r="F260" t="s">
+        <v>37</v>
+      </c>
+      <c r="J260">
+        <v>2.2</v>
+      </c>
+      <c r="K260">
+        <v>3.2</v>
+      </c>
+      <c r="L260">
+        <v>3.4</v>
+      </c>
+      <c r="M260">
+        <v>2.2</v>
+      </c>
+      <c r="N260">
+        <v>3.2</v>
+      </c>
+      <c r="O260">
+        <v>3.5</v>
+      </c>
+      <c r="P260">
+        <v>-0.25</v>
+      </c>
+      <c r="Q260">
+        <v>1.875</v>
+      </c>
+      <c r="R260">
+        <v>1.975</v>
+      </c>
+      <c r="S260">
+        <v>2.25</v>
+      </c>
+      <c r="T260">
+        <v>1.975</v>
+      </c>
+      <c r="U260">
+        <v>1.875</v>
+      </c>
+      <c r="V260">
+        <v>0</v>
+      </c>
+      <c r="W260">
+        <v>0</v>
+      </c>
+      <c r="X260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>34</v>
+      </c>
+      <c r="C261" t="s">
+        <v>35</v>
+      </c>
+      <c r="D261" s="2">
+        <v>45411.59375</v>
+      </c>
+      <c r="E261" t="s">
+        <v>51</v>
+      </c>
+      <c r="F261" t="s">
+        <v>49</v>
+      </c>
+      <c r="J261">
+        <v>1.615</v>
+      </c>
+      <c r="K261">
+        <v>3.6</v>
+      </c>
+      <c r="L261">
+        <v>6</v>
+      </c>
+      <c r="M261">
+        <v>1.571</v>
+      </c>
+      <c r="N261">
+        <v>3.8</v>
+      </c>
+      <c r="O261">
+        <v>6.5</v>
+      </c>
+      <c r="P261">
+        <v>-1</v>
+      </c>
+      <c r="Q261">
+        <v>2.025</v>
+      </c>
+      <c r="R261">
+        <v>1.825</v>
+      </c>
+      <c r="S261">
+        <v>2.25</v>
+      </c>
+      <c r="T261">
+        <v>1.9</v>
+      </c>
+      <c r="U261">
+        <v>1.95</v>
+      </c>
+      <c r="V261">
+        <v>0</v>
+      </c>
+      <c r="W261">
+        <v>0</v>
+      </c>
+      <c r="X261">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -97,9 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8129696</t>
-  </si>
-  <si>
     <t>8129705</t>
   </si>
   <si>
@@ -151,10 +148,10 @@
     <t>Levski Sofia</t>
   </si>
   <si>
-    <t>Cherno More Varna</t>
+    <t>CSKA 1948 Sofia</t>
   </si>
   <si>
-    <t>CSKA 1948 Sofia</t>
+    <t>Cherno More Varna</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -540,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB261"/>
+  <dimension ref="A1:AB260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,16 +634,16 @@
         <v>6627734</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>45078.47916666666</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -655,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2">
         <v>2.2</v>
@@ -723,16 +720,16 @@
         <v>6627735</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>45078.58333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -741,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3">
         <v>1.95</v>
@@ -809,13 +806,13 @@
         <v>6627722</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>45079.57291666666</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -827,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4">
         <v>2.8</v>
@@ -895,16 +892,16 @@
         <v>6627723</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>45080.5</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -913,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5">
         <v>1.65</v>
@@ -981,16 +978,16 @@
         <v>6627289</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>45080.60416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -999,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6">
         <v>1.615</v>
@@ -1067,16 +1064,16 @@
         <v>6627751</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>45082.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1085,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -1153,16 +1150,16 @@
         <v>6627736</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>45083.5625</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1171,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8">
         <v>5.25</v>
@@ -1239,16 +1236,16 @@
         <v>6627737</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>45083.5625</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1257,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9">
         <v>1.5</v>
@@ -1325,16 +1322,16 @@
         <v>6627725</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>45084.53125</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1343,7 +1340,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10">
         <v>2.625</v>
@@ -1408,85 +1405,85 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6627290</v>
+        <v>6627724</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>45084.53125</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11">
+        <v>1.5</v>
+      </c>
+      <c r="K11">
+        <v>3.8</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>1.45</v>
+      </c>
+      <c r="N11">
+        <v>4.2</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <v>-1.25</v>
+      </c>
+      <c r="Q11">
+        <v>2.025</v>
+      </c>
+      <c r="R11">
+        <v>1.825</v>
+      </c>
+      <c r="S11">
+        <v>2.5</v>
+      </c>
+      <c r="T11">
+        <v>1.85</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>-1</v>
+      </c>
+      <c r="W11">
+        <v>3.2</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
+        <v>0.825</v>
+      </c>
+      <c r="AA11">
+        <v>-1</v>
+      </c>
+      <c r="AB11">
         <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11">
-        <v>6</v>
-      </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-      <c r="L11">
-        <v>1.45</v>
-      </c>
-      <c r="M11">
-        <v>6</v>
-      </c>
-      <c r="N11">
-        <v>4.333</v>
-      </c>
-      <c r="O11">
-        <v>1.55</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
-      <c r="R11">
-        <v>1.85</v>
-      </c>
-      <c r="S11">
-        <v>2.75</v>
-      </c>
-      <c r="T11">
-        <v>1.825</v>
-      </c>
-      <c r="U11">
-        <v>2.025</v>
-      </c>
-      <c r="V11">
-        <v>-1</v>
-      </c>
-      <c r="W11">
-        <v>-1</v>
-      </c>
-      <c r="X11">
-        <v>0.55</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>-1</v>
-      </c>
-      <c r="AB11">
-        <v>1.025</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1494,85 +1491,85 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627724</v>
+        <v>6627290</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
         <v>45084.53125</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J12">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="K12">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L12">
+        <v>1.45</v>
+      </c>
+      <c r="M12">
         <v>6</v>
       </c>
-      <c r="M12">
-        <v>1.45</v>
-      </c>
       <c r="N12">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O12">
-        <v>8</v>
+        <v>1.55</v>
       </c>
       <c r="P12">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>1.85</v>
+      </c>
+      <c r="S12">
+        <v>2.75</v>
+      </c>
+      <c r="T12">
+        <v>1.825</v>
+      </c>
+      <c r="U12">
         <v>2.025</v>
       </c>
-      <c r="R12">
-        <v>1.825</v>
-      </c>
-      <c r="S12">
-        <v>2.5</v>
-      </c>
-      <c r="T12">
-        <v>1.85</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
       <c r="V12">
         <v>-1</v>
       </c>
       <c r="W12">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1583,16 +1580,16 @@
         <v>6749438</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>45088.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1601,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J13">
         <v>1.6</v>
@@ -1669,16 +1666,16 @@
         <v>6822366</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>45121.53125</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1687,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14">
         <v>2.5</v>
@@ -1755,16 +1752,16 @@
         <v>6780988</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>45121.625</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1773,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15">
         <v>11</v>
@@ -1841,16 +1838,16 @@
         <v>6780482</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>45122.53125</v>
       </c>
       <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
         <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>46</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1859,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -1927,13 +1924,13 @@
         <v>6824119</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>45122.625</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
         <v>45</v>
@@ -1945,7 +1942,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17">
         <v>2.6</v>
@@ -2013,16 +2010,16 @@
         <v>6791826</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>45123.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2031,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J18">
         <v>2.5</v>
@@ -2099,16 +2096,16 @@
         <v>6824120</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>45123.625</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2117,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J19">
         <v>11</v>
@@ -2185,16 +2182,16 @@
         <v>6824118</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2">
         <v>45124.52083333334</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2203,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -2271,16 +2268,16 @@
         <v>6777643</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2">
         <v>45124.61458333334</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2289,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J21">
         <v>2.8</v>
@@ -2357,16 +2354,16 @@
         <v>6822367</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
         <v>46</v>
-      </c>
-      <c r="F22" t="s">
-        <v>47</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2375,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J22">
         <v>1.142</v>
@@ -2443,16 +2440,16 @@
         <v>6824122</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>45128.63541666666</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2461,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J23">
         <v>1.25</v>
@@ -2529,16 +2526,16 @@
         <v>6780483</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
         <v>45129.55208333334</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2547,7 +2544,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2615,16 +2612,16 @@
         <v>6831734</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
         <v>45129.64583333334</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2633,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J25">
         <v>1.1</v>
@@ -2701,7 +2698,7 @@
         <v>6824123</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>45130.54166666666</v>
@@ -2710,7 +2707,7 @@
         <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2719,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J26">
         <v>1.5</v>
@@ -2787,16 +2784,16 @@
         <v>6824125</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>45130.63541666666</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2805,7 +2802,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -2873,16 +2870,16 @@
         <v>6824121</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>45131.54166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2891,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J28">
         <v>3.6</v>
@@ -2959,16 +2956,16 @@
         <v>6824124</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2">
         <v>45131.63541666666</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2977,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J29">
         <v>3.8</v>
@@ -3045,13 +3042,13 @@
         <v>6824128</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
         <v>45135.63541666666</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
         <v>45</v>
@@ -3063,7 +3060,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30">
         <v>4.2</v>
@@ -3131,16 +3128,16 @@
         <v>6824127</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2">
         <v>45136.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3149,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J31">
         <v>2.4</v>
@@ -3217,16 +3214,16 @@
         <v>6791827</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3235,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J32">
         <v>2.8</v>
@@ -3303,16 +3300,16 @@
         <v>6780484</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
         <v>45137.63541666666</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -3321,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J33">
         <v>1.25</v>
@@ -3389,16 +3386,16 @@
         <v>6824126</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <v>45138.63541666666</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3407,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J34">
         <v>1.4</v>
@@ -3475,7 +3472,7 @@
         <v>6824132</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
         <v>45142.54166666666</v>
@@ -3484,7 +3481,7 @@
         <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3493,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J35">
         <v>1.444</v>
@@ -3561,16 +3558,16 @@
         <v>6791828</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2">
         <v>45142.63541666666</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3579,7 +3576,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -3647,16 +3644,16 @@
         <v>6852041</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2">
         <v>45143.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3665,7 +3662,7 @@
         <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J37">
         <v>7.5</v>
@@ -3733,16 +3730,16 @@
         <v>6822368</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
         <v>45143.63541666666</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3751,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J38">
         <v>1.85</v>
@@ -3819,16 +3816,16 @@
         <v>6824131</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2">
         <v>45144.53125</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3837,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J39">
         <v>1.5</v>
@@ -3905,16 +3902,16 @@
         <v>6780485</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>45144.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3923,7 +3920,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J40">
         <v>3</v>
@@ -3991,16 +3988,16 @@
         <v>6826694</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
         <v>45145.54166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4009,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J41">
         <v>1.2</v>
@@ -4077,16 +4074,16 @@
         <v>6824133</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2">
         <v>45145.63541666666</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4095,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J42">
         <v>1.909</v>
@@ -4163,16 +4160,16 @@
         <v>6824134</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4181,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J43">
         <v>1.75</v>
@@ -4249,16 +4246,16 @@
         <v>6822369</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2">
         <v>45149.63541666666</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4267,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J44">
         <v>4</v>
@@ -4335,16 +4332,16 @@
         <v>6791829</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2">
         <v>45150.54166666666</v>
       </c>
       <c r="E45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" t="s">
         <v>41</v>
-      </c>
-      <c r="F45" t="s">
-        <v>42</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4353,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J45">
         <v>3.6</v>
@@ -4421,13 +4418,13 @@
         <v>6824136</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s">
         <v>45</v>
@@ -4439,7 +4436,7 @@
         <v>5</v>
       </c>
       <c r="I46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J46">
         <v>2.4</v>
@@ -4507,16 +4504,16 @@
         <v>6780486</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2">
         <v>45151.53125</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4525,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J47">
         <v>1.166</v>
@@ -4593,16 +4590,16 @@
         <v>6824137</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
         <v>45151.63541666666</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4611,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J48">
         <v>1.85</v>
@@ -4679,16 +4676,16 @@
         <v>6824135</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2">
         <v>45152.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4697,7 +4694,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J49">
         <v>2.6</v>
@@ -4765,16 +4762,16 @@
         <v>6826695</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2">
         <v>45152.63541666666</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4783,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J50">
         <v>4.75</v>
@@ -4851,16 +4848,16 @@
         <v>6824141</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4869,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J51">
         <v>1.909</v>
@@ -4937,16 +4934,16 @@
         <v>6824142</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2">
         <v>45156.63541666666</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4955,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J52">
         <v>2</v>
@@ -5023,16 +5020,16 @@
         <v>6824140</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5041,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J53">
         <v>2.8</v>
@@ -5109,16 +5106,16 @@
         <v>6824138</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2">
         <v>45157.63541666666</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5127,7 +5124,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J54">
         <v>8.5</v>
@@ -5195,16 +5192,16 @@
         <v>6791830</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5213,7 +5210,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J55">
         <v>1.5</v>
@@ -5281,7 +5278,7 @@
         <v>6824139</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2">
         <v>45158.63541666666</v>
@@ -5290,7 +5287,7 @@
         <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5299,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J56">
         <v>3.4</v>
@@ -5367,16 +5364,16 @@
         <v>6826696</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2">
         <v>45159.60416666666</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5385,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J57">
         <v>1.222</v>
@@ -5453,16 +5450,16 @@
         <v>6822370</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5471,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J58">
         <v>2.25</v>
@@ -5539,16 +5536,16 @@
         <v>6824143</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2">
         <v>45163.63541666666</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5557,7 +5554,7 @@
         <v>4</v>
       </c>
       <c r="I59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J59">
         <v>3.6</v>
@@ -5625,16 +5622,16 @@
         <v>6824144</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5643,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J60">
         <v>2.05</v>
@@ -5711,13 +5708,13 @@
         <v>6824147</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2">
         <v>45164.63541666666</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
         <v>45</v>
@@ -5729,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J61">
         <v>1.6</v>
@@ -5797,16 +5794,16 @@
         <v>6791831</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2">
         <v>45165.54166666666</v>
       </c>
       <c r="E62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5815,7 +5812,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J62">
         <v>2.9</v>
@@ -5883,16 +5880,16 @@
         <v>6824146</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2">
         <v>45165.63541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G63">
         <v>5</v>
@@ -5901,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J63">
         <v>1.142</v>
@@ -5969,16 +5966,16 @@
         <v>6824145</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2">
         <v>45166.60416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5987,7 +5984,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J64">
         <v>3.6</v>
@@ -6055,16 +6052,16 @@
         <v>6822371</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2">
         <v>45170.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6073,7 +6070,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J65">
         <v>3.5</v>
@@ -6141,13 +6138,13 @@
         <v>6824148</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2">
         <v>45170.55208333334</v>
       </c>
       <c r="E66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F66" t="s">
         <v>45</v>
@@ -6159,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -6227,16 +6224,16 @@
         <v>6791832</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2">
         <v>45170.64583333334</v>
       </c>
       <c r="E67" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s">
         <v>42</v>
-      </c>
-      <c r="F67" t="s">
-        <v>43</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -6245,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J67">
         <v>2.15</v>
@@ -6313,16 +6310,16 @@
         <v>6824150</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2">
         <v>45171.54166666666</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6331,7 +6328,7 @@
         <v>3</v>
       </c>
       <c r="I68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J68">
         <v>1.909</v>
@@ -6399,16 +6396,16 @@
         <v>6824149</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2">
         <v>45171.63541666666</v>
       </c>
       <c r="E69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6417,7 +6414,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -6485,16 +6482,16 @@
         <v>6824151</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2">
         <v>45172.54166666666</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G70">
         <v>4</v>
@@ -6503,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J70">
         <v>1.533</v>
@@ -6571,16 +6568,16 @@
         <v>6780489</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2">
         <v>45172.63541666666</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6589,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J71">
         <v>1.2</v>
@@ -6657,16 +6654,16 @@
         <v>7158358</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2">
         <v>45183.60416666666</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6675,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J72">
         <v>1.142</v>
@@ -6743,16 +6740,16 @@
         <v>7139599</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2">
         <v>45184.47916666666</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G73">
         <v>4</v>
@@ -6761,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J73">
         <v>1.6</v>
@@ -6829,7 +6826,7 @@
         <v>7139606</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2">
         <v>45184.58333333334</v>
@@ -6838,7 +6835,7 @@
         <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6847,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J74">
         <v>1.571</v>
@@ -6915,16 +6912,16 @@
         <v>7139603</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2">
         <v>45185.47916666666</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6933,7 +6930,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J75">
         <v>2.1</v>
@@ -7001,16 +6998,16 @@
         <v>7139604</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2">
         <v>45185.58333333334</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7019,7 +7016,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J76">
         <v>1.333</v>
@@ -7087,16 +7084,16 @@
         <v>7139602</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2">
         <v>45186.48958333334</v>
       </c>
       <c r="E77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7105,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J77">
         <v>3.6</v>
@@ -7173,16 +7170,16 @@
         <v>7139605</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2">
         <v>45186.59375</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7191,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7259,16 +7256,16 @@
         <v>7139600</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2">
         <v>45187.47916666666</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7277,7 +7274,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7345,16 +7342,16 @@
         <v>7139601</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D80" s="2">
         <v>45187.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7363,7 +7360,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J80">
         <v>5.5</v>
@@ -7431,16 +7428,16 @@
         <v>7179269</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2">
         <v>45191.375</v>
       </c>
       <c r="E81" t="s">
+        <v>49</v>
+      </c>
+      <c r="F81" t="s">
         <v>50</v>
-      </c>
-      <c r="F81" t="s">
-        <v>51</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7449,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J81">
         <v>2.5</v>
@@ -7517,13 +7514,13 @@
         <v>7179270</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2">
         <v>45191.47916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
         <v>45</v>
@@ -7535,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J82">
         <v>1.95</v>
@@ -7603,16 +7600,16 @@
         <v>7179271</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2">
         <v>45191.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7621,7 +7618,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J83">
         <v>3.6</v>
@@ -7689,16 +7686,16 @@
         <v>7179276</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D84" s="2">
         <v>45192.375</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7707,7 +7704,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J84">
         <v>1.7</v>
@@ -7775,16 +7772,16 @@
         <v>7179273</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2">
         <v>45192.47916666666</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7793,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J85">
         <v>1.8</v>
@@ -7861,16 +7858,16 @@
         <v>7179274</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7879,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J86">
         <v>1.25</v>
@@ -7947,16 +7944,16 @@
         <v>7179275</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D87" s="2">
         <v>45193.5</v>
       </c>
       <c r="E87" t="s">
+        <v>46</v>
+      </c>
+      <c r="F87" t="s">
         <v>47</v>
-      </c>
-      <c r="F87" t="s">
-        <v>48</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7965,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J87">
         <v>2.75</v>
@@ -8033,16 +8030,16 @@
         <v>7179272</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2">
         <v>45193.60416666666</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8051,7 +8048,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J88">
         <v>8</v>
@@ -8119,16 +8116,16 @@
         <v>6824162</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2">
         <v>45195.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8137,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J89">
         <v>4.75</v>
@@ -8205,7 +8202,7 @@
         <v>6791835</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2">
         <v>45195.5625</v>
@@ -8214,7 +8211,7 @@
         <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8223,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J90">
         <v>1.833</v>
@@ -8291,16 +8288,16 @@
         <v>6885560</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D91" s="2">
         <v>45196.39583333334</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8309,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J91">
         <v>1.95</v>
@@ -8377,17 +8374,17 @@
         <v>6780492</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2">
         <v>45196.5</v>
       </c>
       <c r="E92" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" t="s">
         <v>43</v>
       </c>
-      <c r="F92" t="s">
-        <v>44</v>
-      </c>
       <c r="G92">
         <v>0</v>
       </c>
@@ -8395,7 +8392,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J92">
         <v>4.333</v>
@@ -8463,16 +8460,16 @@
         <v>6824160</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D93" s="2">
         <v>45196.60416666666</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8481,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J93">
         <v>1.363</v>
@@ -8549,16 +8546,16 @@
         <v>6822374</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2">
         <v>45197.39583333334</v>
       </c>
       <c r="E94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8567,7 +8564,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J94">
         <v>1.909</v>
@@ -8635,16 +8632,16 @@
         <v>6852038</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2">
         <v>45197.5</v>
       </c>
       <c r="E95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8653,7 +8650,7 @@
         <v>3</v>
       </c>
       <c r="I95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J95">
         <v>3.3</v>
@@ -8721,16 +8718,16 @@
         <v>6824161</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2">
         <v>45197.60416666666</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8739,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J96">
         <v>1.3</v>
@@ -8807,16 +8804,16 @@
         <v>6826698</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2">
         <v>45199.47916666666</v>
       </c>
       <c r="E97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F97" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8825,7 +8822,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J97">
         <v>7.5</v>
@@ -8893,16 +8890,16 @@
         <v>6791836</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2">
         <v>45199.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8911,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J98">
         <v>1.85</v>
@@ -8979,16 +8976,16 @@
         <v>6831735</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2">
         <v>45200.38541666666</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8997,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J99">
         <v>1.55</v>
@@ -9065,13 +9062,13 @@
         <v>6824163</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2">
         <v>45200.48958333334</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
         <v>45</v>
@@ -9083,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J100">
         <v>3.9</v>
@@ -9151,16 +9148,16 @@
         <v>6780493</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D101" s="2">
         <v>45200.60416666666</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9169,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J101">
         <v>3.2</v>
@@ -9237,16 +9234,16 @@
         <v>6874126</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D102" s="2">
         <v>45201.375</v>
       </c>
       <c r="E102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9255,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J102">
         <v>2.2</v>
@@ -9323,16 +9320,16 @@
         <v>6822375</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D103" s="2">
         <v>45201.47916666666</v>
       </c>
       <c r="E103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9341,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J103">
         <v>3.5</v>
@@ -9409,17 +9406,17 @@
         <v>6824164</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2">
         <v>45201.58333333334</v>
       </c>
       <c r="E104" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" t="s">
         <v>38</v>
       </c>
-      <c r="F104" t="s">
-        <v>39</v>
-      </c>
       <c r="G104">
         <v>0</v>
       </c>
@@ -9427,7 +9424,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J104">
         <v>3.2</v>
@@ -9495,16 +9492,16 @@
         <v>6874127</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D105" s="2">
         <v>45205.47916666666</v>
       </c>
       <c r="E105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9513,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J105">
         <v>1.8</v>
@@ -9581,16 +9578,16 @@
         <v>6824169</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2">
         <v>45205.58333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9599,7 +9596,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J106">
         <v>2.2</v>
@@ -9667,16 +9664,16 @@
         <v>7290919</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D107" s="2">
         <v>45206.36458333334</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9685,7 +9682,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J107">
         <v>2.4</v>
@@ -9753,16 +9750,16 @@
         <v>7290917</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D108" s="2">
         <v>45206.48958333334</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9771,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J108">
         <v>3.5</v>
@@ -9839,7 +9836,7 @@
         <v>6824168</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D109" s="2">
         <v>45206.59375</v>
@@ -9848,7 +9845,7 @@
         <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9857,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9925,16 +9922,16 @@
         <v>7290920</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D110" s="2">
         <v>45207.38541666666</v>
       </c>
       <c r="E110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9943,7 +9940,7 @@
         <v>5</v>
       </c>
       <c r="I110" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J110">
         <v>2.4</v>
@@ -10011,16 +10008,16 @@
         <v>7290918</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D111" s="2">
         <v>45207.48958333334</v>
       </c>
       <c r="E111" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10029,7 +10026,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J111">
         <v>1.75</v>
@@ -10097,16 +10094,16 @@
         <v>6822376</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D112" s="2">
         <v>45207.59375</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G112">
         <v>4</v>
@@ -10115,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J112">
         <v>1.05</v>
@@ -10183,17 +10180,17 @@
         <v>6831737</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D113" s="2">
         <v>45219.44791666666</v>
       </c>
       <c r="E113" t="s">
+        <v>47</v>
+      </c>
+      <c r="F113" t="s">
         <v>48</v>
       </c>
-      <c r="F113" t="s">
-        <v>49</v>
-      </c>
       <c r="G113">
         <v>0</v>
       </c>
@@ -10201,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J113">
         <v>1.833</v>
@@ -10269,16 +10266,16 @@
         <v>6824171</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D114" s="2">
         <v>45219.55208333334</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10287,7 +10284,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J114">
         <v>1.5</v>
@@ -10355,16 +10352,16 @@
         <v>6791838</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10373,7 +10370,7 @@
         <v>5</v>
       </c>
       <c r="I115" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J115">
         <v>3.25</v>
@@ -10441,16 +10438,16 @@
         <v>6824170</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D116" s="2">
         <v>45220.4375</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10459,7 +10456,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J116">
         <v>4.8</v>
@@ -10527,16 +10524,16 @@
         <v>6822377</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2">
         <v>45220.54166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10545,7 +10542,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J117">
         <v>12</v>
@@ -10613,16 +10610,16 @@
         <v>6824172</v>
       </c>
       <c r="C118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2">
         <v>45221.33333333334</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10631,7 +10628,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J118">
         <v>2.625</v>
@@ -10699,13 +10696,13 @@
         <v>6780495</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D119" s="2">
         <v>45221.4375</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F119" t="s">
         <v>45</v>
@@ -10717,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J119">
         <v>1.7</v>
@@ -10785,16 +10782,16 @@
         <v>6852039</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
         <v>45221.54166666666</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10803,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J120">
         <v>5.5</v>
@@ -10871,16 +10868,16 @@
         <v>6831738</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D121" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E121" t="s">
+        <v>48</v>
+      </c>
+      <c r="F121" t="s">
         <v>49</v>
-      </c>
-      <c r="F121" t="s">
-        <v>50</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10889,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J121">
         <v>2.3</v>
@@ -10957,16 +10954,16 @@
         <v>6791839</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2">
         <v>45225.27083333334</v>
       </c>
       <c r="E122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122">
         <v>6</v>
@@ -10975,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J122">
         <v>1.75</v>
@@ -11043,7 +11040,7 @@
         <v>6822378</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D123" s="2">
         <v>45225.375</v>
@@ -11052,7 +11049,7 @@
         <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11061,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J123">
         <v>1.3</v>
@@ -11129,16 +11126,16 @@
         <v>6824175</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2">
         <v>45225.47916666666</v>
       </c>
       <c r="E124" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11147,7 +11144,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J124">
         <v>1.85</v>
@@ -11215,16 +11212,16 @@
         <v>6824173</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D125" s="2">
         <v>45226.33333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11233,7 +11230,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J125">
         <v>2</v>
@@ -11301,16 +11298,16 @@
         <v>6824174</v>
       </c>
       <c r="C126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2">
         <v>45226.4375</v>
       </c>
       <c r="E126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11319,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J126">
         <v>1.5</v>
@@ -11387,16 +11384,16 @@
         <v>6780496</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D127" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E127" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11405,7 +11402,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J127">
         <v>5.5</v>
@@ -11473,16 +11470,16 @@
         <v>6852042</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D128" s="2">
         <v>45228.55208333334</v>
       </c>
       <c r="E128" t="s">
+        <v>39</v>
+      </c>
+      <c r="F128" t="s">
         <v>40</v>
-      </c>
-      <c r="F128" t="s">
-        <v>41</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -11491,7 +11488,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J128">
         <v>1.125</v>
@@ -11559,16 +11556,16 @@
         <v>7326962</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D129" s="2">
         <v>45231.5</v>
       </c>
       <c r="E129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11577,7 +11574,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J129">
         <v>10</v>
@@ -11645,16 +11642,16 @@
         <v>7326964</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D130" s="2">
         <v>45231.60416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11663,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J130">
         <v>3</v>
@@ -11731,16 +11728,16 @@
         <v>7326963</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D131" s="2">
         <v>45232.54166666666</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11749,7 +11746,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J131">
         <v>7.5</v>
@@ -11817,16 +11814,16 @@
         <v>6822379</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D132" s="2">
         <v>45233.5</v>
       </c>
       <c r="E132" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11835,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J132">
         <v>2</v>
@@ -11903,16 +11900,16 @@
         <v>6791840</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D133" s="2">
         <v>45233.60416666666</v>
       </c>
       <c r="E133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11921,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J133">
         <v>3.3</v>
@@ -11989,16 +11986,16 @@
         <v>6852043</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D134" s="2">
         <v>45235.4375</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -12007,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J134">
         <v>1.222</v>
@@ -12075,16 +12072,16 @@
         <v>7408275</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D135" s="2">
         <v>45236.33333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12093,7 +12090,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J135">
         <v>2.1</v>
@@ -12161,16 +12158,16 @@
         <v>6824179</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2">
         <v>45236.4375</v>
       </c>
       <c r="E136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12179,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J136">
         <v>1.65</v>
@@ -12247,16 +12244,16 @@
         <v>6824178</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D137" s="2">
         <v>45236.54166666666</v>
       </c>
       <c r="E137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G137">
         <v>3</v>
@@ -12265,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J137">
         <v>1.181</v>
@@ -12333,7 +12330,7 @@
         <v>6824177</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D138" s="2">
         <v>45237.41666666666</v>
@@ -12342,7 +12339,7 @@
         <v>45</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12351,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J138">
         <v>1.909</v>
@@ -12419,16 +12416,16 @@
         <v>6780497</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2">
         <v>45237.52083333334</v>
       </c>
       <c r="E139" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12437,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J139">
         <v>2.6</v>
@@ -12505,16 +12502,16 @@
         <v>6824180</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D140" s="2">
         <v>45240.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12523,7 +12520,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J140">
         <v>1.666</v>
@@ -12591,16 +12588,16 @@
         <v>6824184</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D141" s="2">
         <v>45240.52083333334</v>
       </c>
       <c r="E141" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -12609,7 +12606,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J141">
         <v>1.45</v>
@@ -12677,13 +12674,13 @@
         <v>6824182</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D142" s="2">
         <v>45241.32291666666</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
         <v>45</v>
@@ -12695,7 +12692,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J142">
         <v>3.4</v>
@@ -12763,16 +12760,16 @@
         <v>6822380</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D143" s="2">
         <v>45241.42708333334</v>
       </c>
       <c r="E143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12781,7 +12778,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J143">
         <v>6</v>
@@ -12849,16 +12846,16 @@
         <v>6824183</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D144" s="2">
         <v>45241.53125</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12867,7 +12864,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J144">
         <v>1.7</v>
@@ -12935,16 +12932,16 @@
         <v>6824181</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D145" s="2">
         <v>45242.33333333334</v>
       </c>
       <c r="E145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12953,7 +12950,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J145">
         <v>7</v>
@@ -13021,16 +13018,16 @@
         <v>6780498</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D146" s="2">
         <v>45242.4375</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13039,7 +13036,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J146">
         <v>1.5</v>
@@ -13107,16 +13104,16 @@
         <v>6831739</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D147" s="2">
         <v>45242.54166666666</v>
       </c>
       <c r="E147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13125,7 +13122,7 @@
         <v>4</v>
       </c>
       <c r="I147" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J147">
         <v>11</v>
@@ -13193,16 +13190,16 @@
         <v>6824186</v>
       </c>
       <c r="C148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D148" s="2">
         <v>45254.52083333334</v>
       </c>
       <c r="E148" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -13211,7 +13208,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J148">
         <v>1.909</v>
@@ -13279,16 +13276,16 @@
         <v>6824185</v>
       </c>
       <c r="C149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D149" s="2">
         <v>45255.3125</v>
       </c>
       <c r="E149" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13297,7 +13294,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J149">
         <v>4.2</v>
@@ -13365,16 +13362,16 @@
         <v>6791841</v>
       </c>
       <c r="C150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D150" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13383,7 +13380,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J150">
         <v>1.444</v>
@@ -13451,16 +13448,16 @@
         <v>6824188</v>
       </c>
       <c r="C151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D151" s="2">
         <v>45256.52083333334</v>
       </c>
       <c r="E151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13469,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J151">
         <v>1.153</v>
@@ -13537,7 +13534,7 @@
         <v>6824187</v>
       </c>
       <c r="C152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D152" s="2">
         <v>45256.53125</v>
@@ -13546,7 +13543,7 @@
         <v>45</v>
       </c>
       <c r="F152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13555,7 +13552,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J152">
         <v>1.4</v>
@@ -13623,16 +13620,16 @@
         <v>7527165</v>
       </c>
       <c r="C153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D153" s="2">
         <v>45257.32291666666</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F153" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13641,7 +13638,7 @@
         <v>3</v>
       </c>
       <c r="I153" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J153">
         <v>2.7</v>
@@ -13709,16 +13706,16 @@
         <v>6824189</v>
       </c>
       <c r="C154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D154" s="2">
         <v>45257.42708333334</v>
       </c>
       <c r="E154" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13727,7 +13724,7 @@
         <v>3</v>
       </c>
       <c r="I154" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J154">
         <v>1.153</v>
@@ -13795,16 +13792,16 @@
         <v>6780499</v>
       </c>
       <c r="C155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D155" s="2">
         <v>45257.52083333334</v>
       </c>
       <c r="E155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13813,7 +13810,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J155">
         <v>6</v>
@@ -13881,16 +13878,16 @@
         <v>7497758</v>
       </c>
       <c r="C156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D156" s="2">
         <v>45261.41666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13899,7 +13896,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J156">
         <v>1.95</v>
@@ -13967,16 +13964,16 @@
         <v>7497754</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D157" s="2">
         <v>45261.52083333334</v>
       </c>
       <c r="E157" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13985,7 +13982,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J157">
         <v>6</v>
@@ -14053,16 +14050,16 @@
         <v>7497757</v>
       </c>
       <c r="C158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D158" s="2">
         <v>45262.3125</v>
       </c>
       <c r="E158" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14071,7 +14068,7 @@
         <v>3</v>
       </c>
       <c r="I158" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J158">
         <v>4.5</v>
@@ -14139,13 +14136,13 @@
         <v>7497755</v>
       </c>
       <c r="C159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D159" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F159" t="s">
         <v>45</v>
@@ -14157,7 +14154,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J159">
         <v>5</v>
@@ -14225,16 +14222,16 @@
         <v>7497760</v>
       </c>
       <c r="C160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D160" s="2">
         <v>45262.52083333334</v>
       </c>
       <c r="E160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14243,7 +14240,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J160">
         <v>1.727</v>
@@ -14311,16 +14308,16 @@
         <v>7497759</v>
       </c>
       <c r="C161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D161" s="2">
         <v>45263.32291666666</v>
       </c>
       <c r="E161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14329,7 +14326,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14397,16 +14394,16 @@
         <v>7497753</v>
       </c>
       <c r="C162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D162" s="2">
         <v>45263.42708333334</v>
       </c>
       <c r="E162" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G162">
         <v>5</v>
@@ -14415,7 +14412,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J162">
         <v>1.062</v>
@@ -14483,16 +14480,16 @@
         <v>7497756</v>
       </c>
       <c r="C163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D163" s="2">
         <v>45263.53125</v>
       </c>
       <c r="E163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F163" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14501,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J163">
         <v>2.4</v>
@@ -14569,16 +14566,16 @@
         <v>6824193</v>
       </c>
       <c r="C164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D164" s="2">
         <v>45269.3125</v>
       </c>
       <c r="E164" t="s">
+        <v>35</v>
+      </c>
+      <c r="F164" t="s">
         <v>36</v>
-      </c>
-      <c r="F164" t="s">
-        <v>37</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14587,7 +14584,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J164">
         <v>3.75</v>
@@ -14655,7 +14652,7 @@
         <v>6824195</v>
       </c>
       <c r="C165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D165" s="2">
         <v>45269.41666666666</v>
@@ -14664,7 +14661,7 @@
         <v>45</v>
       </c>
       <c r="F165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -14673,7 +14670,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J165">
         <v>1.615</v>
@@ -14741,16 +14738,16 @@
         <v>6780501</v>
       </c>
       <c r="C166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D166" s="2">
         <v>45269.52083333334</v>
       </c>
       <c r="E166" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14759,7 +14756,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J166">
         <v>7.5</v>
@@ -14827,16 +14824,16 @@
         <v>6826701</v>
       </c>
       <c r="C167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D167" s="2">
         <v>45270.3125</v>
       </c>
       <c r="E167" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F167" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -14845,7 +14842,7 @@
         <v>3</v>
       </c>
       <c r="I167" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J167">
         <v>1.333</v>
@@ -14913,16 +14910,16 @@
         <v>6791843</v>
       </c>
       <c r="C168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D168" s="2">
         <v>45270.41666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14931,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J168">
         <v>1.533</v>
@@ -14999,16 +14996,16 @@
         <v>6824196</v>
       </c>
       <c r="C169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D169" s="2">
         <v>45270.53125</v>
       </c>
       <c r="E169" t="s">
+        <v>38</v>
+      </c>
+      <c r="F169" t="s">
         <v>39</v>
-      </c>
-      <c r="F169" t="s">
-        <v>40</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15017,7 +15014,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J169">
         <v>2.8</v>
@@ -15085,16 +15082,16 @@
         <v>6822382</v>
       </c>
       <c r="C170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D170" s="2">
         <v>45271.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15103,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J170">
         <v>1.363</v>
@@ -15171,16 +15168,16 @@
         <v>6824194</v>
       </c>
       <c r="C171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D171" s="2">
         <v>45271.52083333334</v>
       </c>
       <c r="E171" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15189,7 +15186,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J171">
         <v>1.615</v>
@@ -15257,16 +15254,16 @@
         <v>7524523</v>
       </c>
       <c r="C172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D172" s="2">
         <v>45274.52083333334</v>
       </c>
       <c r="E172" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15275,7 +15272,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J172">
         <v>1.85</v>
@@ -15343,16 +15340,16 @@
         <v>7626379</v>
       </c>
       <c r="C173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D173" s="2">
         <v>45338.52083333334</v>
       </c>
       <c r="E173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15361,7 +15358,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J173">
         <v>2.4</v>
@@ -15429,16 +15426,16 @@
         <v>7626378</v>
       </c>
       <c r="C174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D174" s="2">
         <v>45339.29166666666</v>
       </c>
       <c r="E174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F174" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15447,7 +15444,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J174">
         <v>5.25</v>
@@ -15515,16 +15512,16 @@
         <v>7626376</v>
       </c>
       <c r="C175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D175" s="2">
         <v>45339.39583333334</v>
       </c>
       <c r="E175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F175" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15533,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J175">
         <v>1.8</v>
@@ -15601,16 +15598,16 @@
         <v>7626381</v>
       </c>
       <c r="C176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D176" s="2">
         <v>45339.5</v>
       </c>
       <c r="E176" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15619,7 +15616,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J176">
         <v>5.75</v>
@@ -15687,16 +15684,16 @@
         <v>7626377</v>
       </c>
       <c r="C177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D177" s="2">
         <v>45340.32291666666</v>
       </c>
       <c r="E177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15705,7 +15702,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J177">
         <v>5.5</v>
@@ -15773,16 +15770,16 @@
         <v>7626380</v>
       </c>
       <c r="C178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D178" s="2">
         <v>45340.42708333334</v>
       </c>
       <c r="E178" t="s">
+        <v>36</v>
+      </c>
+      <c r="F178" t="s">
         <v>37</v>
-      </c>
-      <c r="F178" t="s">
-        <v>38</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15791,7 +15788,7 @@
         <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J178">
         <v>2.5</v>
@@ -15859,16 +15856,16 @@
         <v>7626374</v>
       </c>
       <c r="C179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D179" s="2">
         <v>45340.53125</v>
       </c>
       <c r="E179" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F179" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G179">
         <v>3</v>
@@ -15877,7 +15874,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J179">
         <v>1.083</v>
@@ -15945,13 +15942,13 @@
         <v>7626375</v>
       </c>
       <c r="C180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D180" s="2">
         <v>45341.45833333334</v>
       </c>
       <c r="E180" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F180" t="s">
         <v>45</v>
@@ -15963,7 +15960,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J180">
         <v>1.533</v>
@@ -16031,16 +16028,16 @@
         <v>6978402</v>
       </c>
       <c r="C181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D181" s="2">
         <v>45345.41666666666</v>
       </c>
       <c r="E181" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F181" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16049,7 +16046,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J181">
         <v>1.909</v>
@@ -16117,16 +16114,16 @@
         <v>6978405</v>
       </c>
       <c r="C182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D182" s="2">
         <v>45345.52083333334</v>
       </c>
       <c r="E182" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16135,7 +16132,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J182">
         <v>1.285</v>
@@ -16203,16 +16200,16 @@
         <v>6978383</v>
       </c>
       <c r="C183" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D183" s="2">
         <v>45346.32291666666</v>
       </c>
       <c r="E183" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16221,7 +16218,7 @@
         <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J183">
         <v>1.444</v>
@@ -16289,7 +16286,7 @@
         <v>6978408</v>
       </c>
       <c r="C184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D184" s="2">
         <v>45346.42708333334</v>
@@ -16298,7 +16295,7 @@
         <v>45</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16307,7 +16304,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J184">
         <v>3.2</v>
@@ -16375,16 +16372,16 @@
         <v>6978403</v>
       </c>
       <c r="C185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D185" s="2">
         <v>45346.53125</v>
       </c>
       <c r="E185" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G185">
         <v>4</v>
@@ -16393,7 +16390,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J185">
         <v>1.444</v>
@@ -16461,16 +16458,16 @@
         <v>6978404</v>
       </c>
       <c r="C186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D186" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F186" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16479,7 +16476,7 @@
         <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J186">
         <v>2.2</v>
@@ -16547,16 +16544,16 @@
         <v>6978406</v>
       </c>
       <c r="C187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D187" s="2">
         <v>45347.48958333334</v>
       </c>
       <c r="E187" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16565,7 +16562,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J187">
         <v>1.6</v>
@@ -16633,25 +16630,25 @@
         <v>6978407</v>
       </c>
       <c r="C188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D188" s="2">
         <v>45348.52083333334</v>
       </c>
       <c r="E188" t="s">
+        <v>50</v>
+      </c>
+      <c r="F188" t="s">
+        <v>39</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188" t="s">
         <v>51</v>
-      </c>
-      <c r="F188" t="s">
-        <v>40</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
-      <c r="H188">
-        <v>2</v>
-      </c>
-      <c r="I188" t="s">
-        <v>52</v>
       </c>
       <c r="J188">
         <v>13</v>
@@ -16719,7 +16716,7 @@
         <v>6978409</v>
       </c>
       <c r="C189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D189" s="2">
         <v>45352.52083333334</v>
@@ -16728,7 +16725,7 @@
         <v>45</v>
       </c>
       <c r="F189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -16737,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J189">
         <v>1.3</v>
@@ -16805,16 +16802,16 @@
         <v>6978413</v>
       </c>
       <c r="C190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D190" s="2">
         <v>45353.32291666666</v>
       </c>
       <c r="E190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16823,7 +16820,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J190">
         <v>2.55</v>
@@ -16891,16 +16888,16 @@
         <v>6978414</v>
       </c>
       <c r="C191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D191" s="2">
         <v>45353.42708333334</v>
       </c>
       <c r="E191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F191" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G191">
         <v>3</v>
@@ -16909,7 +16906,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J191">
         <v>3.1</v>
@@ -16977,16 +16974,16 @@
         <v>6978412</v>
       </c>
       <c r="C192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D192" s="2">
         <v>45353.53125</v>
       </c>
       <c r="E192" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16995,7 +16992,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J192">
         <v>2.4</v>
@@ -17063,16 +17060,16 @@
         <v>6978410</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D193" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E193" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F193" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G193">
         <v>3</v>
@@ -17081,7 +17078,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J193">
         <v>1.222</v>
@@ -17149,16 +17146,16 @@
         <v>6978411</v>
       </c>
       <c r="C194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D194" s="2">
         <v>45354.5</v>
       </c>
       <c r="E194" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F194" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17167,7 +17164,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J194">
         <v>1.4</v>
@@ -17235,16 +17232,16 @@
         <v>6978415</v>
       </c>
       <c r="C195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D195" s="2">
         <v>45355.41666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F195" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -17253,7 +17250,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J195">
         <v>1.4</v>
@@ -17321,16 +17318,16 @@
         <v>6978384</v>
       </c>
       <c r="C196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D196" s="2">
         <v>45355.52083333334</v>
       </c>
       <c r="E196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -17339,7 +17336,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J196">
         <v>7</v>
@@ -17407,16 +17404,16 @@
         <v>6978418</v>
       </c>
       <c r="C197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D197" s="2">
         <v>45359.5625</v>
       </c>
       <c r="E197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -17425,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J197">
         <v>1.4</v>
@@ -17493,16 +17490,16 @@
         <v>6978419</v>
       </c>
       <c r="C198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D198" s="2">
         <v>45360.3125</v>
       </c>
       <c r="E198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F198" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17511,7 +17508,7 @@
         <v>2</v>
       </c>
       <c r="I198" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J198">
         <v>2.35</v>
@@ -17579,16 +17576,16 @@
         <v>6978421</v>
       </c>
       <c r="C199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D199" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E199" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -17597,7 +17594,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J199">
         <v>2.7</v>
@@ -17665,13 +17662,13 @@
         <v>6978422</v>
       </c>
       <c r="C200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D200" s="2">
         <v>45360.52083333334</v>
       </c>
       <c r="E200" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F200" t="s">
         <v>45</v>
@@ -17683,7 +17680,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J200">
         <v>4.8</v>
@@ -17751,16 +17748,16 @@
         <v>6978416</v>
       </c>
       <c r="C201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D201" s="2">
         <v>45361.32291666666</v>
       </c>
       <c r="E201" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F201" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17769,7 +17766,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J201">
         <v>5</v>
@@ -17837,16 +17834,16 @@
         <v>6978417</v>
       </c>
       <c r="C202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D202" s="2">
         <v>45361.42708333334</v>
       </c>
       <c r="E202" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F202" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17855,7 +17852,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J202">
         <v>1.4</v>
@@ -17923,16 +17920,16 @@
         <v>6978420</v>
       </c>
       <c r="C203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D203" s="2">
         <v>45361.53125</v>
       </c>
       <c r="E203" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F203" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -17941,7 +17938,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J203">
         <v>5.25</v>
@@ -18009,16 +18006,16 @@
         <v>6978385</v>
       </c>
       <c r="C204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D204" s="2">
         <v>45362.52083333334</v>
       </c>
       <c r="E204" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F204" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18027,7 +18024,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J204">
         <v>2.45</v>
@@ -18095,16 +18092,16 @@
         <v>6978423</v>
       </c>
       <c r="C205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D205" s="2">
         <v>45366.46875</v>
       </c>
       <c r="E205" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F205" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18113,7 +18110,7 @@
         <v>2</v>
       </c>
       <c r="I205" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J205">
         <v>1.85</v>
@@ -18181,7 +18178,7 @@
         <v>6978424</v>
       </c>
       <c r="C206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D206" s="2">
         <v>45366.57291666666</v>
@@ -18190,7 +18187,7 @@
         <v>45</v>
       </c>
       <c r="F206" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18199,7 +18196,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J206">
         <v>1.6</v>
@@ -18267,16 +18264,16 @@
         <v>6978427</v>
       </c>
       <c r="C207" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D207" s="2">
         <v>45367.32291666666</v>
       </c>
       <c r="E207" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F207" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -18285,7 +18282,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J207">
         <v>2.15</v>
@@ -18353,16 +18350,16 @@
         <v>6978428</v>
       </c>
       <c r="C208" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D208" s="2">
         <v>45367.42708333334</v>
       </c>
       <c r="E208" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F208" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18371,7 +18368,7 @@
         <v>3</v>
       </c>
       <c r="I208" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J208">
         <v>9.5</v>
@@ -18439,16 +18436,16 @@
         <v>6978426</v>
       </c>
       <c r="C209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D209" s="2">
         <v>45367.53125</v>
       </c>
       <c r="E209" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F209" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G209">
         <v>6</v>
@@ -18457,7 +18454,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J209">
         <v>1.083</v>
@@ -18525,16 +18522,16 @@
         <v>6978429</v>
       </c>
       <c r="C210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D210" s="2">
         <v>45368.32291666666</v>
       </c>
       <c r="E210" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F210" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -18543,7 +18540,7 @@
         <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J210">
         <v>1.727</v>
@@ -18611,16 +18608,16 @@
         <v>6978386</v>
       </c>
       <c r="C211" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D211" s="2">
         <v>45368.42708333334</v>
       </c>
       <c r="E211" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18629,7 +18626,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J211">
         <v>3.25</v>
@@ -18697,16 +18694,16 @@
         <v>6978425</v>
       </c>
       <c r="C212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D212" s="2">
         <v>45368.53125</v>
       </c>
       <c r="E212" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G212">
         <v>4</v>
@@ -18715,7 +18712,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J212">
         <v>1.6</v>
@@ -18783,16 +18780,16 @@
         <v>7973582</v>
       </c>
       <c r="C213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D213" s="2">
         <v>45380.375</v>
       </c>
       <c r="E213" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -18801,7 +18798,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J213">
         <v>1.909</v>
@@ -18869,16 +18866,16 @@
         <v>7973583</v>
       </c>
       <c r="C214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D214" s="2">
         <v>45380.47916666666</v>
       </c>
       <c r="E214" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18887,7 +18884,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J214">
         <v>1.833</v>
@@ -18955,16 +18952,16 @@
         <v>7973584</v>
       </c>
       <c r="C215" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D215" s="2">
         <v>45380.58333333334</v>
       </c>
       <c r="E215" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F215" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18973,7 +18970,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J215">
         <v>1.444</v>
@@ -19041,16 +19038,16 @@
         <v>7973585</v>
       </c>
       <c r="C216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D216" s="2">
         <v>45381.375</v>
       </c>
       <c r="E216" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F216" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G216">
         <v>3</v>
@@ -19059,7 +19056,7 @@
         <v>2</v>
       </c>
       <c r="I216" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J216">
         <v>2.4</v>
@@ -19127,16 +19124,16 @@
         <v>7973586</v>
       </c>
       <c r="C217" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D217" s="2">
         <v>45381.47916666666</v>
       </c>
       <c r="E217" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F217" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -19145,7 +19142,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J217">
         <v>5.25</v>
@@ -19213,16 +19210,16 @@
         <v>6978434</v>
       </c>
       <c r="C218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D218" s="2">
         <v>45381.58333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F218" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -19231,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J218">
         <v>7.5</v>
@@ -19299,13 +19296,13 @@
         <v>7973587</v>
       </c>
       <c r="C219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D219" s="2">
         <v>45382.4375</v>
       </c>
       <c r="E219" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F219" t="s">
         <v>45</v>
@@ -19317,7 +19314,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J219">
         <v>2.5</v>
@@ -19385,16 +19382,16 @@
         <v>7973588</v>
       </c>
       <c r="C220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D220" s="2">
         <v>45382.54166666666</v>
       </c>
       <c r="E220" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F220" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19403,7 +19400,7 @@
         <v>1</v>
       </c>
       <c r="I220" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J220">
         <v>1.615</v>
@@ -19471,16 +19468,16 @@
         <v>6978445</v>
       </c>
       <c r="C221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D221" s="2">
         <v>45384.45833333334</v>
       </c>
       <c r="E221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F221" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19489,7 +19486,7 @@
         <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J221">
         <v>4.5</v>
@@ -19557,16 +19554,16 @@
         <v>6978444</v>
       </c>
       <c r="C222" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D222" s="2">
         <v>45384.5625</v>
       </c>
       <c r="E222" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F222" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19575,7 +19572,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J222">
         <v>1.571</v>
@@ -19643,16 +19640,16 @@
         <v>6978389</v>
       </c>
       <c r="C223" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D223" s="2">
         <v>45385.35416666666</v>
       </c>
       <c r="E223" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F223" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G223">
         <v>3</v>
@@ -19661,7 +19658,7 @@
         <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J223">
         <v>1.909</v>
@@ -19729,16 +19726,16 @@
         <v>6978442</v>
       </c>
       <c r="C224" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D224" s="2">
         <v>45385.45833333334</v>
       </c>
       <c r="E224" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19747,7 +19744,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J224">
         <v>1.45</v>
@@ -19815,16 +19812,16 @@
         <v>6978443</v>
       </c>
       <c r="C225" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D225" s="2">
         <v>45385.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F225" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G225">
         <v>5</v>
@@ -19833,7 +19830,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J225">
         <v>1.571</v>
@@ -19901,16 +19898,16 @@
         <v>6978439</v>
       </c>
       <c r="C226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D226" s="2">
         <v>45386.35416666666</v>
       </c>
       <c r="E226" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F226" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -19919,7 +19916,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J226">
         <v>1.333</v>
@@ -19987,16 +19984,16 @@
         <v>6978440</v>
       </c>
       <c r="C227" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D227" s="2">
         <v>45386.45833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F227" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -20005,7 +20002,7 @@
         <v>3</v>
       </c>
       <c r="I227" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J227">
         <v>3.5</v>
@@ -20073,7 +20070,7 @@
         <v>6978441</v>
       </c>
       <c r="C228" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D228" s="2">
         <v>45386.5625</v>
@@ -20082,7 +20079,7 @@
         <v>45</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20091,7 +20088,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J228">
         <v>1.363</v>
@@ -20159,16 +20156,16 @@
         <v>6978388</v>
       </c>
       <c r="C229" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D229" s="2">
         <v>45388.48958333334</v>
       </c>
       <c r="E229" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F229" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G229">
         <v>3</v>
@@ -20177,7 +20174,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J229">
         <v>1.75</v>
@@ -20245,16 +20242,16 @@
         <v>6978438</v>
       </c>
       <c r="C230" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D230" s="2">
         <v>45388.59375</v>
       </c>
       <c r="E230" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F230" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G230">
         <v>2</v>
@@ -20263,7 +20260,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J230">
         <v>2.05</v>
@@ -20331,16 +20328,16 @@
         <v>8035921</v>
       </c>
       <c r="C231" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D231" s="2">
         <v>45389.36458333334</v>
       </c>
       <c r="E231" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F231" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -20349,7 +20346,7 @@
         <v>2</v>
       </c>
       <c r="I231" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J231">
         <v>2.8</v>
@@ -20417,16 +20414,16 @@
         <v>8035920</v>
       </c>
       <c r="C232" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D232" s="2">
         <v>45389.48958333334</v>
       </c>
       <c r="E232" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F232" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -20435,7 +20432,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J232">
         <v>2.1</v>
@@ -20503,16 +20500,16 @@
         <v>6978446</v>
       </c>
       <c r="C233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D233" s="2">
         <v>45389.59375</v>
       </c>
       <c r="E233" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -20521,7 +20518,7 @@
         <v>2</v>
       </c>
       <c r="I233" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J233">
         <v>15</v>
@@ -20589,16 +20586,16 @@
         <v>6978437</v>
       </c>
       <c r="C234" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D234" s="2">
         <v>45390.45833333334</v>
       </c>
       <c r="E234" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F234" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -20607,7 +20604,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J234">
         <v>3</v>
@@ -20675,13 +20672,13 @@
         <v>6978448</v>
       </c>
       <c r="C235" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D235" s="2">
         <v>45390.5625</v>
       </c>
       <c r="E235" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F235" t="s">
         <v>45</v>
@@ -20693,7 +20690,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J235">
         <v>2.9</v>
@@ -20761,16 +20758,16 @@
         <v>6978449</v>
       </c>
       <c r="C236" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D236" s="2">
         <v>45391.52083333334</v>
       </c>
       <c r="E236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F236" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -20779,7 +20776,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J236">
         <v>2.25</v>
@@ -20847,16 +20844,16 @@
         <v>7956727</v>
       </c>
       <c r="C237" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D237" s="2">
         <v>45393.53125</v>
       </c>
       <c r="E237" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F237" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -20865,7 +20862,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J237">
         <v>8.5</v>
@@ -20933,16 +20930,16 @@
         <v>6978451</v>
       </c>
       <c r="C238" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D238" s="2">
         <v>45394.48958333334</v>
       </c>
       <c r="E238" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F238" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G238">
         <v>2</v>
@@ -20951,7 +20948,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J238">
         <v>1.444</v>
@@ -21019,16 +21016,16 @@
         <v>6978455</v>
       </c>
       <c r="C239" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D239" s="2">
         <v>45394.59375</v>
       </c>
       <c r="E239" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F239" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -21037,7 +21034,7 @@
         <v>2</v>
       </c>
       <c r="I239" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J239">
         <v>1.166</v>
@@ -21105,16 +21102,16 @@
         <v>6978390</v>
       </c>
       <c r="C240" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D240" s="2">
         <v>45395.48958333334</v>
       </c>
       <c r="E240" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F240" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G240">
         <v>3</v>
@@ -21123,7 +21120,7 @@
         <v>1</v>
       </c>
       <c r="I240" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J240">
         <v>1.25</v>
@@ -21191,7 +21188,7 @@
         <v>6978454</v>
       </c>
       <c r="C241" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D241" s="2">
         <v>45395.59375</v>
@@ -21200,7 +21197,7 @@
         <v>45</v>
       </c>
       <c r="F241" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G241">
         <v>3</v>
@@ -21209,7 +21206,7 @@
         <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J241">
         <v>2.7</v>
@@ -21277,16 +21274,16 @@
         <v>6978457</v>
       </c>
       <c r="C242" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D242" s="2">
         <v>45396.45833333334</v>
       </c>
       <c r="E242" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F242" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -21295,7 +21292,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J242">
         <v>4</v>
@@ -21363,16 +21360,16 @@
         <v>6978453</v>
       </c>
       <c r="C243" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D243" s="2">
         <v>45396.5625</v>
       </c>
       <c r="E243" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F243" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -21381,7 +21378,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J243">
         <v>3.9</v>
@@ -21449,16 +21446,16 @@
         <v>6978452</v>
       </c>
       <c r="C244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D244" s="2">
         <v>45397.47916666666</v>
       </c>
       <c r="E244" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F244" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -21467,7 +21464,7 @@
         <v>1</v>
       </c>
       <c r="I244" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J244">
         <v>1.5</v>
@@ -21535,16 +21532,16 @@
         <v>6978456</v>
       </c>
       <c r="C245" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D245" s="2">
         <v>45397.58333333334</v>
       </c>
       <c r="E245" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F245" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -21553,7 +21550,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J245">
         <v>1.25</v>
@@ -21621,16 +21618,16 @@
         <v>6978458</v>
       </c>
       <c r="C246" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D246" s="2">
         <v>45401.47916666666</v>
       </c>
       <c r="E246" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F246" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G246">
         <v>2</v>
@@ -21639,7 +21636,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J246">
         <v>1.8</v>
@@ -21707,16 +21704,16 @@
         <v>6978459</v>
       </c>
       <c r="C247" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D247" s="2">
         <v>45401.58333333334</v>
       </c>
       <c r="E247" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F247" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -21725,7 +21722,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J247">
         <v>2.3</v>
@@ -21793,13 +21790,13 @@
         <v>6978461</v>
       </c>
       <c r="C248" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D248" s="2">
         <v>45402.38541666666</v>
       </c>
       <c r="E248" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F248" t="s">
         <v>45</v>
@@ -21811,7 +21808,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J248">
         <v>5.75</v>
@@ -21879,16 +21876,16 @@
         <v>6978391</v>
       </c>
       <c r="C249" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D249" s="2">
         <v>45402.48958333334</v>
       </c>
       <c r="E249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F249" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -21897,7 +21894,7 @@
         <v>3</v>
       </c>
       <c r="I249" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J249">
         <v>10</v>
@@ -21965,16 +21962,16 @@
         <v>6978462</v>
       </c>
       <c r="C250" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D250" s="2">
         <v>45402.59375</v>
       </c>
       <c r="E250" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F250" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -21983,7 +21980,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J250">
         <v>1.444</v>
@@ -22051,16 +22048,16 @@
         <v>6978463</v>
       </c>
       <c r="C251" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D251" s="2">
         <v>45403.38541666666</v>
       </c>
       <c r="E251" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F251" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -22069,7 +22066,7 @@
         <v>1</v>
       </c>
       <c r="I251" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J251">
         <v>1.909</v>
@@ -22137,16 +22134,16 @@
         <v>6978464</v>
       </c>
       <c r="C252" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D252" s="2">
         <v>45403.48958333334</v>
       </c>
       <c r="E252" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F252" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -22155,7 +22152,7 @@
         <v>4</v>
       </c>
       <c r="I252" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J252">
         <v>2.6</v>
@@ -22223,16 +22220,16 @@
         <v>6978460</v>
       </c>
       <c r="C253" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D253" s="2">
         <v>45403.59375</v>
       </c>
       <c r="E253" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F253" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -22241,7 +22238,7 @@
         <v>3</v>
       </c>
       <c r="I253" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J253">
         <v>5.5</v>
@@ -22309,52 +22306,52 @@
         <v>27</v>
       </c>
       <c r="C254" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D254" s="2">
-        <v>45408.58333333334</v>
+        <v>45409.42708333334</v>
       </c>
       <c r="E254" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F254" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J254">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K254">
         <v>3.3</v>
       </c>
       <c r="L254">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M254">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="N254">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O254">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P254">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q254">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R254">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S254">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T254">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U254">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V254">
         <v>0</v>
@@ -22374,52 +22371,52 @@
         <v>28</v>
       </c>
       <c r="C255" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D255" s="2">
-        <v>45409.42708333334</v>
+        <v>45409.54166666666</v>
       </c>
       <c r="E255" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F255" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J255">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K255">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L255">
+        <v>4.333</v>
+      </c>
+      <c r="M255">
+        <v>1.909</v>
+      </c>
+      <c r="N255">
+        <v>3.6</v>
+      </c>
+      <c r="O255">
         <v>3.8</v>
-      </c>
-      <c r="M255">
-        <v>1.8</v>
-      </c>
-      <c r="N255">
-        <v>3.5</v>
-      </c>
-      <c r="O255">
-        <v>4.75</v>
       </c>
       <c r="P255">
         <v>-0.5</v>
       </c>
       <c r="Q255">
+        <v>1.95</v>
+      </c>
+      <c r="R255">
+        <v>1.9</v>
+      </c>
+      <c r="S255">
+        <v>2.25</v>
+      </c>
+      <c r="T255">
+        <v>2.025</v>
+      </c>
+      <c r="U255">
         <v>1.825</v>
-      </c>
-      <c r="R255">
-        <v>2.025</v>
-      </c>
-      <c r="S255">
-        <v>2</v>
-      </c>
-      <c r="T255">
-        <v>1.9</v>
-      </c>
-      <c r="U255">
-        <v>1.95</v>
       </c>
       <c r="V255">
         <v>0</v>
@@ -22439,52 +22436,52 @@
         <v>29</v>
       </c>
       <c r="C256" t="s">
+        <v>34</v>
+      </c>
+      <c r="D256" s="2">
+        <v>45410.38541666666</v>
+      </c>
+      <c r="E256" t="s">
+        <v>40</v>
+      </c>
+      <c r="F256" t="s">
         <v>35</v>
       </c>
-      <c r="D256" s="2">
-        <v>45409.54166666666</v>
-      </c>
-      <c r="E256" t="s">
-        <v>42</v>
-      </c>
-      <c r="F256" t="s">
-        <v>43</v>
-      </c>
       <c r="J256">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="K256">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L256">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M256">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="N256">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O256">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P256">
         <v>-0.5</v>
       </c>
       <c r="Q256">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R256">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S256">
         <v>2.25</v>
       </c>
       <c r="T256">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U256">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V256">
         <v>0</v>
@@ -22504,52 +22501,52 @@
         <v>30</v>
       </c>
       <c r="C257" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D257" s="2">
-        <v>45410.38541666666</v>
+        <v>45410.48958333334</v>
       </c>
       <c r="E257" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F257" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J257">
-        <v>2.15</v>
+        <v>1.142</v>
       </c>
       <c r="K257">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="L257">
-        <v>3.4</v>
+        <v>17</v>
       </c>
       <c r="M257">
-        <v>1.95</v>
+        <v>1.181</v>
       </c>
       <c r="N257">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="O257">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P257">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="Q257">
+        <v>1.925</v>
+      </c>
+      <c r="R257">
+        <v>1.925</v>
+      </c>
+      <c r="S257">
+        <v>3</v>
+      </c>
+      <c r="T257">
+        <v>1.875</v>
+      </c>
+      <c r="U257">
         <v>1.975</v>
-      </c>
-      <c r="R257">
-        <v>1.875</v>
-      </c>
-      <c r="S257">
-        <v>2.25</v>
-      </c>
-      <c r="T257">
-        <v>2</v>
-      </c>
-      <c r="U257">
-        <v>1.85</v>
       </c>
       <c r="V257">
         <v>0</v>
@@ -22569,52 +22566,52 @@
         <v>31</v>
       </c>
       <c r="C258" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D258" s="2">
-        <v>45410.48958333334</v>
+        <v>45410.59375</v>
       </c>
       <c r="E258" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F258" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J258">
-        <v>1.142</v>
+        <v>1.65</v>
       </c>
       <c r="K258">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="L258">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="M258">
-        <v>1.166</v>
+        <v>1.6</v>
       </c>
       <c r="N258">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="O258">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="P258">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q258">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="R258">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S258">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T258">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U258">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V258">
         <v>0</v>
@@ -22634,43 +22631,43 @@
         <v>32</v>
       </c>
       <c r="C259" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D259" s="2">
-        <v>45410.59375</v>
+        <v>45411.48958333334</v>
       </c>
       <c r="E259" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F259" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J259">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="K259">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L259">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M259">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="N259">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O259">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P259">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q259">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="R259">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S259">
         <v>2.25</v>
@@ -22699,53 +22696,53 @@
         <v>33</v>
       </c>
       <c r="C260" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D260" s="2">
-        <v>45411.48958333334</v>
+        <v>45411.59375</v>
       </c>
       <c r="E260" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F260" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J260">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="K260">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L260">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M260">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="N260">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O260">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P260">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q260">
+        <v>1.975</v>
+      </c>
+      <c r="R260">
         <v>1.875</v>
-      </c>
-      <c r="R260">
-        <v>1.975</v>
       </c>
       <c r="S260">
         <v>2.25</v>
       </c>
       <c r="T260">
+        <v>1.875</v>
+      </c>
+      <c r="U260">
         <v>1.975</v>
       </c>
-      <c r="U260">
-        <v>1.875</v>
-      </c>
       <c r="V260">
         <v>0</v>
       </c>
@@ -22753,71 +22750,6 @@
         <v>0</v>
       </c>
       <c r="X260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:24">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261" t="s">
-        <v>34</v>
-      </c>
-      <c r="C261" t="s">
-        <v>35</v>
-      </c>
-      <c r="D261" s="2">
-        <v>45411.59375</v>
-      </c>
-      <c r="E261" t="s">
-        <v>51</v>
-      </c>
-      <c r="F261" t="s">
-        <v>49</v>
-      </c>
-      <c r="J261">
-        <v>1.615</v>
-      </c>
-      <c r="K261">
-        <v>3.6</v>
-      </c>
-      <c r="L261">
-        <v>6</v>
-      </c>
-      <c r="M261">
-        <v>1.571</v>
-      </c>
-      <c r="N261">
-        <v>3.8</v>
-      </c>
-      <c r="O261">
-        <v>6.5</v>
-      </c>
-      <c r="P261">
-        <v>-1</v>
-      </c>
-      <c r="Q261">
-        <v>2.025</v>
-      </c>
-      <c r="R261">
-        <v>1.825</v>
-      </c>
-      <c r="S261">
-        <v>2.25</v>
-      </c>
-      <c r="T261">
-        <v>1.9</v>
-      </c>
-      <c r="U261">
-        <v>1.95</v>
-      </c>
-      <c r="V261">
-        <v>0</v>
-      </c>
-      <c r="W261">
-        <v>0</v>
-      </c>
-      <c r="X261">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -139,19 +139,19 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
+    <t>Slavia Sofia</t>
+  </si>
+  <si>
     <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Slavia Sofia</t>
+    <t>Cherno More Varna</t>
   </si>
   <si>
     <t>Levski Sofia</t>
   </si>
   <si>
     <t>CSKA 1948 Sofia</t>
-  </si>
-  <si>
-    <t>Cherno More Varna</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB260"/>
+  <dimension ref="A1:AB261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +643,7 @@
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -729,7 +729,7 @@
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -815,7 +815,7 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -901,7 +901,7 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1147,7 +1147,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -1159,73 +1159,73 @@
         <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J8">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="K8">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L8">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="M8">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="N8">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="O8">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="P8">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
         <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1245,73 +1245,73 @@
         <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="K9">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L9">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="M9">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="N9">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="O9">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="P9">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R9">
+        <v>2.025</v>
+      </c>
+      <c r="S9">
+        <v>3.25</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>2.25</v>
-      </c>
-      <c r="T9">
-        <v>1.875</v>
-      </c>
-      <c r="U9">
-        <v>1.975</v>
-      </c>
       <c r="V9">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA9">
         <v>-0.5</v>
       </c>
       <c r="AB9">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627725</v>
+        <v>6627290</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -1331,53 +1331,53 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
         <v>51</v>
       </c>
       <c r="J10">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="M10">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="N10">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O10">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>1.85</v>
+      </c>
+      <c r="S10">
+        <v>2.75</v>
+      </c>
+      <c r="T10">
         <v>1.825</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <v>2.025</v>
       </c>
-      <c r="S10">
-        <v>2.25</v>
-      </c>
-      <c r="T10">
-        <v>1.85</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
       <c r="V10">
         <v>-1</v>
       </c>
@@ -1385,19 +1385,19 @@
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>-1</v>
+      </c>
+      <c r="AB10">
         <v>1.025</v>
-      </c>
-      <c r="AA10">
-        <v>-0.5</v>
-      </c>
-      <c r="AB10">
-        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6627724</v>
+        <v>6627725</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -1417,46 +1417,46 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J11">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="K11">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="M11">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="N11">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="O11">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="P11">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q11">
+        <v>1.825</v>
+      </c>
+      <c r="R11">
         <v>2.025</v>
       </c>
-      <c r="R11">
-        <v>1.825</v>
-      </c>
       <c r="S11">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T11">
         <v>1.85</v>
@@ -1468,22 +1468,22 @@
         <v>-1</v>
       </c>
       <c r="W11">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1491,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627290</v>
+        <v>6627724</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -1503,73 +1503,73 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12">
+        <v>1.5</v>
+      </c>
+      <c r="K12">
+        <v>3.8</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <v>1.45</v>
+      </c>
+      <c r="N12">
+        <v>4.2</v>
+      </c>
+      <c r="O12">
+        <v>8</v>
+      </c>
+      <c r="P12">
+        <v>-1.25</v>
+      </c>
+      <c r="Q12">
+        <v>2.025</v>
+      </c>
+      <c r="R12">
+        <v>1.825</v>
+      </c>
+      <c r="S12">
+        <v>2.5</v>
+      </c>
+      <c r="T12">
+        <v>1.85</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>-1</v>
+      </c>
+      <c r="W12">
+        <v>3.2</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
+        <v>0.825</v>
+      </c>
+      <c r="AA12">
+        <v>-1</v>
+      </c>
+      <c r="AB12">
         <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12">
-        <v>6</v>
-      </c>
-      <c r="K12">
-        <v>4</v>
-      </c>
-      <c r="L12">
-        <v>1.45</v>
-      </c>
-      <c r="M12">
-        <v>6</v>
-      </c>
-      <c r="N12">
-        <v>4.333</v>
-      </c>
-      <c r="O12">
-        <v>1.55</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>2</v>
-      </c>
-      <c r="R12">
-        <v>1.85</v>
-      </c>
-      <c r="S12">
-        <v>2.75</v>
-      </c>
-      <c r="T12">
-        <v>1.825</v>
-      </c>
-      <c r="U12">
-        <v>2.025</v>
-      </c>
-      <c r="V12">
-        <v>-1</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>0.55</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
-      <c r="AB12">
-        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1586,7 +1586,7 @@
         <v>45088.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
         <v>36</v>
@@ -1844,10 +1844,10 @@
         <v>45122.53125</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -2019,7 +2019,7 @@
         <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>45128.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
         <v>46</v>
@@ -2532,10 +2532,10 @@
         <v>45129.55208333334</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2704,7 +2704,7 @@
         <v>45130.54166666666</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
         <v>40</v>
@@ -2879,7 +2879,7 @@
         <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -3051,7 +3051,7 @@
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3223,7 +3223,7 @@
         <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3306,7 +3306,7 @@
         <v>45137.63541666666</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
         <v>35</v>
@@ -3478,7 +3478,7 @@
         <v>45142.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -3564,7 +3564,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
@@ -3825,7 +3825,7 @@
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3911,7 +3911,7 @@
         <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3994,7 +3994,7 @@
         <v>45145.54166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
@@ -4341,7 +4341,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4424,10 +4424,10 @@
         <v>45150.63541666666</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4510,7 +4510,7 @@
         <v>45151.53125</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
         <v>49</v>
@@ -4771,7 +4771,7 @@
         <v>47</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5029,7 +5029,7 @@
         <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5198,7 +5198,7 @@
         <v>45158.54166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s">
         <v>47</v>
@@ -5284,7 +5284,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
         <v>39</v>
@@ -5370,7 +5370,7 @@
         <v>45159.60416666666</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5717,7 +5717,7 @@
         <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5803,7 +5803,7 @@
         <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5972,10 +5972,10 @@
         <v>45166.60416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6230,10 +6230,10 @@
         <v>45170.64583333334</v>
       </c>
       <c r="E67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" t="s">
         <v>41</v>
-      </c>
-      <c r="F67" t="s">
-        <v>42</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -6574,7 +6574,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
         <v>40</v>
@@ -6660,7 +6660,7 @@
         <v>45183.60416666666</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
         <v>46</v>
@@ -6832,7 +6832,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
         <v>50</v>
@@ -6918,7 +6918,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="E75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
         <v>35</v>
@@ -7007,7 +7007,7 @@
         <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7179,7 +7179,7 @@
         <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7351,7 +7351,7 @@
         <v>47</v>
       </c>
       <c r="F80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7520,10 +7520,10 @@
         <v>45191.47916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7606,7 +7606,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F83" t="s">
         <v>38</v>
@@ -7781,7 +7781,7 @@
         <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7864,7 +7864,7 @@
         <v>45192.58333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
         <v>48</v>
@@ -8125,7 +8125,7 @@
         <v>50</v>
       </c>
       <c r="F89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8208,10 +8208,10 @@
         <v>45195.5625</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8380,10 +8380,10 @@
         <v>45196.5</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>49</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8896,7 +8896,7 @@
         <v>45199.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F98" t="s">
         <v>50</v>
@@ -9071,7 +9071,7 @@
         <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9154,7 +9154,7 @@
         <v>45200.60416666666</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
         <v>39</v>
@@ -9329,7 +9329,7 @@
         <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9673,7 +9673,7 @@
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9756,7 +9756,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
         <v>36</v>
@@ -9842,7 +9842,7 @@
         <v>45206.59375</v>
       </c>
       <c r="E109" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F109" t="s">
         <v>37</v>
@@ -10014,10 +10014,10 @@
         <v>45207.48958333334</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10361,7 +10361,7 @@
         <v>49</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10447,7 +10447,7 @@
         <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10619,7 +10619,7 @@
         <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10702,10 +10702,10 @@
         <v>45221.4375</v>
       </c>
       <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
         <v>43</v>
-      </c>
-      <c r="F119" t="s">
-        <v>45</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10960,7 +10960,7 @@
         <v>45225.27083333334</v>
       </c>
       <c r="E122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F122" t="s">
         <v>35</v>
@@ -11046,7 +11046,7 @@
         <v>45225.375</v>
       </c>
       <c r="E123" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F123" t="s">
         <v>46</v>
@@ -11132,7 +11132,7 @@
         <v>45225.47916666666</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
         <v>37</v>
@@ -11218,7 +11218,7 @@
         <v>45226.33333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F125" t="s">
         <v>47</v>
@@ -11393,7 +11393,7 @@
         <v>50</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11651,7 +11651,7 @@
         <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11734,7 +11734,7 @@
         <v>45232.54166666666</v>
       </c>
       <c r="E131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F131" t="s">
         <v>39</v>
@@ -11906,7 +11906,7 @@
         <v>45233.60416666666</v>
       </c>
       <c r="E133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
         <v>37</v>
@@ -12164,7 +12164,7 @@
         <v>45236.4375</v>
       </c>
       <c r="E136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F136" t="s">
         <v>48</v>
@@ -12336,7 +12336,7 @@
         <v>45237.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F138" t="s">
         <v>36</v>
@@ -12422,10 +12422,10 @@
         <v>45237.52083333334</v>
       </c>
       <c r="E139" t="s">
+        <v>45</v>
+      </c>
+      <c r="F139" t="s">
         <v>44</v>
-      </c>
-      <c r="F139" t="s">
-        <v>43</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12508,7 +12508,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
         <v>49</v>
@@ -12683,7 +12683,7 @@
         <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12769,7 +12769,7 @@
         <v>46</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -13024,10 +13024,10 @@
         <v>45242.4375</v>
       </c>
       <c r="E146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13368,7 +13368,7 @@
         <v>45255.41666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F150" t="s">
         <v>46</v>
@@ -13540,7 +13540,7 @@
         <v>45256.53125</v>
       </c>
       <c r="E152" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F152" t="s">
         <v>47</v>
@@ -13629,7 +13629,7 @@
         <v>36</v>
       </c>
       <c r="F153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13715,7 +13715,7 @@
         <v>39</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13801,7 +13801,7 @@
         <v>35</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13887,7 +13887,7 @@
         <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13970,7 +13970,7 @@
         <v>45261.52083333334</v>
       </c>
       <c r="E157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
         <v>38</v>
@@ -14059,7 +14059,7 @@
         <v>40</v>
       </c>
       <c r="F158" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14145,7 +14145,7 @@
         <v>48</v>
       </c>
       <c r="F159" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14228,7 +14228,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F160" t="s">
         <v>37</v>
@@ -14658,10 +14658,10 @@
         <v>45269.41666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -14747,7 +14747,7 @@
         <v>49</v>
       </c>
       <c r="F166" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14830,7 +14830,7 @@
         <v>45270.3125</v>
       </c>
       <c r="E167" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F167" t="s">
         <v>47</v>
@@ -14916,7 +14916,7 @@
         <v>45270.41666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F168" t="s">
         <v>40</v>
@@ -15260,7 +15260,7 @@
         <v>45274.52083333334</v>
       </c>
       <c r="E172" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F172" t="s">
         <v>36</v>
@@ -15435,7 +15435,7 @@
         <v>47</v>
       </c>
       <c r="F174" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15518,7 +15518,7 @@
         <v>45339.39583333334</v>
       </c>
       <c r="E175" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F175" t="s">
         <v>50</v>
@@ -15607,7 +15607,7 @@
         <v>46</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15693,7 +15693,7 @@
         <v>48</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15951,7 +15951,7 @@
         <v>39</v>
       </c>
       <c r="F180" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G180">
         <v>3</v>
@@ -16120,7 +16120,7 @@
         <v>45345.52083333334</v>
       </c>
       <c r="E182" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F182" t="s">
         <v>48</v>
@@ -16292,7 +16292,7 @@
         <v>45346.42708333334</v>
       </c>
       <c r="E184" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F184" t="s">
         <v>38</v>
@@ -16378,7 +16378,7 @@
         <v>45346.53125</v>
       </c>
       <c r="E185" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F185" t="s">
         <v>36</v>
@@ -16550,10 +16550,10 @@
         <v>45347.48958333334</v>
       </c>
       <c r="E187" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F187" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16722,7 +16722,7 @@
         <v>45352.52083333334</v>
       </c>
       <c r="E189" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F189" t="s">
         <v>49</v>
@@ -16980,10 +16980,10 @@
         <v>45353.53125</v>
       </c>
       <c r="E192" t="s">
+        <v>41</v>
+      </c>
+      <c r="F192" t="s">
         <v>42</v>
-      </c>
-      <c r="F192" t="s">
-        <v>41</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -17155,7 +17155,7 @@
         <v>39</v>
       </c>
       <c r="F194" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17327,7 +17327,7 @@
         <v>40</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -17499,7 +17499,7 @@
         <v>35</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17582,7 +17582,7 @@
         <v>45360.41666666666</v>
       </c>
       <c r="E199" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F199" t="s">
         <v>38</v>
@@ -17671,7 +17671,7 @@
         <v>50</v>
       </c>
       <c r="F200" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -17840,7 +17840,7 @@
         <v>45361.42708333334</v>
       </c>
       <c r="E202" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F202" t="s">
         <v>47</v>
@@ -17926,7 +17926,7 @@
         <v>45361.53125</v>
       </c>
       <c r="E203" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F203" t="s">
         <v>39</v>
@@ -18184,10 +18184,10 @@
         <v>45366.57291666666</v>
       </c>
       <c r="E206" t="s">
+        <v>43</v>
+      </c>
+      <c r="F206" t="s">
         <v>45</v>
-      </c>
-      <c r="F206" t="s">
-        <v>44</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18270,7 +18270,7 @@
         <v>45367.32291666666</v>
       </c>
       <c r="E207" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F207" t="s">
         <v>37</v>
@@ -18359,7 +18359,7 @@
         <v>48</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18703,7 +18703,7 @@
         <v>38</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G212">
         <v>4</v>
@@ -18958,10 +18958,10 @@
         <v>45380.58333333334</v>
       </c>
       <c r="E215" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -19302,10 +19302,10 @@
         <v>45382.4375</v>
       </c>
       <c r="E219" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F219" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -19388,7 +19388,7 @@
         <v>45382.54166666666</v>
       </c>
       <c r="E220" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F220" t="s">
         <v>50</v>
@@ -19560,7 +19560,7 @@
         <v>45384.5625</v>
       </c>
       <c r="E222" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F222" t="s">
         <v>46</v>
@@ -19821,7 +19821,7 @@
         <v>39</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G225">
         <v>5</v>
@@ -19904,7 +19904,7 @@
         <v>45386.35416666666</v>
       </c>
       <c r="E226" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F226" t="s">
         <v>49</v>
@@ -19993,7 +19993,7 @@
         <v>50</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -20076,7 +20076,7 @@
         <v>45386.5625</v>
       </c>
       <c r="E228" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F228" t="s">
         <v>35</v>
@@ -20251,7 +20251,7 @@
         <v>36</v>
       </c>
       <c r="F230" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G230">
         <v>2</v>
@@ -20334,7 +20334,7 @@
         <v>45389.36458333334</v>
       </c>
       <c r="E231" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F231" t="s">
         <v>38</v>
@@ -20420,10 +20420,10 @@
         <v>45389.48958333334</v>
       </c>
       <c r="E232" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F232" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -20681,7 +20681,7 @@
         <v>37</v>
       </c>
       <c r="F235" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -20850,7 +20850,7 @@
         <v>45393.53125</v>
       </c>
       <c r="E237" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F237" t="s">
         <v>39</v>
@@ -20936,7 +20936,7 @@
         <v>45394.48958333334</v>
       </c>
       <c r="E238" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F238" t="s">
         <v>49</v>
@@ -21108,7 +21108,7 @@
         <v>45395.48958333334</v>
       </c>
       <c r="E240" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F240" t="s">
         <v>40</v>
@@ -21194,10 +21194,10 @@
         <v>45395.59375</v>
       </c>
       <c r="E241" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F241" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G241">
         <v>3</v>
@@ -21452,7 +21452,7 @@
         <v>45397.47916666666</v>
       </c>
       <c r="E244" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F244" t="s">
         <v>35</v>
@@ -21713,7 +21713,7 @@
         <v>47</v>
       </c>
       <c r="F247" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -21799,7 +21799,7 @@
         <v>46</v>
       </c>
       <c r="F248" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -21968,7 +21968,7 @@
         <v>45402.59375</v>
       </c>
       <c r="E250" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F250" t="s">
         <v>50</v>
@@ -22057,7 +22057,7 @@
         <v>37</v>
       </c>
       <c r="F251" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -22143,7 +22143,7 @@
         <v>35</v>
       </c>
       <c r="F252" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -22302,65 +22302,86 @@
       <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="s">
-        <v>27</v>
+      <c r="B254">
+        <v>8129696</v>
       </c>
       <c r="C254" t="s">
         <v>34</v>
       </c>
       <c r="D254" s="2">
-        <v>45409.42708333334</v>
+        <v>45408.58333333334</v>
       </c>
       <c r="E254" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F254" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>2</v>
+      </c>
+      <c r="I254" t="s">
+        <v>51</v>
       </c>
       <c r="J254">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K254">
         <v>3.3</v>
       </c>
       <c r="L254">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M254">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N254">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O254">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P254">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q254">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R254">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S254">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T254">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U254">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X254">
-        <v>0</v>
+        <v>2.3</v>
+      </c>
+      <c r="Y254">
+        <v>-1</v>
+      </c>
+      <c r="Z254">
+        <v>0.875</v>
+      </c>
+      <c r="AA254">
+        <v>1.05</v>
+      </c>
+      <c r="AB254">
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:28">
@@ -22368,55 +22389,55 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C255" t="s">
         <v>34</v>
       </c>
       <c r="D255" s="2">
-        <v>45409.54166666666</v>
+        <v>45409.42708333334</v>
       </c>
       <c r="E255" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F255" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J255">
+        <v>2</v>
+      </c>
+      <c r="K255">
+        <v>3.3</v>
+      </c>
+      <c r="L255">
+        <v>3.8</v>
+      </c>
+      <c r="M255">
         <v>1.8</v>
-      </c>
-      <c r="K255">
-        <v>3.6</v>
-      </c>
-      <c r="L255">
-        <v>4.333</v>
-      </c>
-      <c r="M255">
-        <v>1.909</v>
       </c>
       <c r="N255">
         <v>3.6</v>
       </c>
       <c r="O255">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P255">
         <v>-0.5</v>
       </c>
       <c r="Q255">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R255">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S255">
         <v>2.25</v>
       </c>
       <c r="T255">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="U255">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V255">
         <v>0</v>
@@ -22433,55 +22454,55 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C256" t="s">
         <v>34</v>
       </c>
       <c r="D256" s="2">
-        <v>45410.38541666666</v>
+        <v>45409.54166666666</v>
       </c>
       <c r="E256" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F256" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J256">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="K256">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L256">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M256">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N256">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O256">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P256">
         <v>-0.5</v>
       </c>
       <c r="Q256">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R256">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S256">
         <v>2.25</v>
       </c>
       <c r="T256">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U256">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V256">
         <v>0</v>
@@ -22498,55 +22519,55 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C257" t="s">
         <v>34</v>
       </c>
       <c r="D257" s="2">
-        <v>45410.48958333334</v>
+        <v>45410.38541666666</v>
       </c>
       <c r="E257" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F257" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J257">
-        <v>1.142</v>
+        <v>2.15</v>
       </c>
       <c r="K257">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="L257">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="M257">
-        <v>1.181</v>
+        <v>1.95</v>
       </c>
       <c r="N257">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="O257">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P257">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q257">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R257">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S257">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T257">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U257">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V257">
         <v>0</v>
@@ -22563,55 +22584,55 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C258" t="s">
         <v>34</v>
       </c>
       <c r="D258" s="2">
-        <v>45410.59375</v>
+        <v>45410.48958333334</v>
       </c>
       <c r="E258" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F258" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J258">
-        <v>1.65</v>
+        <v>1.142</v>
       </c>
       <c r="K258">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="L258">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="M258">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="N258">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="O258">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="P258">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q258">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="R258">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S258">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T258">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U258">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V258">
         <v>0</v>
@@ -22628,46 +22649,46 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C259" t="s">
         <v>34</v>
       </c>
       <c r="D259" s="2">
-        <v>45411.48958333334</v>
+        <v>45410.59375</v>
       </c>
       <c r="E259" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F259" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J259">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="K259">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L259">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M259">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="N259">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O259">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P259">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q259">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="R259">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S259">
         <v>2.25</v>
@@ -22693,63 +22714,128 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C260" t="s">
         <v>34</v>
       </c>
       <c r="D260" s="2">
-        <v>45411.59375</v>
+        <v>45411.48958333334</v>
       </c>
       <c r="E260" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F260" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J260">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="K260">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L260">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M260">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="N260">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O260">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P260">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q260">
+        <v>1.875</v>
+      </c>
+      <c r="R260">
         <v>1.975</v>
-      </c>
-      <c r="R260">
-        <v>1.875</v>
       </c>
       <c r="S260">
         <v>2.25</v>
       </c>
       <c r="T260">
+        <v>1.975</v>
+      </c>
+      <c r="U260">
         <v>1.875</v>
       </c>
-      <c r="U260">
+      <c r="V260">
+        <v>0</v>
+      </c>
+      <c r="W260">
+        <v>0</v>
+      </c>
+      <c r="X260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>33</v>
+      </c>
+      <c r="C261" t="s">
+        <v>34</v>
+      </c>
+      <c r="D261" s="2">
+        <v>45411.59375</v>
+      </c>
+      <c r="E261" t="s">
+        <v>50</v>
+      </c>
+      <c r="F261" t="s">
+        <v>48</v>
+      </c>
+      <c r="J261">
+        <v>1.615</v>
+      </c>
+      <c r="K261">
+        <v>3.6</v>
+      </c>
+      <c r="L261">
+        <v>6</v>
+      </c>
+      <c r="M261">
+        <v>1.533</v>
+      </c>
+      <c r="N261">
+        <v>3.8</v>
+      </c>
+      <c r="O261">
+        <v>7</v>
+      </c>
+      <c r="P261">
+        <v>-1</v>
+      </c>
+      <c r="Q261">
         <v>1.975</v>
       </c>
-      <c r="V260">
-        <v>0</v>
-      </c>
-      <c r="W260">
-        <v>0</v>
-      </c>
-      <c r="X260">
+      <c r="R261">
+        <v>1.875</v>
+      </c>
+      <c r="S261">
+        <v>2.25</v>
+      </c>
+      <c r="T261">
+        <v>1.875</v>
+      </c>
+      <c r="U261">
+        <v>1.975</v>
+      </c>
+      <c r="V261">
+        <v>0</v>
+      </c>
+      <c r="W261">
+        <v>0</v>
+      </c>
+      <c r="X261">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -97,9 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8129705</t>
-  </si>
-  <si>
     <t>8129612</t>
   </si>
   <si>
@@ -139,19 +136,19 @@
     <t>FC Hebar Pazardzhik</t>
   </si>
   <si>
+    <t>Botev Plovdiv</t>
+  </si>
+  <si>
     <t>Slavia Sofia</t>
   </si>
   <si>
-    <t>Botev Plovdiv</t>
+    <t>CSKA 1948 Sofia</t>
   </si>
   <si>
     <t>Cherno More Varna</t>
   </si>
   <si>
     <t>Levski Sofia</t>
-  </si>
-  <si>
-    <t>CSKA 1948 Sofia</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -537,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB261"/>
+  <dimension ref="A1:AB260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,16 +631,16 @@
         <v>6627734</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>45078.47916666666</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -652,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2">
         <v>2.2</v>
@@ -720,13 +717,13 @@
         <v>6627735</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>45078.58333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
         <v>41</v>
@@ -738,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3">
         <v>1.95</v>
@@ -806,13 +803,13 @@
         <v>6627722</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>45079.57291666666</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -824,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4">
         <v>2.8</v>
@@ -892,16 +889,16 @@
         <v>6627723</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>45080.5</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -910,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J5">
         <v>1.65</v>
@@ -978,13 +975,13 @@
         <v>6627289</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>45080.60416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -996,7 +993,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6">
         <v>1.615</v>
@@ -1064,16 +1061,16 @@
         <v>6627751</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>45082.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1082,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -1147,85 +1144,85 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6627737</v>
+        <v>6627736</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>45083.5625</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J8">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="K8">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L8">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="M8">
-        <v>1.444</v>
+        <v>26</v>
       </c>
       <c r="N8">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="O8">
-        <v>8</v>
+        <v>1.083</v>
       </c>
       <c r="P8">
-        <v>-1.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R8">
+        <v>2.025</v>
+      </c>
+      <c r="S8">
+        <v>3.25</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
         <v>1.85</v>
       </c>
-      <c r="S8">
-        <v>2.25</v>
-      </c>
-      <c r="T8">
-        <v>1.875</v>
-      </c>
-      <c r="U8">
-        <v>1.975</v>
-      </c>
       <c r="V8">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA8">
         <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1233,85 +1230,85 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6627736</v>
+        <v>6627737</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>45083.5625</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
         <v>51</v>
       </c>
       <c r="J9">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="K9">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L9">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="M9">
-        <v>26</v>
+        <v>1.444</v>
       </c>
       <c r="N9">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="O9">
-        <v>1.083</v>
+        <v>8</v>
       </c>
       <c r="P9">
-        <v>2.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R9">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
         <v>-0.5</v>
       </c>
       <c r="AB9">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1319,85 +1316,85 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627290</v>
+        <v>6627724</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>45084.53125</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10">
+        <v>1.5</v>
+      </c>
+      <c r="K10">
+        <v>3.8</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>1.45</v>
+      </c>
+      <c r="N10">
+        <v>4.2</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>-1.25</v>
+      </c>
+      <c r="Q10">
+        <v>2.025</v>
+      </c>
+      <c r="R10">
+        <v>1.825</v>
+      </c>
+      <c r="S10">
+        <v>2.5</v>
+      </c>
+      <c r="T10">
+        <v>1.85</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>-1</v>
+      </c>
+      <c r="W10">
+        <v>3.2</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
+        <v>0.825</v>
+      </c>
+      <c r="AA10">
+        <v>-1</v>
+      </c>
+      <c r="AB10">
         <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <v>1.45</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-      <c r="N10">
-        <v>4.333</v>
-      </c>
-      <c r="O10">
-        <v>1.55</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-      <c r="R10">
-        <v>1.85</v>
-      </c>
-      <c r="S10">
-        <v>2.75</v>
-      </c>
-      <c r="T10">
-        <v>1.825</v>
-      </c>
-      <c r="U10">
-        <v>2.025</v>
-      </c>
-      <c r="V10">
-        <v>-1</v>
-      </c>
-      <c r="W10">
-        <v>-1</v>
-      </c>
-      <c r="X10">
-        <v>0.55</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>-1</v>
-      </c>
-      <c r="AB10">
-        <v>1.025</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1405,16 +1402,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6627725</v>
+        <v>6627290</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>45084.53125</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
@@ -1423,47 +1420,47 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="M11">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O11">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>1.85</v>
+      </c>
+      <c r="S11">
+        <v>2.75</v>
+      </c>
+      <c r="T11">
         <v>1.825</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <v>2.025</v>
       </c>
-      <c r="S11">
-        <v>2.25</v>
-      </c>
-      <c r="T11">
-        <v>1.85</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
       <c r="V11">
         <v>-1</v>
       </c>
@@ -1471,19 +1468,19 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>1.8</v>
+        <v>0.55</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>-1</v>
+      </c>
+      <c r="AB11">
         <v>1.025</v>
-      </c>
-      <c r="AA11">
-        <v>-0.5</v>
-      </c>
-      <c r="AB11">
-        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1491,16 +1488,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627724</v>
+        <v>6627725</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>45084.53125</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
@@ -1509,40 +1506,40 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J12">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="K12">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="M12">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="N12">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="O12">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="P12">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q12">
+        <v>1.825</v>
+      </c>
+      <c r="R12">
         <v>2.025</v>
       </c>
-      <c r="R12">
-        <v>1.825</v>
-      </c>
       <c r="S12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T12">
         <v>1.85</v>
@@ -1554,22 +1551,22 @@
         <v>-1</v>
       </c>
       <c r="W12">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1580,7 +1577,7 @@
         <v>6749438</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>45088.54166666666</v>
@@ -1589,7 +1586,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1598,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13">
         <v>1.6</v>
@@ -1666,16 +1663,16 @@
         <v>6822366</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45121.53125</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1684,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14">
         <v>2.5</v>
@@ -1752,16 +1749,16 @@
         <v>6780988</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>45121.625</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1770,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J15">
         <v>11</v>
@@ -1838,7 +1835,7 @@
         <v>6780482</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>45122.53125</v>
@@ -1847,7 +1844,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1856,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -1924,13 +1921,13 @@
         <v>6824119</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>45122.625</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
         <v>43</v>
@@ -1942,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J17">
         <v>2.6</v>
@@ -2010,16 +2007,16 @@
         <v>6791826</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>45123.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2028,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J18">
         <v>2.5</v>
@@ -2096,16 +2093,16 @@
         <v>6824120</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>45123.625</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2114,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J19">
         <v>11</v>
@@ -2182,16 +2179,16 @@
         <v>6824118</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>45124.52083333334</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2200,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -2268,13 +2265,13 @@
         <v>6777643</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>45124.61458333334</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
         <v>41</v>
@@ -2286,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J21">
         <v>2.8</v>
@@ -2354,16 +2351,16 @@
         <v>6822367</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>45128.54166666666</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>45</v>
-      </c>
-      <c r="F22" t="s">
-        <v>46</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2372,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J22">
         <v>1.142</v>
@@ -2440,16 +2437,16 @@
         <v>6824122</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>45128.63541666666</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2458,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J23">
         <v>1.25</v>
@@ -2526,13 +2523,13 @@
         <v>6780483</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>45129.55208333334</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
         <v>44</v>
@@ -2544,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2612,16 +2609,16 @@
         <v>6831734</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>45129.64583333334</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2630,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J25">
         <v>1.1</v>
@@ -2698,7 +2695,7 @@
         <v>6824123</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>45130.54166666666</v>
@@ -2707,7 +2704,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2716,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J26">
         <v>1.5</v>
@@ -2784,16 +2781,16 @@
         <v>6824125</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>45130.63541666666</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2802,7 +2799,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -2870,13 +2867,13 @@
         <v>6824121</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2">
         <v>45131.54166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
         <v>41</v>
@@ -2888,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J28">
         <v>3.6</v>
@@ -2956,16 +2953,16 @@
         <v>6824124</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>45131.63541666666</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2974,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29">
         <v>3.8</v>
@@ -3042,13 +3039,13 @@
         <v>6824128</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>45135.63541666666</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
         <v>43</v>
@@ -3060,7 +3057,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J30">
         <v>4.2</v>
@@ -3128,16 +3125,16 @@
         <v>6824127</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2">
         <v>45136.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3146,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31">
         <v>2.4</v>
@@ -3214,16 +3211,16 @@
         <v>6791827</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3232,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J32">
         <v>2.8</v>
@@ -3300,7 +3297,7 @@
         <v>6780484</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>45137.63541666666</v>
@@ -3309,7 +3306,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -3318,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J33">
         <v>1.25</v>
@@ -3386,16 +3383,16 @@
         <v>6824126</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>45138.63541666666</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3404,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J34">
         <v>1.4</v>
@@ -3472,7 +3469,7 @@
         <v>6824132</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
         <v>45142.54166666666</v>
@@ -3481,7 +3478,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3490,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J35">
         <v>1.444</v>
@@ -3558,16 +3555,16 @@
         <v>6791828</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>45142.63541666666</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3576,7 +3573,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -3644,16 +3641,16 @@
         <v>6852041</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
         <v>45143.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3662,7 +3659,7 @@
         <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J37">
         <v>7.5</v>
@@ -3730,16 +3727,16 @@
         <v>6822368</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2">
         <v>45143.63541666666</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3748,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J38">
         <v>1.85</v>
@@ -3816,13 +3813,13 @@
         <v>6824131</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
         <v>45144.53125</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
         <v>41</v>
@@ -3834,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J39">
         <v>1.5</v>
@@ -3902,13 +3899,13 @@
         <v>6780485</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2">
         <v>45144.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
         <v>44</v>
@@ -3920,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J40">
         <v>3</v>
@@ -3988,16 +3985,16 @@
         <v>6826694</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2">
         <v>45145.54166666666</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4006,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J41">
         <v>1.2</v>
@@ -4074,16 +4071,16 @@
         <v>6824133</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2">
         <v>45145.63541666666</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4092,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J42">
         <v>1.909</v>
@@ -4160,16 +4157,16 @@
         <v>6824134</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4178,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J43">
         <v>1.75</v>
@@ -4246,16 +4243,16 @@
         <v>6822369</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2">
         <v>45149.63541666666</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4264,7 +4261,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J44">
         <v>4</v>
@@ -4332,16 +4329,16 @@
         <v>6791829</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2">
         <v>45150.54166666666</v>
       </c>
       <c r="E45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" t="s">
         <v>40</v>
-      </c>
-      <c r="F45" t="s">
-        <v>42</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4350,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J45">
         <v>3.6</v>
@@ -4418,7 +4415,7 @@
         <v>6824136</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
         <v>45150.63541666666</v>
@@ -4436,7 +4433,7 @@
         <v>5</v>
       </c>
       <c r="I46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J46">
         <v>2.4</v>
@@ -4504,7 +4501,7 @@
         <v>6780486</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2">
         <v>45151.53125</v>
@@ -4513,7 +4510,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4522,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J47">
         <v>1.166</v>
@@ -4590,16 +4587,16 @@
         <v>6824137</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2">
         <v>45151.63541666666</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4608,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J48">
         <v>1.85</v>
@@ -4676,16 +4673,16 @@
         <v>6824135</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2">
         <v>45152.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4694,7 +4691,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J49">
         <v>2.6</v>
@@ -4762,16 +4759,16 @@
         <v>6826695</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2">
         <v>45152.63541666666</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4780,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J50">
         <v>4.75</v>
@@ -4848,16 +4845,16 @@
         <v>6824141</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4866,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J51">
         <v>1.909</v>
@@ -4934,16 +4931,16 @@
         <v>6824142</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2">
         <v>45156.63541666666</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4952,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J52">
         <v>2</v>
@@ -5020,13 +5017,13 @@
         <v>6824140</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F53" t="s">
         <v>41</v>
@@ -5038,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J53">
         <v>2.8</v>
@@ -5106,16 +5103,16 @@
         <v>6824138</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2">
         <v>45157.63541666666</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5124,7 +5121,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J54">
         <v>8.5</v>
@@ -5192,16 +5189,16 @@
         <v>6791830</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5210,7 +5207,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J55">
         <v>1.5</v>
@@ -5278,7 +5275,7 @@
         <v>6824139</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2">
         <v>45158.63541666666</v>
@@ -5287,7 +5284,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5296,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J56">
         <v>3.4</v>
@@ -5364,16 +5361,16 @@
         <v>6826696</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2">
         <v>45159.60416666666</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5382,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J57">
         <v>1.222</v>
@@ -5450,16 +5447,16 @@
         <v>6822370</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5468,7 +5465,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J58">
         <v>2.25</v>
@@ -5536,16 +5533,16 @@
         <v>6824143</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2">
         <v>45163.63541666666</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5554,7 +5551,7 @@
         <v>4</v>
       </c>
       <c r="I59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J59">
         <v>3.6</v>
@@ -5622,16 +5619,16 @@
         <v>6824144</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5640,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J60">
         <v>2.05</v>
@@ -5708,13 +5705,13 @@
         <v>6824147</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2">
         <v>45164.63541666666</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
         <v>43</v>
@@ -5726,7 +5723,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J61">
         <v>1.6</v>
@@ -5794,16 +5791,16 @@
         <v>6791831</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2">
         <v>45165.54166666666</v>
       </c>
       <c r="E62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5812,7 +5809,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J62">
         <v>2.9</v>
@@ -5880,16 +5877,16 @@
         <v>6824146</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2">
         <v>45165.63541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G63">
         <v>5</v>
@@ -5898,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J63">
         <v>1.142</v>
@@ -5966,7 +5963,7 @@
         <v>6824145</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2">
         <v>45166.60416666666</v>
@@ -5975,7 +5972,7 @@
         <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5984,7 +5981,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J64">
         <v>3.6</v>
@@ -6052,16 +6049,16 @@
         <v>6822371</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2">
         <v>45170.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6070,7 +6067,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J65">
         <v>3.5</v>
@@ -6138,13 +6135,13 @@
         <v>6824148</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2">
         <v>45170.55208333334</v>
       </c>
       <c r="E66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s">
         <v>43</v>
@@ -6156,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -6224,13 +6221,13 @@
         <v>6791832</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2">
         <v>45170.64583333334</v>
       </c>
       <c r="E67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
         <v>41</v>
@@ -6242,7 +6239,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J67">
         <v>2.15</v>
@@ -6310,16 +6307,16 @@
         <v>6824150</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2">
         <v>45171.54166666666</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6328,7 +6325,7 @@
         <v>3</v>
       </c>
       <c r="I68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J68">
         <v>1.909</v>
@@ -6396,16 +6393,16 @@
         <v>6824149</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2">
         <v>45171.63541666666</v>
       </c>
       <c r="E69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6414,7 +6411,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -6482,16 +6479,16 @@
         <v>6824151</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2">
         <v>45172.54166666666</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G70">
         <v>4</v>
@@ -6500,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J70">
         <v>1.533</v>
@@ -6568,7 +6565,7 @@
         <v>6780489</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2">
         <v>45172.63541666666</v>
@@ -6577,7 +6574,7 @@
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6586,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J71">
         <v>1.2</v>
@@ -6654,7 +6651,7 @@
         <v>7158358</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2">
         <v>45183.60416666666</v>
@@ -6663,7 +6660,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6672,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J72">
         <v>1.142</v>
@@ -6740,16 +6737,16 @@
         <v>7139599</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2">
         <v>45184.47916666666</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G73">
         <v>4</v>
@@ -6758,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J73">
         <v>1.6</v>
@@ -6826,7 +6823,7 @@
         <v>7139606</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2">
         <v>45184.58333333334</v>
@@ -6835,7 +6832,7 @@
         <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6844,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J74">
         <v>1.571</v>
@@ -6912,7 +6909,7 @@
         <v>7139603</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2">
         <v>45185.47916666666</v>
@@ -6921,7 +6918,7 @@
         <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6930,7 +6927,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J75">
         <v>2.1</v>
@@ -6998,16 +6995,16 @@
         <v>7139604</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2">
         <v>45185.58333333334</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7016,7 +7013,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J76">
         <v>1.333</v>
@@ -7084,16 +7081,16 @@
         <v>7139602</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2">
         <v>45186.48958333334</v>
       </c>
       <c r="E77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7102,7 +7099,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J77">
         <v>3.6</v>
@@ -7170,16 +7167,16 @@
         <v>7139605</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2">
         <v>45186.59375</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7188,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7256,16 +7253,16 @@
         <v>7139600</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2">
         <v>45187.47916666666</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7274,7 +7271,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7342,13 +7339,13 @@
         <v>7139601</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2">
         <v>45187.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F80" t="s">
         <v>44</v>
@@ -7360,7 +7357,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J80">
         <v>5.5</v>
@@ -7428,16 +7425,16 @@
         <v>7179269</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2">
         <v>45191.375</v>
       </c>
       <c r="E81" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" t="s">
         <v>49</v>
-      </c>
-      <c r="F81" t="s">
-        <v>50</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7446,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J81">
         <v>2.5</v>
@@ -7514,13 +7511,13 @@
         <v>7179270</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2">
         <v>45191.47916666666</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F82" t="s">
         <v>43</v>
@@ -7532,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J82">
         <v>1.95</v>
@@ -7600,16 +7597,16 @@
         <v>7179271</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2">
         <v>45191.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7618,7 +7615,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J83">
         <v>3.6</v>
@@ -7686,16 +7683,16 @@
         <v>7179276</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2">
         <v>45192.375</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7704,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J84">
         <v>1.7</v>
@@ -7772,13 +7769,13 @@
         <v>7179273</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2">
         <v>45192.47916666666</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
         <v>41</v>
@@ -7790,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J85">
         <v>1.8</v>
@@ -7858,7 +7855,7 @@
         <v>7179274</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2">
         <v>45192.58333333334</v>
@@ -7867,7 +7864,7 @@
         <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7876,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J86">
         <v>1.25</v>
@@ -7944,16 +7941,16 @@
         <v>7179275</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2">
         <v>45193.5</v>
       </c>
       <c r="E87" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" t="s">
         <v>46</v>
-      </c>
-      <c r="F87" t="s">
-        <v>47</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7962,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J87">
         <v>2.75</v>
@@ -8030,16 +8027,16 @@
         <v>7179272</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2">
         <v>45193.60416666666</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8048,7 +8045,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J88">
         <v>8</v>
@@ -8116,16 +8113,16 @@
         <v>6824162</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2">
         <v>45195.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8134,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J89">
         <v>4.75</v>
@@ -8202,7 +8199,7 @@
         <v>6791835</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2">
         <v>45195.5625</v>
@@ -8211,7 +8208,7 @@
         <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8220,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J90">
         <v>1.833</v>
@@ -8288,16 +8285,16 @@
         <v>6885560</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2">
         <v>45196.39583333334</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8306,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J91">
         <v>1.95</v>
@@ -8374,7 +8371,7 @@
         <v>6780492</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2">
         <v>45196.5</v>
@@ -8392,7 +8389,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J92">
         <v>4.333</v>
@@ -8460,16 +8457,16 @@
         <v>6824160</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2">
         <v>45196.60416666666</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8478,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J93">
         <v>1.363</v>
@@ -8546,16 +8543,16 @@
         <v>6822374</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2">
         <v>45197.39583333334</v>
       </c>
       <c r="E94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8564,7 +8561,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J94">
         <v>1.909</v>
@@ -8632,16 +8629,16 @@
         <v>6852038</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2">
         <v>45197.5</v>
       </c>
       <c r="E95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8650,7 +8647,7 @@
         <v>3</v>
       </c>
       <c r="I95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J95">
         <v>3.3</v>
@@ -8718,16 +8715,16 @@
         <v>6824161</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2">
         <v>45197.60416666666</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8736,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J96">
         <v>1.3</v>
@@ -8804,16 +8801,16 @@
         <v>6826698</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2">
         <v>45199.47916666666</v>
       </c>
       <c r="E97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8822,7 +8819,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J97">
         <v>7.5</v>
@@ -8890,16 +8887,16 @@
         <v>6791836</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2">
         <v>45199.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8908,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J98">
         <v>1.85</v>
@@ -8976,16 +8973,16 @@
         <v>6831735</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2">
         <v>45200.38541666666</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8994,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J99">
         <v>1.55</v>
@@ -9062,13 +9059,13 @@
         <v>6824163</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2">
         <v>45200.48958333334</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F100" t="s">
         <v>43</v>
@@ -9080,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J100">
         <v>3.9</v>
@@ -9148,7 +9145,7 @@
         <v>6780493</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2">
         <v>45200.60416666666</v>
@@ -9157,7 +9154,7 @@
         <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9166,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J101">
         <v>3.2</v>
@@ -9234,16 +9231,16 @@
         <v>6874126</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D102" s="2">
         <v>45201.375</v>
       </c>
       <c r="E102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9252,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J102">
         <v>2.2</v>
@@ -9320,13 +9317,13 @@
         <v>6822375</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D103" s="2">
         <v>45201.47916666666</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
         <v>41</v>
@@ -9338,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J103">
         <v>3.5</v>
@@ -9406,17 +9403,17 @@
         <v>6824164</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2">
         <v>45201.58333333334</v>
       </c>
       <c r="E104" t="s">
+        <v>36</v>
+      </c>
+      <c r="F104" t="s">
         <v>37</v>
       </c>
-      <c r="F104" t="s">
-        <v>38</v>
-      </c>
       <c r="G104">
         <v>0</v>
       </c>
@@ -9424,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J104">
         <v>3.2</v>
@@ -9492,16 +9489,16 @@
         <v>6874127</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2">
         <v>45205.47916666666</v>
       </c>
       <c r="E105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9510,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J105">
         <v>1.8</v>
@@ -9578,16 +9575,16 @@
         <v>6824169</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2">
         <v>45205.58333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9596,7 +9593,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J106">
         <v>2.2</v>
@@ -9664,13 +9661,13 @@
         <v>7290919</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2">
         <v>45206.36458333334</v>
       </c>
       <c r="E107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
         <v>44</v>
@@ -9682,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J107">
         <v>2.4</v>
@@ -9750,7 +9747,7 @@
         <v>7290917</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2">
         <v>45206.48958333334</v>
@@ -9759,7 +9756,7 @@
         <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9768,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J108">
         <v>3.5</v>
@@ -9836,7 +9833,7 @@
         <v>6824168</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2">
         <v>45206.59375</v>
@@ -9845,7 +9842,7 @@
         <v>43</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9854,7 +9851,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9922,16 +9919,16 @@
         <v>7290920</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2">
         <v>45207.38541666666</v>
       </c>
       <c r="E110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9940,7 +9937,7 @@
         <v>5</v>
       </c>
       <c r="I110" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J110">
         <v>2.4</v>
@@ -10008,16 +10005,16 @@
         <v>7290918</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D111" s="2">
         <v>45207.48958333334</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10026,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J111">
         <v>1.75</v>
@@ -10094,16 +10091,16 @@
         <v>6822376</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D112" s="2">
         <v>45207.59375</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G112">
         <v>4</v>
@@ -10112,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J112">
         <v>1.05</v>
@@ -10180,17 +10177,17 @@
         <v>6831737</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D113" s="2">
         <v>45219.44791666666</v>
       </c>
       <c r="E113" t="s">
+        <v>46</v>
+      </c>
+      <c r="F113" t="s">
         <v>47</v>
       </c>
-      <c r="F113" t="s">
-        <v>48</v>
-      </c>
       <c r="G113">
         <v>0</v>
       </c>
@@ -10198,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J113">
         <v>1.833</v>
@@ -10266,16 +10263,16 @@
         <v>6824171</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D114" s="2">
         <v>45219.55208333334</v>
       </c>
       <c r="E114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10284,7 +10281,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J114">
         <v>1.5</v>
@@ -10352,16 +10349,16 @@
         <v>6791838</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D115" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10370,7 +10367,7 @@
         <v>5</v>
       </c>
       <c r="I115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J115">
         <v>3.25</v>
@@ -10438,16 +10435,16 @@
         <v>6824170</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D116" s="2">
         <v>45220.4375</v>
       </c>
       <c r="E116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10456,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J116">
         <v>4.8</v>
@@ -10524,16 +10521,16 @@
         <v>6822377</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D117" s="2">
         <v>45220.54166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10542,7 +10539,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J117">
         <v>12</v>
@@ -10610,13 +10607,13 @@
         <v>6824172</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D118" s="2">
         <v>45221.33333333334</v>
       </c>
       <c r="E118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F118" t="s">
         <v>41</v>
@@ -10628,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J118">
         <v>2.625</v>
@@ -10696,7 +10693,7 @@
         <v>6780495</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D119" s="2">
         <v>45221.4375</v>
@@ -10714,7 +10711,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J119">
         <v>1.7</v>
@@ -10782,16 +10779,16 @@
         <v>6852039</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2">
         <v>45221.54166666666</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10800,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J120">
         <v>5.5</v>
@@ -10868,16 +10865,16 @@
         <v>6831738</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D121" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E121" t="s">
+        <v>47</v>
+      </c>
+      <c r="F121" t="s">
         <v>48</v>
-      </c>
-      <c r="F121" t="s">
-        <v>49</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10886,7 +10883,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J121">
         <v>2.3</v>
@@ -10954,16 +10951,16 @@
         <v>6791839</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2">
         <v>45225.27083333334</v>
       </c>
       <c r="E122" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G122">
         <v>6</v>
@@ -10972,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J122">
         <v>1.75</v>
@@ -11040,7 +11037,7 @@
         <v>6822378</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2">
         <v>45225.375</v>
@@ -11049,7 +11046,7 @@
         <v>43</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11058,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J123">
         <v>1.3</v>
@@ -11126,16 +11123,16 @@
         <v>6824175</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D124" s="2">
         <v>45225.47916666666</v>
       </c>
       <c r="E124" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11144,7 +11141,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J124">
         <v>1.85</v>
@@ -11212,7 +11209,7 @@
         <v>6824173</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D125" s="2">
         <v>45226.33333333334</v>
@@ -11221,7 +11218,7 @@
         <v>41</v>
       </c>
       <c r="F125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11230,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J125">
         <v>2</v>
@@ -11298,16 +11295,16 @@
         <v>6824174</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D126" s="2">
         <v>45226.4375</v>
       </c>
       <c r="E126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11316,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J126">
         <v>1.5</v>
@@ -11384,13 +11381,13 @@
         <v>6780496</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D127" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F127" t="s">
         <v>44</v>
@@ -11402,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J127">
         <v>5.5</v>
@@ -11470,16 +11467,16 @@
         <v>6852042</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D128" s="2">
         <v>45228.55208333334</v>
       </c>
       <c r="E128" t="s">
+        <v>38</v>
+      </c>
+      <c r="F128" t="s">
         <v>39</v>
-      </c>
-      <c r="F128" t="s">
-        <v>40</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -11488,7 +11485,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J128">
         <v>1.125</v>
@@ -11556,16 +11553,16 @@
         <v>7326962</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D129" s="2">
         <v>45231.5</v>
       </c>
       <c r="E129" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11574,7 +11571,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J129">
         <v>10</v>
@@ -11642,13 +11639,13 @@
         <v>7326964</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D130" s="2">
         <v>45231.60416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F130" t="s">
         <v>44</v>
@@ -11660,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J130">
         <v>3</v>
@@ -11728,7 +11725,7 @@
         <v>7326963</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D131" s="2">
         <v>45232.54166666666</v>
@@ -11737,7 +11734,7 @@
         <v>41</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11746,7 +11743,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J131">
         <v>7.5</v>
@@ -11814,16 +11811,16 @@
         <v>6822379</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D132" s="2">
         <v>45233.5</v>
       </c>
       <c r="E132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11832,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J132">
         <v>2</v>
@@ -11900,16 +11897,16 @@
         <v>6791840</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D133" s="2">
         <v>45233.60416666666</v>
       </c>
       <c r="E133" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11918,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J133">
         <v>3.3</v>
@@ -11986,16 +11983,16 @@
         <v>6852043</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D134" s="2">
         <v>45235.4375</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -12004,7 +12001,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J134">
         <v>1.222</v>
@@ -12072,16 +12069,16 @@
         <v>7408275</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D135" s="2">
         <v>45236.33333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12090,7 +12087,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J135">
         <v>2.1</v>
@@ -12158,7 +12155,7 @@
         <v>6824179</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D136" s="2">
         <v>45236.4375</v>
@@ -12167,7 +12164,7 @@
         <v>41</v>
       </c>
       <c r="F136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12176,7 +12173,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J136">
         <v>1.65</v>
@@ -12244,16 +12241,16 @@
         <v>6824178</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D137" s="2">
         <v>45236.54166666666</v>
       </c>
       <c r="E137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G137">
         <v>3</v>
@@ -12262,7 +12259,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J137">
         <v>1.181</v>
@@ -12330,7 +12327,7 @@
         <v>6824177</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D138" s="2">
         <v>45237.41666666666</v>
@@ -12339,7 +12336,7 @@
         <v>43</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12348,7 +12345,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J138">
         <v>1.909</v>
@@ -12416,13 +12413,13 @@
         <v>6780497</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D139" s="2">
         <v>45237.52083333334</v>
       </c>
       <c r="E139" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F139" t="s">
         <v>44</v>
@@ -12434,7 +12431,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J139">
         <v>2.6</v>
@@ -12502,7 +12499,7 @@
         <v>6824180</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D140" s="2">
         <v>45240.41666666666</v>
@@ -12511,7 +12508,7 @@
         <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12520,7 +12517,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J140">
         <v>1.666</v>
@@ -12588,16 +12585,16 @@
         <v>6824184</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D141" s="2">
         <v>45240.52083333334</v>
       </c>
       <c r="E141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -12606,7 +12603,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J141">
         <v>1.45</v>
@@ -12674,13 +12671,13 @@
         <v>6824182</v>
       </c>
       <c r="C142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D142" s="2">
         <v>45241.32291666666</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F142" t="s">
         <v>43</v>
@@ -12692,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J142">
         <v>3.4</v>
@@ -12760,16 +12757,16 @@
         <v>6822380</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D143" s="2">
         <v>45241.42708333334</v>
       </c>
       <c r="E143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12778,7 +12775,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J143">
         <v>6</v>
@@ -12846,16 +12843,16 @@
         <v>6824183</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D144" s="2">
         <v>45241.53125</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12864,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J144">
         <v>1.7</v>
@@ -12932,16 +12929,16 @@
         <v>6824181</v>
       </c>
       <c r="C145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D145" s="2">
         <v>45242.33333333334</v>
       </c>
       <c r="E145" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12950,7 +12947,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J145">
         <v>7</v>
@@ -13018,7 +13015,7 @@
         <v>6780498</v>
       </c>
       <c r="C146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D146" s="2">
         <v>45242.4375</v>
@@ -13027,7 +13024,7 @@
         <v>44</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13036,7 +13033,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J146">
         <v>1.5</v>
@@ -13104,16 +13101,16 @@
         <v>6831739</v>
       </c>
       <c r="C147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D147" s="2">
         <v>45242.54166666666</v>
       </c>
       <c r="E147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13122,7 +13119,7 @@
         <v>4</v>
       </c>
       <c r="I147" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J147">
         <v>11</v>
@@ -13190,16 +13187,16 @@
         <v>6824186</v>
       </c>
       <c r="C148" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D148" s="2">
         <v>45254.52083333334</v>
       </c>
       <c r="E148" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -13208,7 +13205,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J148">
         <v>1.909</v>
@@ -13276,16 +13273,16 @@
         <v>6824185</v>
       </c>
       <c r="C149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D149" s="2">
         <v>45255.3125</v>
       </c>
       <c r="E149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13294,7 +13291,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J149">
         <v>4.2</v>
@@ -13362,16 +13359,16 @@
         <v>6791841</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D150" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13380,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J150">
         <v>1.444</v>
@@ -13448,16 +13445,16 @@
         <v>6824188</v>
       </c>
       <c r="C151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D151" s="2">
         <v>45256.52083333334</v>
       </c>
       <c r="E151" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13466,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J151">
         <v>1.153</v>
@@ -13534,7 +13531,7 @@
         <v>6824187</v>
       </c>
       <c r="C152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D152" s="2">
         <v>45256.53125</v>
@@ -13543,7 +13540,7 @@
         <v>43</v>
       </c>
       <c r="F152" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13552,7 +13549,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J152">
         <v>1.4</v>
@@ -13620,16 +13617,16 @@
         <v>7527165</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D153" s="2">
         <v>45257.32291666666</v>
       </c>
       <c r="E153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F153" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13638,7 +13635,7 @@
         <v>3</v>
       </c>
       <c r="I153" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J153">
         <v>2.7</v>
@@ -13706,13 +13703,13 @@
         <v>6824189</v>
       </c>
       <c r="C154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D154" s="2">
         <v>45257.42708333334</v>
       </c>
       <c r="E154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F154" t="s">
         <v>41</v>
@@ -13724,7 +13721,7 @@
         <v>3</v>
       </c>
       <c r="I154" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J154">
         <v>1.153</v>
@@ -13792,13 +13789,13 @@
         <v>6780499</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D155" s="2">
         <v>45257.52083333334</v>
       </c>
       <c r="E155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F155" t="s">
         <v>44</v>
@@ -13810,7 +13807,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J155">
         <v>6</v>
@@ -13878,16 +13875,16 @@
         <v>7497758</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D156" s="2">
         <v>45261.41666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13896,7 +13893,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J156">
         <v>1.95</v>
@@ -13964,7 +13961,7 @@
         <v>7497754</v>
       </c>
       <c r="C157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D157" s="2">
         <v>45261.52083333334</v>
@@ -13973,7 +13970,7 @@
         <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13982,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J157">
         <v>6</v>
@@ -14050,16 +14047,16 @@
         <v>7497757</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D158" s="2">
         <v>45262.3125</v>
       </c>
       <c r="E158" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14068,7 +14065,7 @@
         <v>3</v>
       </c>
       <c r="I158" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J158">
         <v>4.5</v>
@@ -14136,13 +14133,13 @@
         <v>7497755</v>
       </c>
       <c r="C159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D159" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F159" t="s">
         <v>43</v>
@@ -14154,7 +14151,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J159">
         <v>5</v>
@@ -14222,7 +14219,7 @@
         <v>7497760</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D160" s="2">
         <v>45262.52083333334</v>
@@ -14231,7 +14228,7 @@
         <v>44</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14240,7 +14237,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J160">
         <v>1.727</v>
@@ -14308,16 +14305,16 @@
         <v>7497759</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D161" s="2">
         <v>45263.32291666666</v>
       </c>
       <c r="E161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14326,7 +14323,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14394,16 +14391,16 @@
         <v>7497753</v>
       </c>
       <c r="C162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D162" s="2">
         <v>45263.42708333334</v>
       </c>
       <c r="E162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G162">
         <v>5</v>
@@ -14412,7 +14409,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J162">
         <v>1.062</v>
@@ -14480,16 +14477,16 @@
         <v>7497756</v>
       </c>
       <c r="C163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D163" s="2">
         <v>45263.53125</v>
       </c>
       <c r="E163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14498,7 +14495,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J163">
         <v>2.4</v>
@@ -14566,16 +14563,16 @@
         <v>6824193</v>
       </c>
       <c r="C164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D164" s="2">
         <v>45269.3125</v>
       </c>
       <c r="E164" t="s">
+        <v>34</v>
+      </c>
+      <c r="F164" t="s">
         <v>35</v>
-      </c>
-      <c r="F164" t="s">
-        <v>36</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14584,7 +14581,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J164">
         <v>3.75</v>
@@ -14652,7 +14649,7 @@
         <v>6824195</v>
       </c>
       <c r="C165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D165" s="2">
         <v>45269.41666666666</v>
@@ -14670,7 +14667,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J165">
         <v>1.615</v>
@@ -14738,13 +14735,13 @@
         <v>6780501</v>
       </c>
       <c r="C166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D166" s="2">
         <v>45269.52083333334</v>
       </c>
       <c r="E166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F166" t="s">
         <v>44</v>
@@ -14756,7 +14753,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J166">
         <v>7.5</v>
@@ -14824,16 +14821,16 @@
         <v>6826701</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D167" s="2">
         <v>45270.3125</v>
       </c>
       <c r="E167" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F167" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -14842,7 +14839,7 @@
         <v>3</v>
       </c>
       <c r="I167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J167">
         <v>1.333</v>
@@ -14910,16 +14907,16 @@
         <v>6791843</v>
       </c>
       <c r="C168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D168" s="2">
         <v>45270.41666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14928,7 +14925,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J168">
         <v>1.533</v>
@@ -14996,16 +14993,16 @@
         <v>6824196</v>
       </c>
       <c r="C169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D169" s="2">
         <v>45270.53125</v>
       </c>
       <c r="E169" t="s">
+        <v>37</v>
+      </c>
+      <c r="F169" t="s">
         <v>38</v>
-      </c>
-      <c r="F169" t="s">
-        <v>39</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15014,7 +15011,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J169">
         <v>2.8</v>
@@ -15082,16 +15079,16 @@
         <v>6822382</v>
       </c>
       <c r="C170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D170" s="2">
         <v>45271.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F170" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15100,7 +15097,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J170">
         <v>1.363</v>
@@ -15168,16 +15165,16 @@
         <v>6824194</v>
       </c>
       <c r="C171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D171" s="2">
         <v>45271.52083333334</v>
       </c>
       <c r="E171" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15186,7 +15183,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J171">
         <v>1.615</v>
@@ -15254,16 +15251,16 @@
         <v>7524523</v>
       </c>
       <c r="C172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D172" s="2">
         <v>45274.52083333334</v>
       </c>
       <c r="E172" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15272,7 +15269,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J172">
         <v>1.85</v>
@@ -15340,16 +15337,16 @@
         <v>7626379</v>
       </c>
       <c r="C173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D173" s="2">
         <v>45338.52083333334</v>
       </c>
       <c r="E173" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15358,7 +15355,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J173">
         <v>2.4</v>
@@ -15426,16 +15423,16 @@
         <v>7626378</v>
       </c>
       <c r="C174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D174" s="2">
         <v>45339.29166666666</v>
       </c>
       <c r="E174" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F174" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15444,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J174">
         <v>5.25</v>
@@ -15512,7 +15509,7 @@
         <v>7626376</v>
       </c>
       <c r="C175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D175" s="2">
         <v>45339.39583333334</v>
@@ -15521,7 +15518,7 @@
         <v>41</v>
       </c>
       <c r="F175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15530,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J175">
         <v>1.8</v>
@@ -15598,13 +15595,13 @@
         <v>7626381</v>
       </c>
       <c r="C176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D176" s="2">
         <v>45339.5</v>
       </c>
       <c r="E176" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F176" t="s">
         <v>44</v>
@@ -15616,7 +15613,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J176">
         <v>5.75</v>
@@ -15684,16 +15681,16 @@
         <v>7626377</v>
       </c>
       <c r="C177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D177" s="2">
         <v>45340.32291666666</v>
       </c>
       <c r="E177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F177" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15702,7 +15699,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J177">
         <v>5.5</v>
@@ -15770,16 +15767,16 @@
         <v>7626380</v>
       </c>
       <c r="C178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D178" s="2">
         <v>45340.42708333334</v>
       </c>
       <c r="E178" t="s">
+        <v>35</v>
+      </c>
+      <c r="F178" t="s">
         <v>36</v>
-      </c>
-      <c r="F178" t="s">
-        <v>37</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15788,7 +15785,7 @@
         <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J178">
         <v>2.5</v>
@@ -15856,16 +15853,16 @@
         <v>7626374</v>
       </c>
       <c r="C179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D179" s="2">
         <v>45340.53125</v>
       </c>
       <c r="E179" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F179" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G179">
         <v>3</v>
@@ -15874,7 +15871,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J179">
         <v>1.083</v>
@@ -15942,13 +15939,13 @@
         <v>7626375</v>
       </c>
       <c r="C180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D180" s="2">
         <v>45341.45833333334</v>
       </c>
       <c r="E180" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F180" t="s">
         <v>43</v>
@@ -15960,7 +15957,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J180">
         <v>1.533</v>
@@ -16028,16 +16025,16 @@
         <v>6978402</v>
       </c>
       <c r="C181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D181" s="2">
         <v>45345.41666666666</v>
       </c>
       <c r="E181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16046,7 +16043,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J181">
         <v>1.909</v>
@@ -16114,16 +16111,16 @@
         <v>6978405</v>
       </c>
       <c r="C182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D182" s="2">
         <v>45345.52083333334</v>
       </c>
       <c r="E182" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16132,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J182">
         <v>1.285</v>
@@ -16200,16 +16197,16 @@
         <v>6978383</v>
       </c>
       <c r="C183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D183" s="2">
         <v>45346.32291666666</v>
       </c>
       <c r="E183" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16218,7 +16215,7 @@
         <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J183">
         <v>1.444</v>
@@ -16286,7 +16283,7 @@
         <v>6978408</v>
       </c>
       <c r="C184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D184" s="2">
         <v>45346.42708333334</v>
@@ -16295,7 +16292,7 @@
         <v>43</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16304,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J184">
         <v>3.2</v>
@@ -16372,7 +16369,7 @@
         <v>6978403</v>
       </c>
       <c r="C185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D185" s="2">
         <v>45346.53125</v>
@@ -16381,7 +16378,7 @@
         <v>44</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G185">
         <v>4</v>
@@ -16390,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J185">
         <v>1.444</v>
@@ -16458,16 +16455,16 @@
         <v>6978404</v>
       </c>
       <c r="C186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D186" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F186" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16476,7 +16473,7 @@
         <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J186">
         <v>2.2</v>
@@ -16544,13 +16541,13 @@
         <v>6978406</v>
       </c>
       <c r="C187" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D187" s="2">
         <v>45347.48958333334</v>
       </c>
       <c r="E187" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F187" t="s">
         <v>41</v>
@@ -16562,7 +16559,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J187">
         <v>1.6</v>
@@ -16630,25 +16627,25 @@
         <v>6978407</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D188" s="2">
         <v>45348.52083333334</v>
       </c>
       <c r="E188" t="s">
+        <v>49</v>
+      </c>
+      <c r="F188" t="s">
+        <v>38</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188" t="s">
         <v>50</v>
-      </c>
-      <c r="F188" t="s">
-        <v>39</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
-      <c r="H188">
-        <v>2</v>
-      </c>
-      <c r="I188" t="s">
-        <v>51</v>
       </c>
       <c r="J188">
         <v>13</v>
@@ -16716,7 +16713,7 @@
         <v>6978409</v>
       </c>
       <c r="C189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D189" s="2">
         <v>45352.52083333334</v>
@@ -16725,7 +16722,7 @@
         <v>43</v>
       </c>
       <c r="F189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -16734,7 +16731,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J189">
         <v>1.3</v>
@@ -16802,16 +16799,16 @@
         <v>6978413</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D190" s="2">
         <v>45353.32291666666</v>
       </c>
       <c r="E190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16820,7 +16817,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J190">
         <v>2.55</v>
@@ -16888,16 +16885,16 @@
         <v>6978414</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D191" s="2">
         <v>45353.42708333334</v>
       </c>
       <c r="E191" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F191" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G191">
         <v>3</v>
@@ -16906,7 +16903,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J191">
         <v>3.1</v>
@@ -16974,7 +16971,7 @@
         <v>6978412</v>
       </c>
       <c r="C192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D192" s="2">
         <v>45353.53125</v>
@@ -16983,7 +16980,7 @@
         <v>41</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16992,7 +16989,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J192">
         <v>2.4</v>
@@ -17060,16 +17057,16 @@
         <v>6978410</v>
       </c>
       <c r="C193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D193" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E193" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F193" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G193">
         <v>3</v>
@@ -17078,7 +17075,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J193">
         <v>1.222</v>
@@ -17146,16 +17143,16 @@
         <v>6978411</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D194" s="2">
         <v>45354.5</v>
       </c>
       <c r="E194" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F194" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17164,7 +17161,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J194">
         <v>1.4</v>
@@ -17232,16 +17229,16 @@
         <v>6978415</v>
       </c>
       <c r="C195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D195" s="2">
         <v>45355.41666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F195" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -17250,7 +17247,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J195">
         <v>1.4</v>
@@ -17318,13 +17315,13 @@
         <v>6978384</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D196" s="2">
         <v>45355.52083333334</v>
       </c>
       <c r="E196" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F196" t="s">
         <v>44</v>
@@ -17336,7 +17333,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J196">
         <v>7</v>
@@ -17404,16 +17401,16 @@
         <v>6978418</v>
       </c>
       <c r="C197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D197" s="2">
         <v>45359.5625</v>
       </c>
       <c r="E197" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -17422,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J197">
         <v>1.4</v>
@@ -17490,13 +17487,13 @@
         <v>6978419</v>
       </c>
       <c r="C198" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D198" s="2">
         <v>45360.3125</v>
       </c>
       <c r="E198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F198" t="s">
         <v>41</v>
@@ -17508,7 +17505,7 @@
         <v>2</v>
       </c>
       <c r="I198" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J198">
         <v>2.35</v>
@@ -17576,16 +17573,16 @@
         <v>6978421</v>
       </c>
       <c r="C199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D199" s="2">
         <v>45360.41666666666</v>
       </c>
       <c r="E199" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -17594,7 +17591,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J199">
         <v>2.7</v>
@@ -17662,13 +17659,13 @@
         <v>6978422</v>
       </c>
       <c r="C200" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D200" s="2">
         <v>45360.52083333334</v>
       </c>
       <c r="E200" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F200" t="s">
         <v>43</v>
@@ -17680,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J200">
         <v>4.8</v>
@@ -17748,16 +17745,16 @@
         <v>6978416</v>
       </c>
       <c r="C201" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D201" s="2">
         <v>45361.32291666666</v>
       </c>
       <c r="E201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17766,7 +17763,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J201">
         <v>5</v>
@@ -17834,7 +17831,7 @@
         <v>6978417</v>
       </c>
       <c r="C202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D202" s="2">
         <v>45361.42708333334</v>
@@ -17843,7 +17840,7 @@
         <v>44</v>
       </c>
       <c r="F202" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17852,7 +17849,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J202">
         <v>1.4</v>
@@ -17920,16 +17917,16 @@
         <v>6978420</v>
       </c>
       <c r="C203" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D203" s="2">
         <v>45361.53125</v>
       </c>
       <c r="E203" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -17938,7 +17935,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J203">
         <v>5.25</v>
@@ -18006,16 +18003,16 @@
         <v>6978385</v>
       </c>
       <c r="C204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D204" s="2">
         <v>45362.52083333334</v>
       </c>
       <c r="E204" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F204" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18024,7 +18021,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J204">
         <v>2.45</v>
@@ -18092,16 +18089,16 @@
         <v>6978423</v>
       </c>
       <c r="C205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D205" s="2">
         <v>45366.46875</v>
       </c>
       <c r="E205" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18110,7 +18107,7 @@
         <v>2</v>
       </c>
       <c r="I205" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J205">
         <v>1.85</v>
@@ -18178,7 +18175,7 @@
         <v>6978424</v>
       </c>
       <c r="C206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D206" s="2">
         <v>45366.57291666666</v>
@@ -18187,7 +18184,7 @@
         <v>43</v>
       </c>
       <c r="F206" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18196,7 +18193,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J206">
         <v>1.6</v>
@@ -18264,7 +18261,7 @@
         <v>6978427</v>
       </c>
       <c r="C207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D207" s="2">
         <v>45367.32291666666</v>
@@ -18273,7 +18270,7 @@
         <v>41</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -18282,7 +18279,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J207">
         <v>2.15</v>
@@ -18350,13 +18347,13 @@
         <v>6978428</v>
       </c>
       <c r="C208" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D208" s="2">
         <v>45367.42708333334</v>
       </c>
       <c r="E208" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F208" t="s">
         <v>44</v>
@@ -18368,7 +18365,7 @@
         <v>3</v>
       </c>
       <c r="I208" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J208">
         <v>9.5</v>
@@ -18436,16 +18433,16 @@
         <v>6978426</v>
       </c>
       <c r="C209" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D209" s="2">
         <v>45367.53125</v>
       </c>
       <c r="E209" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G209">
         <v>6</v>
@@ -18454,7 +18451,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J209">
         <v>1.083</v>
@@ -18522,16 +18519,16 @@
         <v>6978429</v>
       </c>
       <c r="C210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D210" s="2">
         <v>45368.32291666666</v>
       </c>
       <c r="E210" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F210" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -18540,7 +18537,7 @@
         <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J210">
         <v>1.727</v>
@@ -18608,16 +18605,16 @@
         <v>6978386</v>
       </c>
       <c r="C211" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D211" s="2">
         <v>45368.42708333334</v>
       </c>
       <c r="E211" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18626,7 +18623,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J211">
         <v>3.25</v>
@@ -18694,16 +18691,16 @@
         <v>6978425</v>
       </c>
       <c r="C212" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D212" s="2">
         <v>45368.53125</v>
       </c>
       <c r="E212" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G212">
         <v>4</v>
@@ -18712,7 +18709,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J212">
         <v>1.6</v>
@@ -18780,16 +18777,16 @@
         <v>7973582</v>
       </c>
       <c r="C213" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D213" s="2">
         <v>45380.375</v>
       </c>
       <c r="E213" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F213" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -18798,7 +18795,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J213">
         <v>1.909</v>
@@ -18866,16 +18863,16 @@
         <v>7973583</v>
       </c>
       <c r="C214" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D214" s="2">
         <v>45380.47916666666</v>
       </c>
       <c r="E214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F214" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18884,7 +18881,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J214">
         <v>1.833</v>
@@ -18952,7 +18949,7 @@
         <v>7973584</v>
       </c>
       <c r="C215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D215" s="2">
         <v>45380.58333333334</v>
@@ -18970,7 +18967,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J215">
         <v>1.444</v>
@@ -19038,16 +19035,16 @@
         <v>7973585</v>
       </c>
       <c r="C216" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D216" s="2">
         <v>45381.375</v>
       </c>
       <c r="E216" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F216" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G216">
         <v>3</v>
@@ -19056,7 +19053,7 @@
         <v>2</v>
       </c>
       <c r="I216" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J216">
         <v>2.4</v>
@@ -19124,16 +19121,16 @@
         <v>7973586</v>
       </c>
       <c r="C217" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D217" s="2">
         <v>45381.47916666666</v>
       </c>
       <c r="E217" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F217" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -19142,7 +19139,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J217">
         <v>5.25</v>
@@ -19210,16 +19207,16 @@
         <v>6978434</v>
       </c>
       <c r="C218" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D218" s="2">
         <v>45381.58333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -19228,7 +19225,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J218">
         <v>7.5</v>
@@ -19296,13 +19293,13 @@
         <v>7973587</v>
       </c>
       <c r="C219" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D219" s="2">
         <v>45382.4375</v>
       </c>
       <c r="E219" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F219" t="s">
         <v>43</v>
@@ -19314,7 +19311,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J219">
         <v>2.5</v>
@@ -19382,16 +19379,16 @@
         <v>7973588</v>
       </c>
       <c r="C220" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D220" s="2">
         <v>45382.54166666666</v>
       </c>
       <c r="E220" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F220" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19400,7 +19397,7 @@
         <v>1</v>
       </c>
       <c r="I220" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J220">
         <v>1.615</v>
@@ -19468,16 +19465,16 @@
         <v>6978445</v>
       </c>
       <c r="C221" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D221" s="2">
         <v>45384.45833333334</v>
       </c>
       <c r="E221" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19486,7 +19483,7 @@
         <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J221">
         <v>4.5</v>
@@ -19554,7 +19551,7 @@
         <v>6978444</v>
       </c>
       <c r="C222" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D222" s="2">
         <v>45384.5625</v>
@@ -19563,7 +19560,7 @@
         <v>41</v>
       </c>
       <c r="F222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19572,7 +19569,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J222">
         <v>1.571</v>
@@ -19640,16 +19637,16 @@
         <v>6978389</v>
       </c>
       <c r="C223" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D223" s="2">
         <v>45385.35416666666</v>
       </c>
       <c r="E223" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F223" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G223">
         <v>3</v>
@@ -19658,7 +19655,7 @@
         <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J223">
         <v>1.909</v>
@@ -19726,16 +19723,16 @@
         <v>6978442</v>
       </c>
       <c r="C224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D224" s="2">
         <v>45385.45833333334</v>
       </c>
       <c r="E224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F224" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19744,7 +19741,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J224">
         <v>1.45</v>
@@ -19812,13 +19809,13 @@
         <v>6978443</v>
       </c>
       <c r="C225" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D225" s="2">
         <v>45385.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F225" t="s">
         <v>44</v>
@@ -19830,7 +19827,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J225">
         <v>1.571</v>
@@ -19898,16 +19895,16 @@
         <v>6978439</v>
       </c>
       <c r="C226" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D226" s="2">
         <v>45386.35416666666</v>
       </c>
       <c r="E226" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -19916,7 +19913,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J226">
         <v>1.333</v>
@@ -19984,16 +19981,16 @@
         <v>6978440</v>
       </c>
       <c r="C227" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D227" s="2">
         <v>45386.45833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F227" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -20002,7 +19999,7 @@
         <v>3</v>
       </c>
       <c r="I227" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J227">
         <v>3.5</v>
@@ -20070,7 +20067,7 @@
         <v>6978441</v>
       </c>
       <c r="C228" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D228" s="2">
         <v>45386.5625</v>
@@ -20079,7 +20076,7 @@
         <v>43</v>
       </c>
       <c r="F228" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20088,7 +20085,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J228">
         <v>1.363</v>
@@ -20156,16 +20153,16 @@
         <v>6978388</v>
       </c>
       <c r="C229" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D229" s="2">
         <v>45388.48958333334</v>
       </c>
       <c r="E229" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G229">
         <v>3</v>
@@ -20174,7 +20171,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J229">
         <v>1.75</v>
@@ -20242,13 +20239,13 @@
         <v>6978438</v>
       </c>
       <c r="C230" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D230" s="2">
         <v>45388.59375</v>
       </c>
       <c r="E230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F230" t="s">
         <v>41</v>
@@ -20260,7 +20257,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J230">
         <v>2.05</v>
@@ -20328,7 +20325,7 @@
         <v>8035921</v>
       </c>
       <c r="C231" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D231" s="2">
         <v>45389.36458333334</v>
@@ -20337,7 +20334,7 @@
         <v>44</v>
       </c>
       <c r="F231" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -20346,7 +20343,7 @@
         <v>2</v>
       </c>
       <c r="I231" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J231">
         <v>2.8</v>
@@ -20414,17 +20411,17 @@
         <v>8035920</v>
       </c>
       <c r="C232" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D232" s="2">
         <v>45389.48958333334</v>
       </c>
       <c r="E232" t="s">
+        <v>40</v>
+      </c>
+      <c r="F232" t="s">
         <v>42</v>
       </c>
-      <c r="F232" t="s">
-        <v>45</v>
-      </c>
       <c r="G232">
         <v>0</v>
       </c>
@@ -20432,7 +20429,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J232">
         <v>2.1</v>
@@ -20500,16 +20497,16 @@
         <v>6978446</v>
       </c>
       <c r="C233" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D233" s="2">
         <v>45389.59375</v>
       </c>
       <c r="E233" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F233" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -20518,7 +20515,7 @@
         <v>2</v>
       </c>
       <c r="I233" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J233">
         <v>15</v>
@@ -20586,16 +20583,16 @@
         <v>6978437</v>
       </c>
       <c r="C234" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D234" s="2">
         <v>45390.45833333334</v>
       </c>
       <c r="E234" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F234" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -20604,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J234">
         <v>3</v>
@@ -20672,13 +20669,13 @@
         <v>6978448</v>
       </c>
       <c r="C235" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D235" s="2">
         <v>45390.5625</v>
       </c>
       <c r="E235" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F235" t="s">
         <v>43</v>
@@ -20690,7 +20687,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J235">
         <v>2.9</v>
@@ -20758,16 +20755,16 @@
         <v>6978449</v>
       </c>
       <c r="C236" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D236" s="2">
         <v>45391.52083333334</v>
       </c>
       <c r="E236" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F236" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -20776,7 +20773,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J236">
         <v>2.25</v>
@@ -20844,16 +20841,16 @@
         <v>7956727</v>
       </c>
       <c r="C237" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D237" s="2">
         <v>45393.53125</v>
       </c>
       <c r="E237" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F237" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -20862,7 +20859,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J237">
         <v>8.5</v>
@@ -20930,16 +20927,16 @@
         <v>6978451</v>
       </c>
       <c r="C238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D238" s="2">
         <v>45394.48958333334</v>
       </c>
       <c r="E238" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F238" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G238">
         <v>2</v>
@@ -20948,7 +20945,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J238">
         <v>1.444</v>
@@ -21016,16 +21013,16 @@
         <v>6978455</v>
       </c>
       <c r="C239" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D239" s="2">
         <v>45394.59375</v>
       </c>
       <c r="E239" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -21034,7 +21031,7 @@
         <v>2</v>
       </c>
       <c r="I239" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J239">
         <v>1.166</v>
@@ -21102,7 +21099,7 @@
         <v>6978390</v>
       </c>
       <c r="C240" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D240" s="2">
         <v>45395.48958333334</v>
@@ -21111,7 +21108,7 @@
         <v>41</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G240">
         <v>3</v>
@@ -21120,7 +21117,7 @@
         <v>1</v>
       </c>
       <c r="I240" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J240">
         <v>1.25</v>
@@ -21188,7 +21185,7 @@
         <v>6978454</v>
       </c>
       <c r="C241" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D241" s="2">
         <v>45395.59375</v>
@@ -21206,7 +21203,7 @@
         <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J241">
         <v>2.7</v>
@@ -21274,16 +21271,16 @@
         <v>6978457</v>
       </c>
       <c r="C242" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D242" s="2">
         <v>45396.45833333334</v>
       </c>
       <c r="E242" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F242" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -21292,7 +21289,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J242">
         <v>4</v>
@@ -21360,16 +21357,16 @@
         <v>6978453</v>
       </c>
       <c r="C243" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D243" s="2">
         <v>45396.5625</v>
       </c>
       <c r="E243" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F243" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -21378,7 +21375,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J243">
         <v>3.9</v>
@@ -21446,16 +21443,16 @@
         <v>6978452</v>
       </c>
       <c r="C244" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D244" s="2">
         <v>45397.47916666666</v>
       </c>
       <c r="E244" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -21464,7 +21461,7 @@
         <v>1</v>
       </c>
       <c r="I244" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J244">
         <v>1.5</v>
@@ -21532,16 +21529,16 @@
         <v>6978456</v>
       </c>
       <c r="C245" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D245" s="2">
         <v>45397.58333333334</v>
       </c>
       <c r="E245" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F245" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -21550,7 +21547,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J245">
         <v>1.25</v>
@@ -21618,16 +21615,16 @@
         <v>6978458</v>
       </c>
       <c r="C246" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D246" s="2">
         <v>45401.47916666666</v>
       </c>
       <c r="E246" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F246" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G246">
         <v>2</v>
@@ -21636,7 +21633,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J246">
         <v>1.8</v>
@@ -21704,13 +21701,13 @@
         <v>6978459</v>
       </c>
       <c r="C247" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D247" s="2">
         <v>45401.58333333334</v>
       </c>
       <c r="E247" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F247" t="s">
         <v>41</v>
@@ -21722,7 +21719,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J247">
         <v>2.3</v>
@@ -21790,13 +21787,13 @@
         <v>6978461</v>
       </c>
       <c r="C248" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D248" s="2">
         <v>45402.38541666666</v>
       </c>
       <c r="E248" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F248" t="s">
         <v>43</v>
@@ -21808,7 +21805,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J248">
         <v>5.75</v>
@@ -21876,16 +21873,16 @@
         <v>6978391</v>
       </c>
       <c r="C249" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D249" s="2">
         <v>45402.48958333334</v>
       </c>
       <c r="E249" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F249" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -21894,7 +21891,7 @@
         <v>3</v>
       </c>
       <c r="I249" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J249">
         <v>10</v>
@@ -21962,7 +21959,7 @@
         <v>6978462</v>
       </c>
       <c r="C250" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D250" s="2">
         <v>45402.59375</v>
@@ -21971,7 +21968,7 @@
         <v>44</v>
       </c>
       <c r="F250" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -21980,7 +21977,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J250">
         <v>1.444</v>
@@ -22048,16 +22045,16 @@
         <v>6978463</v>
       </c>
       <c r="C251" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D251" s="2">
         <v>45403.38541666666</v>
       </c>
       <c r="E251" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F251" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -22066,7 +22063,7 @@
         <v>1</v>
       </c>
       <c r="I251" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J251">
         <v>1.909</v>
@@ -22134,16 +22131,16 @@
         <v>6978464</v>
       </c>
       <c r="C252" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D252" s="2">
         <v>45403.48958333334</v>
       </c>
       <c r="E252" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F252" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -22152,7 +22149,7 @@
         <v>4</v>
       </c>
       <c r="I252" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J252">
         <v>2.6</v>
@@ -22220,16 +22217,16 @@
         <v>6978460</v>
       </c>
       <c r="C253" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D253" s="2">
         <v>45403.59375</v>
       </c>
       <c r="E253" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F253" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -22238,7 +22235,7 @@
         <v>3</v>
       </c>
       <c r="I253" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J253">
         <v>5.5</v>
@@ -22306,16 +22303,16 @@
         <v>8129696</v>
       </c>
       <c r="C254" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D254" s="2">
         <v>45408.58333333334</v>
       </c>
       <c r="E254" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F254" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -22324,7 +22321,7 @@
         <v>2</v>
       </c>
       <c r="I254" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J254">
         <v>2.1</v>
@@ -22392,52 +22389,52 @@
         <v>27</v>
       </c>
       <c r="C255" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D255" s="2">
-        <v>45409.42708333334</v>
+        <v>45409.54166666666</v>
       </c>
       <c r="E255" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F255" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J255">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K255">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L255">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M255">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N255">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O255">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P255">
         <v>-0.5</v>
       </c>
       <c r="Q255">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R255">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S255">
         <v>2.25</v>
       </c>
       <c r="T255">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="U255">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V255">
         <v>0</v>
@@ -22457,52 +22454,52 @@
         <v>28</v>
       </c>
       <c r="C256" t="s">
+        <v>33</v>
+      </c>
+      <c r="D256" s="2">
+        <v>45410.38541666666</v>
+      </c>
+      <c r="E256" t="s">
+        <v>39</v>
+      </c>
+      <c r="F256" t="s">
         <v>34</v>
       </c>
-      <c r="D256" s="2">
-        <v>45409.54166666666</v>
-      </c>
-      <c r="E256" t="s">
-        <v>42</v>
-      </c>
-      <c r="F256" t="s">
-        <v>41</v>
-      </c>
       <c r="J256">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="K256">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L256">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M256">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="N256">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O256">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P256">
         <v>-0.5</v>
       </c>
       <c r="Q256">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R256">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S256">
         <v>2.25</v>
       </c>
       <c r="T256">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U256">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V256">
         <v>0</v>
@@ -22522,52 +22519,52 @@
         <v>29</v>
       </c>
       <c r="C257" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D257" s="2">
-        <v>45410.38541666666</v>
+        <v>45410.48958333334</v>
       </c>
       <c r="E257" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F257" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J257">
-        <v>2.15</v>
+        <v>1.142</v>
       </c>
       <c r="K257">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="L257">
-        <v>3.4</v>
+        <v>17</v>
       </c>
       <c r="M257">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="N257">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O257">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P257">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="Q257">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R257">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S257">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T257">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U257">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V257">
         <v>0</v>
@@ -22587,46 +22584,46 @@
         <v>30</v>
       </c>
       <c r="C258" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D258" s="2">
-        <v>45410.48958333334</v>
+        <v>45410.59375</v>
       </c>
       <c r="E258" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F258" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J258">
-        <v>1.142</v>
+        <v>1.65</v>
       </c>
       <c r="K258">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="L258">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="M258">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="N258">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="O258">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="P258">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q258">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="R258">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S258">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T258">
         <v>1.975</v>
@@ -22652,43 +22649,43 @@
         <v>31</v>
       </c>
       <c r="C259" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D259" s="2">
-        <v>45410.59375</v>
+        <v>45411.48958333334</v>
       </c>
       <c r="E259" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F259" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J259">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="K259">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L259">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M259">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="N259">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O259">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P259">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q259">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="R259">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S259">
         <v>2.25</v>
@@ -22717,53 +22714,53 @@
         <v>32</v>
       </c>
       <c r="C260" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D260" s="2">
-        <v>45411.48958333334</v>
+        <v>45411.59375</v>
       </c>
       <c r="E260" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F260" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J260">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="K260">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L260">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M260">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="N260">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O260">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P260">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q260">
+        <v>1.975</v>
+      </c>
+      <c r="R260">
         <v>1.875</v>
-      </c>
-      <c r="R260">
-        <v>1.975</v>
       </c>
       <c r="S260">
         <v>2.25</v>
       </c>
       <c r="T260">
+        <v>1.875</v>
+      </c>
+      <c r="U260">
         <v>1.975</v>
       </c>
-      <c r="U260">
-        <v>1.875</v>
-      </c>
       <c r="V260">
         <v>0</v>
       </c>
@@ -22771,71 +22768,6 @@
         <v>0</v>
       </c>
       <c r="X260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:24">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261" t="s">
-        <v>33</v>
-      </c>
-      <c r="C261" t="s">
-        <v>34</v>
-      </c>
-      <c r="D261" s="2">
-        <v>45411.59375</v>
-      </c>
-      <c r="E261" t="s">
-        <v>50</v>
-      </c>
-      <c r="F261" t="s">
-        <v>48</v>
-      </c>
-      <c r="J261">
-        <v>1.615</v>
-      </c>
-      <c r="K261">
-        <v>3.6</v>
-      </c>
-      <c r="L261">
-        <v>6</v>
-      </c>
-      <c r="M261">
-        <v>1.533</v>
-      </c>
-      <c r="N261">
-        <v>3.8</v>
-      </c>
-      <c r="O261">
-        <v>7</v>
-      </c>
-      <c r="P261">
-        <v>-1</v>
-      </c>
-      <c r="Q261">
-        <v>1.975</v>
-      </c>
-      <c r="R261">
-        <v>1.875</v>
-      </c>
-      <c r="S261">
-        <v>2.25</v>
-      </c>
-      <c r="T261">
-        <v>1.875</v>
-      </c>
-      <c r="U261">
-        <v>1.975</v>
-      </c>
-      <c r="V261">
-        <v>0</v>
-      </c>
-      <c r="W261">
-        <v>0</v>
-      </c>
-      <c r="X261">
         <v>0</v>
       </c>
     </row>

--- a/Bulgaria First League/Bulgaria First League.xlsx
+++ b/Bulgaria First League/Bulgaria First League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -97,12 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8129612</t>
-  </si>
-  <si>
-    <t>8129603</t>
-  </si>
-  <si>
     <t>8129510</t>
   </si>
   <si>
@@ -142,13 +136,13 @@
     <t>Slavia Sofia</t>
   </si>
   <si>
-    <t>CSKA 1948 Sofia</t>
+    <t>Levski Sofia</t>
   </si>
   <si>
     <t>Cherno More Varna</t>
   </si>
   <si>
-    <t>Levski Sofia</t>
+    <t>CSKA 1948 Sofia</t>
   </si>
   <si>
     <t>Pirin Blagoevgrad</t>
@@ -534,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB260"/>
+  <dimension ref="A1:AB258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,16 +625,16 @@
         <v>6627734</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>45078.47916666666</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -649,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>2.2</v>
@@ -717,16 +711,16 @@
         <v>6627735</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>45078.58333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -735,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J3">
         <v>1.95</v>
@@ -803,16 +797,16 @@
         <v>6627722</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>45079.57291666666</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -821,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J4">
         <v>2.8</v>
@@ -889,13 +883,13 @@
         <v>6627723</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>45080.5</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -907,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J5">
         <v>1.65</v>
@@ -975,16 +969,16 @@
         <v>6627289</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>45080.60416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -993,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J6">
         <v>1.615</v>
@@ -1061,16 +1055,16 @@
         <v>6627751</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>45082.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1079,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -1147,16 +1141,16 @@
         <v>6627736</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>45083.5625</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1165,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>5.25</v>
@@ -1233,16 +1227,16 @@
         <v>6627737</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>45083.5625</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1251,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J9">
         <v>1.5</v>
@@ -1316,58 +1310,58 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6627724</v>
+        <v>6627725</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>45084.53125</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J10">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="K10">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="M10">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="N10">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="O10">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="P10">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q10">
+        <v>1.825</v>
+      </c>
+      <c r="R10">
         <v>2.025</v>
       </c>
-      <c r="R10">
-        <v>1.825</v>
-      </c>
       <c r="S10">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T10">
         <v>1.85</v>
@@ -1379,22 +1373,22 @@
         <v>-1</v>
       </c>
       <c r="W10">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1405,16 +1399,16 @@
         <v>6627290</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>45084.53125</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1423,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -1488,58 +1482,58 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6627725</v>
+        <v>6627724</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>45084.53125</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>50</v>
       </c>
       <c r="J12">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="L12">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="M12">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="N12">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="O12">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q12">
+        <v>2.025</v>
+      </c>
+      <c r="R12">
         <v>1.825</v>
       </c>
-      <c r="R12">
-        <v>2.025</v>
-      </c>
       <c r="S12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T12">
         <v>1.85</v>
@@ -1551,22 +1545,22 @@
         <v>-1</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X12">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1577,16 +1571,16 @@
         <v>6749438</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>45088.54166666666</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1595,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J13">
         <v>1.6</v>
@@ -1663,16 +1657,16 @@
         <v>6822366</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>45121.53125</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1681,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J14">
         <v>2.5</v>
@@ -1749,16 +1743,16 @@
         <v>6780988</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>45121.625</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1767,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <v>11</v>
@@ -1835,13 +1829,13 @@
         <v>6780482</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>45122.53125</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
@@ -1853,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -1921,16 +1915,16 @@
         <v>6824119</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>45122.625</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1939,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J17">
         <v>2.6</v>
@@ -2007,16 +2001,16 @@
         <v>6791826</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
         <v>45123.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2025,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J18">
         <v>2.5</v>
@@ -2093,16 +2087,16 @@
         <v>6824120</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>45123.625</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2111,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J19">
         <v>11</v>
@@ -2179,16 +2173,16 @@
         <v>6824118</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>45124.52083333334</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2197,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -2265,16 +2259,16 @@
         <v>6777643</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>45124.61458333334</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2283,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J21">
         <v>2.8</v>
@@ -2351,7 +2345,7 @@
         <v>6822367</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>45128.54166666666</v>
@@ -2360,7 +2354,7 @@
         <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2369,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J22">
         <v>1.142</v>
@@ -2437,16 +2431,16 @@
         <v>6824122</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>45128.63541666666</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2455,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J23">
         <v>1.25</v>
@@ -2523,16 +2517,16 @@
         <v>6780483</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <v>45129.55208333334</v>
       </c>
       <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
         <v>40</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2541,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J24">
         <v>3.6</v>
@@ -2609,16 +2603,16 @@
         <v>6831734</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>45129.64583333334</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2627,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J25">
         <v>1.1</v>
@@ -2695,16 +2689,16 @@
         <v>6824123</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2">
         <v>45130.54166666666</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2713,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J26">
         <v>1.5</v>
@@ -2781,16 +2775,16 @@
         <v>6824125</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
         <v>45130.63541666666</v>
       </c>
       <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
         <v>34</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2799,7 +2793,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -2867,16 +2861,16 @@
         <v>6824121</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
         <v>45131.54166666666</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2885,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J28">
         <v>3.6</v>
@@ -2953,16 +2947,16 @@
         <v>6824124</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
         <v>45131.63541666666</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2971,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J29">
         <v>3.8</v>
@@ -3039,16 +3033,16 @@
         <v>6824128</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
         <v>45135.63541666666</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3057,7 +3051,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J30">
         <v>4.2</v>
@@ -3125,16 +3119,16 @@
         <v>6824127</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>45136.54166666666</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3143,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J31">
         <v>2.4</v>
@@ -3211,16 +3205,16 @@
         <v>6791827</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3229,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J32">
         <v>2.8</v>
@@ -3297,16 +3291,16 @@
         <v>6780484</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
         <v>45137.63541666666</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -3315,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J33">
         <v>1.25</v>
@@ -3383,16 +3377,16 @@
         <v>6824126</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2">
         <v>45138.63541666666</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3401,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J34">
         <v>1.4</v>
@@ -3469,16 +3463,16 @@
         <v>6824132</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2">
         <v>45142.54166666666</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3487,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J35">
         <v>1.444</v>
@@ -3555,16 +3549,16 @@
         <v>6791828</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2">
         <v>45142.63541666666</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3573,7 +3567,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -3641,16 +3635,16 @@
         <v>6852041</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2">
         <v>45143.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3659,7 +3653,7 @@
         <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J37">
         <v>7.5</v>
@@ -3727,16 +3721,16 @@
         <v>6822368</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <v>45143.63541666666</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3745,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J38">
         <v>1.85</v>
@@ -3813,16 +3807,16 @@
         <v>6824131</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2">
         <v>45144.53125</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3831,7 +3825,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J39">
         <v>1.5</v>
@@ -3899,16 +3893,16 @@
         <v>6780485</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2">
         <v>45144.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3917,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J40">
         <v>3</v>
@@ -3985,7 +3979,7 @@
         <v>6826694</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2">
         <v>45145.54166666666</v>
@@ -3994,7 +3988,7 @@
         <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4003,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J41">
         <v>1.2</v>
@@ -4071,25 +4065,25 @@
         <v>6824133</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2">
         <v>45145.63541666666</v>
       </c>
       <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
         <v>49</v>
-      </c>
-      <c r="F42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" t="s">
-        <v>51</v>
       </c>
       <c r="J42">
         <v>1.909</v>
@@ -4157,16 +4151,16 @@
         <v>6824134</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2">
         <v>45149.54166666666</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4175,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J43">
         <v>1.75</v>
@@ -4243,16 +4237,16 @@
         <v>6822369</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2">
         <v>45149.63541666666</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4261,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J44">
         <v>4</v>
@@ -4329,16 +4323,16 @@
         <v>6791829</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2">
         <v>45150.54166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4347,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J45">
         <v>3.6</v>
@@ -4415,16 +4409,16 @@
         <v>6824136</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" t="s">
         <v>41</v>
-      </c>
-      <c r="F46" t="s">
-        <v>43</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4433,7 +4427,7 @@
         <v>5</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J46">
         <v>2.4</v>
@@ -4501,16 +4495,16 @@
         <v>6780486</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2">
         <v>45151.53125</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4519,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J47">
         <v>1.166</v>
@@ -4587,16 +4581,16 @@
         <v>6824137</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D48" s="2">
         <v>45151.63541666666</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4605,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J48">
         <v>1.85</v>
@@ -4673,17 +4667,17 @@
         <v>6824135</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D49" s="2">
         <v>45152.54166666666</v>
       </c>
       <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s">
         <v>47</v>
       </c>
-      <c r="F49" t="s">
-        <v>49</v>
-      </c>
       <c r="G49">
         <v>2</v>
       </c>
@@ -4691,7 +4685,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J49">
         <v>2.6</v>
@@ -4759,13 +4753,13 @@
         <v>6826695</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D50" s="2">
         <v>45152.63541666666</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
@@ -4777,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J50">
         <v>4.75</v>
@@ -4845,16 +4839,16 @@
         <v>6824141</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D51" s="2">
         <v>45156.54166666666</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4863,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J51">
         <v>1.909</v>
@@ -4931,16 +4925,16 @@
         <v>6824142</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2">
         <v>45156.63541666666</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4949,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J52">
         <v>2</v>
@@ -5017,16 +5011,16 @@
         <v>6824140</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2">
         <v>45157.54166666666</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5035,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J53">
         <v>2.8</v>
@@ -5103,25 +5097,25 @@
         <v>6824138</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2">
         <v>45157.63541666666</v>
       </c>
       <c r="E54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54" t="s">
         <v>48</v>
-      </c>
-      <c r="F54" t="s">
-        <v>37</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>2</v>
-      </c>
-      <c r="I54" t="s">
-        <v>50</v>
       </c>
       <c r="J54">
         <v>8.5</v>
@@ -5189,16 +5183,16 @@
         <v>6791830</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D55" s="2">
         <v>45158.54166666666</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5207,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J55">
         <v>1.5</v>
@@ -5275,16 +5269,16 @@
         <v>6824139</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D56" s="2">
         <v>45158.63541666666</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5293,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J56">
         <v>3.4</v>
@@ -5361,7 +5355,7 @@
         <v>6826696</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D57" s="2">
         <v>45159.60416666666</v>
@@ -5370,7 +5364,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5379,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J57">
         <v>1.222</v>
@@ -5447,16 +5441,16 @@
         <v>6822370</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2">
         <v>45163.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5465,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J58">
         <v>2.25</v>
@@ -5533,16 +5527,16 @@
         <v>6824143</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D59" s="2">
         <v>45163.63541666666</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5551,7 +5545,7 @@
         <v>4</v>
       </c>
       <c r="I59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J59">
         <v>3.6</v>
@@ -5619,16 +5613,16 @@
         <v>6824144</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D60" s="2">
         <v>45164.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5637,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J60">
         <v>2.05</v>
@@ -5705,16 +5699,16 @@
         <v>6824147</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D61" s="2">
         <v>45164.63541666666</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5723,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J61">
         <v>1.6</v>
@@ -5791,16 +5785,16 @@
         <v>6791831</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D62" s="2">
         <v>45165.54166666666</v>
       </c>
       <c r="E62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5809,7 +5803,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J62">
         <v>2.9</v>
@@ -5877,16 +5871,16 @@
         <v>6824146</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D63" s="2">
         <v>45165.63541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G63">
         <v>5</v>
@@ -5895,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J63">
         <v>1.142</v>
@@ -5963,13 +5957,13 @@
         <v>6824145</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D64" s="2">
         <v>45166.60416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -5981,7 +5975,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J64">
         <v>3.6</v>
@@ -6049,16 +6043,16 @@
         <v>6822371</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D65" s="2">
         <v>45170.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6067,7 +6061,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J65">
         <v>3.5</v>
@@ -6135,16 +6129,16 @@
         <v>6824148</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2">
         <v>45170.55208333334</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6153,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -6221,16 +6215,16 @@
         <v>6791832</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D67" s="2">
         <v>45170.64583333334</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -6239,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J67">
         <v>2.15</v>
@@ -6307,16 +6301,16 @@
         <v>6824150</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D68" s="2">
         <v>45171.54166666666</v>
       </c>
       <c r="E68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6325,7 +6319,7 @@
         <v>3</v>
       </c>
       <c r="I68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J68">
         <v>1.909</v>
@@ -6393,16 +6387,16 @@
         <v>6824149</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D69" s="2">
         <v>45171.63541666666</v>
       </c>
       <c r="E69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6411,7 +6405,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J69">
         <v>5</v>
@@ -6479,16 +6473,16 @@
         <v>6824151</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D70" s="2">
         <v>45172.54166666666</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G70">
         <v>4</v>
@@ -6497,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J70">
         <v>1.533</v>
@@ -6565,16 +6559,16 @@
         <v>6780489</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D71" s="2">
         <v>45172.63541666666</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6583,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J71">
         <v>1.2</v>
@@ -6651,16 +6645,16 @@
         <v>7158358</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D72" s="2">
         <v>45183.60416666666</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6669,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J72">
         <v>1.142</v>
@@ -6737,16 +6731,16 @@
         <v>7139599</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D73" s="2">
         <v>45184.47916666666</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G73">
         <v>4</v>
@@ -6755,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J73">
         <v>1.6</v>
@@ -6823,25 +6817,25 @@
         <v>7139606</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D74" s="2">
         <v>45184.58333333334</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
+        <v>47</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
         <v>49</v>
-      </c>
-      <c r="G74">
-        <v>2</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74" t="s">
-        <v>51</v>
       </c>
       <c r="J74">
         <v>1.571</v>
@@ -6909,16 +6903,16 @@
         <v>7139603</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D75" s="2">
         <v>45185.47916666666</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6927,7 +6921,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J75">
         <v>2.1</v>
@@ -6995,17 +6989,17 @@
         <v>7139604</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D76" s="2">
         <v>45185.58333333334</v>
       </c>
       <c r="E76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" t="s">
         <v>38</v>
       </c>
-      <c r="F76" t="s">
-        <v>40</v>
-      </c>
       <c r="G76">
         <v>2</v>
       </c>
@@ -7013,7 +7007,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J76">
         <v>1.333</v>
@@ -7081,16 +7075,16 @@
         <v>7139602</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D77" s="2">
         <v>45186.48958333334</v>
       </c>
       <c r="E77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7099,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J77">
         <v>3.6</v>
@@ -7167,13 +7161,13 @@
         <v>7139605</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D78" s="2">
         <v>45186.59375</v>
       </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F78" t="s">
         <v>42</v>
@@ -7185,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -7253,16 +7247,16 @@
         <v>7139600</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D79" s="2">
         <v>45187.47916666666</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7271,7 +7265,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J79">
         <v>1.909</v>
@@ -7339,16 +7333,16 @@
         <v>7139601</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D80" s="2">
         <v>45187.58333333334</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7357,7 +7351,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J80">
         <v>5.5</v>
@@ -7425,16 +7419,16 @@
         <v>7179269</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D81" s="2">
         <v>45191.375</v>
       </c>
       <c r="E81" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7443,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J81">
         <v>2.5</v>
@@ -7511,7 +7505,7 @@
         <v>7179270</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D82" s="2">
         <v>45191.47916666666</v>
@@ -7520,7 +7514,7 @@
         <v>42</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7529,7 +7523,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J82">
         <v>1.95</v>
@@ -7597,16 +7591,16 @@
         <v>7179271</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D83" s="2">
         <v>45191.58333333334</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7615,7 +7609,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J83">
         <v>3.6</v>
@@ -7683,16 +7677,16 @@
         <v>7179276</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D84" s="2">
         <v>45192.375</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -7701,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J84">
         <v>1.7</v>
@@ -7769,16 +7763,16 @@
         <v>7179273</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D85" s="2">
         <v>45192.47916666666</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7787,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J85">
         <v>1.8</v>
@@ -7855,16 +7849,16 @@
         <v>7179274</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D86" s="2">
         <v>45192.58333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7873,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J86">
         <v>1.25</v>
@@ -7941,16 +7935,16 @@
         <v>7179275</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D87" s="2">
         <v>45193.5</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7959,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J87">
         <v>2.75</v>
@@ -8027,16 +8021,16 @@
         <v>7179272</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D88" s="2">
         <v>45193.60416666666</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8045,7 +8039,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J88">
         <v>8</v>
@@ -8113,13 +8107,13 @@
         <v>6824162</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D89" s="2">
         <v>45195.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F89" t="s">
         <v>42</v>
@@ -8131,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J89">
         <v>4.75</v>
@@ -8199,16 +8193,16 @@
         <v>6791835</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D90" s="2">
         <v>45195.5625</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8217,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J90">
         <v>1.833</v>
@@ -8285,16 +8279,16 @@
         <v>6885560</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D91" s="2">
         <v>45196.39583333334</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8303,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J91">
         <v>1.95</v>
@@ -8371,16 +8365,16 @@
         <v>6780492</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D92" s="2">
         <v>45196.5</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8389,7 +8383,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J92">
         <v>4.333</v>
@@ -8457,16 +8451,16 @@
         <v>6824160</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D93" s="2">
         <v>45196.60416666666</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8475,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J93">
         <v>1.363</v>
@@ -8543,16 +8537,16 @@
         <v>6822374</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D94" s="2">
         <v>45197.39583333334</v>
       </c>
       <c r="E94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8561,7 +8555,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J94">
         <v>1.909</v>
@@ -8629,16 +8623,16 @@
         <v>6852038</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D95" s="2">
         <v>45197.5</v>
       </c>
       <c r="E95" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8647,7 +8641,7 @@
         <v>3</v>
       </c>
       <c r="I95" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J95">
         <v>3.3</v>
@@ -8715,16 +8709,16 @@
         <v>6824161</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D96" s="2">
         <v>45197.60416666666</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8733,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J96">
         <v>1.3</v>
@@ -8801,13 +8795,13 @@
         <v>6826698</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D97" s="2">
         <v>45199.47916666666</v>
       </c>
       <c r="E97" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F97" t="s">
         <v>42</v>
@@ -8819,7 +8813,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J97">
         <v>7.5</v>
@@ -8887,16 +8881,16 @@
         <v>6791836</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D98" s="2">
         <v>45199.58333333334</v>
       </c>
       <c r="E98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8905,7 +8899,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J98">
         <v>1.85</v>
@@ -8973,16 +8967,16 @@
         <v>6831735</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D99" s="2">
         <v>45200.38541666666</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -8991,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J99">
         <v>1.55</v>
@@ -9059,16 +9053,16 @@
         <v>6824163</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D100" s="2">
         <v>45200.48958333334</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9077,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J100">
         <v>3.9</v>
@@ -9145,16 +9139,16 @@
         <v>6780493</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D101" s="2">
         <v>45200.60416666666</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9163,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J101">
         <v>3.2</v>
@@ -9231,16 +9225,16 @@
         <v>6874126</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D102" s="2">
         <v>45201.375</v>
       </c>
       <c r="E102" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9249,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J102">
         <v>2.2</v>
@@ -9317,16 +9311,16 @@
         <v>6822375</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D103" s="2">
         <v>45201.47916666666</v>
       </c>
       <c r="E103" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9335,7 +9329,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J103">
         <v>3.5</v>
@@ -9403,16 +9397,16 @@
         <v>6824164</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2">
         <v>45201.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9421,7 +9415,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J104">
         <v>3.2</v>
@@ -9489,16 +9483,16 @@
         <v>6874127</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D105" s="2">
         <v>45205.47916666666</v>
       </c>
       <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
         <v>46</v>
-      </c>
-      <c r="F105" t="s">
-        <v>48</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9507,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J105">
         <v>1.8</v>
@@ -9575,16 +9569,16 @@
         <v>6824169</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D106" s="2">
         <v>45205.58333333334</v>
       </c>
       <c r="E106" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9593,7 +9587,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J106">
         <v>2.2</v>
@@ -9661,16 +9655,16 @@
         <v>7290919</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D107" s="2">
         <v>45206.36458333334</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9679,7 +9673,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J107">
         <v>2.4</v>
@@ -9747,16 +9741,16 @@
         <v>7290917</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D108" s="2">
         <v>45206.48958333334</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9765,7 +9759,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J108">
         <v>3.5</v>
@@ -9833,16 +9827,16 @@
         <v>6824168</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D109" s="2">
         <v>45206.59375</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9851,7 +9845,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J109">
         <v>1.8</v>
@@ -9919,16 +9913,16 @@
         <v>7290920</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D110" s="2">
         <v>45207.38541666666</v>
       </c>
       <c r="E110" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9937,7 +9931,7 @@
         <v>5</v>
       </c>
       <c r="I110" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J110">
         <v>2.4</v>
@@ -10005,7 +9999,7 @@
         <v>7290918</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D111" s="2">
         <v>45207.48958333334</v>
@@ -10014,7 +10008,7 @@
         <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10023,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J111">
         <v>1.75</v>
@@ -10091,16 +10085,16 @@
         <v>6822376</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D112" s="2">
         <v>45207.59375</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G112">
         <v>4</v>
@@ -10109,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J112">
         <v>1.05</v>
@@ -10177,16 +10171,16 @@
         <v>6831737</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D113" s="2">
         <v>45219.44791666666</v>
       </c>
       <c r="E113" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10195,7 +10189,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J113">
         <v>1.833</v>
@@ -10263,16 +10257,16 @@
         <v>6824171</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D114" s="2">
         <v>45219.55208333334</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10281,7 +10275,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J114">
         <v>1.5</v>
@@ -10349,16 +10343,16 @@
         <v>6791838</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D115" s="2">
         <v>45220.33333333334</v>
       </c>
       <c r="E115" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10367,7 +10361,7 @@
         <v>5</v>
       </c>
       <c r="I115" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J115">
         <v>3.25</v>
@@ -10435,13 +10429,13 @@
         <v>6824170</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D116" s="2">
         <v>45220.4375</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F116" t="s">
         <v>42</v>
@@ -10453,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J116">
         <v>4.8</v>
@@ -10521,16 +10515,16 @@
         <v>6822377</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D117" s="2">
         <v>45220.54166666666</v>
       </c>
       <c r="E117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10539,7 +10533,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J117">
         <v>12</v>
@@ -10607,16 +10601,16 @@
         <v>6824172</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D118" s="2">
         <v>45221.33333333334</v>
       </c>
       <c r="E118" t="s">
+        <v>37</v>
+      </c>
+      <c r="F118" t="s">
         <v>39</v>
-      </c>
-      <c r="F118" t="s">
-        <v>41</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10625,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J118">
         <v>2.625</v>
@@ -10693,16 +10687,16 @@
         <v>6780495</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D119" s="2">
         <v>45221.4375</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10711,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J119">
         <v>1.7</v>
@@ -10779,16 +10773,16 @@
         <v>6852039</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D120" s="2">
         <v>45221.54166666666</v>
       </c>
       <c r="E120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10797,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J120">
         <v>5.5</v>
@@ -10865,16 +10859,16 @@
         <v>6831738</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D121" s="2">
         <v>45224.47916666666</v>
       </c>
       <c r="E121" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10883,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J121">
         <v>2.3</v>
@@ -10951,16 +10945,16 @@
         <v>6791839</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D122" s="2">
         <v>45225.27083333334</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G122">
         <v>6</v>
@@ -10969,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J122">
         <v>1.75</v>
@@ -11037,16 +11031,16 @@
         <v>6822378</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D123" s="2">
         <v>45225.375</v>
       </c>
       <c r="E123" t="s">
+        <v>41</v>
+      </c>
+      <c r="F123" t="s">
         <v>43</v>
-      </c>
-      <c r="F123" t="s">
-        <v>45</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11055,7 +11049,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J123">
         <v>1.3</v>
@@ -11123,7 +11117,7 @@
         <v>6824175</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D124" s="2">
         <v>45225.47916666666</v>
@@ -11132,7 +11126,7 @@
         <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11141,7 +11135,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J124">
         <v>1.85</v>
@@ -11209,16 +11203,16 @@
         <v>6824173</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D125" s="2">
         <v>45226.33333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11227,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J125">
         <v>2</v>
@@ -11295,16 +11289,16 @@
         <v>6824174</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D126" s="2">
         <v>45226.4375</v>
       </c>
       <c r="E126" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -11313,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J126">
         <v>1.5</v>
@@ -11381,16 +11375,16 @@
         <v>6780496</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D127" s="2">
         <v>45226.54166666666</v>
       </c>
       <c r="E127" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F127" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11399,7 +11393,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J127">
         <v>5.5</v>
@@ -11467,16 +11461,16 @@
         <v>6852042</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D128" s="2">
         <v>45228.55208333334</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -11485,7 +11479,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J128">
         <v>1.125</v>
@@ -11553,16 +11547,16 @@
         <v>7326962</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D129" s="2">
         <v>45231.5</v>
       </c>
       <c r="E129" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11571,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J129">
         <v>10</v>
@@ -11639,16 +11633,16 @@
         <v>7326964</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D130" s="2">
         <v>45231.60416666666</v>
       </c>
       <c r="E130" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11657,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J130">
         <v>3</v>
@@ -11725,16 +11719,16 @@
         <v>7326963</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D131" s="2">
         <v>45232.54166666666</v>
       </c>
       <c r="E131" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11743,7 +11737,7 @@
         <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J131">
         <v>7.5</v>
@@ -11811,16 +11805,16 @@
         <v>6822379</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D132" s="2">
         <v>45233.5</v>
       </c>
       <c r="E132" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11829,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J132">
         <v>2</v>
@@ -11897,16 +11891,16 @@
         <v>6791840</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2">
         <v>45233.60416666666</v>
       </c>
       <c r="E133" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11915,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J133">
         <v>3.3</v>
@@ -11983,16 +11977,16 @@
         <v>6852043</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D134" s="2">
         <v>45235.4375</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -12001,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J134">
         <v>1.222</v>
@@ -12069,25 +12063,25 @@
         <v>7408275</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D135" s="2">
         <v>45236.33333333334</v>
       </c>
       <c r="E135" t="s">
+        <v>46</v>
+      </c>
+      <c r="F135" t="s">
+        <v>32</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135" t="s">
         <v>48</v>
-      </c>
-      <c r="F135" t="s">
-        <v>34</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>2</v>
-      </c>
-      <c r="I135" t="s">
-        <v>50</v>
       </c>
       <c r="J135">
         <v>2.1</v>
@@ -12155,16 +12149,16 @@
         <v>6824179</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D136" s="2">
         <v>45236.4375</v>
       </c>
       <c r="E136" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12173,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J136">
         <v>1.65</v>
@@ -12241,16 +12235,16 @@
         <v>6824178</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D137" s="2">
         <v>45236.54166666666</v>
       </c>
       <c r="E137" t="s">
+        <v>35</v>
+      </c>
+      <c r="F137" t="s">
         <v>37</v>
-      </c>
-      <c r="F137" t="s">
-        <v>39</v>
       </c>
       <c r="G137">
         <v>3</v>
@@ -12259,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J137">
         <v>1.181</v>
@@ -12327,16 +12321,16 @@
         <v>6824177</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D138" s="2">
         <v>45237.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12345,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J138">
         <v>1.909</v>
@@ -12413,7 +12407,7 @@
         <v>6780497</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D139" s="2">
         <v>45237.52083333334</v>
@@ -12422,7 +12416,7 @@
         <v>42</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12431,7 +12425,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J139">
         <v>2.6</v>
@@ -12499,16 +12493,16 @@
         <v>6824180</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D140" s="2">
         <v>45240.41666666666</v>
       </c>
       <c r="E140" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12517,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J140">
         <v>1.666</v>
@@ -12585,16 +12579,16 @@
         <v>6824184</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D141" s="2">
         <v>45240.52083333334</v>
       </c>
       <c r="E141" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -12603,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J141">
         <v>1.45</v>
@@ -12671,16 +12665,16 @@
         <v>6824182</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D142" s="2">
         <v>45241.32291666666</v>
       </c>
       <c r="E142" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12689,7 +12683,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J142">
         <v>3.4</v>
@@ -12757,13 +12751,13 @@
         <v>6822380</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D143" s="2">
         <v>45241.42708333334</v>
       </c>
       <c r="E143" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F143" t="s">
         <v>42</v>
@@ -12775,7 +12769,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J143">
         <v>6</v>
@@ -12843,16 +12837,16 @@
         <v>6824183</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D144" s="2">
         <v>45241.53125</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F144" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12861,7 +12855,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J144">
         <v>1.7</v>
@@ -12929,16 +12923,16 @@
         <v>6824181</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D145" s="2">
         <v>45242.33333333334</v>
       </c>
       <c r="E145" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12947,7 +12941,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J145">
         <v>7</v>
@@ -13015,16 +13009,16 @@
         <v>6780498</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D146" s="2">
         <v>45242.4375</v>
       </c>
       <c r="E146" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13033,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J146">
         <v>1.5</v>
@@ -13101,16 +13095,16 @@
         <v>6831739</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D147" s="2">
         <v>45242.54166666666</v>
       </c>
       <c r="E147" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13119,7 +13113,7 @@
         <v>4</v>
       </c>
       <c r="I147" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J147">
         <v>11</v>
@@ -13187,16 +13181,16 @@
         <v>6824186</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D148" s="2">
         <v>45254.52083333334</v>
       </c>
       <c r="E148" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -13205,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J148">
         <v>1.909</v>
@@ -13273,16 +13267,16 @@
         <v>6824185</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D149" s="2">
         <v>45255.3125</v>
       </c>
       <c r="E149" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13291,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J149">
         <v>4.2</v>
@@ -13359,16 +13353,16 @@
         <v>6791841</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D150" s="2">
         <v>45255.41666666666</v>
       </c>
       <c r="E150" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13377,7 +13371,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J150">
         <v>1.444</v>
@@ -13445,16 +13439,16 @@
         <v>6824188</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D151" s="2">
         <v>45256.52083333334</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F151" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13463,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J151">
         <v>1.153</v>
@@ -13531,16 +13525,16 @@
         <v>6824187</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D152" s="2">
         <v>45256.53125</v>
       </c>
       <c r="E152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F152" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13549,7 +13543,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J152">
         <v>1.4</v>
@@ -13617,13 +13611,13 @@
         <v>7527165</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D153" s="2">
         <v>45257.32291666666</v>
       </c>
       <c r="E153" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F153" t="s">
         <v>42</v>
@@ -13635,7 +13629,7 @@
         <v>3</v>
       </c>
       <c r="I153" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J153">
         <v>2.7</v>
@@ -13703,16 +13697,16 @@
         <v>6824189</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D154" s="2">
         <v>45257.42708333334</v>
       </c>
       <c r="E154" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13721,7 +13715,7 @@
         <v>3</v>
       </c>
       <c r="I154" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J154">
         <v>1.153</v>
@@ -13789,16 +13783,16 @@
         <v>6780499</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D155" s="2">
         <v>45257.52083333334</v>
       </c>
       <c r="E155" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13807,7 +13801,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J155">
         <v>6</v>
@@ -13875,16 +13869,16 @@
         <v>7497758</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D156" s="2">
         <v>45261.41666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13893,7 +13887,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J156">
         <v>1.95</v>
@@ -13961,16 +13955,16 @@
         <v>7497754</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D157" s="2">
         <v>45261.52083333334</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13979,7 +13973,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J157">
         <v>6</v>
@@ -14047,13 +14041,13 @@
         <v>7497757</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D158" s="2">
         <v>45262.3125</v>
       </c>
       <c r="E158" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F158" t="s">
         <v>42</v>
@@ -14065,7 +14059,7 @@
         <v>3</v>
       </c>
       <c r="I158" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J158">
         <v>4.5</v>
@@ -14133,16 +14127,16 @@
         <v>7497755</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D159" s="2">
         <v>45262.41666666666</v>
       </c>
       <c r="E159" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14151,7 +14145,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J159">
         <v>5</v>
@@ -14219,16 +14213,16 @@
         <v>7497760</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D160" s="2">
         <v>45262.52083333334</v>
       </c>
       <c r="E160" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14237,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J160">
         <v>1.727</v>
@@ -14305,16 +14299,16 @@
         <v>7497759</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D161" s="2">
         <v>45263.32291666666</v>
       </c>
       <c r="E161" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14323,7 +14317,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14391,16 +14385,16 @@
         <v>7497753</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D162" s="2">
         <v>45263.42708333334</v>
       </c>
       <c r="E162" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F162" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G162">
         <v>5</v>
@@ -14409,7 +14403,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J162">
         <v>1.062</v>
@@ -14477,16 +14471,16 @@
         <v>7497756</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D163" s="2">
         <v>45263.53125</v>
       </c>
       <c r="E163" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F163" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14495,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J163">
         <v>2.4</v>
@@ -14563,16 +14557,16 @@
         <v>6824193</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D164" s="2">
         <v>45269.3125</v>
       </c>
       <c r="E164" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14581,7 +14575,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J164">
         <v>3.75</v>
@@ -14649,16 +14643,16 @@
         <v>6824195</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D165" s="2">
         <v>45269.41666666666</v>
       </c>
       <c r="E165" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -14667,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J165">
         <v>1.615</v>
@@ -14735,16 +14729,16 @@
         <v>6780501</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D166" s="2">
         <v>45269.52083333334</v>
       </c>
       <c r="E166" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14753,7 +14747,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J166">
         <v>7.5</v>
@@ -14821,7 +14815,7 @@
         <v>6826701</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D167" s="2">
         <v>45270.3125</v>
@@ -14830,7 +14824,7 @@
         <v>42</v>
       </c>
       <c r="F167" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -14839,7 +14833,7 @@
         <v>3</v>
       </c>
       <c r="I167" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J167">
         <v>1.333</v>
@@ -14907,16 +14901,16 @@
         <v>6791843</v>
       </c>
       <c r="C168" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D168" s="2">
         <v>45270.41666666666</v>
       </c>
       <c r="E168" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14925,7 +14919,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J168">
         <v>1.533</v>
@@ -14993,16 +14987,16 @@
         <v>6824196</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D169" s="2">
         <v>45270.53125</v>
       </c>
       <c r="E169" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15011,7 +15005,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J169">
         <v>2.8</v>
@@ -15079,16 +15073,16 @@
         <v>6822382</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D170" s="2">
         <v>45271.41666666666</v>
       </c>
       <c r="E170" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F170" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15097,7 +15091,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J170">
         <v>1.363</v>
@@ -15165,16 +15159,16 @@
         <v>6824194</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D171" s="2">
         <v>45271.52083333334</v>
       </c>
       <c r="E171" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15183,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J171">
         <v>1.615</v>
@@ -15251,7 +15245,7 @@
         <v>7524523</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D172" s="2">
         <v>45274.52083333334</v>
@@ -15260,7 +15254,7 @@
         <v>42</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15269,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J172">
         <v>1.85</v>
@@ -15337,16 +15331,16 @@
         <v>7626379</v>
       </c>
       <c r="C173" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D173" s="2">
         <v>45338.52083333334</v>
       </c>
       <c r="E173" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15355,7 +15349,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J173">
         <v>2.4</v>
@@ -15423,16 +15417,16 @@
         <v>7626378</v>
       </c>
       <c r="C174" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D174" s="2">
         <v>45339.29166666666</v>
       </c>
       <c r="E174" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15441,7 +15435,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J174">
         <v>5.25</v>
@@ -15509,16 +15503,16 @@
         <v>7626376</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D175" s="2">
         <v>45339.39583333334</v>
       </c>
       <c r="E175" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15527,7 +15521,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J175">
         <v>1.8</v>
@@ -15595,16 +15589,16 @@
         <v>7626381</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D176" s="2">
         <v>45339.5</v>
       </c>
       <c r="E176" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15613,7 +15607,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J176">
         <v>5.75</v>
@@ -15681,13 +15675,13 @@
         <v>7626377</v>
       </c>
       <c r="C177" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D177" s="2">
         <v>45340.32291666666</v>
       </c>
       <c r="E177" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F177" t="s">
         <v>42</v>
@@ -15699,7 +15693,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J177">
         <v>5.5</v>
@@ -15767,16 +15761,16 @@
         <v>7626380</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D178" s="2">
         <v>45340.42708333334</v>
       </c>
       <c r="E178" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15785,7 +15779,7 @@
         <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J178">
         <v>2.5</v>
@@ -15853,16 +15847,16 @@
         <v>7626374</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D179" s="2">
         <v>45340.53125</v>
       </c>
       <c r="E179" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F179" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G179">
         <v>3</v>
@@ -15871,7 +15865,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J179">
         <v>1.083</v>
@@ -15939,16 +15933,16 @@
         <v>7626375</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D180" s="2">
         <v>45341.45833333334</v>
       </c>
       <c r="E180" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G180">
         <v>3</v>
@@ -15957,7 +15951,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J180">
         <v>1.533</v>
@@ -16025,16 +16019,16 @@
         <v>6978402</v>
       </c>
       <c r="C181" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D181" s="2">
         <v>45345.41666666666</v>
       </c>
       <c r="E181" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F181" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16043,7 +16037,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J181">
         <v>1.909</v>
@@ -16111,16 +16105,16 @@
         <v>6978405</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D182" s="2">
         <v>45345.52083333334</v>
       </c>
       <c r="E182" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F182" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16129,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J182">
         <v>1.285</v>
@@ -16197,16 +16191,16 @@
         <v>6978383</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D183" s="2">
         <v>45346.32291666666</v>
       </c>
       <c r="E183" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16215,7 +16209,7 @@
         <v>2</v>
       </c>
       <c r="I183" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J183">
         <v>1.444</v>
@@ -16283,16 +16277,16 @@
         <v>6978408</v>
       </c>
       <c r="C184" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D184" s="2">
         <v>45346.42708333334</v>
       </c>
       <c r="E184" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16301,7 +16295,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J184">
         <v>3.2</v>
@@ -16369,16 +16363,16 @@
         <v>6978403</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D185" s="2">
         <v>45346.53125</v>
       </c>
       <c r="E185" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G185">
         <v>4</v>
@@ -16387,7 +16381,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J185">
         <v>1.444</v>
@@ -16455,16 +16449,16 @@
         <v>6978404</v>
       </c>
       <c r="C186" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D186" s="2">
         <v>45347.39583333334</v>
       </c>
       <c r="E186" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F186" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16473,7 +16467,7 @@
         <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J186">
         <v>2.2</v>
@@ -16541,7 +16535,7 @@
         <v>6978406</v>
       </c>
       <c r="C187" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D187" s="2">
         <v>45347.48958333334</v>
@@ -16550,7 +16544,7 @@
         <v>42</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16559,7 +16553,7 @@
         <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J187">
         <v>1.6</v>
@@ -16627,16 +16621,16 @@
         <v>6978407</v>
       </c>
       <c r="C188" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D188" s="2">
         <v>45348.52083333334</v>
       </c>
       <c r="E188" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16645,7 +16639,7 @@
         <v>2</v>
       </c>
       <c r="I188" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J188">
         <v>13</v>
@@ -16713,16 +16707,16 @@
         <v>6978409</v>
       </c>
       <c r="C189" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D189" s="2">
         <v>45352.52083333334</v>
       </c>
       <c r="E189" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F189" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -16731,7 +16725,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J189">
         <v>1.3</v>
@@ -16799,16 +16793,16 @@
         <v>6978413</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D190" s="2">
         <v>45353.32291666666</v>
       </c>
       <c r="E190" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16817,7 +16811,7 @@
         <v>2</v>
       </c>
       <c r="I190" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J190">
         <v>2.55</v>
@@ -16885,16 +16879,16 @@
         <v>6978414</v>
       </c>
       <c r="C191" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D191" s="2">
         <v>45353.42708333334</v>
       </c>
       <c r="E191" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G191">
         <v>3</v>
@@ -16903,7 +16897,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J191">
         <v>3.1</v>
@@ -16971,16 +16965,16 @@
         <v>6978412</v>
       </c>
       <c r="C192" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D192" s="2">
         <v>45353.53125</v>
       </c>
       <c r="E192" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16989,7 +16983,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J192">
         <v>2.4</v>
@@ -17057,16 +17051,16 @@
         <v>6978410</v>
       </c>
       <c r="C193" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D193" s="2">
         <v>45354.39583333334</v>
       </c>
       <c r="E193" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F193" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G193">
         <v>3</v>
@@ -17075,7 +17069,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J193">
         <v>1.222</v>
@@ -17143,13 +17137,13 @@
         <v>6978411</v>
       </c>
       <c r="C194" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D194" s="2">
         <v>45354.5</v>
       </c>
       <c r="E194" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F194" t="s">
         <v>42</v>
@@ -17161,7 +17155,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J194">
         <v>1.4</v>
@@ -17229,16 +17223,16 @@
         <v>6978415</v>
       </c>
       <c r="C195" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D195" s="2">
         <v>45355.41666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F195" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -17247,7 +17241,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J195">
         <v>1.4</v>
@@ -17315,16 +17309,16 @@
         <v>6978384</v>
       </c>
       <c r="C196" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D196" s="2">
         <v>45355.52083333334</v>
       </c>
       <c r="E196" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -17333,7 +17327,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J196">
         <v>7</v>
@@ -17401,16 +17395,16 @@
         <v>6978418</v>
       </c>
       <c r="C197" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D197" s="2">
         <v>45359.5625</v>
       </c>
       <c r="E197" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F197" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -17419,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J197">
         <v>1.4</v>
@@ -17487,16 +17481,16 @@
         <v>6978419</v>
       </c>
       <c r="C198" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D198" s="2">
         <v>45360.3125</v>
       </c>
       <c r="E198" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F198" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17505,7 +17499,7 @@
         <v>2</v>
       </c>
       <c r="I198" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J198">
         <v>2.35</v>
@@ -17573,7 +17567,7 @@
         <v>6978421</v>
       </c>
       <c r="C199" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D199" s="2">
         <v>45360.41666666666</v>
@@ -17582,7 +17576,7 @@
         <v>42</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -17591,7 +17585,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J199">
         <v>2.7</v>
@@ -17659,25 +17653,25 @@
         <v>6978422</v>
       </c>
       <c r="C200" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D200" s="2">
         <v>45360.52083333334</v>
       </c>
       <c r="E200" t="s">
+        <v>47</v>
+      </c>
+      <c r="F200" t="s">
+        <v>41</v>
+      </c>
+      <c r="G200">
+        <v>2</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200" t="s">
         <v>49</v>
-      </c>
-      <c r="F200" t="s">
-        <v>43</v>
-      </c>
-      <c r="G200">
-        <v>2</v>
-      </c>
-      <c r="H200">
-        <v>0</v>
-      </c>
-      <c r="I200" t="s">
-        <v>51</v>
       </c>
       <c r="J200">
         <v>4.8</v>
@@ -17745,16 +17739,16 @@
         <v>6978416</v>
       </c>
       <c r="C201" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D201" s="2">
         <v>45361.32291666666</v>
       </c>
       <c r="E201" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F201" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17763,7 +17757,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J201">
         <v>5</v>
@@ -17831,17 +17825,17 @@
         <v>6978417</v>
       </c>
       <c r="C202" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D202" s="2">
         <v>45361.42708333334</v>
       </c>
       <c r="E202" t="s">
+        <v>40</v>
+      </c>
+      <c r="F202" t="s">
         <v>44</v>
       </c>
-      <c r="F202" t="s">
-        <v>46</v>
-      </c>
       <c r="G202">
         <v>0</v>
       </c>
@@ -17849,7 +17843,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J202">
         <v>1.4</v>
@@ -17917,16 +17911,16 @@
         <v>6978420</v>
       </c>
       <c r="C203" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D203" s="2">
         <v>45361.53125</v>
       </c>
       <c r="E203" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F203" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -17935,7 +17929,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J203">
         <v>5.25</v>
@@ -18003,16 +17997,16 @@
         <v>6978385</v>
       </c>
       <c r="C204" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D204" s="2">
         <v>45362.52083333334</v>
       </c>
       <c r="E204" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -18021,7 +18015,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J204">
         <v>2.45</v>
@@ -18089,16 +18083,16 @@
         <v>6978423</v>
       </c>
       <c r="C205" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D205" s="2">
         <v>45366.46875</v>
       </c>
       <c r="E205" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F205" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18107,7 +18101,7 @@
         <v>2</v>
       </c>
       <c r="I205" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J205">
         <v>1.85</v>
@@ -18175,13 +18169,13 @@
         <v>6978424</v>
       </c>
       <c r="C206" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D206" s="2">
         <v>45366.57291666666</v>
       </c>
       <c r="E206" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F206" t="s">
         <v>42</v>
@@ -18193,7 +18187,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J206">
         <v>1.6</v>
@@ -18261,16 +18255,16 @@
         <v>6978427</v>
       </c>
       <c r="C207" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D207" s="2">
         <v>45367.32291666666</v>
       </c>
       <c r="E207" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -18279,7 +18273,7 @@
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J207">
         <v>2.15</v>
@@ -18347,16 +18341,16 @@
         <v>6978428</v>
       </c>
       <c r="C208" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D208" s="2">
         <v>45367.42708333334</v>
       </c>
       <c r="E208" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F208" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18365,7 +18359,7 @@
         <v>3</v>
       </c>
       <c r="I208" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J208">
         <v>9.5</v>
@@ -18433,16 +18427,16 @@
         <v>6978426</v>
       </c>
       <c r="C209" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D209" s="2">
         <v>45367.53125</v>
       </c>
       <c r="E209" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G209">
         <v>6</v>
@@ -18451,7 +18445,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J209">
         <v>1.083</v>
@@ -18519,16 +18513,16 @@
         <v>6978429</v>
       </c>
       <c r="C210" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D210" s="2">
         <v>45368.32291666666</v>
       </c>
       <c r="E210" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F210" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -18537,7 +18531,7 @@
         <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J210">
         <v>1.727</v>
@@ -18605,16 +18599,16 @@
         <v>6978386</v>
       </c>
       <c r="C211" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D211" s="2">
         <v>45368.42708333334</v>
       </c>
       <c r="E211" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18623,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J211">
         <v>3.25</v>
@@ -18691,16 +18685,16 @@
         <v>6978425</v>
       </c>
       <c r="C212" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D212" s="2">
         <v>45368.53125</v>
       </c>
       <c r="E212" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F212" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G212">
         <v>4</v>
@@ -18709,7 +18703,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J212">
         <v>1.6</v>
@@ -18777,16 +18771,16 @@
         <v>7973582</v>
       </c>
       <c r="C213" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D213" s="2">
         <v>45380.375</v>
       </c>
       <c r="E213" t="s">
+        <v>43</v>
+      </c>
+      <c r="F213" t="s">
         <v>45</v>
-      </c>
-      <c r="F213" t="s">
-        <v>47</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -18795,7 +18789,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J213">
         <v>1.909</v>
@@ -18863,16 +18857,16 @@
         <v>7973583</v>
       </c>
       <c r="C214" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D214" s="2">
         <v>45380.47916666666</v>
       </c>
       <c r="E214" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -18881,7 +18875,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J214">
         <v>1.833</v>
@@ -18949,16 +18943,16 @@
         <v>7973584</v>
       </c>
       <c r="C215" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D215" s="2">
         <v>45380.58333333334</v>
       </c>
       <c r="E215" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18967,7 +18961,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J215">
         <v>1.444</v>
@@ -19035,16 +19029,16 @@
         <v>7973585</v>
       </c>
       <c r="C216" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D216" s="2">
         <v>45381.375</v>
       </c>
       <c r="E216" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F216" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G216">
         <v>3</v>
@@ -19053,7 +19047,7 @@
         <v>2</v>
       </c>
       <c r="I216" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J216">
         <v>2.4</v>
@@ -19121,16 +19115,16 @@
         <v>7973586</v>
       </c>
       <c r="C217" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D217" s="2">
         <v>45381.47916666666</v>
       </c>
       <c r="E217" t="s">
+        <v>34</v>
+      </c>
+      <c r="F217" t="s">
         <v>36</v>
-      </c>
-      <c r="F217" t="s">
-        <v>38</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -19139,7 +19133,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J217">
         <v>5.25</v>
@@ -19207,16 +19201,16 @@
         <v>6978434</v>
       </c>
       <c r="C218" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D218" s="2">
         <v>45381.58333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F218" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -19225,7 +19219,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J218">
         <v>7.5</v>
@@ -19293,16 +19287,16 @@
         <v>7973587</v>
       </c>
       <c r="C219" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D219" s="2">
         <v>45382.4375</v>
       </c>
       <c r="E219" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F219" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -19311,7 +19305,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J219">
         <v>2.5</v>
@@ -19379,7 +19373,7 @@
         <v>7973588</v>
       </c>
       <c r="C220" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D220" s="2">
         <v>45382.54166666666</v>
@@ -19388,7 +19382,7 @@
         <v>42</v>
       </c>
       <c r="F220" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19397,7 +19391,7 @@
         <v>1</v>
       </c>
       <c r="I220" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J220">
         <v>1.615</v>
@@ -19465,16 +19459,16 @@
         <v>6978445</v>
       </c>
       <c r="C221" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D221" s="2">
         <v>45384.45833333334</v>
       </c>
       <c r="E221" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19483,7 +19477,7 @@
         <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J221">
         <v>4.5</v>
@@ -19551,16 +19545,16 @@
         <v>6978444</v>
       </c>
       <c r="C222" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D222" s="2">
         <v>45384.5625</v>
       </c>
       <c r="E222" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F222" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19569,7 +19563,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J222">
         <v>1.571</v>
@@ -19637,16 +19631,16 @@
         <v>6978389</v>
       </c>
       <c r="C223" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D223" s="2">
         <v>45385.35416666666</v>
       </c>
       <c r="E223" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G223">
         <v>3</v>
@@ -19655,7 +19649,7 @@
         <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J223">
         <v>1.909</v>
@@ -19723,16 +19717,16 @@
         <v>6978442</v>
       </c>
       <c r="C224" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D224" s="2">
         <v>45385.45833333334</v>
       </c>
       <c r="E224" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19741,7 +19735,7 @@
         <v>2</v>
       </c>
       <c r="I224" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J224">
         <v>1.45</v>
@@ -19809,16 +19803,16 @@
         <v>6978443</v>
       </c>
       <c r="C225" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D225" s="2">
         <v>45385.5625</v>
       </c>
       <c r="E225" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F225" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G225">
         <v>5</v>
@@ -19827,7 +19821,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>51</v>
+        <v>49</v>
    